--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cost22</t>
+          <t>latest_reported_idrc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cost23</t>
+          <t>additional_cost_2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cost24</t>
+          <t>additional_cost_2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>additional_cost_2024</t>
         </is>
       </c>
     </row>
@@ -472,12 +477,15 @@
         <v>93579</v>
       </c>
       <c r="C2" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="D2" t="n">
         <v>129797392.8333333</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>94061333.59999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>468852.3666666665</v>
       </c>
     </row>
@@ -491,12 +499,15 @@
         <v>68304</v>
       </c>
       <c r="C3" t="n">
+        <v>250.67</v>
+      </c>
+      <c r="D3" t="n">
         <v>396528274.1166667</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>319975671.5333334</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2320519.949999999</v>
       </c>
     </row>
@@ -510,12 +521,15 @@
         <v>492391</v>
       </c>
       <c r="C4" t="n">
+        <v>463.6</v>
+      </c>
+      <c r="D4" t="n">
         <v>926834896.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4918043229.6</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -529,12 +543,15 @@
         <v>80773</v>
       </c>
       <c r="C5" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="D5" t="n">
         <v>1027898810.875</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>889155661.75</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6594908.874999998</v>
       </c>
     </row>
@@ -548,12 +565,15 @@
         <v>490802</v>
       </c>
       <c r="C6" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D6" t="n">
         <v>1450143541</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1015440861</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5112865.999999998</v>
       </c>
     </row>
@@ -567,12 +587,15 @@
         <v>1055323</v>
       </c>
       <c r="C7" t="n">
+        <v>2732.06</v>
+      </c>
+      <c r="D7" t="n">
         <v>8706475641.508333</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>7289371666.391666</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,12 +609,15 @@
         <v>39756</v>
       </c>
       <c r="C8" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D8" t="n">
         <v>467799205.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>335415116.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,12 +631,15 @@
         <v>167726</v>
       </c>
       <c r="C9" t="n">
+        <v>232.08</v>
+      </c>
+      <c r="D9" t="n">
         <v>305259586.75</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>229639779.95</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1790288.099999999</v>
       </c>
     </row>
@@ -624,12 +653,15 @@
         <v>47111</v>
       </c>
       <c r="C10" t="n">
+        <v>68.77</v>
+      </c>
+      <c r="D10" t="n">
         <v>426114124.325</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>402723831.975</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,12 +675,15 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
+        <v>1156.48</v>
+      </c>
+      <c r="D11" t="n">
         <v>467716196.575</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>327532604.825</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -662,12 +697,15 @@
         <v>162700</v>
       </c>
       <c r="C12" t="n">
+        <v>1447.37</v>
+      </c>
+      <c r="D12" t="n">
         <v>1454658669.166667</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1367324020.833333</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>10445340</v>
       </c>
     </row>
@@ -681,12 +719,15 @@
         <v>20955</v>
       </c>
       <c r="C13" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="D13" t="n">
         <v>12354824.99166667</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>10211614.50833333</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,12 +741,15 @@
         <v>34248</v>
       </c>
       <c r="C14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D14" t="n">
         <v>142191881</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>105471180.2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>484247.5999999999</v>
       </c>
     </row>
@@ -719,12 +763,15 @@
         <v>75260</v>
       </c>
       <c r="C15" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="D15" t="n">
         <v>437023707.1666666</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>524745761.1666666</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>4418411.666666665</v>
       </c>
     </row>
@@ -738,12 +785,15 @@
         <v>2239</v>
       </c>
       <c r="C16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D16" t="n">
         <v>6001454.1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>6840778.199999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,12 +807,15 @@
         <v>175143</v>
       </c>
       <c r="C17" t="n">
+        <v>556.1</v>
+      </c>
+      <c r="D17" t="n">
         <v>1465441727.583333</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1164312903.116667</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,12 +829,15 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D18" t="n">
         <v>23772.5</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>22487.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,13 +850,14 @@
       <c r="B19" t="n">
         <v>6756</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
         <v>556804.9666666667</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>327555.4333333333</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,12 +871,15 @@
         <v>89730</v>
       </c>
       <c r="C20" t="n">
+        <v>407.65</v>
+      </c>
+      <c r="D20" t="n">
         <v>1196589472</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>937811472</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>8997511.999999996</v>
       </c>
     </row>
@@ -833,12 +893,15 @@
         <v>39931</v>
       </c>
       <c r="C21" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="D21" t="n">
         <v>388583552.2500001</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>473907827.7</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>5444842.949999998</v>
       </c>
     </row>
@@ -852,12 +915,15 @@
         <v>4000</v>
       </c>
       <c r="C22" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D22" t="n">
         <v>76276333.33333334</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>15255266.66666666</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,12 +937,15 @@
         <v>1563386</v>
       </c>
       <c r="C23" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="D23" t="n">
         <v>1623782777.65</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>1144817489.75</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,12 +959,15 @@
         <v>58043</v>
       </c>
       <c r="C24" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D24" t="n">
         <v>219824366.3</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>154601379.35</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>613294.5499999997</v>
       </c>
     </row>
@@ -909,12 +981,15 @@
         <v>109828</v>
       </c>
       <c r="C25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D25" t="n">
         <v>231189205.125</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>179747100.875</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1281126.4</v>
       </c>
     </row>
@@ -928,12 +1003,15 @@
         <v>9081</v>
       </c>
       <c r="C26" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D26" t="n">
         <v>3394028.733333333</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>2579453.066666666</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,12 +1025,15 @@
         <v>50740</v>
       </c>
       <c r="C27" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="D27" t="n">
         <v>268969632.75</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>180076659.75</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>154927.4999999999</v>
       </c>
     </row>
@@ -966,12 +1047,15 @@
         <v>85000</v>
       </c>
       <c r="C28" t="n">
+        <v>4745.18</v>
+      </c>
+      <c r="D28" t="n">
         <v>485675433.3333333</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>345514066.6666667</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -477,7 +477,7 @@
         <v>93579</v>
       </c>
       <c r="C2" t="n">
-        <v>63.12</v>
+        <v>63120000</v>
       </c>
       <c r="D2" t="n">
         <v>129797392.8333333</v>
@@ -499,7 +499,7 @@
         <v>68304</v>
       </c>
       <c r="C3" t="n">
-        <v>250.67</v>
+        <v>250670000</v>
       </c>
       <c r="D3" t="n">
         <v>396528274.1166667</v>
@@ -521,7 +521,7 @@
         <v>492391</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6</v>
+        <v>463600000</v>
       </c>
       <c r="D4" t="n">
         <v>926834896.8</v>
@@ -543,7 +543,7 @@
         <v>80773</v>
       </c>
       <c r="C5" t="n">
-        <v>368.35</v>
+        <v>368350000</v>
       </c>
       <c r="D5" t="n">
         <v>1027898810.875</v>
@@ -565,7 +565,7 @@
         <v>490802</v>
       </c>
       <c r="C6" t="n">
-        <v>6.42</v>
+        <v>6420000</v>
       </c>
       <c r="D6" t="n">
         <v>1450143541</v>
@@ -587,7 +587,7 @@
         <v>1055323</v>
       </c>
       <c r="C7" t="n">
-        <v>2732.06</v>
+        <v>2732060000</v>
       </c>
       <c r="D7" t="n">
         <v>8706475641.508333</v>
@@ -609,7 +609,7 @@
         <v>39756</v>
       </c>
       <c r="C8" t="n">
-        <v>63.2</v>
+        <v>63200000</v>
       </c>
       <c r="D8" t="n">
         <v>467799205.3</v>
@@ -631,7 +631,7 @@
         <v>167726</v>
       </c>
       <c r="C9" t="n">
-        <v>232.08</v>
+        <v>232080000</v>
       </c>
       <c r="D9" t="n">
         <v>305259586.75</v>
@@ -653,7 +653,7 @@
         <v>47111</v>
       </c>
       <c r="C10" t="n">
-        <v>68.77</v>
+        <v>68770000</v>
       </c>
       <c r="D10" t="n">
         <v>426114124.325</v>
@@ -675,7 +675,7 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
-        <v>1156.48</v>
+        <v>1156480000</v>
       </c>
       <c r="D11" t="n">
         <v>467716196.575</v>
@@ -697,7 +697,7 @@
         <v>162700</v>
       </c>
       <c r="C12" t="n">
-        <v>1447.37</v>
+        <v>1447370000</v>
       </c>
       <c r="D12" t="n">
         <v>1454658669.166667</v>
@@ -719,7 +719,7 @@
         <v>20955</v>
       </c>
       <c r="C13" t="n">
-        <v>36.55</v>
+        <v>36550000</v>
       </c>
       <c r="D13" t="n">
         <v>12354824.99166667</v>
@@ -741,7 +741,7 @@
         <v>34248</v>
       </c>
       <c r="C14" t="n">
-        <v>1.38</v>
+        <v>1380000</v>
       </c>
       <c r="D14" t="n">
         <v>142191881</v>
@@ -763,7 +763,7 @@
         <v>75260</v>
       </c>
       <c r="C15" t="n">
-        <v>50.29</v>
+        <v>50290000</v>
       </c>
       <c r="D15" t="n">
         <v>437023707.1666666</v>
@@ -785,7 +785,7 @@
         <v>2239</v>
       </c>
       <c r="C16" t="n">
-        <v>4.33</v>
+        <v>4330000</v>
       </c>
       <c r="D16" t="n">
         <v>6001454.1</v>
@@ -807,7 +807,7 @@
         <v>175143</v>
       </c>
       <c r="C17" t="n">
-        <v>556.1</v>
+        <v>556100000</v>
       </c>
       <c r="D17" t="n">
         <v>1465441727.583333</v>
@@ -829,7 +829,7 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27</v>
+        <v>270000</v>
       </c>
       <c r="D18" t="n">
         <v>23772.5</v>
@@ -871,7 +871,7 @@
         <v>89730</v>
       </c>
       <c r="C20" t="n">
-        <v>407.65</v>
+        <v>407650000</v>
       </c>
       <c r="D20" t="n">
         <v>1196589472</v>
@@ -893,7 +893,7 @@
         <v>39931</v>
       </c>
       <c r="C21" t="n">
-        <v>52.25</v>
+        <v>52250000</v>
       </c>
       <c r="D21" t="n">
         <v>388583552.2500001</v>
@@ -915,7 +915,7 @@
         <v>4000</v>
       </c>
       <c r="C22" t="n">
-        <v>11.67</v>
+        <v>11670000</v>
       </c>
       <c r="D22" t="n">
         <v>76276333.33333334</v>
@@ -937,7 +937,7 @@
         <v>1563386</v>
       </c>
       <c r="C23" t="n">
-        <v>16.88</v>
+        <v>16880000</v>
       </c>
       <c r="D23" t="n">
         <v>1623782777.65</v>
@@ -959,7 +959,7 @@
         <v>58043</v>
       </c>
       <c r="C24" t="n">
-        <v>10.08</v>
+        <v>10080000</v>
       </c>
       <c r="D24" t="n">
         <v>219824366.3</v>
@@ -981,7 +981,7 @@
         <v>109828</v>
       </c>
       <c r="C25" t="n">
-        <v>1.21</v>
+        <v>1210000</v>
       </c>
       <c r="D25" t="n">
         <v>231189205.125</v>
@@ -1003,7 +1003,7 @@
         <v>9081</v>
       </c>
       <c r="C26" t="n">
-        <v>2.33</v>
+        <v>2330000</v>
       </c>
       <c r="D26" t="n">
         <v>3394028.733333333</v>
@@ -1025,7 +1025,7 @@
         <v>50740</v>
       </c>
       <c r="C27" t="n">
-        <v>87.91</v>
+        <v>87910000</v>
       </c>
       <c r="D27" t="n">
         <v>268969632.75</v>
@@ -1047,7 +1047,7 @@
         <v>85000</v>
       </c>
       <c r="C28" t="n">
-        <v>4745.18</v>
+        <v>4745180000</v>
       </c>
       <c r="D28" t="n">
         <v>485675433.3333333</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68304</v>
+        <v>68616</v>
       </c>
       <c r="C3" t="n">
         <v>250670000</v>
@@ -505,10 +505,10 @@
         <v>396528274.1166667</v>
       </c>
       <c r="E3" t="n">
-        <v>319975671.5333334</v>
+        <v>322985506.9333333</v>
       </c>
       <c r="F3" t="n">
-        <v>2320519.949999999</v>
+        <v>2594141.349999999</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80773</v>
+        <v>81436</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>889155661.75</v>
+        <v>903629531.875</v>
       </c>
       <c r="F5" t="n">
-        <v>6594908.874999998</v>
+        <v>7910715.249999996</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490802</v>
+        <v>494793</v>
       </c>
       <c r="C6" t="n">
         <v>6420000</v>
@@ -571,10 +571,10 @@
         <v>1450143541</v>
       </c>
       <c r="E6" t="n">
-        <v>1015440861</v>
+        <v>1033857330.5</v>
       </c>
       <c r="F6" t="n">
-        <v>5112865.999999998</v>
+        <v>6787090.499999998</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39756</v>
+        <v>40874</v>
       </c>
       <c r="C8" t="n">
         <v>63200000</v>
@@ -615,10 +615,10 @@
         <v>467799205.3</v>
       </c>
       <c r="E8" t="n">
-        <v>335415116.3</v>
+        <v>355659123.4999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2343617.599999999</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167726</v>
+        <v>168654</v>
       </c>
       <c r="C9" t="n">
         <v>232080000</v>
@@ -637,10 +637,10 @@
         <v>305259586.75</v>
       </c>
       <c r="E9" t="n">
-        <v>229639779.95</v>
+        <v>232361743.15</v>
       </c>
       <c r="F9" t="n">
-        <v>1790288.099999999</v>
+        <v>2037739.299999999</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>162700</v>
+        <v>163500</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1367324020.833333</v>
+        <v>1380090547.5</v>
       </c>
       <c r="F12" t="n">
-        <v>10445340</v>
+        <v>11605933.33333333</v>
       </c>
     </row>
     <row r="13">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175143</v>
+        <v>177045</v>
       </c>
       <c r="C17" t="n">
         <v>556100000</v>
@@ -813,10 +813,10 @@
         <v>1465441727.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1164312903.116667</v>
+        <v>1188099007.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4772235.716666665</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39931</v>
+        <v>41519</v>
       </c>
       <c r="C21" t="n">
         <v>52250000</v>
@@ -899,10 +899,10 @@
         <v>388583552.2500001</v>
       </c>
       <c r="E21" t="n">
-        <v>473907827.7</v>
+        <v>505548052.8000001</v>
       </c>
       <c r="F21" t="n">
-        <v>5444842.949999998</v>
+        <v>8321227.049999998</v>
       </c>
     </row>
     <row r="22">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58043</v>
+        <v>58242</v>
       </c>
       <c r="C24" t="n">
         <v>10080000</v>
@@ -965,10 +965,10 @@
         <v>219824366.3</v>
       </c>
       <c r="E24" t="n">
-        <v>154601379.35</v>
+        <v>155780046.4</v>
       </c>
       <c r="F24" t="n">
-        <v>613294.5499999997</v>
+        <v>720446.0999999996</v>
       </c>
     </row>
     <row r="25">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109828</v>
+        <v>110444</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>179747100.875</v>
+        <v>181866464.275</v>
       </c>
       <c r="F25" t="n">
-        <v>1281126.4</v>
+        <v>1473795.8</v>
       </c>
     </row>
     <row r="26">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50740</v>
+        <v>52325</v>
       </c>
       <c r="C27" t="n">
         <v>87910000</v>
@@ -1031,10 +1031,10 @@
         <v>268969632.75</v>
       </c>
       <c r="E27" t="n">
-        <v>180076659.75</v>
+        <v>192939331</v>
       </c>
       <c r="F27" t="n">
-        <v>154927.4999999999</v>
+        <v>1324261.25</v>
       </c>
     </row>
     <row r="28">
@@ -1381,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68304</v>
+        <v>68616</v>
       </c>
       <c r="D17" t="n">
-        <v>2646</v>
+        <v>2958</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>80773</v>
+        <v>81436</v>
       </c>
       <c r="D25" t="n">
-        <v>3323</v>
+        <v>3986</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>490802</v>
+        <v>494793</v>
       </c>
       <c r="D33" t="n">
-        <v>12188</v>
+        <v>16179</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39756</v>
+        <v>39221</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>-261</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2671,28 +2671,28 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>131771</v>
+        <v>40613</v>
       </c>
       <c r="D48" t="n">
-        <v>131771</v>
+        <v>1392</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -2703,20 +2703,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>139116</v>
+        <v>131771</v>
       </c>
       <c r="D49" t="n">
-        <v>7345</v>
+        <v>131771</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2730,20 +2730,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>144668</v>
+        <v>139116</v>
       </c>
       <c r="D50" t="n">
-        <v>5552</v>
+        <v>7345</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>149213</v>
+        <v>144668</v>
       </c>
       <c r="D51" t="n">
-        <v>4545</v>
+        <v>5552</v>
       </c>
       <c r="E51" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F51" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2784,20 +2784,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>155473</v>
+        <v>149213</v>
       </c>
       <c r="D52" t="n">
-        <v>6260</v>
+        <v>4545</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2811,20 +2811,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>161012</v>
+        <v>155473</v>
       </c>
       <c r="D53" t="n">
-        <v>5539</v>
+        <v>6260</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2838,50 +2838,50 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>167726</v>
+        <v>161012</v>
       </c>
       <c r="D54" t="n">
-        <v>6714</v>
+        <v>5539</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F54" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30372</v>
+        <v>168654</v>
       </c>
       <c r="D55" t="n">
-        <v>30372</v>
+        <v>7642</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -2892,20 +2892,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36652</v>
+        <v>30372</v>
       </c>
       <c r="D56" t="n">
-        <v>6280</v>
+        <v>30372</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2919,20 +2919,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38588</v>
+        <v>36652</v>
       </c>
       <c r="D57" t="n">
-        <v>1936</v>
+        <v>6280</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>38588</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="E58" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F58" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>47111</v>
+        <v>38588</v>
       </c>
       <c r="D60" t="n">
-        <v>8523</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3027,20 +3027,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>47067</v>
+        <v>47111</v>
       </c>
       <c r="D61" t="n">
-        <v>-44</v>
+        <v>8523</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3054,50 +3054,50 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>47067</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>92156</v>
+        <v>47067</v>
       </c>
       <c r="D63" t="n">
-        <v>92156</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -3108,20 +3108,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>101369</v>
+        <v>92156</v>
       </c>
       <c r="D64" t="n">
-        <v>9213</v>
+        <v>92156</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3135,20 +3135,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>105000</v>
+        <v>101369</v>
       </c>
       <c r="D65" t="n">
-        <v>3631</v>
+        <v>9213</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3162,20 +3162,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>118994</v>
+        <v>105000</v>
       </c>
       <c r="D66" t="n">
-        <v>13994</v>
+        <v>3631</v>
       </c>
       <c r="E66" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>104000</v>
+        <v>118994</v>
       </c>
       <c r="D67" t="n">
-        <v>104000</v>
+        <v>13994</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3216,20 +3216,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>120600</v>
+        <v>104000</v>
       </c>
       <c r="D68" t="n">
-        <v>16600</v>
+        <v>104000</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3243,20 +3243,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>131700</v>
+        <v>120600</v>
       </c>
       <c r="D69" t="n">
-        <v>11100</v>
+        <v>16600</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3270,20 +3270,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>138400</v>
+        <v>131700</v>
       </c>
       <c r="D70" t="n">
-        <v>6700</v>
+        <v>11100</v>
       </c>
       <c r="E70" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F70" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3297,20 +3297,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>147800</v>
+        <v>138400</v>
       </c>
       <c r="D71" t="n">
-        <v>9400</v>
+        <v>6700</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3324,20 +3324,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>152200</v>
+        <v>147800</v>
       </c>
       <c r="D72" t="n">
-        <v>4400</v>
+        <v>9400</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3351,20 +3351,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>155500</v>
+        <v>152200</v>
       </c>
       <c r="D73" t="n">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3378,50 +3378,50 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>162700</v>
+        <v>155500</v>
       </c>
       <c r="D74" t="n">
-        <v>7200</v>
+        <v>3300</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15565</v>
+        <v>163500</v>
       </c>
       <c r="D75" t="n">
-        <v>15565</v>
+        <v>8000</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -3432,20 +3432,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18043</v>
+        <v>15565</v>
       </c>
       <c r="D76" t="n">
-        <v>2478</v>
+        <v>15565</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3459,20 +3459,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18745</v>
+        <v>18043</v>
       </c>
       <c r="D77" t="n">
-        <v>702</v>
+        <v>2478</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3486,20 +3486,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19413</v>
+        <v>18745</v>
       </c>
       <c r="D78" t="n">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3513,20 +3513,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19997</v>
+        <v>19413</v>
       </c>
       <c r="D79" t="n">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="E79" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F79" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3540,20 +3540,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>19997</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3567,20 +3567,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20955</v>
+        <v>19997</v>
       </c>
       <c r="D81" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3589,25 +3589,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>26563</v>
+        <v>20955</v>
       </c>
       <c r="D82" t="n">
-        <v>26563</v>
+        <v>958</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3621,20 +3621,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>29027</v>
+        <v>26563</v>
       </c>
       <c r="D83" t="n">
-        <v>2464</v>
+        <v>26563</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3648,20 +3648,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30000</v>
+        <v>29027</v>
       </c>
       <c r="D84" t="n">
-        <v>973</v>
+        <v>2464</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3675,20 +3675,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>31290</v>
+        <v>30000</v>
       </c>
       <c r="D85" t="n">
-        <v>1290</v>
+        <v>973</v>
       </c>
       <c r="E85" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F85" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3702,20 +3702,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32271</v>
+        <v>31290</v>
       </c>
       <c r="D86" t="n">
-        <v>981</v>
+        <v>1290</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3729,20 +3729,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>33218</v>
+        <v>32271</v>
       </c>
       <c r="D87" t="n">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3756,20 +3756,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>33446</v>
+        <v>33218</v>
       </c>
       <c r="D88" t="n">
-        <v>228</v>
+        <v>947</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3783,50 +3783,50 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34248</v>
+        <v>33446</v>
       </c>
       <c r="D89" t="n">
-        <v>802</v>
+        <v>228</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>42764</v>
+        <v>34248</v>
       </c>
       <c r="D90" t="n">
-        <v>42764</v>
+        <v>802</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -3837,20 +3837,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>46481</v>
+        <v>42764</v>
       </c>
       <c r="D91" t="n">
-        <v>3717</v>
+        <v>42764</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3864,20 +3864,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>49999</v>
+        <v>46481</v>
       </c>
       <c r="D92" t="n">
-        <v>3518</v>
+        <v>3717</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3891,20 +3891,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>55144</v>
+        <v>49999</v>
       </c>
       <c r="D93" t="n">
-        <v>5145</v>
+        <v>3518</v>
       </c>
       <c r="E93" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F93" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3918,20 +3918,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>58511</v>
+        <v>55144</v>
       </c>
       <c r="D94" t="n">
-        <v>3367</v>
+        <v>5145</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3945,20 +3945,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>70070</v>
+        <v>58511</v>
       </c>
       <c r="D95" t="n">
-        <v>11559</v>
+        <v>3367</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3972,20 +3972,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>71130</v>
+        <v>70070</v>
       </c>
       <c r="D96" t="n">
-        <v>1060</v>
+        <v>11559</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3999,50 +3999,50 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>75260</v>
+        <v>71130</v>
       </c>
       <c r="D97" t="n">
-        <v>4130</v>
+        <v>1060</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1215</v>
+        <v>75260</v>
       </c>
       <c r="D98" t="n">
-        <v>1215</v>
+        <v>4130</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="99">
@@ -4053,20 +4053,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1500</v>
+        <v>1215</v>
       </c>
       <c r="D99" t="n">
-        <v>285</v>
+        <v>1215</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4080,20 +4080,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="D100" t="n">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4107,20 +4107,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1766</v>
+        <v>1640</v>
       </c>
       <c r="D101" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E101" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -4134,20 +4134,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>1766</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4161,20 +4161,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2239</v>
+        <v>1766</v>
       </c>
       <c r="D103" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4188,20 +4188,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>2239</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4210,25 +4210,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>141562</v>
+        <v>2239</v>
       </c>
       <c r="D105" t="n">
-        <v>141562</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -4242,20 +4242,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>154710</v>
+        <v>141562</v>
       </c>
       <c r="D106" t="n">
-        <v>13148</v>
+        <v>141562</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4269,20 +4269,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>159968</v>
+        <v>154710</v>
       </c>
       <c r="D107" t="n">
-        <v>5258</v>
+        <v>13148</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4296,20 +4296,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>170646</v>
+        <v>159968</v>
       </c>
       <c r="D108" t="n">
-        <v>10678</v>
+        <v>5258</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -4323,20 +4323,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>171546</v>
+        <v>170646</v>
       </c>
       <c r="D109" t="n">
-        <v>900</v>
+        <v>10678</v>
       </c>
       <c r="E109" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F109" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4350,20 +4350,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>173231</v>
+        <v>171546</v>
       </c>
       <c r="D110" t="n">
-        <v>1685</v>
+        <v>900</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4377,20 +4377,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>167925</v>
+        <v>173231</v>
       </c>
       <c r="D111" t="n">
-        <v>-5306</v>
+        <v>1685</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4404,20 +4404,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>169837</v>
+        <v>167925</v>
       </c>
       <c r="D112" t="n">
-        <v>1912</v>
+        <v>-5306</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4426,28 +4426,28 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5984</v>
+        <v>171739</v>
       </c>
       <c r="D113" t="n">
-        <v>5984</v>
+        <v>3814</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="114">
@@ -4458,20 +4458,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6263</v>
+        <v>5984</v>
       </c>
       <c r="D114" t="n">
-        <v>279</v>
+        <v>5984</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4485,20 +4485,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6561</v>
+        <v>6263</v>
       </c>
       <c r="D115" t="n">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -4512,20 +4512,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6756</v>
+        <v>6561</v>
       </c>
       <c r="D116" t="n">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E116" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F116" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4534,25 +4534,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>68050</v>
+        <v>6756</v>
       </c>
       <c r="D117" t="n">
-        <v>68050</v>
+        <v>195</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4566,20 +4566,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>79250</v>
+        <v>68050</v>
       </c>
       <c r="D118" t="n">
-        <v>11200</v>
+        <v>68050</v>
       </c>
       <c r="E118" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F118" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4593,20 +4593,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>85210</v>
+        <v>79250</v>
       </c>
       <c r="D119" t="n">
-        <v>5960</v>
+        <v>11200</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4620,50 +4620,50 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>89730</v>
+        <v>85210</v>
       </c>
       <c r="D120" t="n">
-        <v>4520</v>
+        <v>5960</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>21484</v>
+        <v>89730</v>
       </c>
       <c r="D121" t="n">
-        <v>21484</v>
+        <v>4520</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="122">
@@ -4674,20 +4674,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23912</v>
+        <v>21484</v>
       </c>
       <c r="D122" t="n">
-        <v>2428</v>
+        <v>21484</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -4701,20 +4701,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27845</v>
+        <v>23912</v>
       </c>
       <c r="D123" t="n">
-        <v>3933</v>
+        <v>2428</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4728,20 +4728,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30570</v>
+        <v>27845</v>
       </c>
       <c r="D124" t="n">
-        <v>2725</v>
+        <v>3933</v>
       </c>
       <c r="E124" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F124" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4755,20 +4755,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>32102</v>
+        <v>30570</v>
       </c>
       <c r="D125" t="n">
-        <v>1532</v>
+        <v>2725</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4782,20 +4782,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>35649</v>
+        <v>32102</v>
       </c>
       <c r="D126" t="n">
-        <v>3547</v>
+        <v>1532</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4809,20 +4809,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>36925</v>
+        <v>35649</v>
       </c>
       <c r="D127" t="n">
-        <v>1276</v>
+        <v>3547</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4836,50 +4836,50 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>39931</v>
+        <v>36925</v>
       </c>
       <c r="D128" t="n">
-        <v>3006</v>
+        <v>1276</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1234718</v>
+        <v>41519</v>
       </c>
       <c r="D129" t="n">
-        <v>1234718</v>
+        <v>4594</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="130">
@@ -4890,20 +4890,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1353338</v>
+        <v>1234718</v>
       </c>
       <c r="D130" t="n">
-        <v>118620</v>
+        <v>1234718</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4917,20 +4917,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1409139</v>
+        <v>1353338</v>
       </c>
       <c r="D131" t="n">
-        <v>55801</v>
+        <v>118620</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4944,20 +4944,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1469032</v>
+        <v>1409139</v>
       </c>
       <c r="D132" t="n">
-        <v>59893</v>
+        <v>55801</v>
       </c>
       <c r="E132" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F132" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4971,20 +4971,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1521085</v>
+        <v>1469032</v>
       </c>
       <c r="D133" t="n">
-        <v>52053</v>
+        <v>59893</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4998,20 +4998,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1546354</v>
+        <v>1521085</v>
       </c>
       <c r="D134" t="n">
-        <v>25269</v>
+        <v>52053</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -5025,20 +5025,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1563386</v>
+        <v>1546354</v>
       </c>
       <c r="D135" t="n">
-        <v>17032</v>
+        <v>25269</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -5052,50 +5052,50 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>1563386</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>17032</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>47847</v>
+        <v>1563386</v>
       </c>
       <c r="D137" t="n">
-        <v>47847</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -5106,20 +5106,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>49718</v>
+        <v>47847</v>
       </c>
       <c r="D138" t="n">
-        <v>1871</v>
+        <v>47847</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -5133,20 +5133,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>52819</v>
+        <v>49718</v>
       </c>
       <c r="D139" t="n">
-        <v>3101</v>
+        <v>1871</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>52970</v>
+        <v>52819</v>
       </c>
       <c r="D140" t="n">
-        <v>151</v>
+        <v>3101</v>
       </c>
       <c r="E140" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F140" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5187,20 +5187,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>56236</v>
+        <v>52970</v>
       </c>
       <c r="D141" t="n">
-        <v>3266</v>
+        <v>151</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5214,20 +5214,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>56904</v>
+        <v>56236</v>
       </c>
       <c r="D142" t="n">
-        <v>668</v>
+        <v>3266</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5241,50 +5241,50 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>58043</v>
+        <v>56904</v>
       </c>
       <c r="D143" t="n">
-        <v>1139</v>
+        <v>668</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>82184</v>
+        <v>58242</v>
       </c>
       <c r="D144" t="n">
-        <v>82184</v>
+        <v>1338</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="145">
@@ -5295,20 +5295,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>90612</v>
+        <v>82184</v>
       </c>
       <c r="D145" t="n">
-        <v>8428</v>
+        <v>82184</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -5322,20 +5322,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>95375</v>
+        <v>90612</v>
       </c>
       <c r="D146" t="n">
-        <v>4763</v>
+        <v>8428</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -5349,20 +5349,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>98770</v>
+        <v>95375</v>
       </c>
       <c r="D147" t="n">
-        <v>3395</v>
+        <v>4763</v>
       </c>
       <c r="E147" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F147" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -5376,20 +5376,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>102476</v>
+        <v>98770</v>
       </c>
       <c r="D148" t="n">
-        <v>3706</v>
+        <v>3395</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -5403,20 +5403,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>105370</v>
+        <v>102476</v>
       </c>
       <c r="D149" t="n">
-        <v>2894</v>
+        <v>3706</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5430,20 +5430,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>105732</v>
+        <v>105370</v>
       </c>
       <c r="D150" t="n">
-        <v>362</v>
+        <v>2894</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -5457,50 +5457,50 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>109828</v>
+        <v>105732</v>
       </c>
       <c r="D151" t="n">
-        <v>4096</v>
+        <v>362</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6894</v>
+        <v>110444</v>
       </c>
       <c r="D152" t="n">
-        <v>6894</v>
+        <v>4712</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -5511,20 +5511,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>7279</v>
+        <v>6894</v>
       </c>
       <c r="D153" t="n">
-        <v>385</v>
+        <v>6894</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -5538,20 +5538,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8171</v>
+        <v>7279</v>
       </c>
       <c r="D154" t="n">
-        <v>892</v>
+        <v>385</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5565,20 +5565,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8308</v>
+        <v>8171</v>
       </c>
       <c r="D155" t="n">
-        <v>137</v>
+        <v>892</v>
       </c>
       <c r="E155" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F155" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5592,20 +5592,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8655</v>
+        <v>8308</v>
       </c>
       <c r="D156" t="n">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5619,20 +5619,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8821</v>
+        <v>8655</v>
       </c>
       <c r="D157" t="n">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5646,20 +5646,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>9081</v>
+        <v>8821</v>
       </c>
       <c r="D158" t="n">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5673,50 +5673,50 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8874</v>
+        <v>9081</v>
       </c>
       <c r="D159" t="n">
-        <v>-207</v>
+        <v>260</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>42788</v>
+        <v>8965</v>
       </c>
       <c r="D160" t="n">
-        <v>42788</v>
+        <v>-116</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -5727,20 +5727,20 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>44546</v>
+        <v>42788</v>
       </c>
       <c r="D161" t="n">
-        <v>1758</v>
+        <v>42788</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5754,20 +5754,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>45895</v>
+        <v>44546</v>
       </c>
       <c r="D162" t="n">
-        <v>1349</v>
+        <v>1758</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5781,20 +5781,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>47376</v>
+        <v>45895</v>
       </c>
       <c r="D163" t="n">
-        <v>1481</v>
+        <v>1349</v>
       </c>
       <c r="E163" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F163" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5808,20 +5808,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>48360</v>
+        <v>47376</v>
       </c>
       <c r="D164" t="n">
-        <v>984</v>
+        <v>1481</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5835,20 +5835,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>50040</v>
+        <v>48360</v>
       </c>
       <c r="D165" t="n">
-        <v>1680</v>
+        <v>984</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5862,20 +5862,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D166" t="n">
-        <v>490</v>
+        <v>1680</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5889,50 +5889,50 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>50740</v>
+        <v>50530</v>
       </c>
       <c r="D167" t="n">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>312318</v>
+        <v>52325</v>
       </c>
       <c r="D168" t="n">
-        <v>312318</v>
+        <v>1795</v>
       </c>
       <c r="E168" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -5943,20 +5943,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>492391</v>
+        <v>312318</v>
       </c>
       <c r="D169" t="n">
-        <v>180073</v>
+        <v>312318</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5965,25 +5965,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1300</v>
+        <v>492391</v>
       </c>
       <c r="D170" t="n">
-        <v>1300</v>
+        <v>180073</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5997,20 +5997,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="D171" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6019,25 +6019,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="D172" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -6046,25 +6046,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>71000</v>
+        <v>4000</v>
       </c>
       <c r="D173" t="n">
-        <v>71000</v>
+        <v>4000</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6078,22 +6078,49 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>07-2022</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>11-2022</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C175" t="n">
         <v>85000</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D175" t="n">
         <v>14000</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E175" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F175" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G175" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>142191881</v>
       </c>
       <c r="E14" t="n">
-        <v>105471180.2</v>
+        <v>104986932.6</v>
       </c>
       <c r="F14" t="n">
-        <v>484247.5999999999</v>
+        <v>968495.1999999997</v>
       </c>
     </row>
     <row r="15">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3823,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="91">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="138">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93579</v>
+        <v>94343</v>
       </c>
       <c r="C2" t="n">
         <v>63120000</v>
@@ -483,10 +483,10 @@
         <v>129797392.8333333</v>
       </c>
       <c r="E2" t="n">
-        <v>94061333.59999999</v>
+        <v>95118698.56666666</v>
       </c>
       <c r="F2" t="n">
-        <v>468852.3666666665</v>
+        <v>1242948.199999999</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68616</v>
+        <v>68869</v>
       </c>
       <c r="C3" t="n">
         <v>250670000</v>
@@ -505,10 +505,10 @@
         <v>396528274.1166667</v>
       </c>
       <c r="E3" t="n">
-        <v>322985506.9333333</v>
+        <v>322610154.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2594141.349999999</v>
+        <v>5632040.483333332</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81436</v>
+        <v>81862</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>903629531.875</v>
+        <v>904173319.125</v>
       </c>
       <c r="F5" t="n">
-        <v>7910715.249999996</v>
+        <v>17512330.99999999</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>494793</v>
+        <v>497217</v>
       </c>
       <c r="C6" t="n">
         <v>6420000</v>
@@ -571,10 +571,10 @@
         <v>1450143541</v>
       </c>
       <c r="E6" t="n">
-        <v>1033857330.5</v>
+        <v>1037238920</v>
       </c>
       <c r="F6" t="n">
-        <v>6787090.499999998</v>
+        <v>15607916.99999999</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163500</v>
+        <v>164500</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1380090547.5</v>
+        <v>1396048705.833333</v>
       </c>
       <c r="F12" t="n">
-        <v>11605933.33333333</v>
+        <v>13056674.99999999</v>
       </c>
     </row>
     <row r="13">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1563386</v>
+        <v>1564711</v>
       </c>
       <c r="C23" t="n">
         <v>16880000</v>
@@ -943,10 +943,10 @@
         <v>1623782777.65</v>
       </c>
       <c r="E23" t="n">
-        <v>1144817489.75</v>
+        <v>1146772858.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>391073.7499999999</v>
       </c>
     </row>
     <row r="24">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110444</v>
+        <v>111173</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>181866464.275</v>
+        <v>182672798.225</v>
       </c>
       <c r="F25" t="n">
-        <v>1473795.8</v>
+        <v>3403617.549999999</v>
       </c>
     </row>
     <row r="26">
@@ -1623,23 +1623,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93579</v>
+        <v>94343</v>
       </c>
       <c r="D9" t="n">
-        <v>2347</v>
+        <v>3111</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -1839,23 +1839,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68616</v>
+        <v>68869</v>
       </c>
       <c r="D17" t="n">
-        <v>2958</v>
+        <v>3211</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -2055,23 +2055,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>81436</v>
+        <v>81862</v>
       </c>
       <c r="D25" t="n">
-        <v>3986</v>
+        <v>4412</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -2271,23 +2271,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>494793</v>
+        <v>497217</v>
       </c>
       <c r="D33" t="n">
-        <v>16179</v>
+        <v>18603</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>163500</v>
+        <v>164500</v>
       </c>
       <c r="D75" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1563386</v>
+        <v>1564711</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -5484,23 +5484,23 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>110444</v>
+        <v>111173</v>
       </c>
       <c r="D152" t="n">
-        <v>4712</v>
+        <v>5441</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="153">
@@ -5700,23 +5700,23 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8965</v>
+        <v>9061</v>
       </c>
       <c r="D160" t="n">
-        <v>-116</v>
+        <v>-20</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="161">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94343</v>
+        <v>94551</v>
       </c>
       <c r="C2" t="n">
         <v>63120000</v>
@@ -483,10 +483,10 @@
         <v>129797392.8333333</v>
       </c>
       <c r="E2" t="n">
-        <v>95118698.56666666</v>
+        <v>95534213.23333332</v>
       </c>
       <c r="F2" t="n">
-        <v>1242948.199999999</v>
+        <v>1326051.133333333</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81862</v>
+        <v>82628</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>904173319.125</v>
+        <v>919375546.625</v>
       </c>
       <c r="F5" t="n">
-        <v>17512330.99999999</v>
+        <v>20552776.49999999</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168654</v>
+        <v>170345</v>
       </c>
       <c r="C9" t="n">
         <v>232080000</v>
@@ -637,10 +637,10 @@
         <v>305259586.75</v>
       </c>
       <c r="E9" t="n">
-        <v>232361743.15</v>
+        <v>234833055.35</v>
       </c>
       <c r="F9" t="n">
-        <v>2037739.299999999</v>
+        <v>4977288.899999999</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>164500</v>
+        <v>165700</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1396048705.833333</v>
+        <v>1400400930.833333</v>
       </c>
       <c r="F12" t="n">
-        <v>13056674.99999999</v>
+        <v>29595129.99999999</v>
       </c>
     </row>
     <row r="13">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75260</v>
+        <v>77721</v>
       </c>
       <c r="C15" t="n">
         <v>50290000</v>
@@ -769,10 +769,10 @@
         <v>437023707.1666666</v>
       </c>
       <c r="E15" t="n">
-        <v>524745761.1666666</v>
+        <v>546655947.8333333</v>
       </c>
       <c r="F15" t="n">
-        <v>4418411.666666665</v>
+        <v>14102542.99999999</v>
       </c>
     </row>
     <row r="16">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111173</v>
+        <v>111756</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>182672798.225</v>
+        <v>184496276.475</v>
       </c>
       <c r="F25" t="n">
-        <v>3403617.549999999</v>
+        <v>3768313.199999999</v>
       </c>
     </row>
     <row r="26">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>94343</v>
+        <v>94551</v>
       </c>
       <c r="D9" t="n">
-        <v>3111</v>
+        <v>3319</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>81862</v>
+        <v>82628</v>
       </c>
       <c r="D25" t="n">
-        <v>4412</v>
+        <v>5178</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2865,23 +2865,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>168654</v>
+        <v>170345</v>
       </c>
       <c r="D55" t="n">
-        <v>7642</v>
+        <v>9333</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -3405,23 +3405,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>164500</v>
+        <v>165700</v>
       </c>
       <c r="D75" t="n">
-        <v>9000</v>
+        <v>10200</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="76">
@@ -4026,23 +4026,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>75260</v>
+        <v>77721</v>
       </c>
       <c r="D98" t="n">
-        <v>4130</v>
+        <v>6591</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="99">
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>111173</v>
+        <v>111756</v>
       </c>
       <c r="D152" t="n">
-        <v>5441</v>
+        <v>6024</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9061</v>
+        <v>9075</v>
       </c>
       <c r="D160" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492391</v>
+        <v>177958</v>
       </c>
       <c r="C4" t="n">
         <v>463600000</v>
       </c>
       <c r="D4" t="n">
-        <v>926834896.8</v>
+        <v>698537428.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4918043229.6</v>
+        <v>1380044790.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33850423.99999999</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>181866464.275</v>
+        <v>180392668.475</v>
       </c>
       <c r="F25" t="n">
-        <v>1473795.8</v>
+        <v>2947591.599999999</v>
       </c>
     </row>
     <row r="26">
@@ -1381,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="153">
@@ -5938,25 +5938,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>312318</v>
+        <v>1300</v>
       </c>
       <c r="D169" t="n">
-        <v>312318</v>
+        <v>1300</v>
       </c>
       <c r="E169" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5965,25 +5965,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>492391</v>
+        <v>1800</v>
       </c>
       <c r="D170" t="n">
-        <v>180073</v>
+        <v>500</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5992,25 +5992,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="D171" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6019,25 +6019,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1800</v>
+        <v>71000</v>
       </c>
       <c r="D172" t="n">
-        <v>500</v>
+        <v>71000</v>
       </c>
       <c r="E172" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F172" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -6046,25 +6046,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4000</v>
+        <v>85000</v>
       </c>
       <c r="D173" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="E173" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="F173" t="n">
         <v>0.8333333333333334</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.1666666666666666</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6073,25 +6073,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>71000</v>
+        <v>22253</v>
       </c>
       <c r="D174" t="n">
-        <v>71000</v>
+        <v>22253</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6100,28 +6100,298 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>05-2022</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>35455</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13202</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>06-2022</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>55488</v>
+      </c>
+      <c r="D176" t="n">
+        <v>20033</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>07-2022</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>58869</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3381</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>08-2022</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>77154</v>
+      </c>
+      <c r="D178" t="n">
+        <v>18285</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>09-2022</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>82708</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5554</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10-2022</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>108836</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26128</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>11-2022</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>14000</v>
-      </c>
-      <c r="E175" t="n">
+      <c r="C181" t="n">
+        <v>120842</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12006</v>
+      </c>
+      <c r="E181" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F181" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G175" t="n">
-        <v>0</v>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>12-2022</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>137797</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16955</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01-2023</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>149476</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11679</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>02-2023</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>172220</v>
+      </c>
+      <c r="D184" t="n">
+        <v>22744</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>03-2023</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>177958</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5738</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94551</v>
+        <v>94984</v>
       </c>
       <c r="C2" t="n">
         <v>63120000</v>
@@ -483,10 +483,10 @@
         <v>129797392.8333333</v>
       </c>
       <c r="E2" t="n">
-        <v>95534213.23333332</v>
+        <v>96399202.89999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1326051.133333333</v>
+        <v>1499049.066666666</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68869</v>
+        <v>69727</v>
       </c>
       <c r="C3" t="n">
         <v>250670000</v>
@@ -505,10 +505,10 @@
         <v>396528274.1166667</v>
       </c>
       <c r="E3" t="n">
-        <v>322610154.5</v>
+        <v>330134743</v>
       </c>
       <c r="F3" t="n">
-        <v>5632040.483333332</v>
+        <v>7136958.18333333</v>
       </c>
     </row>
     <row r="4">
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492391</v>
+        <v>177958</v>
       </c>
       <c r="C4" t="n">
         <v>463600000</v>
       </c>
       <c r="D4" t="n">
-        <v>926834896.8</v>
+        <v>698537428.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4918043229.6</v>
+        <v>1380044790.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33850423.99999999</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82628</v>
+        <v>82952</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>919375546.625</v>
+        <v>925805731.625</v>
       </c>
       <c r="F5" t="n">
-        <v>20552776.49999999</v>
+        <v>21838813.49999999</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497217</v>
+        <v>501540</v>
       </c>
       <c r="C6" t="n">
         <v>6420000</v>
@@ -571,10 +571,10 @@
         <v>1450143541</v>
       </c>
       <c r="E6" t="n">
-        <v>1037238920</v>
+        <v>1055373905</v>
       </c>
       <c r="F6" t="n">
-        <v>15607916.99999999</v>
+        <v>19234913.99999999</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170345</v>
+        <v>170973</v>
       </c>
       <c r="C9" t="n">
         <v>232080000</v>
@@ -637,10 +637,10 @@
         <v>305259586.75</v>
       </c>
       <c r="E9" t="n">
-        <v>234833055.35</v>
+        <v>236507617.35</v>
       </c>
       <c r="F9" t="n">
-        <v>4977288.899999999</v>
+        <v>5312201.299999998</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165700</v>
+        <v>166800</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1400400930.833333</v>
+        <v>1416359089.166667</v>
       </c>
       <c r="F12" t="n">
-        <v>29595129.99999999</v>
+        <v>32786761.66666666</v>
       </c>
     </row>
     <row r="13">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77721</v>
+        <v>78121</v>
       </c>
       <c r="C15" t="n">
         <v>50290000</v>
@@ -769,10 +769,10 @@
         <v>437023707.1666666</v>
       </c>
       <c r="E15" t="n">
-        <v>546655947.8333333</v>
+        <v>550935281.1666666</v>
       </c>
       <c r="F15" t="n">
-        <v>14102542.99999999</v>
+        <v>14958409.66666666</v>
       </c>
     </row>
     <row r="16">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1564711</v>
+        <v>1573267</v>
       </c>
       <c r="C23" t="n">
         <v>16880000</v>
@@ -943,10 +943,10 @@
         <v>1623782777.65</v>
       </c>
       <c r="E23" t="n">
-        <v>1146772858.5</v>
+        <v>1159399375.5</v>
       </c>
       <c r="F23" t="n">
-        <v>391073.7499999999</v>
+        <v>2916377.149999999</v>
       </c>
     </row>
     <row r="24">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111756</v>
+        <v>112362</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>184496276.475</v>
+        <v>186391692.975</v>
       </c>
       <c r="F25" t="n">
-        <v>3768313.199999999</v>
+        <v>4147396.499999999</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9081</v>
+        <v>9119</v>
       </c>
       <c r="C26" t="n">
         <v>2330000</v>
@@ -1009,10 +1009,10 @@
         <v>3394028.733333333</v>
       </c>
       <c r="E26" t="n">
-        <v>2579453.066666666</v>
+        <v>2600283.4</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4166.066666666665</v>
       </c>
     </row>
     <row r="27">
@@ -1381,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>94551</v>
+        <v>94984</v>
       </c>
       <c r="D9" t="n">
-        <v>3319</v>
+        <v>3752</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68869</v>
+        <v>69727</v>
       </c>
       <c r="D17" t="n">
-        <v>3211</v>
+        <v>4069</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82628</v>
+        <v>82952</v>
       </c>
       <c r="D25" t="n">
-        <v>5178</v>
+        <v>5502</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>497217</v>
+        <v>501540</v>
       </c>
       <c r="D33" t="n">
-        <v>18603</v>
+        <v>22926</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>170345</v>
+        <v>170973</v>
       </c>
       <c r="D55" t="n">
-        <v>9333</v>
+        <v>9961</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>165700</v>
+        <v>166800</v>
       </c>
       <c r="D75" t="n">
-        <v>10200</v>
+        <v>11300</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>77721</v>
+        <v>78121</v>
       </c>
       <c r="D98" t="n">
-        <v>6591</v>
+        <v>6991</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1564711</v>
+        <v>1573267</v>
       </c>
       <c r="D137" t="n">
-        <v>1325</v>
+        <v>9881</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>111756</v>
+        <v>112362</v>
       </c>
       <c r="D152" t="n">
-        <v>6024</v>
+        <v>6630</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9075</v>
+        <v>9119</v>
       </c>
       <c r="D160" t="n">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -5938,25 +5938,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>312318</v>
+        <v>1300</v>
       </c>
       <c r="D169" t="n">
-        <v>312318</v>
+        <v>1300</v>
       </c>
       <c r="E169" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5965,25 +5965,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>492391</v>
+        <v>1800</v>
       </c>
       <c r="D170" t="n">
-        <v>180073</v>
+        <v>500</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5992,25 +5992,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="D171" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6019,25 +6019,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1800</v>
+        <v>71000</v>
       </c>
       <c r="D172" t="n">
-        <v>500</v>
+        <v>71000</v>
       </c>
       <c r="E172" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F172" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -6046,25 +6046,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4000</v>
+        <v>85000</v>
       </c>
       <c r="D173" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="E173" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="F173" t="n">
         <v>0.8333333333333334</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.1666666666666666</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6073,25 +6073,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>71000</v>
+        <v>22253</v>
       </c>
       <c r="D174" t="n">
-        <v>71000</v>
+        <v>22253</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6100,28 +6100,298 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>05-2022</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>35455</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13202</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>06-2022</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>55488</v>
+      </c>
+      <c r="D176" t="n">
+        <v>20033</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>07-2022</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>58869</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3381</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>08-2022</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>77154</v>
+      </c>
+      <c r="D178" t="n">
+        <v>18285</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>09-2022</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>82708</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5554</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10-2022</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>108836</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26128</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>11-2022</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>14000</v>
-      </c>
-      <c r="E175" t="n">
+      <c r="C181" t="n">
+        <v>120842</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12006</v>
+      </c>
+      <c r="E181" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F181" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G175" t="n">
-        <v>0</v>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>12-2022</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>137797</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16955</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01-2023</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>149476</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11679</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>02-2023</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>172220</v>
+      </c>
+      <c r="D184" t="n">
+        <v>22744</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>03-2023</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>177958</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5738</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166800</v>
+        <v>191000</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1416359089.166667</v>
+        <v>1767438572.5</v>
       </c>
       <c r="F12" t="n">
-        <v>32786761.66666666</v>
+        <v>103002658.3333333</v>
       </c>
     </row>
     <row r="13">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>166800</v>
+        <v>191000</v>
       </c>
       <c r="D75" t="n">
-        <v>11300</v>
+        <v>35500</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69727</v>
+        <v>69996</v>
       </c>
       <c r="C3" t="n">
         <v>250670000</v>
@@ -505,10 +505,10 @@
         <v>396528274.1166667</v>
       </c>
       <c r="E3" t="n">
-        <v>330134743</v>
+        <v>332493850.5833333</v>
       </c>
       <c r="F3" t="n">
-        <v>7136958.18333333</v>
+        <v>7608779.699999997</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501540</v>
+        <v>503698</v>
       </c>
       <c r="C6" t="n">
         <v>6420000</v>
@@ -571,10 +571,10 @@
         <v>1450143541</v>
       </c>
       <c r="E6" t="n">
-        <v>1055373905</v>
+        <v>1064426715</v>
       </c>
       <c r="F6" t="n">
-        <v>19234913.99999999</v>
+        <v>21045475.99999999</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1055323</v>
+        <v>1056628</v>
       </c>
       <c r="C7" t="n">
         <v>2732060000</v>
@@ -593,10 +593,10 @@
         <v>8706475641.508333</v>
       </c>
       <c r="E7" t="n">
-        <v>7289371666.391666</v>
+        <v>7220832882.008333</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>88319060.8833333</v>
       </c>
     </row>
     <row r="8">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40874</v>
+        <v>41558</v>
       </c>
       <c r="C8" t="n">
         <v>63200000</v>
@@ -615,10 +615,10 @@
         <v>467799205.3</v>
       </c>
       <c r="E8" t="n">
-        <v>355659123.4999999</v>
+        <v>364831557.9</v>
       </c>
       <c r="F8" t="n">
-        <v>2343617.599999999</v>
+        <v>6990445.599999997</v>
       </c>
     </row>
     <row r="9">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2239</v>
+        <v>2345</v>
       </c>
       <c r="C16" t="n">
         <v>4330000</v>
       </c>
       <c r="D16" t="n">
-        <v>6001454.1</v>
+        <v>6052119.449999999</v>
       </c>
       <c r="E16" t="n">
-        <v>6840778.199999999</v>
+        <v>7398097.05</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1573267</v>
+        <v>1577289</v>
       </c>
       <c r="C23" t="n">
         <v>16880000</v>
@@ -943,10 +943,10 @@
         <v>1623782777.65</v>
       </c>
       <c r="E23" t="n">
-        <v>1159399375.5</v>
+        <v>1165334842</v>
       </c>
       <c r="F23" t="n">
-        <v>2916377.149999999</v>
+        <v>4103470.449999998</v>
       </c>
     </row>
     <row r="24">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112362</v>
+        <v>112715</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>186391692.975</v>
+        <v>187495788.725</v>
       </c>
       <c r="F25" t="n">
-        <v>4147396.499999999</v>
+        <v>4368215.649999999</v>
       </c>
     </row>
     <row r="26">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>69727</v>
+        <v>69996</v>
       </c>
       <c r="D17" t="n">
-        <v>4069</v>
+        <v>4338</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>501540</v>
+        <v>503698</v>
       </c>
       <c r="D33" t="n">
-        <v>22926</v>
+        <v>25084</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2460,23 +2460,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1055323</v>
+        <v>1056628</v>
       </c>
       <c r="D40" t="n">
-        <v>33656</v>
+        <v>34961</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="41">
@@ -2676,23 +2676,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40613</v>
+        <v>41297</v>
       </c>
       <c r="D48" t="n">
-        <v>1392</v>
+        <v>2076</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="49">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2239</v>
+        <v>2345</v>
       </c>
       <c r="D104" t="n">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="E104" t="n">
         <v>0.0833333333333333</v>
@@ -4222,7 +4222,7 @@
         <v>2239</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-106</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1573267</v>
+        <v>1577289</v>
       </c>
       <c r="D137" t="n">
-        <v>9881</v>
+        <v>13903</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>112362</v>
+        <v>112715</v>
       </c>
       <c r="D152" t="n">
-        <v>6630</v>
+        <v>6983</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82952</v>
+        <v>83428</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>925805731.625</v>
+        <v>935252546.625</v>
       </c>
       <c r="F5" t="n">
-        <v>21838813.49999999</v>
+        <v>23728176.49999999</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170973</v>
+        <v>171865</v>
       </c>
       <c r="C9" t="n">
         <v>232080000</v>
@@ -637,10 +637,10 @@
         <v>305259586.75</v>
       </c>
       <c r="E9" t="n">
-        <v>236507617.35</v>
+        <v>238886135.35</v>
       </c>
       <c r="F9" t="n">
-        <v>5312201.299999998</v>
+        <v>5787904.899999998</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191000</v>
+        <v>191900</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1767438572.5</v>
+        <v>1780495247.5</v>
       </c>
       <c r="F12" t="n">
-        <v>103002658.3333333</v>
+        <v>105613993.3333333</v>
       </c>
     </row>
     <row r="13">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78121</v>
+        <v>78462</v>
       </c>
       <c r="C15" t="n">
         <v>50290000</v>
@@ -769,10 +769,10 @@
         <v>437023707.1666666</v>
       </c>
       <c r="E15" t="n">
-        <v>550935281.1666666</v>
+        <v>554583412.8333333</v>
       </c>
       <c r="F15" t="n">
-        <v>14958409.66666666</v>
+        <v>15688035.99999999</v>
       </c>
     </row>
     <row r="16">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177045</v>
+        <v>178519</v>
       </c>
       <c r="C17" t="n">
         <v>556100000</v>
@@ -813,10 +813,10 @@
         <v>1465441727.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1188099007.2</v>
+        <v>1201770073.65</v>
       </c>
       <c r="F17" t="n">
-        <v>4772235.716666665</v>
+        <v>13233131.86666666</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41519</v>
+        <v>44014</v>
       </c>
       <c r="C21" t="n">
         <v>52250000</v>
@@ -899,10 +899,10 @@
         <v>388583552.2500001</v>
       </c>
       <c r="E21" t="n">
-        <v>505548052.8000001</v>
+        <v>542419384.5</v>
       </c>
       <c r="F21" t="n">
-        <v>8321227.049999998</v>
+        <v>25680965.84999999</v>
       </c>
     </row>
     <row r="22">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9119</v>
+        <v>9156</v>
       </c>
       <c r="C26" t="n">
         <v>2330000</v>
@@ -1009,10 +1009,10 @@
         <v>3394028.733333333</v>
       </c>
       <c r="E26" t="n">
-        <v>2600283.4</v>
+        <v>2620565.566666666</v>
       </c>
       <c r="F26" t="n">
-        <v>4166.066666666665</v>
+        <v>8222.499999999996</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>52325</v>
+        <v>53514</v>
       </c>
       <c r="C27" t="n">
         <v>87910000</v>
@@ -1031,10 +1031,10 @@
         <v>268969632.75</v>
       </c>
       <c r="E27" t="n">
-        <v>192939331</v>
+        <v>200386917.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1324261.25</v>
+        <v>4402891.999999998</v>
       </c>
     </row>
     <row r="28">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82952</v>
+        <v>83428</v>
       </c>
       <c r="D25" t="n">
-        <v>5502</v>
+        <v>5978</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>170973</v>
+        <v>171865</v>
       </c>
       <c r="D55" t="n">
-        <v>9961</v>
+        <v>10853</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>191000</v>
+        <v>191900</v>
       </c>
       <c r="D75" t="n">
-        <v>35500</v>
+        <v>36400</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>78121</v>
+        <v>78462</v>
       </c>
       <c r="D98" t="n">
-        <v>6991</v>
+        <v>7332</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>171739</v>
+        <v>173213</v>
       </c>
       <c r="D113" t="n">
-        <v>3814</v>
+        <v>5288</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="114">
@@ -4863,23 +4863,23 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>41519</v>
+        <v>44014</v>
       </c>
       <c r="D129" t="n">
-        <v>4594</v>
+        <v>7089</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="130">
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9119</v>
+        <v>9156</v>
       </c>
       <c r="D160" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -5916,23 +5916,23 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>52325</v>
+        <v>53514</v>
       </c>
       <c r="D168" t="n">
-        <v>1795</v>
+        <v>2984</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="169">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69996</v>
+        <v>70307</v>
       </c>
       <c r="C3" t="n">
         <v>250670000</v>
@@ -505,10 +505,10 @@
         <v>396528274.1166667</v>
       </c>
       <c r="E3" t="n">
-        <v>332493850.5833333</v>
+        <v>331144160.4083333</v>
       </c>
       <c r="F3" t="n">
-        <v>7608779.699999997</v>
+        <v>12231402.775</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83428</v>
+        <v>77450</v>
       </c>
       <c r="C5" t="n">
         <v>368350000</v>
@@ -549,10 +549,10 @@
         <v>1027898810.875</v>
       </c>
       <c r="E5" t="n">
-        <v>935252546.625</v>
+        <v>816611664.125</v>
       </c>
       <c r="F5" t="n">
-        <v>23728176.49999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503698</v>
+        <v>504352</v>
       </c>
       <c r="C6" t="n">
         <v>6420000</v>
@@ -571,10 +571,10 @@
         <v>1450143541</v>
       </c>
       <c r="E6" t="n">
-        <v>1064426715</v>
+        <v>1056373154</v>
       </c>
       <c r="F6" t="n">
-        <v>21045475.99999999</v>
+        <v>32391273</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41558</v>
+        <v>41680</v>
       </c>
       <c r="C8" t="n">
         <v>63200000</v>
@@ -615,10 +615,10 @@
         <v>467799205.3</v>
       </c>
       <c r="E8" t="n">
-        <v>364831557.9</v>
+        <v>363184964.4999999</v>
       </c>
       <c r="F8" t="n">
-        <v>6990445.599999997</v>
+        <v>11101878.2</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171865</v>
+        <v>172682</v>
       </c>
       <c r="C9" t="n">
         <v>232080000</v>
@@ -637,10 +637,10 @@
         <v>305259586.75</v>
       </c>
       <c r="E9" t="n">
-        <v>238886135.35</v>
+        <v>237952860.35</v>
       </c>
       <c r="F9" t="n">
-        <v>5787904.899999998</v>
+        <v>9335416.5</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191900</v>
+        <v>198700</v>
       </c>
       <c r="C12" t="n">
         <v>1447370000</v>
@@ -703,10 +703,10 @@
         <v>1454658669.166667</v>
       </c>
       <c r="E12" t="n">
-        <v>1780495247.5</v>
+        <v>1879145680.833333</v>
       </c>
       <c r="F12" t="n">
-        <v>105613993.3333333</v>
+        <v>125344080</v>
       </c>
     </row>
     <row r="13">
@@ -747,10 +747,10 @@
         <v>142191881</v>
       </c>
       <c r="E14" t="n">
-        <v>104986932.6</v>
+        <v>104502685</v>
       </c>
       <c r="F14" t="n">
-        <v>968495.1999999997</v>
+        <v>1452742.8</v>
       </c>
     </row>
     <row r="15">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2345</v>
+        <v>2674</v>
       </c>
       <c r="C16" t="n">
         <v>4330000</v>
       </c>
       <c r="D16" t="n">
-        <v>6052119.449999999</v>
+        <v>6001454.1</v>
       </c>
       <c r="E16" t="n">
-        <v>7398097.05</v>
+        <v>9127888.574999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>207919.1249999999</v>
       </c>
     </row>
     <row r="17">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44014</v>
+        <v>44798</v>
       </c>
       <c r="C21" t="n">
         <v>52250000</v>
@@ -899,10 +899,10 @@
         <v>388583552.2500001</v>
       </c>
       <c r="E21" t="n">
-        <v>542419384.5</v>
+        <v>542359610.7750001</v>
       </c>
       <c r="F21" t="n">
-        <v>25680965.84999999</v>
+        <v>42781685.175</v>
       </c>
     </row>
     <row r="22">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577289</v>
+        <v>1581148</v>
       </c>
       <c r="C23" t="n">
         <v>16880000</v>
@@ -943,10 +943,10 @@
         <v>1623782777.65</v>
       </c>
       <c r="E23" t="n">
-        <v>1165334842</v>
+        <v>1168408534.1</v>
       </c>
       <c r="F23" t="n">
-        <v>4103470.449999998</v>
+        <v>7863681.45</v>
       </c>
     </row>
     <row r="24">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112715</v>
+        <v>113253</v>
       </c>
       <c r="C25" t="n">
         <v>1210000</v>
@@ -987,10 +987,10 @@
         <v>231189205.125</v>
       </c>
       <c r="E25" t="n">
-        <v>187495788.725</v>
+        <v>186826137.45</v>
       </c>
       <c r="F25" t="n">
-        <v>4368215.649999999</v>
+        <v>7057142.325</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9156</v>
+        <v>9222</v>
       </c>
       <c r="C26" t="n">
         <v>2330000</v>
@@ -1009,10 +1009,10 @@
         <v>3394028.733333333</v>
       </c>
       <c r="E26" t="n">
-        <v>2620565.566666666</v>
+        <v>2649015.416666667</v>
       </c>
       <c r="F26" t="n">
-        <v>8222.499999999996</v>
+        <v>23187.45</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53514</v>
+        <v>53755</v>
       </c>
       <c r="C27" t="n">
         <v>87910000</v>
@@ -1031,10 +1031,10 @@
         <v>268969632.75</v>
       </c>
       <c r="E27" t="n">
-        <v>200386917.25</v>
+        <v>202164894.75</v>
       </c>
       <c r="F27" t="n">
-        <v>4402891.999999998</v>
+        <v>4758487.499999998</v>
       </c>
     </row>
     <row r="28">
@@ -1381,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,23 +1839,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>69996</v>
+        <v>70307</v>
       </c>
       <c r="D17" t="n">
-        <v>4338</v>
+        <v>4649</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>83428</v>
+        <v>65818</v>
       </c>
       <c r="D25" t="n">
-        <v>5978</v>
+        <v>-11632</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2271,23 +2271,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>503698</v>
+        <v>504352</v>
       </c>
       <c r="D33" t="n">
-        <v>25084</v>
+        <v>25738</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
@@ -2676,23 +2676,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>41297</v>
+        <v>41419</v>
       </c>
       <c r="D48" t="n">
-        <v>2076</v>
+        <v>2198</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49">
@@ -2865,23 +2865,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>171865</v>
+        <v>172682</v>
       </c>
       <c r="D55" t="n">
-        <v>10853</v>
+        <v>11670</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>191900</v>
+        <v>198700</v>
       </c>
       <c r="D75" t="n">
-        <v>36400</v>
+        <v>43200</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3823,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2345</v>
+        <v>2239</v>
       </c>
       <c r="D104" t="n">
-        <v>579</v>
+        <v>473</v>
       </c>
       <c r="E104" t="n">
         <v>0.0833333333333333</v>
@@ -4222,7 +4222,7 @@
         <v>2239</v>
       </c>
       <c r="D105" t="n">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4237,28 +4237,28 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>141562</v>
+        <v>2674</v>
       </c>
       <c r="D106" t="n">
-        <v>141562</v>
+        <v>435</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -4269,20 +4269,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>154710</v>
+        <v>141562</v>
       </c>
       <c r="D107" t="n">
-        <v>13148</v>
+        <v>141562</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4296,20 +4296,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>159968</v>
+        <v>154710</v>
       </c>
       <c r="D108" t="n">
-        <v>5258</v>
+        <v>13148</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -4323,20 +4323,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>170646</v>
+        <v>159968</v>
       </c>
       <c r="D109" t="n">
-        <v>10678</v>
+        <v>5258</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4350,20 +4350,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>171546</v>
+        <v>170646</v>
       </c>
       <c r="D110" t="n">
-        <v>900</v>
+        <v>10678</v>
       </c>
       <c r="E110" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F110" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4377,20 +4377,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>173231</v>
+        <v>171546</v>
       </c>
       <c r="D111" t="n">
-        <v>1685</v>
+        <v>900</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4404,20 +4404,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>167925</v>
+        <v>173231</v>
       </c>
       <c r="D112" t="n">
-        <v>-5306</v>
+        <v>1685</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4431,50 +4431,50 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>173213</v>
+        <v>167925</v>
       </c>
       <c r="D113" t="n">
-        <v>5288</v>
+        <v>-5306</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5984</v>
+        <v>173213</v>
       </c>
       <c r="D114" t="n">
-        <v>5984</v>
+        <v>5288</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="115">
@@ -4485,20 +4485,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6263</v>
+        <v>5984</v>
       </c>
       <c r="D115" t="n">
-        <v>279</v>
+        <v>5984</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -4512,20 +4512,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6561</v>
+        <v>6263</v>
       </c>
       <c r="D116" t="n">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4539,20 +4539,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6756</v>
+        <v>6561</v>
       </c>
       <c r="D117" t="n">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E117" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F117" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4561,25 +4561,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>68050</v>
+        <v>6756</v>
       </c>
       <c r="D118" t="n">
-        <v>68050</v>
+        <v>195</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4593,20 +4593,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>79250</v>
+        <v>68050</v>
       </c>
       <c r="D119" t="n">
-        <v>11200</v>
+        <v>68050</v>
       </c>
       <c r="E119" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F119" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4620,20 +4620,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>85210</v>
+        <v>79250</v>
       </c>
       <c r="D120" t="n">
-        <v>5960</v>
+        <v>11200</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -4647,50 +4647,50 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>89730</v>
+        <v>85210</v>
       </c>
       <c r="D121" t="n">
-        <v>4520</v>
+        <v>5960</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>21484</v>
+        <v>89730</v>
       </c>
       <c r="D122" t="n">
-        <v>21484</v>
+        <v>4520</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="123">
@@ -4701,20 +4701,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>23912</v>
+        <v>21484</v>
       </c>
       <c r="D123" t="n">
-        <v>2428</v>
+        <v>21484</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4728,20 +4728,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27845</v>
+        <v>23912</v>
       </c>
       <c r="D124" t="n">
-        <v>3933</v>
+        <v>2428</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4755,20 +4755,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>30570</v>
+        <v>27845</v>
       </c>
       <c r="D125" t="n">
-        <v>2725</v>
+        <v>3933</v>
       </c>
       <c r="E125" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F125" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4782,20 +4782,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32102</v>
+        <v>30570</v>
       </c>
       <c r="D126" t="n">
-        <v>1532</v>
+        <v>2725</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4809,20 +4809,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>35649</v>
+        <v>32102</v>
       </c>
       <c r="D127" t="n">
-        <v>3547</v>
+        <v>1532</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4836,20 +4836,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>36925</v>
+        <v>35649</v>
       </c>
       <c r="D128" t="n">
-        <v>1276</v>
+        <v>3547</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4863,50 +4863,50 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>44014</v>
+        <v>36925</v>
       </c>
       <c r="D129" t="n">
-        <v>7089</v>
+        <v>1276</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1234718</v>
+        <v>44798</v>
       </c>
       <c r="D130" t="n">
-        <v>1234718</v>
+        <v>7873</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131">
@@ -4917,20 +4917,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1353338</v>
+        <v>1234718</v>
       </c>
       <c r="D131" t="n">
-        <v>118620</v>
+        <v>1234718</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4944,20 +4944,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1409139</v>
+        <v>1353338</v>
       </c>
       <c r="D132" t="n">
-        <v>55801</v>
+        <v>118620</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4971,20 +4971,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1469032</v>
+        <v>1409139</v>
       </c>
       <c r="D133" t="n">
-        <v>59893</v>
+        <v>55801</v>
       </c>
       <c r="E133" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F133" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4998,20 +4998,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1521085</v>
+        <v>1469032</v>
       </c>
       <c r="D134" t="n">
-        <v>52053</v>
+        <v>59893</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -5025,20 +5025,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1546354</v>
+        <v>1521085</v>
       </c>
       <c r="D135" t="n">
-        <v>25269</v>
+        <v>52053</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -5052,20 +5052,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1563386</v>
+        <v>1546354</v>
       </c>
       <c r="D136" t="n">
-        <v>17032</v>
+        <v>25269</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -5079,50 +5079,50 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1577289</v>
+        <v>1563386</v>
       </c>
       <c r="D137" t="n">
-        <v>13903</v>
+        <v>17032</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>47847</v>
+        <v>1581148</v>
       </c>
       <c r="D138" t="n">
-        <v>47847</v>
+        <v>17762</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139">
@@ -5133,20 +5133,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>49718</v>
+        <v>47847</v>
       </c>
       <c r="D139" t="n">
-        <v>1871</v>
+        <v>47847</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>52819</v>
+        <v>49718</v>
       </c>
       <c r="D140" t="n">
-        <v>3101</v>
+        <v>1871</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5187,20 +5187,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>52970</v>
+        <v>52819</v>
       </c>
       <c r="D141" t="n">
-        <v>151</v>
+        <v>3101</v>
       </c>
       <c r="E141" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F141" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5214,20 +5214,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>56236</v>
+        <v>52970</v>
       </c>
       <c r="D142" t="n">
-        <v>3266</v>
+        <v>151</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5241,20 +5241,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>56904</v>
+        <v>56236</v>
       </c>
       <c r="D143" t="n">
-        <v>668</v>
+        <v>3266</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -5268,50 +5268,50 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>58242</v>
+        <v>56904</v>
       </c>
       <c r="D144" t="n">
-        <v>1338</v>
+        <v>668</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>82184</v>
+        <v>58242</v>
       </c>
       <c r="D145" t="n">
-        <v>82184</v>
+        <v>1338</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="146">
@@ -5322,20 +5322,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>90612</v>
+        <v>82184</v>
       </c>
       <c r="D146" t="n">
-        <v>8428</v>
+        <v>82184</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -5349,20 +5349,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>95375</v>
+        <v>90612</v>
       </c>
       <c r="D147" t="n">
-        <v>4763</v>
+        <v>8428</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -5376,20 +5376,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>98770</v>
+        <v>95375</v>
       </c>
       <c r="D148" t="n">
-        <v>3395</v>
+        <v>4763</v>
       </c>
       <c r="E148" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F148" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -5403,20 +5403,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>102476</v>
+        <v>98770</v>
       </c>
       <c r="D149" t="n">
-        <v>3706</v>
+        <v>3395</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5430,20 +5430,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>105370</v>
+        <v>102476</v>
       </c>
       <c r="D150" t="n">
-        <v>2894</v>
+        <v>3706</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -5457,20 +5457,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>105732</v>
+        <v>105370</v>
       </c>
       <c r="D151" t="n">
-        <v>362</v>
+        <v>2894</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -5484,50 +5484,50 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>112715</v>
+        <v>105732</v>
       </c>
       <c r="D152" t="n">
-        <v>6983</v>
+        <v>362</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6894</v>
+        <v>113253</v>
       </c>
       <c r="D153" t="n">
-        <v>6894</v>
+        <v>7521</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154">
@@ -5538,20 +5538,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7279</v>
+        <v>6894</v>
       </c>
       <c r="D154" t="n">
-        <v>385</v>
+        <v>6894</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5565,20 +5565,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8171</v>
+        <v>7279</v>
       </c>
       <c r="D155" t="n">
-        <v>892</v>
+        <v>385</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5592,20 +5592,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8308</v>
+        <v>8171</v>
       </c>
       <c r="D156" t="n">
-        <v>137</v>
+        <v>892</v>
       </c>
       <c r="E156" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F156" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5619,20 +5619,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8655</v>
+        <v>8308</v>
       </c>
       <c r="D157" t="n">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5646,20 +5646,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8821</v>
+        <v>8655</v>
       </c>
       <c r="D158" t="n">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5673,20 +5673,20 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>9081</v>
+        <v>8821</v>
       </c>
       <c r="D159" t="n">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5700,50 +5700,50 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9156</v>
+        <v>9081</v>
       </c>
       <c r="D160" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>42788</v>
+        <v>9222</v>
       </c>
       <c r="D161" t="n">
-        <v>42788</v>
+        <v>141</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162">
@@ -5754,20 +5754,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>44546</v>
+        <v>42788</v>
       </c>
       <c r="D162" t="n">
-        <v>1758</v>
+        <v>42788</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5781,20 +5781,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>45895</v>
+        <v>44546</v>
       </c>
       <c r="D163" t="n">
-        <v>1349</v>
+        <v>1758</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5808,20 +5808,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>47376</v>
+        <v>45895</v>
       </c>
       <c r="D164" t="n">
-        <v>1481</v>
+        <v>1349</v>
       </c>
       <c r="E164" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F164" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5835,20 +5835,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>48360</v>
+        <v>47376</v>
       </c>
       <c r="D165" t="n">
-        <v>984</v>
+        <v>1481</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5862,20 +5862,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>50040</v>
+        <v>48360</v>
       </c>
       <c r="D166" t="n">
-        <v>1680</v>
+        <v>984</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5889,20 +5889,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D167" t="n">
-        <v>490</v>
+        <v>1680</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5916,50 +5916,50 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>53514</v>
+        <v>50530</v>
       </c>
       <c r="D168" t="n">
-        <v>2984</v>
+        <v>490</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1300</v>
+        <v>53755</v>
       </c>
       <c r="D169" t="n">
-        <v>1300</v>
+        <v>3225</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="170">
@@ -5970,20 +5970,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="D170" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5992,25 +5992,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="D171" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6019,25 +6019,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>71000</v>
+        <v>4000</v>
       </c>
       <c r="D172" t="n">
-        <v>71000</v>
+        <v>4000</v>
       </c>
       <c r="E172" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -6051,20 +6051,20 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>85000</v>
+        <v>71000</v>
       </c>
       <c r="D173" t="n">
-        <v>14000</v>
+        <v>71000</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6073,25 +6073,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>04-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>22253</v>
+        <v>85000</v>
       </c>
       <c r="D174" t="n">
-        <v>22253</v>
+        <v>14000</v>
       </c>
       <c r="E174" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F174" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6105,20 +6105,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>05-2022</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>35455</v>
+        <v>22253</v>
       </c>
       <c r="D175" t="n">
-        <v>13202</v>
+        <v>22253</v>
       </c>
       <c r="E175" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3333333333333332</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6132,20 +6132,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>05-2022</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>55488</v>
+        <v>35455</v>
       </c>
       <c r="D176" t="n">
-        <v>20033</v>
+        <v>13202</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333332</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -6159,20 +6159,20 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>58869</v>
+        <v>55488</v>
       </c>
       <c r="D177" t="n">
-        <v>3381</v>
+        <v>20033</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F177" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -6186,20 +6186,20 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>77154</v>
+        <v>58869</v>
       </c>
       <c r="D178" t="n">
-        <v>18285</v>
+        <v>3381</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -6213,20 +6213,20 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>82708</v>
+        <v>77154</v>
       </c>
       <c r="D179" t="n">
-        <v>5554</v>
+        <v>18285</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6240,20 +6240,20 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>108836</v>
+        <v>82708</v>
       </c>
       <c r="D180" t="n">
-        <v>26128</v>
+        <v>5554</v>
       </c>
       <c r="E180" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F180" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6267,20 +6267,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>120842</v>
+        <v>108836</v>
       </c>
       <c r="D181" t="n">
-        <v>12006</v>
+        <v>26128</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -6294,20 +6294,20 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>137797</v>
+        <v>120842</v>
       </c>
       <c r="D182" t="n">
-        <v>16955</v>
+        <v>12006</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6321,20 +6321,20 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>149476</v>
+        <v>137797</v>
       </c>
       <c r="D183" t="n">
-        <v>11679</v>
+        <v>16955</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -6348,23 +6348,23 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>172220</v>
+        <v>149476</v>
       </c>
       <c r="D184" t="n">
-        <v>22744</v>
+        <v>11679</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6375,22 +6375,49 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>02-2023</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>172220</v>
+      </c>
+      <c r="D185" t="n">
+        <v>22744</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>03-2023</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C186" t="n">
         <v>177958</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D186" t="n">
         <v>5738</v>
       </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G186" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,19 +474,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94984</v>
+        <v>95753</v>
       </c>
       <c r="C2" t="n">
-        <v>63120000</v>
+        <v>400628195.5307471</v>
       </c>
       <c r="D2" t="n">
-        <v>129797392.8333333</v>
+        <v>130235970.7083333</v>
       </c>
       <c r="E2" t="n">
-        <v>96399202.89999999</v>
+        <v>97360129.86666667</v>
       </c>
       <c r="F2" t="n">
-        <v>1499049.066666666</v>
+        <v>2718590.325</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70307</v>
+        <v>70613</v>
       </c>
       <c r="C3" t="n">
-        <v>250670000</v>
+        <v>262061285.8996157</v>
       </c>
       <c r="D3" t="n">
-        <v>396528274.1166667</v>
+        <v>395887733.95</v>
       </c>
       <c r="E3" t="n">
-        <v>331144160.4083333</v>
+        <v>333020573.375</v>
       </c>
       <c r="F3" t="n">
-        <v>12231402.775</v>
+        <v>13015422.375</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +521,16 @@
         <v>177958</v>
       </c>
       <c r="C4" t="n">
-        <v>463600000</v>
+        <v>905852021.0275307</v>
       </c>
       <c r="D4" t="n">
-        <v>698537428.8</v>
+        <v>701520971.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1380044790.4</v>
+        <v>1385939138.6</v>
       </c>
       <c r="F4" t="n">
-        <v>33850423.99999999</v>
+        <v>33995003.49999999</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         <v>77450</v>
       </c>
       <c r="C5" t="n">
-        <v>368350000</v>
+        <v>1281801515.68425</v>
       </c>
       <c r="D5" t="n">
-        <v>1027898810.875</v>
+        <v>1025688971.941666</v>
       </c>
       <c r="E5" t="n">
-        <v>816611664.125</v>
+        <v>814856063.0583333</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>504352</v>
       </c>
       <c r="C6" t="n">
-        <v>6420000</v>
+        <v>640021623.5275614</v>
       </c>
       <c r="D6" t="n">
-        <v>1450143541</v>
+        <v>1432139176.416667</v>
       </c>
       <c r="E6" t="n">
-        <v>1056373154</v>
+        <v>1043257674.833333</v>
       </c>
       <c r="F6" t="n">
-        <v>32391273</v>
+        <v>31989116.75</v>
       </c>
     </row>
     <row r="7">
@@ -587,16 +587,16 @@
         <v>1056628</v>
       </c>
       <c r="C7" t="n">
-        <v>2732060000</v>
+        <v>4782387881.896517</v>
       </c>
       <c r="D7" t="n">
-        <v>8706475641.508333</v>
+        <v>8720089113.083332</v>
       </c>
       <c r="E7" t="n">
-        <v>7220832882.008333</v>
+        <v>7232123398.083333</v>
       </c>
       <c r="F7" t="n">
-        <v>88319060.8833333</v>
+        <v>88457156.8333333</v>
       </c>
     </row>
     <row r="8">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41680</v>
+        <v>41821</v>
       </c>
       <c r="C8" t="n">
-        <v>63200000</v>
+        <v>470882896.2920298</v>
       </c>
       <c r="D8" t="n">
-        <v>467799205.3</v>
+        <v>473580821.5249999</v>
       </c>
       <c r="E8" t="n">
-        <v>363184964.4999999</v>
+        <v>369836570.6</v>
       </c>
       <c r="F8" t="n">
-        <v>11101878.2</v>
+        <v>11960067.175</v>
       </c>
     </row>
     <row r="9">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172682</v>
+        <v>173169</v>
       </c>
       <c r="C9" t="n">
-        <v>232080000</v>
+        <v>928404334.4428424</v>
       </c>
       <c r="D9" t="n">
-        <v>305259586.75</v>
+        <v>307320217.7499999</v>
       </c>
       <c r="E9" t="n">
-        <v>237952860.35</v>
+        <v>240735758.9</v>
       </c>
       <c r="F9" t="n">
-        <v>9335416.5</v>
+        <v>9790639.950000001</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +653,13 @@
         <v>47111</v>
       </c>
       <c r="C10" t="n">
-        <v>68770000</v>
+        <v>434723858.2403148</v>
       </c>
       <c r="D10" t="n">
-        <v>426114124.325</v>
+        <v>426145610.6499999</v>
       </c>
       <c r="E10" t="n">
-        <v>402723831.975</v>
+        <v>402753589.9499999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
-        <v>1156480000</v>
+        <v>1634276737.527554</v>
       </c>
       <c r="D11" t="n">
-        <v>467716196.575</v>
+        <v>470277644.5249999</v>
       </c>
       <c r="E11" t="n">
-        <v>327532604.825</v>
+        <v>329326337.275</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198700</v>
+        <v>199900</v>
       </c>
       <c r="C12" t="n">
-        <v>1447370000</v>
+        <v>4835567102.554402</v>
       </c>
       <c r="D12" t="n">
-        <v>1454658669.166667</v>
+        <v>1451491808.333333</v>
       </c>
       <c r="E12" t="n">
-        <v>1879145680.833333</v>
+        <v>1828152991.666667</v>
       </c>
       <c r="F12" t="n">
-        <v>125344080</v>
+        <v>192818100</v>
       </c>
     </row>
     <row r="13">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20955</v>
+        <v>22704</v>
       </c>
       <c r="C13" t="n">
-        <v>36550000</v>
+        <v>41283146.03163727</v>
       </c>
       <c r="D13" t="n">
-        <v>12354824.99166667</v>
+        <v>12296314.81666666</v>
       </c>
       <c r="E13" t="n">
-        <v>10211614.50833333</v>
+        <v>11725402.68333333</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>312429.6999999998</v>
       </c>
     </row>
     <row r="14">
@@ -741,16 +741,16 @@
         <v>34248</v>
       </c>
       <c r="C14" t="n">
-        <v>1380000</v>
+        <v>1243452.317988126</v>
       </c>
       <c r="D14" t="n">
-        <v>142191881</v>
+        <v>141330361.7916667</v>
       </c>
       <c r="E14" t="n">
-        <v>104502685</v>
+        <v>103869518.9583333</v>
       </c>
       <c r="F14" t="n">
-        <v>1452742.8</v>
+        <v>1443940.85</v>
       </c>
     </row>
     <row r="15">
@@ -763,16 +763,16 @@
         <v>78462</v>
       </c>
       <c r="C15" t="n">
-        <v>50290000</v>
+        <v>1327096886.236509</v>
       </c>
       <c r="D15" t="n">
-        <v>437023707.1666666</v>
+        <v>441813334.4916667</v>
       </c>
       <c r="E15" t="n">
-        <v>554583412.8333333</v>
+        <v>560661453.5083333</v>
       </c>
       <c r="F15" t="n">
-        <v>15688035.99999999</v>
+        <v>15859971.39999999</v>
       </c>
     </row>
     <row r="16">
@@ -785,16 +785,16 @@
         <v>2674</v>
       </c>
       <c r="C16" t="n">
-        <v>4330000</v>
+        <v>7887853.588592038</v>
       </c>
       <c r="D16" t="n">
-        <v>6001454.1</v>
+        <v>6098972.366666666</v>
       </c>
       <c r="E16" t="n">
-        <v>9127888.574999999</v>
+        <v>9276208.608333332</v>
       </c>
       <c r="F16" t="n">
-        <v>207919.1249999999</v>
+        <v>211297.6249999999</v>
       </c>
     </row>
     <row r="17">
@@ -807,16 +807,16 @@
         <v>178519</v>
       </c>
       <c r="C17" t="n">
-        <v>556100000</v>
+        <v>1612170742.480979</v>
       </c>
       <c r="D17" t="n">
-        <v>1465441727.583333</v>
+        <v>1459536978</v>
       </c>
       <c r="E17" t="n">
-        <v>1201770073.65</v>
+        <v>1196927744.4</v>
       </c>
       <c r="F17" t="n">
-        <v>13233131.86666666</v>
+        <v>13179811.2</v>
       </c>
     </row>
     <row r="18">
@@ -829,13 +829,13 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
-        <v>270000</v>
+        <v>61148087.39130039</v>
       </c>
       <c r="D18" t="n">
-        <v>23772.5</v>
+        <v>23680</v>
       </c>
       <c r="E18" t="n">
-        <v>22487.5</v>
+        <v>22400</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -844,218 +844,240 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6756</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>76540</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48202317.2050199</v>
+      </c>
       <c r="D19" t="n">
-        <v>556804.9666666667</v>
+        <v>157762188.225</v>
       </c>
       <c r="E19" t="n">
-        <v>327555.4333333333</v>
+        <v>116636779.8</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3418269.975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89730</v>
-      </c>
-      <c r="C20" t="n">
-        <v>407650000</v>
-      </c>
+        <v>6756</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1196589472</v>
+        <v>566163.0333333332</v>
       </c>
       <c r="E20" t="n">
-        <v>937811472</v>
+        <v>333060.5666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>8997511.999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44798</v>
+        <v>89730</v>
       </c>
       <c r="C21" t="n">
-        <v>52250000</v>
+        <v>1005322827.033962</v>
       </c>
       <c r="D21" t="n">
-        <v>388583552.2500001</v>
+        <v>1195111718.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>542359610.7750001</v>
+        <v>936653302</v>
       </c>
       <c r="F21" t="n">
-        <v>42781685.175</v>
+        <v>8986400.33333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4000</v>
+        <v>45238</v>
       </c>
       <c r="C22" t="n">
-        <v>11670000</v>
+        <v>449669863.8988088</v>
       </c>
       <c r="D22" t="n">
-        <v>76276333.33333334</v>
+        <v>393768027.25</v>
       </c>
       <c r="E22" t="n">
-        <v>15255266.66666666</v>
+        <v>556864310.2750001</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45775326.675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1581148</v>
+        <v>4000</v>
       </c>
       <c r="C23" t="n">
-        <v>16880000</v>
+        <v>13050897.13672503</v>
       </c>
       <c r="D23" t="n">
-        <v>1623782777.65</v>
+        <v>75920000</v>
       </c>
       <c r="E23" t="n">
-        <v>1168408534.1</v>
+        <v>15183999.99999999</v>
       </c>
       <c r="F23" t="n">
-        <v>7863681.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58242</v>
+        <v>1583563</v>
       </c>
       <c r="C24" t="n">
-        <v>10080000</v>
+        <v>2258260418.548132</v>
       </c>
       <c r="D24" t="n">
-        <v>219824366.3</v>
+        <v>1633777261.966666</v>
       </c>
       <c r="E24" t="n">
-        <v>155780046.4</v>
+        <v>1178827446.783333</v>
       </c>
       <c r="F24" t="n">
-        <v>720446.0999999996</v>
+        <v>8987844.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113253</v>
+        <v>58242</v>
       </c>
       <c r="C25" t="n">
-        <v>1210000</v>
+        <v>14525873.04715925</v>
       </c>
       <c r="D25" t="n">
-        <v>231189205.125</v>
+        <v>226244160.45</v>
       </c>
       <c r="E25" t="n">
-        <v>186826137.45</v>
+        <v>160329477.6</v>
       </c>
       <c r="F25" t="n">
-        <v>7057142.325</v>
+        <v>741486.1499999998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9222</v>
+        <v>113024</v>
       </c>
       <c r="C26" t="n">
-        <v>2330000</v>
+        <v>1383018.365918119</v>
       </c>
       <c r="D26" t="n">
-        <v>3394028.733333333</v>
+        <v>231441749.75</v>
       </c>
       <c r="E26" t="n">
-        <v>2649015.416666667</v>
+        <v>186384887.65</v>
       </c>
       <c r="F26" t="n">
-        <v>23187.45</v>
+        <v>6849740.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53755</v>
+        <v>9222</v>
       </c>
       <c r="C27" t="n">
-        <v>87910000</v>
+        <v>22464003.09610913</v>
       </c>
       <c r="D27" t="n">
-        <v>268969632.75</v>
+        <v>3399188.4</v>
       </c>
       <c r="E27" t="n">
-        <v>202164894.75</v>
+        <v>2653042.5</v>
       </c>
       <c r="F27" t="n">
-        <v>4758487.499999998</v>
+        <v>23222.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>53957</v>
+      </c>
+      <c r="C28" t="n">
+        <v>426290287.8482025</v>
+      </c>
+      <c r="D28" t="n">
+        <v>269881085.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>201808435.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7610510.25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>85000</v>
       </c>
-      <c r="C28" t="n">
-        <v>4745180000</v>
-      </c>
-      <c r="D28" t="n">
-        <v>485675433.3333333</v>
-      </c>
-      <c r="E28" t="n">
-        <v>345514066.6666667</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="C29" t="n">
+        <v>6216891238.034975</v>
+      </c>
+      <c r="D29" t="n">
+        <v>487085966.6666666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>346517533.3333334</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,7 +1092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,7 +1119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2397.2</v>
+        <v>2405.3</v>
       </c>
     </row>
     <row r="3">
@@ -1107,7 +1129,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10523.9</v>
+        <v>10506.9</v>
       </c>
     </row>
     <row r="4">
@@ -1117,7 +1139,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11870.4</v>
+        <v>11921.1</v>
       </c>
     </row>
     <row r="5">
@@ -1127,7 +1149,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23815.5</v>
+        <v>23764.3</v>
       </c>
     </row>
     <row r="6">
@@ -1137,7 +1159,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5034</v>
+        <v>4971.5</v>
       </c>
     </row>
     <row r="7">
@@ -1147,7 +1169,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15157.3</v>
+        <v>15181</v>
       </c>
     </row>
     <row r="8">
@@ -1157,7 +1179,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20203.6</v>
+        <v>20453.3</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1189,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3199.8</v>
+        <v>3221.4</v>
       </c>
     </row>
     <row r="10">
@@ -1177,7 +1199,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17593.3</v>
+        <v>17594.6</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1209,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6683.1</v>
+        <v>6719.7</v>
       </c>
     </row>
     <row r="12">
@@ -1197,7 +1219,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17408.9</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="13">
@@ -1207,7 +1229,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1076.9</v>
+        <v>1071.8</v>
       </c>
     </row>
     <row r="14">
@@ -1217,7 +1239,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7245.6</v>
+        <v>7201.7</v>
       </c>
     </row>
     <row r="15">
@@ -1227,7 +1249,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12838</v>
+        <v>12978.7</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1259,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5735.7</v>
+        <v>5828.9</v>
       </c>
     </row>
     <row r="17">
@@ -1247,7 +1269,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15014.9</v>
+        <v>14954.4</v>
       </c>
     </row>
     <row r="18">
@@ -1257,7 +1279,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="19">
@@ -1267,107 +1289,117 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.9</v>
+        <v>3629.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23887.2</v>
+        <v>133.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21735.9</v>
+        <v>23857.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22882.9</v>
+        <v>22025.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1770.9</v>
+        <v>22776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6461.4</v>
+        <v>1781.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3753.3</v>
+        <v>6650.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>657.8</v>
+        <v>3757.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8853</v>
+        <v>658.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>9778.700000000001</v>
+      <c r="B30" t="n">
+        <v>9807.1</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,23 +1655,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>94984</v>
+        <v>95753</v>
       </c>
       <c r="D9" t="n">
-        <v>3752</v>
+        <v>4521</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -1843,10 +1875,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>70307</v>
+        <v>70613</v>
       </c>
       <c r="D17" t="n">
-        <v>4649</v>
+        <v>4955</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2055,23 +2087,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65818</v>
+        <v>65744</v>
       </c>
       <c r="D25" t="n">
-        <v>-11632</v>
+        <v>-11706</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
@@ -2680,10 +2712,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>41419</v>
+        <v>41560</v>
       </c>
       <c r="D48" t="n">
-        <v>2198</v>
+        <v>2339</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2869,10 +2901,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>172682</v>
+        <v>173169</v>
       </c>
       <c r="D55" t="n">
-        <v>11670</v>
+        <v>12157</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3081,7 +3113,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3094,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64">
@@ -3405,23 +3437,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>198700</v>
+        <v>199900</v>
       </c>
       <c r="D75" t="n">
-        <v>43200</v>
+        <v>44400</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76">
@@ -3616,28 +3648,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26563</v>
+        <v>22704</v>
       </c>
       <c r="D83" t="n">
-        <v>26563</v>
+        <v>1749</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="84">
@@ -3648,20 +3680,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29027</v>
+        <v>26563</v>
       </c>
       <c r="D84" t="n">
-        <v>2464</v>
+        <v>26563</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3675,20 +3707,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30000</v>
+        <v>29027</v>
       </c>
       <c r="D85" t="n">
-        <v>973</v>
+        <v>2464</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3702,20 +3734,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>31290</v>
+        <v>30000</v>
       </c>
       <c r="D86" t="n">
-        <v>1290</v>
+        <v>973</v>
       </c>
       <c r="E86" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F86" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3729,20 +3761,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>32271</v>
+        <v>31290</v>
       </c>
       <c r="D87" t="n">
-        <v>981</v>
+        <v>1290</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3756,20 +3788,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>33218</v>
+        <v>32271</v>
       </c>
       <c r="D88" t="n">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3783,20 +3815,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33446</v>
+        <v>33218</v>
       </c>
       <c r="D89" t="n">
-        <v>228</v>
+        <v>947</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3810,50 +3842,50 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34248</v>
+        <v>33446</v>
       </c>
       <c r="D90" t="n">
-        <v>802</v>
+        <v>228</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>42764</v>
+        <v>34248</v>
       </c>
       <c r="D91" t="n">
-        <v>42764</v>
+        <v>802</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
@@ -3864,20 +3896,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>46481</v>
+        <v>42764</v>
       </c>
       <c r="D92" t="n">
-        <v>3717</v>
+        <v>42764</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3891,20 +3923,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>49999</v>
+        <v>46481</v>
       </c>
       <c r="D93" t="n">
-        <v>3518</v>
+        <v>3717</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3918,20 +3950,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>55144</v>
+        <v>49999</v>
       </c>
       <c r="D94" t="n">
-        <v>5145</v>
+        <v>3518</v>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F94" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3945,20 +3977,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>58511</v>
+        <v>55144</v>
       </c>
       <c r="D95" t="n">
-        <v>3367</v>
+        <v>5145</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3972,20 +4004,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>70070</v>
+        <v>58511</v>
       </c>
       <c r="D96" t="n">
-        <v>11559</v>
+        <v>3367</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3999,20 +4031,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>71130</v>
+        <v>70070</v>
       </c>
       <c r="D97" t="n">
-        <v>1060</v>
+        <v>11559</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4026,50 +4058,50 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>78462</v>
+        <v>71130</v>
       </c>
       <c r="D98" t="n">
-        <v>7332</v>
+        <v>1060</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1215</v>
+        <v>78462</v>
       </c>
       <c r="D99" t="n">
-        <v>1215</v>
+        <v>7332</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="100">
@@ -4080,20 +4112,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1500</v>
+        <v>1215</v>
       </c>
       <c r="D100" t="n">
-        <v>285</v>
+        <v>1215</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4107,20 +4139,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="D101" t="n">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -4134,20 +4166,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1766</v>
+        <v>1640</v>
       </c>
       <c r="D102" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E102" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F102" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4161,20 +4193,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>1766</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4188,20 +4220,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2239</v>
+        <v>1766</v>
       </c>
       <c r="D104" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4215,20 +4247,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>2239</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -4242,50 +4274,50 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2674</v>
+        <v>2239</v>
       </c>
       <c r="D106" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>141562</v>
+        <v>2674</v>
       </c>
       <c r="D107" t="n">
-        <v>141562</v>
+        <v>435</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -4296,20 +4328,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>154710</v>
+        <v>141562</v>
       </c>
       <c r="D108" t="n">
-        <v>13148</v>
+        <v>141562</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -4323,20 +4355,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>159968</v>
+        <v>154710</v>
       </c>
       <c r="D109" t="n">
-        <v>5258</v>
+        <v>13148</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4350,20 +4382,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>170646</v>
+        <v>159968</v>
       </c>
       <c r="D110" t="n">
-        <v>10678</v>
+        <v>5258</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4377,20 +4409,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>171546</v>
+        <v>170646</v>
       </c>
       <c r="D111" t="n">
-        <v>900</v>
+        <v>10678</v>
       </c>
       <c r="E111" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F111" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4404,20 +4436,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>173231</v>
+        <v>171546</v>
       </c>
       <c r="D112" t="n">
-        <v>1685</v>
+        <v>900</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4431,20 +4463,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>167925</v>
+        <v>173231</v>
       </c>
       <c r="D113" t="n">
-        <v>-5306</v>
+        <v>1685</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4458,74 +4490,74 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>173213</v>
+        <v>167925</v>
       </c>
       <c r="D114" t="n">
-        <v>5288</v>
+        <v>-5306</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5984</v>
+        <v>173213</v>
       </c>
       <c r="D115" t="n">
-        <v>5984</v>
+        <v>5288</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6263</v>
+        <v>60010</v>
       </c>
       <c r="D116" t="n">
-        <v>279</v>
+        <v>60010</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4534,25 +4566,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6561</v>
+        <v>63279</v>
       </c>
       <c r="D117" t="n">
-        <v>298</v>
+        <v>3269</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4561,25 +4593,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6756</v>
+        <v>66368</v>
       </c>
       <c r="D118" t="n">
-        <v>195</v>
+        <v>3089</v>
       </c>
       <c r="E118" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F118" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4588,25 +4620,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>68050</v>
+        <v>68925</v>
       </c>
       <c r="D119" t="n">
-        <v>68050</v>
+        <v>2557</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4615,25 +4647,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>79250</v>
+        <v>70667</v>
       </c>
       <c r="D120" t="n">
-        <v>11200</v>
+        <v>1742</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -4642,25 +4674,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>85210</v>
+        <v>72302</v>
       </c>
       <c r="D121" t="n">
-        <v>5960</v>
+        <v>1635</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4669,79 +4701,79 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>89730</v>
+        <v>72773</v>
       </c>
       <c r="D122" t="n">
-        <v>4520</v>
+        <v>471</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21484</v>
+        <v>76540</v>
       </c>
       <c r="D123" t="n">
-        <v>21484</v>
+        <v>3767</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>23912</v>
+        <v>5984</v>
       </c>
       <c r="D124" t="n">
-        <v>2428</v>
+        <v>5984</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4750,25 +4782,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>27845</v>
+        <v>6263</v>
       </c>
       <c r="D125" t="n">
-        <v>3933</v>
+        <v>279</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4777,25 +4809,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>30570</v>
+        <v>6561</v>
       </c>
       <c r="D126" t="n">
-        <v>2725</v>
+        <v>298</v>
       </c>
       <c r="E126" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F126" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4804,25 +4836,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>32102</v>
+        <v>6756</v>
       </c>
       <c r="D127" t="n">
-        <v>1532</v>
+        <v>195</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4831,25 +4863,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>35649</v>
+        <v>68050</v>
       </c>
       <c r="D128" t="n">
-        <v>3547</v>
+        <v>68050</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4858,25 +4890,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>36925</v>
+        <v>79250</v>
       </c>
       <c r="D129" t="n">
-        <v>1276</v>
+        <v>11200</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4885,79 +4917,79 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>44798</v>
+        <v>85210</v>
       </c>
       <c r="D130" t="n">
-        <v>7873</v>
+        <v>5960</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F130" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G130" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1234718</v>
+        <v>89730</v>
       </c>
       <c r="D131" t="n">
-        <v>1234718</v>
+        <v>4520</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1353338</v>
+        <v>21484</v>
       </c>
       <c r="D132" t="n">
-        <v>118620</v>
+        <v>21484</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4966,25 +4998,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1409139</v>
+        <v>23912</v>
       </c>
       <c r="D133" t="n">
-        <v>55801</v>
+        <v>2428</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4993,25 +5025,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1469032</v>
+        <v>27845</v>
       </c>
       <c r="D134" t="n">
-        <v>59893</v>
+        <v>3933</v>
       </c>
       <c r="E134" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F134" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -5020,25 +5052,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1521085</v>
+        <v>30570</v>
       </c>
       <c r="D135" t="n">
-        <v>52053</v>
+        <v>2725</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -5047,25 +5079,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1546354</v>
+        <v>32102</v>
       </c>
       <c r="D136" t="n">
-        <v>25269</v>
+        <v>1532</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -5074,25 +5106,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1563386</v>
+        <v>35649</v>
       </c>
       <c r="D137" t="n">
-        <v>17032</v>
+        <v>3547</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5101,79 +5133,79 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1581148</v>
+        <v>36925</v>
       </c>
       <c r="D138" t="n">
-        <v>17762</v>
+        <v>1276</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>47847</v>
+        <v>45238</v>
       </c>
       <c r="D139" t="n">
-        <v>47847</v>
+        <v>8313</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>49718</v>
+        <v>1234718</v>
       </c>
       <c r="D140" t="n">
-        <v>1871</v>
+        <v>1234718</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5182,25 +5214,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>52819</v>
+        <v>1353338</v>
       </c>
       <c r="D141" t="n">
-        <v>3101</v>
+        <v>118620</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5209,25 +5241,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>52970</v>
+        <v>1409139</v>
       </c>
       <c r="D142" t="n">
-        <v>151</v>
+        <v>55801</v>
       </c>
       <c r="E142" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F142" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5236,25 +5268,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>56236</v>
+        <v>1469032</v>
       </c>
       <c r="D143" t="n">
-        <v>3266</v>
+        <v>59893</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -5263,25 +5295,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>56904</v>
+        <v>1521085</v>
       </c>
       <c r="D144" t="n">
-        <v>668</v>
+        <v>52053</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5290,52 +5322,52 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>58242</v>
+        <v>1546354</v>
       </c>
       <c r="D145" t="n">
-        <v>1338</v>
+        <v>25269</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F145" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>82184</v>
+        <v>1563386</v>
       </c>
       <c r="D146" t="n">
-        <v>82184</v>
+        <v>17032</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -5344,52 +5376,52 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>90612</v>
+        <v>1583563</v>
       </c>
       <c r="D147" t="n">
-        <v>8428</v>
+        <v>20177</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>95375</v>
+        <v>47847</v>
       </c>
       <c r="D148" t="n">
-        <v>4763</v>
+        <v>47847</v>
       </c>
       <c r="E148" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F148" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -5398,25 +5430,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>98770</v>
+        <v>49718</v>
       </c>
       <c r="D149" t="n">
-        <v>3395</v>
+        <v>1871</v>
       </c>
       <c r="E149" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F149" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5425,25 +5457,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>102476</v>
+        <v>52819</v>
       </c>
       <c r="D150" t="n">
-        <v>3706</v>
+        <v>3101</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -5452,25 +5484,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>105370</v>
+        <v>52970</v>
       </c>
       <c r="D151" t="n">
-        <v>2894</v>
+        <v>151</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -5479,25 +5511,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>105732</v>
+        <v>56236</v>
       </c>
       <c r="D152" t="n">
-        <v>362</v>
+        <v>3266</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -5506,79 +5538,79 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>113253</v>
+        <v>56904</v>
       </c>
       <c r="D153" t="n">
-        <v>7521</v>
+        <v>668</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6894</v>
+        <v>58242</v>
       </c>
       <c r="D154" t="n">
-        <v>6894</v>
+        <v>1338</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7279</v>
+        <v>82184</v>
       </c>
       <c r="D155" t="n">
-        <v>385</v>
+        <v>82184</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5587,25 +5619,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8171</v>
+        <v>90612</v>
       </c>
       <c r="D156" t="n">
-        <v>892</v>
+        <v>8428</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5614,25 +5646,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8308</v>
+        <v>95375</v>
       </c>
       <c r="D157" t="n">
-        <v>137</v>
+        <v>4763</v>
       </c>
       <c r="E157" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F157" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5641,25 +5673,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8655</v>
+        <v>98770</v>
       </c>
       <c r="D158" t="n">
-        <v>347</v>
+        <v>3395</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5668,25 +5700,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8821</v>
+        <v>102476</v>
       </c>
       <c r="D159" t="n">
-        <v>166</v>
+        <v>3706</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5695,25 +5727,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9081</v>
+        <v>105370</v>
       </c>
       <c r="D160" t="n">
-        <v>260</v>
+        <v>2894</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5722,79 +5754,79 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9222</v>
+        <v>105732</v>
       </c>
       <c r="D161" t="n">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>42788</v>
+        <v>113024</v>
       </c>
       <c r="D162" t="n">
-        <v>42788</v>
+        <v>7292</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>44546</v>
+        <v>6894</v>
       </c>
       <c r="D163" t="n">
-        <v>1758</v>
+        <v>6894</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5803,25 +5835,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>45895</v>
+        <v>7279</v>
       </c>
       <c r="D164" t="n">
-        <v>1349</v>
+        <v>385</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5830,25 +5862,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>47376</v>
+        <v>8171</v>
       </c>
       <c r="D165" t="n">
-        <v>1481</v>
+        <v>892</v>
       </c>
       <c r="E165" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F165" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5857,25 +5889,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>48360</v>
+        <v>8308</v>
       </c>
       <c r="D166" t="n">
-        <v>984</v>
+        <v>137</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5884,25 +5916,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>50040</v>
+        <v>8655</v>
       </c>
       <c r="D167" t="n">
-        <v>1680</v>
+        <v>347</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5911,25 +5943,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>50530</v>
+        <v>8821</v>
       </c>
       <c r="D168" t="n">
-        <v>490</v>
+        <v>166</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -5938,79 +5970,79 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>53755</v>
+        <v>9081</v>
       </c>
       <c r="D169" t="n">
-        <v>3225</v>
+        <v>260</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1300</v>
+        <v>9222</v>
       </c>
       <c r="D170" t="n">
-        <v>1300</v>
+        <v>141</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1800</v>
+        <v>42788</v>
       </c>
       <c r="D171" t="n">
-        <v>500</v>
+        <v>42788</v>
       </c>
       <c r="E171" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -6019,25 +6051,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4000</v>
+        <v>44546</v>
       </c>
       <c r="D172" t="n">
-        <v>4000</v>
+        <v>1758</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -6046,25 +6078,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>71000</v>
+        <v>45895</v>
       </c>
       <c r="D173" t="n">
-        <v>71000</v>
+        <v>1349</v>
       </c>
       <c r="E173" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F173" t="n">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6073,25 +6105,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>85000</v>
+        <v>47376</v>
       </c>
       <c r="D174" t="n">
-        <v>14000</v>
+        <v>1481</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6100,25 +6132,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>04-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22253</v>
+        <v>48360</v>
       </c>
       <c r="D175" t="n">
-        <v>22253</v>
+        <v>984</v>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F175" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6127,25 +6159,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>05-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>35455</v>
+        <v>50040</v>
       </c>
       <c r="D176" t="n">
-        <v>13202</v>
+        <v>1680</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3333333333333332</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -6154,25 +6186,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55488</v>
+        <v>50530</v>
       </c>
       <c r="D177" t="n">
-        <v>20033</v>
+        <v>490</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -6181,52 +6213,52 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>58869</v>
+        <v>53957</v>
       </c>
       <c r="D178" t="n">
-        <v>3381</v>
+        <v>3427</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>77154</v>
+        <v>1300</v>
       </c>
       <c r="D179" t="n">
-        <v>18285</v>
+        <v>1300</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6235,7 +6267,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6244,10 +6276,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>82708</v>
+        <v>1800</v>
       </c>
       <c r="D180" t="n">
-        <v>5554</v>
+        <v>500</v>
       </c>
       <c r="E180" t="n">
         <v>0.3333333333333333</v>
@@ -6262,25 +6294,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>108836</v>
+        <v>4000</v>
       </c>
       <c r="D181" t="n">
-        <v>26128</v>
+        <v>4000</v>
       </c>
       <c r="E181" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F181" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -6289,25 +6321,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>120842</v>
+        <v>71000</v>
       </c>
       <c r="D182" t="n">
-        <v>12006</v>
+        <v>71000</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6316,25 +6348,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>137797</v>
+        <v>85000</v>
       </c>
       <c r="D183" t="n">
-        <v>16955</v>
+        <v>14000</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -6348,20 +6380,20 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>149476</v>
+        <v>22253</v>
       </c>
       <c r="D184" t="n">
-        <v>11679</v>
+        <v>22253</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -6375,23 +6407,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>05-2022</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>172220</v>
+        <v>35455</v>
       </c>
       <c r="D185" t="n">
-        <v>22744</v>
+        <v>13202</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333332</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6402,22 +6434,265 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>06-2022</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>55488</v>
+      </c>
+      <c r="D186" t="n">
+        <v>20033</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07-2022</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>58869</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3381</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>08-2022</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>77154</v>
+      </c>
+      <c r="D188" t="n">
+        <v>18285</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>09-2022</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>82708</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5554</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10-2022</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>108836</v>
+      </c>
+      <c r="D190" t="n">
+        <v>26128</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>11-2022</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>120842</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12006</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>12-2022</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>137797</v>
+      </c>
+      <c r="D192" t="n">
+        <v>16955</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>01-2023</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>149476</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11679</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>02-2023</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>172220</v>
+      </c>
+      <c r="D194" t="n">
+        <v>22744</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
           <t>03-2023</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C195" t="n">
         <v>177958</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D195" t="n">
         <v>5738</v>
       </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G195" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -477,7 +477,7 @@
         <v>95753</v>
       </c>
       <c r="C2" t="n">
-        <v>400628195.5307471</v>
+        <v>63120000</v>
       </c>
       <c r="D2" t="n">
         <v>130235970.7083333</v>
@@ -499,7 +499,7 @@
         <v>70613</v>
       </c>
       <c r="C3" t="n">
-        <v>262061285.8996157</v>
+        <v>250670000</v>
       </c>
       <c r="D3" t="n">
         <v>395887733.95</v>
@@ -521,7 +521,7 @@
         <v>177958</v>
       </c>
       <c r="C4" t="n">
-        <v>905852021.0275307</v>
+        <v>463600000</v>
       </c>
       <c r="D4" t="n">
         <v>701520971.7</v>
@@ -543,7 +543,7 @@
         <v>77450</v>
       </c>
       <c r="C5" t="n">
-        <v>1281801515.68425</v>
+        <v>368350000</v>
       </c>
       <c r="D5" t="n">
         <v>1025688971.941666</v>
@@ -565,7 +565,7 @@
         <v>504352</v>
       </c>
       <c r="C6" t="n">
-        <v>640021623.5275614</v>
+        <v>6420000</v>
       </c>
       <c r="D6" t="n">
         <v>1432139176.416667</v>
@@ -587,7 +587,7 @@
         <v>1056628</v>
       </c>
       <c r="C7" t="n">
-        <v>4782387881.896517</v>
+        <v>2732060000</v>
       </c>
       <c r="D7" t="n">
         <v>8720089113.083332</v>
@@ -609,7 +609,7 @@
         <v>41821</v>
       </c>
       <c r="C8" t="n">
-        <v>470882896.2920298</v>
+        <v>63200000</v>
       </c>
       <c r="D8" t="n">
         <v>473580821.5249999</v>
@@ -631,7 +631,7 @@
         <v>173169</v>
       </c>
       <c r="C9" t="n">
-        <v>928404334.4428424</v>
+        <v>232080000</v>
       </c>
       <c r="D9" t="n">
         <v>307320217.7499999</v>
@@ -653,7 +653,7 @@
         <v>47111</v>
       </c>
       <c r="C10" t="n">
-        <v>434723858.2403148</v>
+        <v>68770000</v>
       </c>
       <c r="D10" t="n">
         <v>426145610.6499999</v>
@@ -675,7 +675,7 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
-        <v>1634276737.527554</v>
+        <v>1156480000</v>
       </c>
       <c r="D11" t="n">
         <v>470277644.5249999</v>
@@ -697,7 +697,7 @@
         <v>199900</v>
       </c>
       <c r="C12" t="n">
-        <v>4835567102.554402</v>
+        <v>1447370000</v>
       </c>
       <c r="D12" t="n">
         <v>1451491808.333333</v>
@@ -719,7 +719,7 @@
         <v>22704</v>
       </c>
       <c r="C13" t="n">
-        <v>41283146.03163727</v>
+        <v>36550000</v>
       </c>
       <c r="D13" t="n">
         <v>12296314.81666666</v>
@@ -741,7 +741,7 @@
         <v>34248</v>
       </c>
       <c r="C14" t="n">
-        <v>1243452.317988126</v>
+        <v>1380000</v>
       </c>
       <c r="D14" t="n">
         <v>141330361.7916667</v>
@@ -763,7 +763,7 @@
         <v>78462</v>
       </c>
       <c r="C15" t="n">
-        <v>1327096886.236509</v>
+        <v>50290000</v>
       </c>
       <c r="D15" t="n">
         <v>441813334.4916667</v>
@@ -785,7 +785,7 @@
         <v>2674</v>
       </c>
       <c r="C16" t="n">
-        <v>7887853.588592038</v>
+        <v>4330000</v>
       </c>
       <c r="D16" t="n">
         <v>6098972.366666666</v>
@@ -807,7 +807,7 @@
         <v>178519</v>
       </c>
       <c r="C17" t="n">
-        <v>1612170742.480979</v>
+        <v>556100000</v>
       </c>
       <c r="D17" t="n">
         <v>1459536978</v>
@@ -829,7 +829,7 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
-        <v>61148087.39130039</v>
+        <v>270000</v>
       </c>
       <c r="D18" t="n">
         <v>23680</v>
@@ -851,7 +851,7 @@
         <v>76540</v>
       </c>
       <c r="C19" t="n">
-        <v>48202317.2050199</v>
+        <v>1910000</v>
       </c>
       <c r="D19" t="n">
         <v>157762188.225</v>
@@ -893,7 +893,7 @@
         <v>89730</v>
       </c>
       <c r="C21" t="n">
-        <v>1005322827.033962</v>
+        <v>407650000</v>
       </c>
       <c r="D21" t="n">
         <v>1195111718.666667</v>
@@ -915,7 +915,7 @@
         <v>45238</v>
       </c>
       <c r="C22" t="n">
-        <v>449669863.8988088</v>
+        <v>52250000</v>
       </c>
       <c r="D22" t="n">
         <v>393768027.25</v>
@@ -937,7 +937,7 @@
         <v>4000</v>
       </c>
       <c r="C23" t="n">
-        <v>13050897.13672503</v>
+        <v>11670000</v>
       </c>
       <c r="D23" t="n">
         <v>75920000</v>
@@ -959,7 +959,7 @@
         <v>1583563</v>
       </c>
       <c r="C24" t="n">
-        <v>2258260418.548132</v>
+        <v>16880000</v>
       </c>
       <c r="D24" t="n">
         <v>1633777261.966666</v>
@@ -981,7 +981,7 @@
         <v>58242</v>
       </c>
       <c r="C25" t="n">
-        <v>14525873.04715925</v>
+        <v>11050000</v>
       </c>
       <c r="D25" t="n">
         <v>226244160.45</v>
@@ -1003,7 +1003,7 @@
         <v>113024</v>
       </c>
       <c r="C26" t="n">
-        <v>1383018.365918119</v>
+        <v>1210000</v>
       </c>
       <c r="D26" t="n">
         <v>231441749.75</v>
@@ -1025,7 +1025,7 @@
         <v>9222</v>
       </c>
       <c r="C27" t="n">
-        <v>22464003.09610913</v>
+        <v>2330000</v>
       </c>
       <c r="D27" t="n">
         <v>3399188.4</v>
@@ -1047,7 +1047,7 @@
         <v>53957</v>
       </c>
       <c r="C28" t="n">
-        <v>426290287.8482025</v>
+        <v>87910000</v>
       </c>
       <c r="D28" t="n">
         <v>269881085.25</v>
@@ -1069,7 +1069,7 @@
         <v>85000</v>
       </c>
       <c r="C29" t="n">
-        <v>6216891238.034975</v>
+        <v>4745180000</v>
       </c>
       <c r="D29" t="n">
         <v>487085966.6666666</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -477,16 +477,16 @@
         <v>95753</v>
       </c>
       <c r="C2" t="n">
-        <v>63120000</v>
+        <v>58559136.85168231</v>
       </c>
       <c r="D2" t="n">
-        <v>130235970.7083333</v>
+        <v>120825497.2916667</v>
       </c>
       <c r="E2" t="n">
-        <v>97360129.86666667</v>
+        <v>90325169.33333333</v>
       </c>
       <c r="F2" t="n">
-        <v>2718590.325</v>
+        <v>2522152.875</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +499,16 @@
         <v>70613</v>
       </c>
       <c r="C3" t="n">
-        <v>250670000</v>
+        <v>238004283.1466135</v>
       </c>
       <c r="D3" t="n">
-        <v>395887733.95</v>
+        <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>333020573.375</v>
+        <v>316196646.2083333</v>
       </c>
       <c r="F3" t="n">
-        <v>13015422.375</v>
+        <v>12357893.875</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +521,16 @@
         <v>177958</v>
       </c>
       <c r="C4" t="n">
-        <v>463600000</v>
+        <v>483317981.6974695</v>
       </c>
       <c r="D4" t="n">
-        <v>701520971.7</v>
+        <v>731356400.6999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1385939138.6</v>
+        <v>1444882620.6</v>
       </c>
       <c r="F4" t="n">
-        <v>33995003.49999999</v>
+        <v>35440798.49999999</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         <v>77450</v>
       </c>
       <c r="C5" t="n">
-        <v>368350000</v>
+        <v>363211408.4846383</v>
       </c>
       <c r="D5" t="n">
-        <v>1025688971.941666</v>
+        <v>1011381128.066666</v>
       </c>
       <c r="E5" t="n">
-        <v>814856063.0583333</v>
+        <v>803489231.9333333</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>504352</v>
       </c>
       <c r="C6" t="n">
-        <v>6420000</v>
+        <v>6480470.109048648</v>
       </c>
       <c r="D6" t="n">
-        <v>1432139176.416667</v>
+        <v>1445649651.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1043257674.833333</v>
+        <v>1053099530.4</v>
       </c>
       <c r="F6" t="n">
-        <v>31989116.75</v>
+        <v>32290894.8</v>
       </c>
     </row>
     <row r="7">
@@ -587,16 +587,16 @@
         <v>1056628</v>
       </c>
       <c r="C7" t="n">
-        <v>2732060000</v>
+        <v>2567870947.881485</v>
       </c>
       <c r="D7" t="n">
-        <v>8720089113.083332</v>
+        <v>8195999177.849999</v>
       </c>
       <c r="E7" t="n">
-        <v>7232123398.083333</v>
+        <v>6797462348.85</v>
       </c>
       <c r="F7" t="n">
-        <v>88457156.8333333</v>
+        <v>83140754.09999998</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
         <v>41821</v>
       </c>
       <c r="C8" t="n">
-        <v>63200000</v>
+        <v>60858884.68409418</v>
       </c>
       <c r="D8" t="n">
-        <v>473580821.5249999</v>
+        <v>456036846.2999999</v>
       </c>
       <c r="E8" t="n">
-        <v>369836570.6</v>
+        <v>356135839.1999999</v>
       </c>
       <c r="F8" t="n">
-        <v>11960067.175</v>
+        <v>11517002.1</v>
       </c>
     </row>
     <row r="9">
@@ -631,16 +631,16 @@
         <v>173169</v>
       </c>
       <c r="C9" t="n">
-        <v>232080000</v>
+        <v>212595686.1506533</v>
       </c>
       <c r="D9" t="n">
-        <v>307320217.7499999</v>
+        <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>240735758.9</v>
+        <v>220521248.8166667</v>
       </c>
       <c r="F9" t="n">
-        <v>9790639.950000001</v>
+        <v>8968522.825000001</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +653,13 @@
         <v>47111</v>
       </c>
       <c r="C10" t="n">
-        <v>68770000</v>
+        <v>64843054.67945981</v>
       </c>
       <c r="D10" t="n">
-        <v>426145610.6499999</v>
+        <v>401811525.475</v>
       </c>
       <c r="E10" t="n">
-        <v>402753589.9499999</v>
+        <v>379755253.4250001</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
-        <v>1156480000</v>
+        <v>1052522864.031498</v>
       </c>
       <c r="D11" t="n">
-        <v>470277644.5249999</v>
+        <v>427999756.3666667</v>
       </c>
       <c r="E11" t="n">
-        <v>329326337.275</v>
+        <v>299719950.0333334</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>199900</v>
       </c>
       <c r="C12" t="n">
-        <v>1447370000</v>
+        <v>1359976138.191323</v>
       </c>
       <c r="D12" t="n">
-        <v>1451491808.333333</v>
+        <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1828152991.666667</v>
+        <v>1717765007.5</v>
       </c>
       <c r="F12" t="n">
-        <v>192818100</v>
+        <v>181175310</v>
       </c>
     </row>
     <row r="13">
@@ -719,16 +719,16 @@
         <v>22704</v>
       </c>
       <c r="C13" t="n">
-        <v>36550000</v>
+        <v>35077534.88405661</v>
       </c>
       <c r="D13" t="n">
-        <v>12296314.81666666</v>
+        <v>11800699.21666666</v>
       </c>
       <c r="E13" t="n">
-        <v>11725402.68333333</v>
+        <v>11252798.28333333</v>
       </c>
       <c r="F13" t="n">
-        <v>312429.6999999998</v>
+        <v>299836.8999999998</v>
       </c>
     </row>
     <row r="14">
@@ -741,16 +741,16 @@
         <v>34248</v>
       </c>
       <c r="C14" t="n">
-        <v>1380000</v>
+        <v>1276285.374746241</v>
       </c>
       <c r="D14" t="n">
-        <v>141330361.7916667</v>
+        <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>103869518.9583333</v>
+        <v>96062394.16666666</v>
       </c>
       <c r="F14" t="n">
-        <v>1443940.85</v>
+        <v>1335410.2</v>
       </c>
     </row>
     <row r="15">
@@ -763,16 +763,16 @@
         <v>78462</v>
       </c>
       <c r="C15" t="n">
-        <v>50290000</v>
+        <v>47432854.05086241</v>
       </c>
       <c r="D15" t="n">
-        <v>441813334.4916667</v>
+        <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>560661453.5083333</v>
+        <v>528806818.1583333</v>
       </c>
       <c r="F15" t="n">
-        <v>15859971.39999999</v>
+        <v>14958868.59999999</v>
       </c>
     </row>
     <row r="16">
@@ -785,16 +785,16 @@
         <v>2674</v>
       </c>
       <c r="C16" t="n">
-        <v>4330000</v>
+        <v>4314709.876317098</v>
       </c>
       <c r="D16" t="n">
-        <v>6098972.366666666</v>
+        <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9276208.608333332</v>
+        <v>9243425.425000001</v>
       </c>
       <c r="F16" t="n">
-        <v>211297.6249999999</v>
+        <v>210550.8749999999</v>
       </c>
     </row>
     <row r="17">
@@ -807,16 +807,16 @@
         <v>178519</v>
       </c>
       <c r="C17" t="n">
-        <v>556100000</v>
+        <v>510450554.9054651</v>
       </c>
       <c r="D17" t="n">
-        <v>1459536978</v>
+        <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1196927744.4</v>
+        <v>1098680485.65</v>
       </c>
       <c r="F17" t="n">
-        <v>13179811.2</v>
+        <v>12097974.53333333</v>
       </c>
     </row>
     <row r="18">
@@ -829,13 +829,13 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
-        <v>270000</v>
+        <v>224926.0855395237</v>
       </c>
       <c r="D18" t="n">
-        <v>23680</v>
+        <v>19795</v>
       </c>
       <c r="E18" t="n">
-        <v>22400</v>
+        <v>18725</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>76540</v>
       </c>
       <c r="C19" t="n">
-        <v>1910000</v>
+        <v>1966967.651507459</v>
       </c>
       <c r="D19" t="n">
-        <v>157762188.225</v>
+        <v>162465020.075</v>
       </c>
       <c r="E19" t="n">
-        <v>116636779.8</v>
+        <v>120113678.6</v>
       </c>
       <c r="F19" t="n">
-        <v>3418269.975</v>
+        <v>3520167.325</v>
       </c>
     </row>
     <row r="20">
@@ -874,10 +874,10 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>566163.0333333332</v>
+        <v>533409.7999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>333060.5666666667</v>
+        <v>313792.6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>89730</v>
       </c>
       <c r="C21" t="n">
-        <v>407650000</v>
+        <v>383424781.3742747</v>
       </c>
       <c r="D21" t="n">
-        <v>1195111718.666667</v>
+        <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>936653302</v>
+        <v>880990474</v>
       </c>
       <c r="F21" t="n">
-        <v>8986400.33333333</v>
+        <v>8452362.33333333</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>45238</v>
       </c>
       <c r="C22" t="n">
-        <v>52250000</v>
+        <v>56366852.26050603</v>
       </c>
       <c r="D22" t="n">
-        <v>393768027.25</v>
+        <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>556864310.2750001</v>
+        <v>600741655.1500001</v>
       </c>
       <c r="F22" t="n">
-        <v>45775326.675</v>
+        <v>49382129.55</v>
       </c>
     </row>
     <row r="23">
@@ -937,13 +937,13 @@
         <v>4000</v>
       </c>
       <c r="C23" t="n">
-        <v>11670000</v>
+        <v>11052205.68546864</v>
       </c>
       <c r="D23" t="n">
-        <v>75920000</v>
+        <v>71900666.66666667</v>
       </c>
       <c r="E23" t="n">
-        <v>15183999.99999999</v>
+        <v>14380133.33333333</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>1583563</v>
       </c>
       <c r="C24" t="n">
-        <v>16880000</v>
+        <v>16303317.58315022</v>
       </c>
       <c r="D24" t="n">
-        <v>1633777261.966666</v>
+        <v>1577936519.316667</v>
       </c>
       <c r="E24" t="n">
-        <v>1178827446.783333</v>
+        <v>1138536397.558333</v>
       </c>
       <c r="F24" t="n">
-        <v>8987844.65</v>
+        <v>8680649.825000001</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>58242</v>
       </c>
       <c r="C25" t="n">
-        <v>11050000</v>
+        <v>10345677.54923651</v>
       </c>
       <c r="D25" t="n">
-        <v>226244160.45</v>
+        <v>211822587.9</v>
       </c>
       <c r="E25" t="n">
-        <v>160329477.6</v>
+        <v>150109531.2</v>
       </c>
       <c r="F25" t="n">
-        <v>741486.1499999998</v>
+        <v>694221.2999999997</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>113024</v>
       </c>
       <c r="C26" t="n">
-        <v>1210000</v>
+        <v>1154865.353723471</v>
       </c>
       <c r="D26" t="n">
-        <v>231441749.75</v>
+        <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>186384887.65</v>
+        <v>177892554.45</v>
       </c>
       <c r="F26" t="n">
-        <v>6849740.2</v>
+        <v>6537642.6</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         <v>9222</v>
       </c>
       <c r="C27" t="n">
-        <v>2330000</v>
+        <v>2209267.842568598</v>
       </c>
       <c r="D27" t="n">
-        <v>3399188.4</v>
+        <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2653042.5</v>
+        <v>2515718.958333333</v>
       </c>
       <c r="F27" t="n">
-        <v>23222.7</v>
+        <v>22020.675</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>53957</v>
       </c>
       <c r="C28" t="n">
-        <v>87910000</v>
+        <v>79263094.67844568</v>
       </c>
       <c r="D28" t="n">
-        <v>269881085.25</v>
+        <v>243333512.1</v>
       </c>
       <c r="E28" t="n">
-        <v>201808435.5</v>
+        <v>181957010.2</v>
       </c>
       <c r="F28" t="n">
-        <v>7610510.25</v>
+        <v>6861882.1</v>
       </c>
     </row>
     <row r="29">
@@ -1069,13 +1069,13 @@
         <v>85000</v>
       </c>
       <c r="C29" t="n">
-        <v>4745180000</v>
+        <v>5072989206.702785</v>
       </c>
       <c r="D29" t="n">
-        <v>487085966.6666666</v>
+        <v>520735133.3333333</v>
       </c>
       <c r="E29" t="n">
-        <v>346517533.3333334</v>
+        <v>370455866.6666666</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2405.3</v>
+        <v>2231.5</v>
       </c>
     </row>
     <row r="3">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10506.9</v>
+        <v>9976.1</v>
       </c>
     </row>
     <row r="4">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11921.1</v>
+        <v>12428.1</v>
       </c>
     </row>
     <row r="5">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23764.3</v>
+        <v>23432.8</v>
       </c>
     </row>
     <row r="6">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4971.5</v>
+        <v>5018.4</v>
       </c>
     </row>
     <row r="7">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15181</v>
+        <v>14268.6</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20453.3</v>
+        <v>19695.6</v>
       </c>
     </row>
     <row r="9">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3221.4</v>
+        <v>2950.9</v>
       </c>
     </row>
     <row r="10">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17594.6</v>
+        <v>16589.9</v>
       </c>
     </row>
     <row r="11">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6719.7</v>
+        <v>6115.6</v>
       </c>
     </row>
     <row r="12">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17371</v>
+        <v>16322.1</v>
       </c>
     </row>
     <row r="13">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1071.8</v>
+        <v>1028.6</v>
       </c>
     </row>
     <row r="14">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7201.7</v>
+        <v>6660.4</v>
       </c>
     </row>
     <row r="15">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12978.7</v>
+        <v>12241.3</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5828.9</v>
+        <v>5808.3</v>
       </c>
     </row>
     <row r="17">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14954.4</v>
+        <v>13726.9</v>
       </c>
     </row>
     <row r="18">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3629.7</v>
+        <v>3737.9</v>
       </c>
     </row>
     <row r="21">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>133.1</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="22">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23857.7</v>
+        <v>22439.9</v>
       </c>
     </row>
     <row r="23">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22025.9</v>
+        <v>23761.4</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22776</v>
+        <v>21570.2</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1781.8</v>
+        <v>1720.9</v>
       </c>
     </row>
     <row r="26">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6650.1</v>
+        <v>6226.2</v>
       </c>
     </row>
     <row r="27">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3757.4</v>
+        <v>3586.2</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>658.8</v>
+        <v>624.7</v>
       </c>
     </row>
     <row r="29">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8883</v>
+        <v>8009.2</v>
       </c>
     </row>
     <row r="30">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9807.1</v>
+        <v>10484.6</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95753</v>
+        <v>95993</v>
       </c>
       <c r="C2" t="n">
         <v>58559136.85168231</v>
@@ -483,10 +483,10 @@
         <v>120825497.2916667</v>
       </c>
       <c r="E2" t="n">
-        <v>90325169.33333333</v>
+        <v>90726839.33333333</v>
       </c>
       <c r="F2" t="n">
-        <v>2522152.875</v>
+        <v>2656042.875</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70613</v>
+        <v>70917</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
@@ -505,10 +505,10 @@
         <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>316196646.2083333</v>
+        <v>318471197.0083333</v>
       </c>
       <c r="F3" t="n">
-        <v>12357893.875</v>
+        <v>13116077.475</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173169</v>
+        <v>173829</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
@@ -637,10 +637,10 @@
         <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>220521248.8166667</v>
+        <v>221981944.3166667</v>
       </c>
       <c r="F9" t="n">
-        <v>8968522.825000001</v>
+        <v>9455421.325000001</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>199900</v>
+        <v>201000</v>
       </c>
       <c r="C12" t="n">
         <v>1359976138.191323</v>
@@ -703,10 +703,10 @@
         <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1717765007.5</v>
+        <v>1731230740</v>
       </c>
       <c r="F12" t="n">
-        <v>181175310</v>
+        <v>185663887.5</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34248</v>
+        <v>35030</v>
       </c>
       <c r="C14" t="n">
         <v>1276285.374746241</v>
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>96062394.16666666</v>
+        <v>99968718.76666665</v>
       </c>
       <c r="F14" t="n">
-        <v>1335410.2</v>
+        <v>2637518.4</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78462</v>
+        <v>80540</v>
       </c>
       <c r="C15" t="n">
         <v>47432854.05086241</v>
@@ -769,10 +769,10 @@
         <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>528806818.1583333</v>
+        <v>540405449.9083333</v>
       </c>
       <c r="F15" t="n">
-        <v>14958868.59999999</v>
+        <v>28797658.25</v>
       </c>
     </row>
     <row r="16">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113024</v>
+        <v>113509</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>177892554.45</v>
+        <v>179197034.7</v>
       </c>
       <c r="F26" t="n">
-        <v>6537642.6</v>
+        <v>6972469.35</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9222</v>
+        <v>9461</v>
       </c>
       <c r="C27" t="n">
         <v>2209267.842568598</v>
@@ -1031,10 +1031,10 @@
         <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2515718.958333333</v>
+        <v>2627696.433333334</v>
       </c>
       <c r="F27" t="n">
-        <v>22020.675</v>
+        <v>59346.50000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95753</v>
+        <v>95993</v>
       </c>
       <c r="D9" t="n">
-        <v>4521</v>
+        <v>4761</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>70613</v>
+        <v>70917</v>
       </c>
       <c r="D17" t="n">
-        <v>4955</v>
+        <v>5259</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65744</v>
+        <v>65763</v>
       </c>
       <c r="D25" t="n">
-        <v>-11706</v>
+        <v>-11687</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>173169</v>
+        <v>173829</v>
       </c>
       <c r="D55" t="n">
-        <v>12157</v>
+        <v>12817</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>199900</v>
+        <v>201000</v>
       </c>
       <c r="D75" t="n">
-        <v>44400</v>
+        <v>45500</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>34248</v>
+        <v>35030</v>
       </c>
       <c r="D91" t="n">
-        <v>802</v>
+        <v>1584</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4085,23 +4085,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>04-2023</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>78462</v>
+        <v>80540</v>
       </c>
       <c r="D99" t="n">
-        <v>7332</v>
+        <v>9410</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>113024</v>
+        <v>113509</v>
       </c>
       <c r="D162" t="n">
-        <v>7292</v>
+        <v>7777</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9222</v>
+        <v>9461</v>
       </c>
       <c r="D170" t="n">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -558,7 +558,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1155,7 +1155,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,19 +474,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95993</v>
+        <v>98110</v>
       </c>
       <c r="C2" t="n">
         <v>58559136.85168231</v>
       </c>
       <c r="D2" t="n">
-        <v>120825497.2916667</v>
+        <v>120482776.0833333</v>
       </c>
       <c r="E2" t="n">
-        <v>90726839.33333333</v>
+        <v>98449688.91666666</v>
       </c>
       <c r="F2" t="n">
-        <v>2656042.875</v>
+        <v>92777959.75</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70917</v>
+        <v>74317</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
       </c>
       <c r="D3" t="n">
-        <v>375887809.2166666</v>
+        <v>367954315.6916667</v>
       </c>
       <c r="E3" t="n">
-        <v>318471197.0083333</v>
+        <v>252412788.175</v>
       </c>
       <c r="F3" t="n">
-        <v>13116077.475</v>
+        <v>402458320.225</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>1444882620.6</v>
       </c>
       <c r="F4" t="n">
-        <v>35440798.49999999</v>
+        <v>759793964.8499999</v>
       </c>
     </row>
     <row r="5">
@@ -540,19 +540,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77450</v>
+        <v>80577</v>
       </c>
       <c r="C5" t="n">
         <v>363211408.4846383</v>
       </c>
       <c r="D5" t="n">
-        <v>1011381128.066666</v>
+        <v>998053723.0666665</v>
       </c>
       <c r="E5" t="n">
-        <v>803489231.9333333</v>
+        <v>890091002.5333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>769025441.3333333</v>
       </c>
     </row>
     <row r="6">
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504352</v>
+        <v>570444</v>
       </c>
       <c r="C6" t="n">
         <v>6480470.109048648</v>
       </c>
       <c r="D6" t="n">
-        <v>1445649651.6</v>
+        <v>1441542509.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1053099530.4</v>
+        <v>1421173660.2</v>
       </c>
       <c r="F6" t="n">
-        <v>32290894.8</v>
+        <v>1106514961.8</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1056628</v>
+        <v>1125850</v>
       </c>
       <c r="C7" t="n">
         <v>2567870947.881485</v>
@@ -593,10 +593,10 @@
         <v>8195999177.849999</v>
       </c>
       <c r="E7" t="n">
-        <v>6797462348.85</v>
+        <v>6505637374.5</v>
       </c>
       <c r="F7" t="n">
-        <v>83140754.09999998</v>
+        <v>9444517135.499998</v>
       </c>
     </row>
     <row r="8">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41821</v>
+        <v>39569</v>
       </c>
       <c r="C8" t="n">
         <v>60858884.68409418</v>
       </c>
       <c r="D8" t="n">
-        <v>456036846.2999999</v>
+        <v>451935237.5999999</v>
       </c>
       <c r="E8" t="n">
-        <v>356135839.1999999</v>
+        <v>327399958.8</v>
       </c>
       <c r="F8" t="n">
-        <v>11517002.1</v>
+        <v>346511255.9999999</v>
       </c>
     </row>
     <row r="9">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173829</v>
+        <v>185860</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
       </c>
       <c r="D9" t="n">
-        <v>281514630.4583333</v>
+        <v>280152544.2</v>
       </c>
       <c r="E9" t="n">
-        <v>221981944.3166667</v>
+        <v>186105148.025</v>
       </c>
       <c r="F9" t="n">
-        <v>9455421.325000001</v>
+        <v>297541951.9916667</v>
       </c>
     </row>
     <row r="10">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47111</v>
+        <v>70043</v>
       </c>
       <c r="C10" t="n">
         <v>64843054.67945981</v>
       </c>
       <c r="D10" t="n">
-        <v>401811525.475</v>
+        <v>391105510.0083334</v>
       </c>
       <c r="E10" t="n">
-        <v>379755253.4250001</v>
+        <v>495862433.5583334</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>582165858.3416667</v>
       </c>
     </row>
     <row r="11">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118994</v>
+        <v>105000</v>
       </c>
       <c r="C11" t="n">
         <v>1052522864.031498</v>
       </c>
       <c r="D11" t="n">
-        <v>427999756.3666667</v>
+        <v>406604329.7666667</v>
       </c>
       <c r="E11" t="n">
-        <v>299719950.0333334</v>
+        <v>235533670.2333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>312672790.8333333</v>
       </c>
     </row>
     <row r="12">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>201000</v>
+        <v>250360</v>
       </c>
       <c r="C12" t="n">
         <v>1359976138.191323</v>
       </c>
       <c r="D12" t="n">
-        <v>1363847472.5</v>
+        <v>1357862702.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1731230740</v>
+        <v>1194043225.5</v>
       </c>
       <c r="F12" t="n">
-        <v>185663887.5</v>
+        <v>2609441330.5</v>
       </c>
     </row>
     <row r="13">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22704</v>
+        <v>27903</v>
       </c>
       <c r="C13" t="n">
         <v>35077534.88405661</v>
       </c>
       <c r="D13" t="n">
-        <v>11800699.21666666</v>
+        <v>11650523.61666666</v>
       </c>
       <c r="E13" t="n">
-        <v>11252798.28333333</v>
+        <v>11239940.78333333</v>
       </c>
       <c r="F13" t="n">
-        <v>299836.8999999998</v>
+        <v>17036273.21666666</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35030</v>
+        <v>63775</v>
       </c>
       <c r="C14" t="n">
         <v>1276285.374746241</v>
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>99968718.76666665</v>
+        <v>294059435.1666666</v>
       </c>
       <c r="F14" t="n">
-        <v>2637518.4</v>
+        <v>304742716.7666667</v>
       </c>
     </row>
     <row r="15">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80540</v>
+        <v>102560</v>
       </c>
       <c r="C15" t="n">
         <v>47432854.05086241</v>
       </c>
       <c r="D15" t="n">
-        <v>416711193.8416666</v>
+        <v>404919761.6166666</v>
       </c>
       <c r="E15" t="n">
-        <v>540405449.9083333</v>
+        <v>356265694.6583333</v>
       </c>
       <c r="F15" t="n">
-        <v>28797658.25</v>
+        <v>811954207.8083333</v>
       </c>
     </row>
     <row r="16">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2674</v>
+        <v>3723</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
       </c>
       <c r="D16" t="n">
-        <v>6077417.899999999</v>
+        <v>5623402.45</v>
       </c>
       <c r="E16" t="n">
-        <v>9243425.425000001</v>
+        <v>9224548.449999999</v>
       </c>
       <c r="F16" t="n">
-        <v>210550.8749999999</v>
+        <v>11223571.7</v>
       </c>
     </row>
     <row r="17">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178519</v>
+        <v>171546</v>
       </c>
       <c r="C17" t="n">
         <v>510450554.9054651</v>
       </c>
       <c r="D17" t="n">
-        <v>1339734000.916667</v>
+        <v>1335879029.833333</v>
       </c>
       <c r="E17" t="n">
-        <v>1098680485.65</v>
+        <v>1018915757.566667</v>
       </c>
       <c r="F17" t="n">
-        <v>12097974.53333333</v>
+        <v>1305798816.3</v>
       </c>
     </row>
     <row r="18">
@@ -838,7 +838,7 @@
         <v>18725</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>19795</v>
       </c>
     </row>
     <row r="19">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76540</v>
+        <v>91135</v>
       </c>
       <c r="C19" t="n">
         <v>1966967.651507459</v>
       </c>
       <c r="D19" t="n">
-        <v>162465020.075</v>
+        <v>161955731.2</v>
       </c>
       <c r="E19" t="n">
-        <v>120113678.6</v>
+        <v>178697785.3</v>
       </c>
       <c r="F19" t="n">
-        <v>3520167.325</v>
+        <v>124570501.3666667</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +880,7 @@
         <v>313792.6</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>408344.2</v>
       </c>
     </row>
     <row r="21">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89730</v>
+        <v>136470</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
       </c>
       <c r="D21" t="n">
-        <v>1124089390.666667</v>
+        <v>1018023463.333333</v>
       </c>
       <c r="E21" t="n">
-        <v>880990474</v>
+        <v>1020791051</v>
       </c>
       <c r="F21" t="n">
-        <v>8452362.33333333</v>
+        <v>1787076236.166667</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45238</v>
+        <v>65185</v>
       </c>
       <c r="C22" t="n">
         <v>56366852.26050603</v>
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>600741655.1500001</v>
+        <v>1124092430.5</v>
       </c>
       <c r="F22" t="n">
-        <v>49382129.55</v>
+        <v>1041529485.966667</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>14380133.33333333</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>71900666.66666667</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1583563</v>
+        <v>2127836</v>
       </c>
       <c r="C24" t="n">
         <v>16303317.58315022</v>
       </c>
       <c r="D24" t="n">
-        <v>1577936519.316667</v>
+        <v>1574312734.141666</v>
       </c>
       <c r="E24" t="n">
-        <v>1138536397.558333</v>
+        <v>2087480238.258333</v>
       </c>
       <c r="F24" t="n">
-        <v>8680649.825000001</v>
+        <v>1220175033.108333</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58242</v>
+        <v>56904</v>
       </c>
       <c r="C25" t="n">
         <v>10345677.54923651</v>
       </c>
       <c r="D25" t="n">
-        <v>211822587.9</v>
+        <v>210305989.35</v>
       </c>
       <c r="E25" t="n">
-        <v>150109531.2</v>
+        <v>131750542.8</v>
       </c>
       <c r="F25" t="n">
-        <v>694221.2999999997</v>
+        <v>172894310.1</v>
       </c>
     </row>
     <row r="26">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113509</v>
+        <v>113925</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
       </c>
       <c r="D26" t="n">
-        <v>220896471.7499999</v>
+        <v>220031599.85</v>
       </c>
       <c r="E26" t="n">
-        <v>179197034.7</v>
+        <v>150889365</v>
       </c>
       <c r="F26" t="n">
-        <v>6972469.35</v>
+        <v>208547093.2</v>
       </c>
     </row>
     <row r="27">
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9461</v>
+        <v>10635</v>
       </c>
       <c r="C27" t="n">
         <v>2209267.842568598</v>
       </c>
       <c r="D27" t="n">
-        <v>3223243.766666667</v>
+        <v>3214602.083333333</v>
       </c>
       <c r="E27" t="n">
-        <v>2627696.433333334</v>
+        <v>2295251.916666667</v>
       </c>
       <c r="F27" t="n">
-        <v>59346.50000000001</v>
+        <v>3630652.283333334</v>
       </c>
     </row>
     <row r="28">
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53957</v>
+        <v>57210</v>
       </c>
       <c r="C28" t="n">
         <v>79263094.67844568</v>
       </c>
       <c r="D28" t="n">
-        <v>243333512.1</v>
+        <v>242212224.1</v>
       </c>
       <c r="E28" t="n">
-        <v>181957010.2</v>
+        <v>215994107.9</v>
       </c>
       <c r="F28" t="n">
-        <v>6861882.1</v>
+        <v>185095949.1666667</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1078,7 @@
         <v>370455866.6666666</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>396667366.6666667</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>refugees_to_date</t>
+          <t>Refugees from Ukraine recorded in country as of date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1482,7 +1482,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1509,7 +1509,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1536,7 +1536,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -1563,7 +1563,7 @@
         <v>0.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -1590,7 +1590,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1601,23 +1601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90591</v>
+        <v>81870</v>
       </c>
       <c r="D7" t="n">
-        <v>1843</v>
+        <v>-6878</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.9166666666666666</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1635,7 +1635,7 @@
         <v>91232</v>
       </c>
       <c r="D8" t="n">
-        <v>641</v>
+        <v>9362</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1650,28 +1650,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95993</v>
+        <v>52038</v>
       </c>
       <c r="D9" t="n">
-        <v>4761</v>
+        <v>52038</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1682,23 +1682,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52038</v>
+        <v>54414</v>
       </c>
       <c r="D10" t="n">
-        <v>52038</v>
+        <v>2376</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -1709,23 +1709,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54414</v>
+        <v>56464</v>
       </c>
       <c r="D11" t="n">
-        <v>2376</v>
+        <v>2050</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56464</v>
+        <v>58537</v>
       </c>
       <c r="D12" t="n">
-        <v>2050</v>
+        <v>2073</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
@@ -1763,23 +1763,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>58537</v>
+        <v>73095</v>
       </c>
       <c r="D13" t="n">
-        <v>2073</v>
+        <v>14558</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1790,23 +1790,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62181</v>
+        <v>64436</v>
       </c>
       <c r="D14" t="n">
-        <v>3644</v>
+        <v>-8659</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1817,20 +1817,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64436</v>
+        <v>65658</v>
       </c>
       <c r="D15" t="n">
-        <v>2255</v>
+        <v>1222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1839,55 +1839,55 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65658</v>
+        <v>58643</v>
       </c>
       <c r="D16" t="n">
-        <v>1222</v>
+        <v>58643</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>70917</v>
+        <v>64053</v>
       </c>
       <c r="D17" t="n">
-        <v>5259</v>
+        <v>5410</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1898,23 +1898,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58643</v>
+        <v>65098</v>
       </c>
       <c r="D18" t="n">
-        <v>58643</v>
+        <v>1045</v>
       </c>
       <c r="E18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1925,23 +1925,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>64053</v>
+        <v>66812</v>
       </c>
       <c r="D19" t="n">
-        <v>5410</v>
+        <v>1714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20">
@@ -1952,23 +1952,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65098</v>
+        <v>69607</v>
       </c>
       <c r="D20" t="n">
-        <v>1045</v>
+        <v>2795</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -1979,23 +1979,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66812</v>
+        <v>66480</v>
       </c>
       <c r="D21" t="n">
-        <v>1714</v>
+        <v>-3127</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="22">
@@ -2006,20 +2006,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69607</v>
+        <v>77450</v>
       </c>
       <c r="D22" t="n">
-        <v>2795</v>
+        <v>10970</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2028,82 +2028,82 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>76432</v>
+        <v>400559</v>
       </c>
       <c r="D23" t="n">
-        <v>6825</v>
+        <v>400559</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>77450</v>
+        <v>423374</v>
       </c>
       <c r="D24" t="n">
-        <v>1018</v>
+        <v>22815</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65763</v>
+        <v>439043</v>
       </c>
       <c r="D25" t="n">
-        <v>-11687</v>
+        <v>15669</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -2114,23 +2114,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>400559</v>
+        <v>453103</v>
       </c>
       <c r="D26" t="n">
-        <v>400559</v>
+        <v>14060</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
@@ -2141,23 +2141,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>423374</v>
+        <v>464910</v>
       </c>
       <c r="D27" t="n">
-        <v>22815</v>
+        <v>11807</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>439043</v>
+        <v>373080</v>
       </c>
       <c r="D28" t="n">
-        <v>15669</v>
+        <v>-91830</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -2195,20 +2195,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>453103</v>
+        <v>478614</v>
       </c>
       <c r="D29" t="n">
-        <v>14060</v>
+        <v>105534</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2217,109 +2217,109 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>464910</v>
+        <v>867000</v>
       </c>
       <c r="D30" t="n">
-        <v>11807</v>
+        <v>867000</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>474731</v>
+        <v>915000</v>
       </c>
       <c r="D31" t="n">
-        <v>9821</v>
+        <v>48000</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>478614</v>
+        <v>971000</v>
       </c>
       <c r="D32" t="n">
-        <v>3883</v>
+        <v>56000</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>504352</v>
+        <v>997895</v>
       </c>
       <c r="D33" t="n">
-        <v>25738</v>
+        <v>26895</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2330,23 +2330,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>867000</v>
+        <v>1002668</v>
       </c>
       <c r="D34" t="n">
-        <v>867000</v>
+        <v>4773</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
@@ -2357,23 +2357,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>915000</v>
+        <v>1021667</v>
       </c>
       <c r="D35" t="n">
-        <v>48000</v>
+        <v>18999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -2384,131 +2384,131 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>971000</v>
+        <v>1125850</v>
       </c>
       <c r="D36" t="n">
-        <v>56000</v>
+        <v>104183</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>997895</v>
+        <v>32116</v>
       </c>
       <c r="D37" t="n">
-        <v>26895</v>
+        <v>32116</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1002668</v>
+        <v>33396</v>
       </c>
       <c r="D38" t="n">
-        <v>4773</v>
+        <v>1280</v>
       </c>
       <c r="E38" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1021667</v>
+        <v>35193</v>
       </c>
       <c r="D39" t="n">
-        <v>18999</v>
+        <v>1797</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1056628</v>
+        <v>36449</v>
       </c>
       <c r="D40" t="n">
-        <v>34961</v>
+        <v>1256</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
@@ -2519,23 +2519,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32116</v>
+        <v>36983</v>
       </c>
       <c r="D41" t="n">
-        <v>32116</v>
+        <v>534</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="42">
@@ -2546,23 +2546,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33396</v>
+        <v>36635</v>
       </c>
       <c r="D42" t="n">
-        <v>1280</v>
+        <v>-348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="43">
@@ -2573,20 +2573,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35193</v>
+        <v>39221</v>
       </c>
       <c r="D43" t="n">
-        <v>1797</v>
+        <v>2586</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2595,136 +2595,136 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>36449</v>
+        <v>131771</v>
       </c>
       <c r="D44" t="n">
-        <v>1256</v>
+        <v>131771</v>
       </c>
       <c r="E44" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36983</v>
+        <v>139116</v>
       </c>
       <c r="D45" t="n">
-        <v>534</v>
+        <v>7345</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39482</v>
+        <v>144668</v>
       </c>
       <c r="D46" t="n">
-        <v>2499</v>
+        <v>5552</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39221</v>
+        <v>149213</v>
       </c>
       <c r="D47" t="n">
-        <v>-261</v>
+        <v>4545</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>41560</v>
+        <v>155473</v>
       </c>
       <c r="D48" t="n">
-        <v>2339</v>
+        <v>6260</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F48" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G48" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="49">
@@ -2735,185 +2735,185 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>131771</v>
+        <v>185860</v>
       </c>
       <c r="D49" t="n">
-        <v>131771</v>
+        <v>30387</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>139116</v>
+        <v>30372</v>
       </c>
       <c r="D50" t="n">
-        <v>7345</v>
+        <v>30372</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>144668</v>
+        <v>36652</v>
       </c>
       <c r="D51" t="n">
-        <v>5552</v>
+        <v>6280</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>149213</v>
+        <v>61520</v>
       </c>
       <c r="D52" t="n">
-        <v>4545</v>
+        <v>24868</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>155473</v>
+        <v>38588</v>
       </c>
       <c r="D53" t="n">
-        <v>6260</v>
+        <v>-22932</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>161012</v>
+        <v>38588</v>
       </c>
       <c r="D54" t="n">
-        <v>5539</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>173829</v>
+        <v>47111</v>
       </c>
       <c r="D55" t="n">
-        <v>12817</v>
+        <v>8523</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -2924,20 +2924,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30372</v>
+        <v>47067</v>
       </c>
       <c r="D56" t="n">
-        <v>30372</v>
+        <v>-44</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2946,295 +2946,295 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36652</v>
+        <v>92156</v>
       </c>
       <c r="D57" t="n">
-        <v>6280</v>
+        <v>92156</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>38588</v>
+        <v>101369</v>
       </c>
       <c r="D58" t="n">
-        <v>1936</v>
+        <v>9213</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>38588</v>
+        <v>105000</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3631</v>
       </c>
       <c r="E59" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F59" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2023</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>38588</v>
+        <v>69495</v>
       </c>
       <c r="D60" t="n">
+        <v>-35505</v>
+      </c>
+      <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.1666666666666666</v>
-      </c>
       <c r="F60" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>47111</v>
+        <v>104000</v>
       </c>
       <c r="D61" t="n">
-        <v>8523</v>
+        <v>104000</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>47067</v>
+        <v>120600</v>
       </c>
       <c r="D62" t="n">
-        <v>-44</v>
+        <v>16600</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>47067</v>
+        <v>131700</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F63" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G63" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>92156</v>
+        <v>138400</v>
       </c>
       <c r="D64" t="n">
-        <v>92156</v>
+        <v>6700</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>101369</v>
+        <v>147800</v>
       </c>
       <c r="D65" t="n">
-        <v>9213</v>
+        <v>9400</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>105000</v>
+        <v>250360</v>
       </c>
       <c r="D66" t="n">
-        <v>3631</v>
+        <v>102560</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>118994</v>
+        <v>155500</v>
       </c>
       <c r="D67" t="n">
-        <v>13994</v>
+        <v>-94860</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3243,565 +3243,565 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>104000</v>
+        <v>15565</v>
       </c>
       <c r="D68" t="n">
-        <v>104000</v>
+        <v>15565</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>120600</v>
+        <v>18043</v>
       </c>
       <c r="D69" t="n">
-        <v>16600</v>
+        <v>2478</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>131700</v>
+        <v>18745</v>
       </c>
       <c r="D70" t="n">
-        <v>11100</v>
+        <v>702</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>138400</v>
+        <v>19413</v>
       </c>
       <c r="D71" t="n">
-        <v>6700</v>
+        <v>668</v>
       </c>
       <c r="E71" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F71" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2023</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>147800</v>
+        <v>26945</v>
       </c>
       <c r="D72" t="n">
-        <v>9400</v>
+        <v>7532</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>152200</v>
+        <v>19997</v>
       </c>
       <c r="D73" t="n">
-        <v>4400</v>
+        <v>-6948</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>155500</v>
+        <v>20955</v>
       </c>
       <c r="D74" t="n">
-        <v>3300</v>
+        <v>958</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>201000</v>
+        <v>26563</v>
       </c>
       <c r="D75" t="n">
-        <v>45500</v>
+        <v>26563</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G75" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15565</v>
+        <v>29027</v>
       </c>
       <c r="D76" t="n">
-        <v>15565</v>
+        <v>2464</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18043</v>
+        <v>30000</v>
       </c>
       <c r="D77" t="n">
-        <v>2478</v>
+        <v>973</v>
       </c>
       <c r="E77" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18745</v>
+        <v>31290</v>
       </c>
       <c r="D78" t="n">
-        <v>702</v>
+        <v>1290</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19413</v>
+        <v>32271</v>
       </c>
       <c r="D79" t="n">
-        <v>668</v>
+        <v>981</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19997</v>
+        <v>33218</v>
       </c>
       <c r="D80" t="n">
-        <v>584</v>
+        <v>947</v>
       </c>
       <c r="E80" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F80" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19997</v>
+        <v>63775</v>
       </c>
       <c r="D81" t="n">
+        <v>30557</v>
+      </c>
+      <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.1666666666666666</v>
-      </c>
       <c r="F81" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20955</v>
+        <v>42764</v>
       </c>
       <c r="D82" t="n">
-        <v>958</v>
+        <v>42764</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22704</v>
+        <v>46481</v>
       </c>
       <c r="D83" t="n">
-        <v>1749</v>
+        <v>3717</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26563</v>
+        <v>49999</v>
       </c>
       <c r="D84" t="n">
-        <v>26563</v>
+        <v>3518</v>
       </c>
       <c r="E84" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F84" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>29027</v>
+        <v>55144</v>
       </c>
       <c r="D85" t="n">
-        <v>2464</v>
+        <v>5145</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30000</v>
+        <v>58511</v>
       </c>
       <c r="D86" t="n">
-        <v>973</v>
+        <v>3367</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>31290</v>
+        <v>102560</v>
       </c>
       <c r="D87" t="n">
-        <v>1290</v>
+        <v>44049</v>
       </c>
       <c r="E87" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.75</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>32271</v>
+        <v>71130</v>
       </c>
       <c r="D88" t="n">
-        <v>981</v>
+        <v>-31430</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3810,187 +3810,187 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33218</v>
+        <v>1215</v>
       </c>
       <c r="D89" t="n">
-        <v>947</v>
+        <v>1215</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>33446</v>
+        <v>1500</v>
       </c>
       <c r="D90" t="n">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>35030</v>
+        <v>3250</v>
       </c>
       <c r="D91" t="n">
-        <v>1584</v>
+        <v>1750</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G91" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>42764</v>
+        <v>1766</v>
       </c>
       <c r="D92" t="n">
-        <v>42764</v>
+        <v>-1484</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>46481</v>
+        <v>1766</v>
       </c>
       <c r="D93" t="n">
-        <v>3717</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>49999</v>
+        <v>2239</v>
       </c>
       <c r="D94" t="n">
-        <v>3518</v>
+        <v>473</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>55144</v>
+        <v>2239</v>
       </c>
       <c r="D95" t="n">
-        <v>5145</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3999,376 +3999,376 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>58511</v>
+        <v>141562</v>
       </c>
       <c r="D96" t="n">
-        <v>3367</v>
+        <v>141562</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>70070</v>
+        <v>154710</v>
       </c>
       <c r="D97" t="n">
-        <v>11559</v>
+        <v>13148</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>71130</v>
+        <v>159968</v>
       </c>
       <c r="D98" t="n">
-        <v>1060</v>
+        <v>5258</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>80540</v>
+        <v>170646</v>
       </c>
       <c r="D99" t="n">
-        <v>9410</v>
+        <v>10678</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F99" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1215</v>
+        <v>171546</v>
       </c>
       <c r="D100" t="n">
-        <v>1215</v>
+        <v>900</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1500</v>
+        <v>169040</v>
       </c>
       <c r="D101" t="n">
-        <v>285</v>
+        <v>-2506</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1640</v>
+        <v>167925</v>
       </c>
       <c r="D102" t="n">
-        <v>140</v>
+        <v>-1115</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1766</v>
+        <v>60010</v>
       </c>
       <c r="D103" t="n">
-        <v>126</v>
+        <v>60010</v>
       </c>
       <c r="E103" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F103" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1766</v>
+        <v>63279</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>3269</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2239</v>
+        <v>66368</v>
       </c>
       <c r="D105" t="n">
-        <v>473</v>
+        <v>3089</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2239</v>
+        <v>68925</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2674</v>
+        <v>70667</v>
       </c>
       <c r="D107" t="n">
-        <v>435</v>
+        <v>1742</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>141562</v>
+        <v>52305</v>
       </c>
       <c r="D108" t="n">
-        <v>141562</v>
+        <v>-18362</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>154710</v>
+        <v>72773</v>
       </c>
       <c r="D109" t="n">
-        <v>13148</v>
+        <v>20468</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4377,601 +4377,601 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>159968</v>
+        <v>5984</v>
       </c>
       <c r="D110" t="n">
-        <v>5258</v>
+        <v>5984</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>170646</v>
+        <v>6263</v>
       </c>
       <c r="D111" t="n">
-        <v>10678</v>
+        <v>279</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>171546</v>
+        <v>6561</v>
       </c>
       <c r="D112" t="n">
-        <v>900</v>
+        <v>298</v>
       </c>
       <c r="E112" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F112" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>173231</v>
+        <v>6756</v>
       </c>
       <c r="D113" t="n">
-        <v>1685</v>
+        <v>195</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>167925</v>
+        <v>4220</v>
       </c>
       <c r="D114" t="n">
-        <v>-5306</v>
+        <v>-2536</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>173213</v>
+        <v>68050</v>
       </c>
       <c r="D115" t="n">
-        <v>5288</v>
+        <v>68050</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>60010</v>
+        <v>136470</v>
       </c>
       <c r="D116" t="n">
-        <v>60010</v>
+        <v>68420</v>
       </c>
       <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>63279</v>
+        <v>85210</v>
       </c>
       <c r="D117" t="n">
-        <v>3269</v>
+        <v>-51260</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>66368</v>
+        <v>21484</v>
       </c>
       <c r="D118" t="n">
-        <v>3089</v>
+        <v>21484</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>68925</v>
+        <v>23912</v>
       </c>
       <c r="D119" t="n">
-        <v>2557</v>
+        <v>2428</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F119" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>70667</v>
+        <v>27845</v>
       </c>
       <c r="D120" t="n">
-        <v>1742</v>
+        <v>3933</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>72302</v>
+        <v>30570</v>
       </c>
       <c r="D121" t="n">
-        <v>1635</v>
+        <v>2725</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>72773</v>
+        <v>32102</v>
       </c>
       <c r="D122" t="n">
-        <v>471</v>
+        <v>1532</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>76540</v>
+        <v>35649</v>
       </c>
       <c r="D123" t="n">
-        <v>3767</v>
+        <v>3547</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F123" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G123" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5984</v>
+        <v>65185</v>
       </c>
       <c r="D124" t="n">
-        <v>5984</v>
+        <v>29536</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6263</v>
+        <v>1234718</v>
       </c>
       <c r="D125" t="n">
-        <v>279</v>
+        <v>1234718</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6561</v>
+        <v>1353338</v>
       </c>
       <c r="D126" t="n">
-        <v>298</v>
+        <v>118620</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6756</v>
+        <v>1409139</v>
       </c>
       <c r="D127" t="n">
-        <v>195</v>
+        <v>55801</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F127" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>68050</v>
+        <v>1469032</v>
       </c>
       <c r="D128" t="n">
-        <v>68050</v>
+        <v>59893</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>79250</v>
+        <v>1521085</v>
       </c>
       <c r="D129" t="n">
-        <v>11200</v>
+        <v>52053</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>85210</v>
+        <v>956635</v>
       </c>
       <c r="D130" t="n">
-        <v>5960</v>
+        <v>-564450</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>89730</v>
+        <v>1563386</v>
       </c>
       <c r="D131" t="n">
-        <v>4520</v>
+        <v>606751</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>21484</v>
+        <v>47847</v>
       </c>
       <c r="D132" t="n">
-        <v>21484</v>
+        <v>47847</v>
       </c>
       <c r="E132" t="n">
         <v>0.6666666666666666</v>
@@ -4992,13 +4992,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>23912</v>
+        <v>49718</v>
       </c>
       <c r="D133" t="n">
-        <v>2428</v>
+        <v>1871</v>
       </c>
       <c r="E133" t="n">
         <v>0.4166666666666666</v>
@@ -5019,13 +5019,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>27845</v>
+        <v>52819</v>
       </c>
       <c r="D134" t="n">
-        <v>3933</v>
+        <v>3101</v>
       </c>
       <c r="E134" t="n">
         <v>0.3333333333333333</v>
@@ -5046,85 +5046,85 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>10-2023</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>30570</v>
+        <v>55440</v>
       </c>
       <c r="D135" t="n">
-        <v>2725</v>
+        <v>2621</v>
       </c>
       <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.25</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>0.75</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>32102</v>
+        <v>56236</v>
       </c>
       <c r="D136" t="n">
-        <v>1532</v>
+        <v>796</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>35649</v>
+        <v>56904</v>
       </c>
       <c r="D137" t="n">
-        <v>3547</v>
+        <v>668</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5133,187 +5133,187 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>36925</v>
+        <v>82184</v>
       </c>
       <c r="D138" t="n">
-        <v>1276</v>
+        <v>82184</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>45238</v>
+        <v>90612</v>
       </c>
       <c r="D139" t="n">
-        <v>8313</v>
+        <v>8428</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F139" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G139" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1234718</v>
+        <v>95375</v>
       </c>
       <c r="D140" t="n">
-        <v>1234718</v>
+        <v>4763</v>
       </c>
       <c r="E140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1353338</v>
+        <v>98770</v>
       </c>
       <c r="D141" t="n">
-        <v>118620</v>
+        <v>3395</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1409139</v>
+        <v>102476</v>
       </c>
       <c r="D142" t="n">
-        <v>55801</v>
+        <v>3706</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1469032</v>
+        <v>113925</v>
       </c>
       <c r="D143" t="n">
-        <v>59893</v>
+        <v>11449</v>
       </c>
       <c r="E143" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.75</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1521085</v>
+        <v>105732</v>
       </c>
       <c r="D144" t="n">
-        <v>52053</v>
+        <v>-8193</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5322,187 +5322,187 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1546354</v>
+        <v>6894</v>
       </c>
       <c r="D145" t="n">
-        <v>25269</v>
+        <v>6894</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1563386</v>
+        <v>7279</v>
       </c>
       <c r="D146" t="n">
-        <v>17032</v>
+        <v>385</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1583563</v>
+        <v>8171</v>
       </c>
       <c r="D147" t="n">
-        <v>20177</v>
+        <v>892</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F147" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G147" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>47847</v>
+        <v>8308</v>
       </c>
       <c r="D148" t="n">
-        <v>47847</v>
+        <v>137</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>49718</v>
+        <v>8655</v>
       </c>
       <c r="D149" t="n">
-        <v>1871</v>
+        <v>347</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>52819</v>
+        <v>10635</v>
       </c>
       <c r="D150" t="n">
-        <v>3101</v>
+        <v>1980</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>52970</v>
+        <v>9081</v>
       </c>
       <c r="D151" t="n">
-        <v>151</v>
+        <v>-1554</v>
       </c>
       <c r="E151" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -5511,187 +5511,187 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>56236</v>
+        <v>42788</v>
       </c>
       <c r="D152" t="n">
-        <v>3266</v>
+        <v>42788</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>56904</v>
+        <v>44546</v>
       </c>
       <c r="D153" t="n">
-        <v>668</v>
+        <v>1758</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>58242</v>
+        <v>45895</v>
       </c>
       <c r="D154" t="n">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>82184</v>
+        <v>47376</v>
       </c>
       <c r="D155" t="n">
-        <v>82184</v>
+        <v>1481</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>90612</v>
+        <v>48360</v>
       </c>
       <c r="D156" t="n">
-        <v>8428</v>
+        <v>984</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>95375</v>
+        <v>41680</v>
       </c>
       <c r="D157" t="n">
-        <v>4763</v>
+        <v>-6680</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>98770</v>
+        <v>50530</v>
       </c>
       <c r="D158" t="n">
-        <v>3395</v>
+        <v>8850</v>
       </c>
       <c r="E158" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5700,319 +5700,319 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>102476</v>
+        <v>1300</v>
       </c>
       <c r="D159" t="n">
-        <v>3706</v>
+        <v>1300</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>105370</v>
+        <v>1800</v>
       </c>
       <c r="D160" t="n">
-        <v>2894</v>
+        <v>500</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>105732</v>
+        <v>4000</v>
       </c>
       <c r="D161" t="n">
-        <v>362</v>
+        <v>4000</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>113509</v>
+        <v>71000</v>
       </c>
       <c r="D162" t="n">
-        <v>7777</v>
+        <v>71000</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F162" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G162" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6894</v>
+        <v>85000</v>
       </c>
       <c r="D163" t="n">
-        <v>6894</v>
+        <v>14000</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7279</v>
+        <v>22253</v>
       </c>
       <c r="D164" t="n">
-        <v>385</v>
+        <v>22253</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>05-2022</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8171</v>
+        <v>35455</v>
       </c>
       <c r="D165" t="n">
-        <v>892</v>
+        <v>13202</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333332</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8308</v>
+        <v>55488</v>
       </c>
       <c r="D166" t="n">
-        <v>137</v>
+        <v>20033</v>
       </c>
       <c r="E166" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F166" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8655</v>
+        <v>58869</v>
       </c>
       <c r="D167" t="n">
-        <v>347</v>
+        <v>3381</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>8821</v>
+        <v>77154</v>
       </c>
       <c r="D168" t="n">
-        <v>166</v>
+        <v>18285</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>9081</v>
+        <v>82708</v>
       </c>
       <c r="D169" t="n">
-        <v>260</v>
+        <v>5554</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>04-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9461</v>
+        <v>108836</v>
       </c>
       <c r="D170" t="n">
-        <v>380</v>
+        <v>26128</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F170" t="n">
         <v>0.75</v>
@@ -6024,79 +6024,79 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>42788</v>
+        <v>120842</v>
       </c>
       <c r="D171" t="n">
-        <v>42788</v>
+        <v>12006</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>44546</v>
+        <v>137797</v>
       </c>
       <c r="D172" t="n">
-        <v>1758</v>
+        <v>16955</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>45895</v>
+        <v>149476</v>
       </c>
       <c r="D173" t="n">
-        <v>1349</v>
+        <v>11679</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6105,594 +6105,54 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>47376</v>
+        <v>172220</v>
       </c>
       <c r="D174" t="n">
-        <v>1481</v>
+        <v>22744</v>
       </c>
       <c r="E174" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>48360</v>
+        <v>177958</v>
       </c>
       <c r="D175" t="n">
-        <v>984</v>
+        <v>5738</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>12-2022</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>50040</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1680</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>50530</v>
-      </c>
-      <c r="D177" t="n">
-        <v>490</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>04-2023</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>53957</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3427</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>06-2022</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>09-2022</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D180" t="n">
-        <v>500</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>03-2022</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>07-2022</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D182" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>11-2022</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D183" t="n">
-        <v>14000</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>04-2022</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>22253</v>
-      </c>
-      <c r="D184" t="n">
-        <v>22253</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>05-2022</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>35455</v>
-      </c>
-      <c r="D185" t="n">
-        <v>13202</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.3333333333333332</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>06-2022</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>55488</v>
-      </c>
-      <c r="D186" t="n">
-        <v>20033</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>07-2022</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>58869</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3381</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>08-2022</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>77154</v>
-      </c>
-      <c r="D188" t="n">
-        <v>18285</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>09-2022</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>82708</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5554</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>10-2022</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>108836</v>
-      </c>
-      <c r="D190" t="n">
-        <v>26128</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>11-2022</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>120842</v>
-      </c>
-      <c r="D191" t="n">
-        <v>12006</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>12-2022</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>137797</v>
-      </c>
-      <c r="D192" t="n">
-        <v>16955</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>149476</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11679</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>02-2023</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>172220</v>
-      </c>
-      <c r="D194" t="n">
-        <v>22744</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>03-2023</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>177958</v>
-      </c>
-      <c r="D195" t="n">
-        <v>5738</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G195" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -480,13 +480,13 @@
         <v>58559136.85168231</v>
       </c>
       <c r="D2" t="n">
-        <v>120482776.0833333</v>
+        <v>367776171.1166666</v>
       </c>
       <c r="E2" t="n">
-        <v>98449688.91666666</v>
+        <v>300519715.8833333</v>
       </c>
       <c r="F2" t="n">
-        <v>92777959.75</v>
+        <v>283206645.05</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>238004283.1466135</v>
       </c>
       <c r="D3" t="n">
-        <v>367954315.6916667</v>
+        <v>521596570.425</v>
       </c>
       <c r="E3" t="n">
-        <v>252412788.175</v>
+        <v>357809757.975</v>
       </c>
       <c r="F3" t="n">
-        <v>402458320.225</v>
+        <v>570507996.825</v>
       </c>
     </row>
     <row r="4">
@@ -524,13 +524,13 @@
         <v>483317981.6974695</v>
       </c>
       <c r="D4" t="n">
-        <v>731356400.6999999</v>
+        <v>1010626608.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1444882620.6</v>
+        <v>1996614538.8</v>
       </c>
       <c r="F4" t="n">
-        <v>759793964.8499999</v>
+        <v>1049923125.3</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>363211408.4846383</v>
       </c>
       <c r="D5" t="n">
-        <v>998053723.0666665</v>
+        <v>1971306027.483333</v>
       </c>
       <c r="E5" t="n">
-        <v>890091002.5333333</v>
+        <v>1758063436.616667</v>
       </c>
       <c r="F5" t="n">
-        <v>769025441.3333333</v>
+        <v>1518940767.166667</v>
       </c>
     </row>
     <row r="6">
@@ -568,13 +568,13 @@
         <v>6480470.109048648</v>
       </c>
       <c r="D6" t="n">
-        <v>1441542509.4</v>
+        <v>20851723961.54166</v>
       </c>
       <c r="E6" t="n">
-        <v>1421173660.2</v>
+        <v>20557091220.45833</v>
       </c>
       <c r="F6" t="n">
-        <v>1106514961.8</v>
+        <v>16005594279.95833</v>
       </c>
     </row>
     <row r="7">
@@ -590,13 +590,13 @@
         <v>2567870947.881485</v>
       </c>
       <c r="D7" t="n">
-        <v>8195999177.849999</v>
+        <v>11405217139.43333</v>
       </c>
       <c r="E7" t="n">
-        <v>6505637374.5</v>
+        <v>9052978810.333332</v>
       </c>
       <c r="F7" t="n">
-        <v>9444517135.499998</v>
+        <v>13142603649.66666</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60858884.68409418</v>
       </c>
       <c r="D8" t="n">
-        <v>451935237.5999999</v>
+        <v>1103943533</v>
       </c>
       <c r="E8" t="n">
-        <v>327399958.8</v>
+        <v>799740841.4999999</v>
       </c>
       <c r="F8" t="n">
-        <v>346511255.9999999</v>
+        <v>846424063.3333334</v>
       </c>
     </row>
     <row r="9">
@@ -634,13 +634,13 @@
         <v>212595686.1506533</v>
       </c>
       <c r="D9" t="n">
-        <v>280152544.2</v>
+        <v>542665608</v>
       </c>
       <c r="E9" t="n">
-        <v>186105148.025</v>
+        <v>360492401</v>
       </c>
       <c r="F9" t="n">
-        <v>297541951.9916667</v>
+        <v>576349519.6666666</v>
       </c>
     </row>
     <row r="10">
@@ -656,13 +656,13 @@
         <v>64843054.67945981</v>
       </c>
       <c r="D10" t="n">
-        <v>391105510.0083334</v>
+        <v>975737510.9333334</v>
       </c>
       <c r="E10" t="n">
-        <v>495862433.5583334</v>
+        <v>1237087088.533333</v>
       </c>
       <c r="F10" t="n">
-        <v>582165858.3416667</v>
+        <v>1452398524.266667</v>
       </c>
     </row>
     <row r="11">
@@ -678,13 +678,13 @@
         <v>1052522864.031498</v>
       </c>
       <c r="D11" t="n">
-        <v>406604329.7666667</v>
+        <v>554696174.2499999</v>
       </c>
       <c r="E11" t="n">
-        <v>235533670.2333333</v>
+        <v>321318825.75</v>
       </c>
       <c r="F11" t="n">
-        <v>312672790.8333333</v>
+        <v>426553256.25</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         <v>1359976138.191323</v>
       </c>
       <c r="D12" t="n">
-        <v>1357862702.5</v>
+        <v>3202305144.166666</v>
       </c>
       <c r="E12" t="n">
-        <v>1194043225.5</v>
+        <v>2815962730.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2609441330.5</v>
+        <v>6153956052.166666</v>
       </c>
     </row>
     <row r="13">
@@ -722,13 +722,13 @@
         <v>35077534.88405661</v>
       </c>
       <c r="D13" t="n">
-        <v>11650523.61666666</v>
+        <v>14666792.75833333</v>
       </c>
       <c r="E13" t="n">
-        <v>11239940.78333333</v>
+        <v>14149911.84166667</v>
       </c>
       <c r="F13" t="n">
-        <v>17036273.21666666</v>
+        <v>21446889.15833333</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         <v>47432854.05086241</v>
       </c>
       <c r="D15" t="n">
-        <v>404919761.6166666</v>
+        <v>2597972441.266666</v>
       </c>
       <c r="E15" t="n">
-        <v>356265694.6583333</v>
+        <v>2285807076.433333</v>
       </c>
       <c r="F15" t="n">
-        <v>811954207.8083333</v>
+        <v>5209512736.633333</v>
       </c>
     </row>
     <row r="16">
@@ -788,13 +788,13 @@
         <v>4314709.876317098</v>
       </c>
       <c r="D16" t="n">
-        <v>5623402.45</v>
+        <v>6817732.85</v>
       </c>
       <c r="E16" t="n">
-        <v>9224548.449999999</v>
+        <v>11183710.85</v>
       </c>
       <c r="F16" t="n">
-        <v>11223571.7</v>
+        <v>13607298.1</v>
       </c>
     </row>
     <row r="17">
@@ -810,13 +810,13 @@
         <v>510450554.9054651</v>
       </c>
       <c r="D17" t="n">
-        <v>1335879029.833333</v>
+        <v>2219529496.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1018915757.566667</v>
+        <v>1692902970.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1305798816.3</v>
+        <v>2169551976.3</v>
       </c>
     </row>
     <row r="18">
@@ -832,13 +832,13 @@
         <v>224926.0855395237</v>
       </c>
       <c r="D18" t="n">
-        <v>19795</v>
+        <v>1059865</v>
       </c>
       <c r="E18" t="n">
-        <v>18725</v>
+        <v>1002575</v>
       </c>
       <c r="F18" t="n">
-        <v>19795</v>
+        <v>1059865</v>
       </c>
     </row>
     <row r="19">
@@ -854,13 +854,13 @@
         <v>1966967.651507459</v>
       </c>
       <c r="D19" t="n">
-        <v>161955731.2</v>
+        <v>2094371532.8</v>
       </c>
       <c r="E19" t="n">
-        <v>178697785.3</v>
+        <v>2310875643.2</v>
       </c>
       <c r="F19" t="n">
-        <v>124570501.3666667</v>
+        <v>1610914970.133333</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>533409.7999999999</v>
+        <v>257772.2</v>
       </c>
       <c r="E20" t="n">
-        <v>313792.6</v>
+        <v>151641.4</v>
       </c>
       <c r="F20" t="n">
-        <v>408344.2</v>
+        <v>197333.8</v>
       </c>
     </row>
     <row r="21">
@@ -896,13 +896,13 @@
         <v>383424781.3742747</v>
       </c>
       <c r="D21" t="n">
-        <v>1018023463.333333</v>
+        <v>1489854943.333333</v>
       </c>
       <c r="E21" t="n">
-        <v>1020791051</v>
+        <v>1493905247</v>
       </c>
       <c r="F21" t="n">
-        <v>1787076236.166667</v>
+        <v>2615346758.166667</v>
       </c>
     </row>
     <row r="22">
@@ -918,13 +918,13 @@
         <v>56366852.26050603</v>
       </c>
       <c r="D22" t="n">
-        <v>424794428.5</v>
+        <v>1126763404.75</v>
       </c>
       <c r="E22" t="n">
-        <v>1124092430.5</v>
+        <v>2981645071.75</v>
       </c>
       <c r="F22" t="n">
-        <v>1041529485.966667</v>
+        <v>2762647603.216667</v>
       </c>
     </row>
     <row r="23">
@@ -940,13 +940,13 @@
         <v>11052205.68546864</v>
       </c>
       <c r="D23" t="n">
-        <v>71900666.66666667</v>
+        <v>90317000</v>
       </c>
       <c r="E23" t="n">
-        <v>14380133.33333333</v>
+        <v>18063399.99999999</v>
       </c>
       <c r="F23" t="n">
-        <v>71900666.66666667</v>
+        <v>90317000</v>
       </c>
     </row>
     <row r="24">
@@ -962,13 +962,13 @@
         <v>16303317.58315022</v>
       </c>
       <c r="D24" t="n">
-        <v>1574312734.141666</v>
+        <v>98291582958.50832</v>
       </c>
       <c r="E24" t="n">
-        <v>2087480238.258333</v>
+        <v>130330989874.6917</v>
       </c>
       <c r="F24" t="n">
-        <v>1220175033.108333</v>
+        <v>76181137895.74165</v>
       </c>
     </row>
     <row r="25">
@@ -984,13 +984,13 @@
         <v>10345677.54923651</v>
       </c>
       <c r="D25" t="n">
-        <v>210305989.35</v>
+        <v>290585171.6583333</v>
       </c>
       <c r="E25" t="n">
-        <v>131750542.8</v>
+        <v>182043099.2666667</v>
       </c>
       <c r="F25" t="n">
-        <v>172894310.1</v>
+        <v>238892496.2833333</v>
       </c>
     </row>
     <row r="26">
@@ -1006,13 +1006,13 @@
         <v>1154865.353723471</v>
       </c>
       <c r="D26" t="n">
-        <v>220031599.85</v>
+        <v>295087273.2916666</v>
       </c>
       <c r="E26" t="n">
-        <v>150889365</v>
+        <v>202359712.5</v>
       </c>
       <c r="F26" t="n">
-        <v>208547093.2</v>
+        <v>279685250.3333333</v>
       </c>
     </row>
     <row r="27">
@@ -1028,13 +1028,13 @@
         <v>2209267.842568598</v>
       </c>
       <c r="D27" t="n">
-        <v>3214602.083333333</v>
+        <v>11801454.16666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2295251.916666667</v>
+        <v>8426333.833333334</v>
       </c>
       <c r="F27" t="n">
-        <v>3630652.283333334</v>
+        <v>13328858.56666667</v>
       </c>
     </row>
     <row r="28">
@@ -1050,13 +1050,13 @@
         <v>79263094.67844568</v>
       </c>
       <c r="D28" t="n">
-        <v>242212224.1</v>
+        <v>333533236.5749999</v>
       </c>
       <c r="E28" t="n">
-        <v>215994107.9</v>
+        <v>297430132.425</v>
       </c>
       <c r="F28" t="n">
-        <v>185095949.1666667</v>
+        <v>254882474.375</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>85000</v>
       </c>
       <c r="C29" t="n">
-        <v>5072989206.702785</v>
+        <v>5072946443.400178</v>
       </c>
       <c r="D29" t="n">
-        <v>520735133.3333333</v>
+        <v>897720033.3333333</v>
       </c>
       <c r="E29" t="n">
-        <v>370455866.6666666</v>
+        <v>638646466.6666667</v>
       </c>
       <c r="F29" t="n">
-        <v>396667366.6666667</v>
+        <v>683833716.6666666</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,291 +1115,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2231.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9976.1</v>
+        <v>6811.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12428.1</v>
+        <v>14141.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23432.8</v>
+        <v>17173.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5018.4</v>
+        <v>46283.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14268.6</v>
+        <v>72590.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19695.6</v>
+        <v>19855.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2950.9</v>
+        <v>48110.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16589.9</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6115.6</v>
+        <v>41388.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16322.1</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.6</v>
+        <v>38493.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6660.4</v>
+        <v>1294.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12241.3</v>
+        <v>6660.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5808.3</v>
+        <v>78540.39999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13726.9</v>
+        <v>7041.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.4</v>
+        <v>22806.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118</v>
+        <v>1145.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3737.9</v>
+        <v>384.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.4</v>
+        <v>48337.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22439.9</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23761.4</v>
+        <v>32840.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21570.2</v>
+        <v>63026.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1720.9</v>
+        <v>27095.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6226.2</v>
+        <v>107443.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3586.2</v>
+        <v>8602.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>624.7</v>
+        <v>4809.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8009.2</v>
+        <v>2293.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11028.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>10484.6</v>
+      <c r="B31" t="n">
+        <v>18074.9</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -480,13 +480,13 @@
         <v>58559136.85168231</v>
       </c>
       <c r="D2" t="n">
-        <v>367776171.1166666</v>
+        <v>120482776.0833333</v>
       </c>
       <c r="E2" t="n">
-        <v>300519715.8833333</v>
+        <v>98449688.91666666</v>
       </c>
       <c r="F2" t="n">
-        <v>283206645.05</v>
+        <v>92777959.75</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>238004283.1466135</v>
       </c>
       <c r="D3" t="n">
-        <v>521596570.425</v>
+        <v>367954315.6916667</v>
       </c>
       <c r="E3" t="n">
-        <v>357809757.975</v>
+        <v>252412788.175</v>
       </c>
       <c r="F3" t="n">
-        <v>570507996.825</v>
+        <v>402458320.225</v>
       </c>
     </row>
     <row r="4">
@@ -524,13 +524,13 @@
         <v>483317981.6974695</v>
       </c>
       <c r="D4" t="n">
-        <v>1010626608.6</v>
+        <v>731356400.6999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1996614538.8</v>
+        <v>1444882620.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1049923125.3</v>
+        <v>759793964.8499999</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>363211408.4846383</v>
       </c>
       <c r="D5" t="n">
-        <v>1971306027.483333</v>
+        <v>998053723.0666665</v>
       </c>
       <c r="E5" t="n">
-        <v>1758063436.616667</v>
+        <v>890091002.5333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1518940767.166667</v>
+        <v>769025441.3333333</v>
       </c>
     </row>
     <row r="6">
@@ -568,13 +568,13 @@
         <v>6480470.109048648</v>
       </c>
       <c r="D6" t="n">
-        <v>20851723961.54166</v>
+        <v>1441542509.4</v>
       </c>
       <c r="E6" t="n">
-        <v>20557091220.45833</v>
+        <v>1421173660.2</v>
       </c>
       <c r="F6" t="n">
-        <v>16005594279.95833</v>
+        <v>1106514961.8</v>
       </c>
     </row>
     <row r="7">
@@ -590,13 +590,13 @@
         <v>2567870947.881485</v>
       </c>
       <c r="D7" t="n">
-        <v>11405217139.43333</v>
+        <v>8195999177.849999</v>
       </c>
       <c r="E7" t="n">
-        <v>9052978810.333332</v>
+        <v>6505637374.5</v>
       </c>
       <c r="F7" t="n">
-        <v>13142603649.66666</v>
+        <v>9444517135.499998</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60858884.68409418</v>
       </c>
       <c r="D8" t="n">
-        <v>1103943533</v>
+        <v>451935237.5999999</v>
       </c>
       <c r="E8" t="n">
-        <v>799740841.4999999</v>
+        <v>327399958.8</v>
       </c>
       <c r="F8" t="n">
-        <v>846424063.3333334</v>
+        <v>346511255.9999999</v>
       </c>
     </row>
     <row r="9">
@@ -634,13 +634,13 @@
         <v>212595686.1506533</v>
       </c>
       <c r="D9" t="n">
-        <v>542665608</v>
+        <v>280152544.2</v>
       </c>
       <c r="E9" t="n">
-        <v>360492401</v>
+        <v>186105148.025</v>
       </c>
       <c r="F9" t="n">
-        <v>576349519.6666666</v>
+        <v>297541951.9916667</v>
       </c>
     </row>
     <row r="10">
@@ -656,13 +656,13 @@
         <v>64843054.67945981</v>
       </c>
       <c r="D10" t="n">
-        <v>975737510.9333334</v>
+        <v>391105510.0083334</v>
       </c>
       <c r="E10" t="n">
-        <v>1237087088.533333</v>
+        <v>495862433.5583334</v>
       </c>
       <c r="F10" t="n">
-        <v>1452398524.266667</v>
+        <v>582165858.3416667</v>
       </c>
     </row>
     <row r="11">
@@ -678,13 +678,13 @@
         <v>1052522864.031498</v>
       </c>
       <c r="D11" t="n">
-        <v>554696174.2499999</v>
+        <v>406604329.7666667</v>
       </c>
       <c r="E11" t="n">
-        <v>321318825.75</v>
+        <v>235533670.2333333</v>
       </c>
       <c r="F11" t="n">
-        <v>426553256.25</v>
+        <v>312672790.8333333</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         <v>1359976138.191323</v>
       </c>
       <c r="D12" t="n">
-        <v>3202305144.166666</v>
+        <v>1357862702.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2815962730.5</v>
+        <v>1194043225.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6153956052.166666</v>
+        <v>2609441330.5</v>
       </c>
     </row>
     <row r="13">
@@ -722,13 +722,13 @@
         <v>35077534.88405661</v>
       </c>
       <c r="D13" t="n">
-        <v>14666792.75833333</v>
+        <v>11650523.61666666</v>
       </c>
       <c r="E13" t="n">
-        <v>14149911.84166667</v>
+        <v>11239940.78333333</v>
       </c>
       <c r="F13" t="n">
-        <v>21446889.15833333</v>
+        <v>17036273.21666666</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         <v>47432854.05086241</v>
       </c>
       <c r="D15" t="n">
-        <v>2597972441.266666</v>
+        <v>404919761.6166666</v>
       </c>
       <c r="E15" t="n">
-        <v>2285807076.433333</v>
+        <v>356265694.6583333</v>
       </c>
       <c r="F15" t="n">
-        <v>5209512736.633333</v>
+        <v>811954207.8083333</v>
       </c>
     </row>
     <row r="16">
@@ -788,13 +788,13 @@
         <v>4314709.876317098</v>
       </c>
       <c r="D16" t="n">
-        <v>6817732.85</v>
+        <v>5623402.45</v>
       </c>
       <c r="E16" t="n">
-        <v>11183710.85</v>
+        <v>9224548.449999999</v>
       </c>
       <c r="F16" t="n">
-        <v>13607298.1</v>
+        <v>11223571.7</v>
       </c>
     </row>
     <row r="17">
@@ -810,13 +810,13 @@
         <v>510450554.9054651</v>
       </c>
       <c r="D17" t="n">
-        <v>2219529496.5</v>
+        <v>1335879029.833333</v>
       </c>
       <c r="E17" t="n">
-        <v>1692902970.9</v>
+        <v>1018915757.566667</v>
       </c>
       <c r="F17" t="n">
-        <v>2169551976.3</v>
+        <v>1305798816.3</v>
       </c>
     </row>
     <row r="18">
@@ -832,13 +832,13 @@
         <v>224926.0855395237</v>
       </c>
       <c r="D18" t="n">
-        <v>1059865</v>
+        <v>19795</v>
       </c>
       <c r="E18" t="n">
-        <v>1002575</v>
+        <v>18725</v>
       </c>
       <c r="F18" t="n">
-        <v>1059865</v>
+        <v>19795</v>
       </c>
     </row>
     <row r="19">
@@ -854,13 +854,13 @@
         <v>1966967.651507459</v>
       </c>
       <c r="D19" t="n">
-        <v>2094371532.8</v>
+        <v>161955731.2</v>
       </c>
       <c r="E19" t="n">
-        <v>2310875643.2</v>
+        <v>178697785.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1610914970.133333</v>
+        <v>124570501.3666667</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>257772.2</v>
+        <v>533409.7999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>151641.4</v>
+        <v>313792.6</v>
       </c>
       <c r="F20" t="n">
-        <v>197333.8</v>
+        <v>408344.2</v>
       </c>
     </row>
     <row r="21">
@@ -896,13 +896,13 @@
         <v>383424781.3742747</v>
       </c>
       <c r="D21" t="n">
-        <v>1489854943.333333</v>
+        <v>1018023463.333333</v>
       </c>
       <c r="E21" t="n">
-        <v>1493905247</v>
+        <v>1020791051</v>
       </c>
       <c r="F21" t="n">
-        <v>2615346758.166667</v>
+        <v>1787076236.166667</v>
       </c>
     </row>
     <row r="22">
@@ -918,13 +918,13 @@
         <v>56366852.26050603</v>
       </c>
       <c r="D22" t="n">
-        <v>1126763404.75</v>
+        <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>2981645071.75</v>
+        <v>1124092430.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2762647603.216667</v>
+        <v>1041529485.966667</v>
       </c>
     </row>
     <row r="23">
@@ -940,13 +940,13 @@
         <v>11052205.68546864</v>
       </c>
       <c r="D23" t="n">
-        <v>90317000</v>
+        <v>71900666.66666667</v>
       </c>
       <c r="E23" t="n">
-        <v>18063399.99999999</v>
+        <v>14380133.33333333</v>
       </c>
       <c r="F23" t="n">
-        <v>90317000</v>
+        <v>71900666.66666667</v>
       </c>
     </row>
     <row r="24">
@@ -962,13 +962,13 @@
         <v>16303317.58315022</v>
       </c>
       <c r="D24" t="n">
-        <v>98291582958.50832</v>
+        <v>1574312734.141666</v>
       </c>
       <c r="E24" t="n">
-        <v>130330989874.6917</v>
+        <v>2087480238.258333</v>
       </c>
       <c r="F24" t="n">
-        <v>76181137895.74165</v>
+        <v>1220175033.108333</v>
       </c>
     </row>
     <row r="25">
@@ -984,13 +984,13 @@
         <v>10345677.54923651</v>
       </c>
       <c r="D25" t="n">
-        <v>290585171.6583333</v>
+        <v>210305989.35</v>
       </c>
       <c r="E25" t="n">
-        <v>182043099.2666667</v>
+        <v>131750542.8</v>
       </c>
       <c r="F25" t="n">
-        <v>238892496.2833333</v>
+        <v>172894310.1</v>
       </c>
     </row>
     <row r="26">
@@ -1006,13 +1006,13 @@
         <v>1154865.353723471</v>
       </c>
       <c r="D26" t="n">
-        <v>295087273.2916666</v>
+        <v>220031599.85</v>
       </c>
       <c r="E26" t="n">
-        <v>202359712.5</v>
+        <v>150889365</v>
       </c>
       <c r="F26" t="n">
-        <v>279685250.3333333</v>
+        <v>208547093.2</v>
       </c>
     </row>
     <row r="27">
@@ -1028,13 +1028,13 @@
         <v>2209267.842568598</v>
       </c>
       <c r="D27" t="n">
-        <v>11801454.16666667</v>
+        <v>3214602.083333333</v>
       </c>
       <c r="E27" t="n">
-        <v>8426333.833333334</v>
+        <v>2295251.916666667</v>
       </c>
       <c r="F27" t="n">
-        <v>13328858.56666667</v>
+        <v>3630652.283333334</v>
       </c>
     </row>
     <row r="28">
@@ -1050,13 +1050,13 @@
         <v>79263094.67844568</v>
       </c>
       <c r="D28" t="n">
-        <v>333533236.5749999</v>
+        <v>242212224.1</v>
       </c>
       <c r="E28" t="n">
-        <v>297430132.425</v>
+        <v>215994107.9</v>
       </c>
       <c r="F28" t="n">
-        <v>254882474.375</v>
+        <v>185095949.1666667</v>
       </c>
     </row>
     <row r="29">
@@ -1072,13 +1072,13 @@
         <v>5072946443.400178</v>
       </c>
       <c r="D29" t="n">
-        <v>897720033.3333333</v>
+        <v>520720233.3333333</v>
       </c>
       <c r="E29" t="n">
-        <v>638646466.6666667</v>
+        <v>370445266.6666666</v>
       </c>
       <c r="F29" t="n">
-        <v>683833716.6666666</v>
+        <v>396656016.6666666</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,301 +1115,291 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2231.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6811.7</v>
+        <v>9976.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14141.7</v>
+        <v>12428.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17173.8</v>
+        <v>23432.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46283.3</v>
+        <v>5018.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72590.5</v>
+        <v>14268.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19855.6</v>
+        <v>19695.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48110.5</v>
+        <v>2950.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5716</v>
+        <v>16589.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41388.8</v>
+        <v>6115.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8343</v>
+        <v>16322.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38493.1</v>
+        <v>1028.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1294.9</v>
+        <v>6660.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6660.4</v>
+        <v>12241.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78540.39999999999</v>
+        <v>5808.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7041.9</v>
+        <v>13726.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22806.9</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1145.8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>384.3</v>
+        <v>3737.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48337.6</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.6</v>
+        <v>22439.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32840.3</v>
+        <v>23761.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63026.9</v>
+        <v>21570.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27095.1</v>
+        <v>1720.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>107443.7</v>
+        <v>6226.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8602.9</v>
+        <v>3586.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4809.5</v>
+        <v>624.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2293.4</v>
+        <v>8009.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11028.9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>18074.9</v>
+        <v>10484.3</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -474,19 +474,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98110</v>
+        <v>91232</v>
       </c>
       <c r="C2" t="n">
         <v>58559136.85168231</v>
       </c>
       <c r="D2" t="n">
-        <v>120482776.0833333</v>
+        <v>120825497.2916667</v>
       </c>
       <c r="E2" t="n">
-        <v>98449688.91666666</v>
+        <v>82758710.70833333</v>
       </c>
       <c r="F2" t="n">
-        <v>92777959.75</v>
+        <v>93120680.95833333</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74317</v>
+        <v>73095</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
       </c>
       <c r="D3" t="n">
-        <v>367954315.6916667</v>
+        <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>252412788.175</v>
+        <v>291488340.5333333</v>
       </c>
       <c r="F3" t="n">
-        <v>402458320.225</v>
+        <v>351191973.6666667</v>
       </c>
     </row>
     <row r="4">
@@ -540,19 +540,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80577</v>
+        <v>77450</v>
       </c>
       <c r="C5" t="n">
         <v>363211408.4846383</v>
       </c>
       <c r="D5" t="n">
-        <v>998053723.0666665</v>
+        <v>1011381128.066666</v>
       </c>
       <c r="E5" t="n">
-        <v>890091002.5333333</v>
+        <v>803489231.9333333</v>
       </c>
       <c r="F5" t="n">
-        <v>769025441.3333333</v>
+        <v>782352846.3333333</v>
       </c>
     </row>
     <row r="6">
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570444</v>
+        <v>478614</v>
       </c>
       <c r="C6" t="n">
         <v>6480470.109048648</v>
       </c>
       <c r="D6" t="n">
-        <v>1441542509.4</v>
+        <v>1445649651.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1421173660.2</v>
+        <v>956226845.9999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1106514961.8</v>
+        <v>1110622104</v>
       </c>
     </row>
     <row r="7">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39569</v>
+        <v>39482</v>
       </c>
       <c r="C8" t="n">
         <v>60858884.68409418</v>
       </c>
       <c r="D8" t="n">
-        <v>451935237.5999999</v>
+        <v>456036846.2999999</v>
       </c>
       <c r="E8" t="n">
-        <v>327399958.8</v>
+        <v>321584832.9</v>
       </c>
       <c r="F8" t="n">
-        <v>346511255.9999999</v>
+        <v>350612864.6999999</v>
       </c>
     </row>
     <row r="9">
@@ -634,13 +634,13 @@
         <v>212595686.1506533</v>
       </c>
       <c r="D9" t="n">
-        <v>280152544.2</v>
+        <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>186105148.025</v>
+        <v>199726010.6083333</v>
       </c>
       <c r="F9" t="n">
-        <v>297541951.9916667</v>
+        <v>283921089.4083334</v>
       </c>
     </row>
     <row r="10">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70043</v>
+        <v>61564</v>
       </c>
       <c r="C10" t="n">
         <v>64843054.67945981</v>
       </c>
       <c r="D10" t="n">
-        <v>391105510.0083334</v>
+        <v>401811525.475</v>
       </c>
       <c r="E10" t="n">
-        <v>495862433.5583334</v>
+        <v>459679861.6583334</v>
       </c>
       <c r="F10" t="n">
-        <v>582165858.3416667</v>
+        <v>477682668.1416667</v>
       </c>
     </row>
     <row r="11">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105000</v>
+        <v>118994</v>
       </c>
       <c r="C11" t="n">
         <v>1052522864.031498</v>
       </c>
       <c r="D11" t="n">
-        <v>406604329.7666667</v>
+        <v>427999756.3666667</v>
       </c>
       <c r="E11" t="n">
-        <v>235533670.2333333</v>
+        <v>299719950.0333334</v>
       </c>
       <c r="F11" t="n">
-        <v>312672790.8333333</v>
+        <v>334068217.4333333</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         <v>1359976138.191323</v>
       </c>
       <c r="D12" t="n">
-        <v>1357862702.5</v>
+        <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1194043225.5</v>
+        <v>1303265278</v>
       </c>
       <c r="F12" t="n">
-        <v>2609441330.5</v>
+        <v>2500219278</v>
       </c>
     </row>
     <row r="13">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27903</v>
+        <v>26945</v>
       </c>
       <c r="C13" t="n">
         <v>35077534.88405661</v>
       </c>
       <c r="D13" t="n">
-        <v>11650523.61666666</v>
+        <v>11800699.21666666</v>
       </c>
       <c r="E13" t="n">
-        <v>11239940.78333333</v>
+        <v>11293942.28333333</v>
       </c>
       <c r="F13" t="n">
-        <v>17036273.21666666</v>
+        <v>15996872.91666666</v>
       </c>
     </row>
     <row r="14">
@@ -750,7 +750,7 @@
         <v>294059435.1666666</v>
       </c>
       <c r="F14" t="n">
-        <v>304742716.7666667</v>
+        <v>303224145.5666667</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         <v>47432854.05086241</v>
       </c>
       <c r="D15" t="n">
-        <v>404919761.6166666</v>
+        <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>356265694.6583333</v>
+        <v>486074480.075</v>
       </c>
       <c r="F15" t="n">
-        <v>811954207.8083333</v>
+        <v>682145422.3916667</v>
       </c>
     </row>
     <row r="16">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3723</v>
+        <v>3250</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
       </c>
       <c r="D16" t="n">
-        <v>5623402.45</v>
+        <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9224548.449999999</v>
+        <v>8884762.9</v>
       </c>
       <c r="F16" t="n">
-        <v>11223571.7</v>
+        <v>8816031.35</v>
       </c>
     </row>
     <row r="17">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171546</v>
+        <v>174346</v>
       </c>
       <c r="C17" t="n">
         <v>510450554.9054651</v>
       </c>
       <c r="D17" t="n">
-        <v>1335879029.833333</v>
+        <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1018915757.566667</v>
+        <v>1040741528.566667</v>
       </c>
       <c r="F17" t="n">
-        <v>1305798816.3</v>
+        <v>1322408365.3</v>
       </c>
     </row>
     <row r="18">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91135</v>
+        <v>72773</v>
       </c>
       <c r="C19" t="n">
         <v>1966967.651507459</v>
       </c>
       <c r="D19" t="n">
-        <v>161955731.2</v>
+        <v>162465020.075</v>
       </c>
       <c r="E19" t="n">
-        <v>178697785.3</v>
+        <v>109553176.625</v>
       </c>
       <c r="F19" t="n">
-        <v>124570501.3666667</v>
+        <v>125079790.2416667</v>
       </c>
     </row>
     <row r="20">
@@ -896,13 +896,13 @@
         <v>383424781.3742747</v>
       </c>
       <c r="D21" t="n">
-        <v>1018023463.333333</v>
+        <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1020791051</v>
+        <v>1171437579.666667</v>
       </c>
       <c r="F21" t="n">
-        <v>1787076236.166667</v>
+        <v>1636429707.5</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +924,7 @@
         <v>1124092430.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1041529485.966667</v>
+        <v>1011209939.566667</v>
       </c>
     </row>
     <row r="23">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2127836</v>
+        <v>1563386</v>
       </c>
       <c r="C24" t="n">
         <v>16303317.58315022</v>
       </c>
       <c r="D24" t="n">
-        <v>1574312734.141666</v>
+        <v>1577936519.316667</v>
       </c>
       <c r="E24" t="n">
-        <v>2087480238.258333</v>
+        <v>1112494448.083333</v>
       </c>
       <c r="F24" t="n">
-        <v>1220175033.108333</v>
+        <v>1223798818.283333</v>
       </c>
     </row>
     <row r="25">
@@ -984,13 +984,13 @@
         <v>10345677.54923651</v>
       </c>
       <c r="D25" t="n">
-        <v>210305989.35</v>
+        <v>211822587.9</v>
       </c>
       <c r="E25" t="n">
-        <v>131750542.8</v>
+        <v>142473096.9</v>
       </c>
       <c r="F25" t="n">
-        <v>172894310.1</v>
+        <v>162171756</v>
       </c>
     </row>
     <row r="26">
@@ -1006,13 +1006,13 @@
         <v>1154865.353723471</v>
       </c>
       <c r="D26" t="n">
-        <v>220031599.85</v>
+        <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>150889365</v>
+        <v>160728104.7</v>
       </c>
       <c r="F26" t="n">
-        <v>208547093.2</v>
+        <v>198708353.5</v>
       </c>
     </row>
     <row r="27">
@@ -1028,13 +1028,13 @@
         <v>2209267.842568598</v>
       </c>
       <c r="D27" t="n">
-        <v>3214602.083333333</v>
+        <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2295251.916666667</v>
+        <v>2530555.583333333</v>
       </c>
       <c r="F27" t="n">
-        <v>3630652.283333334</v>
+        <v>3395348.616666667</v>
       </c>
     </row>
     <row r="28">
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57210</v>
+        <v>50530</v>
       </c>
       <c r="C28" t="n">
         <v>79263094.67844568</v>
       </c>
       <c r="D28" t="n">
-        <v>242212224.1</v>
+        <v>243333512.1</v>
       </c>
       <c r="E28" t="n">
-        <v>215994107.9</v>
+        <v>161371363.9</v>
       </c>
       <c r="F28" t="n">
-        <v>185095949.1666667</v>
+        <v>186217237.1666667</v>
       </c>
     </row>
     <row r="29">
@@ -1413,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,20 +1439,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>date_month</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>monthly_difference</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ratio22</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ratio23</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ratio24</t>
         </is>
@@ -1461,265 +1466,312 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>03-2022</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74492</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74492</v>
+        <v>4000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>4000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>04-2022</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79728</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5236</v>
+        <v>22253</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4166666666666666</v>
+        <v>22253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>05-2022</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82446</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2718</v>
+        <v>35455</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>13202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84756</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2310</v>
+        <v>55488</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>20033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88748</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3992</v>
+        <v>1300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1666666666666666</v>
+        <v>1300</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81870</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-6878</v>
+        <v>15565</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15565</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>91232</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9362</v>
+        <v>867000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>867000</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>06-2022</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52038</v>
-      </c>
-      <c r="D9" t="n">
-        <v>52038</v>
+        <v>141562</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>141562</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>54414</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2376</v>
+        <v>58869</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4166666666666666</v>
+        <v>3381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56464</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2050</v>
+        <v>71000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3333333333333333</v>
+        <v>71000</v>
       </c>
       <c r="F11" t="n">
         <v>0.6666666666666666</v>
@@ -1727,119 +1779,142 @@
       <c r="G11" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58537</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2073</v>
+        <v>74492</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>74492</v>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>73095</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14558</v>
+        <v>68050</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68050</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>64436</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-8659</v>
+        <v>92156</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0833333333333333</v>
+        <v>92156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65658</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1222</v>
+        <v>26563</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>26563</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1848,67 +1923,79 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>58643</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58643</v>
+        <v>1234718</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E16" t="n">
+        <v>1234718</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>64053</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5410</v>
+        <v>47847</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4166666666666666</v>
+        <v>47847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65098</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1045</v>
+        <v>82184</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3333333333333333</v>
+        <v>82184</v>
       </c>
       <c r="F18" t="n">
         <v>0.6666666666666666</v>
@@ -1916,86 +2003,104 @@
       <c r="G18" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66812</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1714</v>
+        <v>104000</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>104000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69607</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2795</v>
+        <v>154710</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1666666666666666</v>
+        <v>13148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66480</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-3127</v>
+        <v>52038</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>52038</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -2006,23 +2111,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77450</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10970</v>
+        <v>58643</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58643</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -2039,65 +2149,77 @@
       <c r="C23" t="n">
         <v>400559</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>400559</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G23" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>423374</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22815</v>
+        <v>915000</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0.4166666666666666</v>
+        <v>48000</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>439043</v>
-      </c>
-      <c r="D25" t="n">
-        <v>15669</v>
+        <v>32116</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3333333333333333</v>
+        <v>32116</v>
       </c>
       <c r="F25" t="n">
         <v>0.6666666666666666</v>
@@ -2105,146 +2227,174 @@
       <c r="G25" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>453103</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14060</v>
+        <v>30372</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>30372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>464910</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11807</v>
+        <v>42764</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1666666666666666</v>
+        <v>42764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>373080</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-91830</v>
+        <v>1215</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>478614</v>
-      </c>
-      <c r="D29" t="n">
-        <v>105534</v>
+        <v>60010</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>60010</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>867000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>867000</v>
+        <v>5984</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5833333333333333</v>
+        <v>5984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2253,67 +2403,79 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>915000</v>
-      </c>
-      <c r="D31" t="n">
-        <v>48000</v>
+        <v>21484</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E31" t="n">
+        <v>21484</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G31" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>971000</v>
-      </c>
-      <c r="D32" t="n">
-        <v>56000</v>
+        <v>6894</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>0.4166666666666666</v>
+        <v>6894</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>997895</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26895</v>
+        <v>42788</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>0.3333333333333333</v>
+        <v>42788</v>
       </c>
       <c r="F33" t="n">
         <v>0.6666666666666666</v>
@@ -2321,119 +2483,142 @@
       <c r="G33" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1002668</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4773</v>
+        <v>131771</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>131771</v>
       </c>
       <c r="F34" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1021667</v>
-      </c>
-      <c r="D35" t="n">
-        <v>18999</v>
+        <v>18043</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1666666666666666</v>
+        <v>2478</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1125850</v>
-      </c>
-      <c r="D36" t="n">
-        <v>104183</v>
+        <v>77154</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>18285</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32116</v>
-      </c>
-      <c r="D37" t="n">
-        <v>32116</v>
+        <v>49718</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6666666666666666</v>
+        <v>1871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2442,46 +2627,56 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33396</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1280</v>
+        <v>23912</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E38" t="n">
+        <v>2428</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35193</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1797</v>
+        <v>44546</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3333333333333333</v>
+        <v>1758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2492,137 +2687,162 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>36449</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1256</v>
+        <v>33396</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>0.25</v>
+        <v>1280</v>
       </c>
       <c r="F40" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G40" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36983</v>
-      </c>
-      <c r="D41" t="n">
-        <v>534</v>
+        <v>36652</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1666666666666666</v>
+        <v>6280</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>36635</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-348</v>
+        <v>64053</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5410</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39221</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2586</v>
+        <v>18745</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>131771</v>
-      </c>
-      <c r="D44" t="n">
-        <v>131771</v>
+        <v>1500</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>0.6666666666666666</v>
+        <v>285</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2631,18 +2851,23 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>139116</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7345</v>
+        <v>63279</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E45" t="n">
+        <v>3269</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.4166666666666666</v>
       </c>
     </row>
@@ -2654,137 +2879,162 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>144668</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5552</v>
+        <v>139116</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>0.3333333333333333</v>
+        <v>7345</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>149213</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4545</v>
+        <v>101369</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>0.25</v>
+        <v>9213</v>
       </c>
       <c r="F47" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G47" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>155473</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6260</v>
+        <v>46481</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1666666666666666</v>
+        <v>3717</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>185860</v>
-      </c>
-      <c r="D49" t="n">
-        <v>30387</v>
+        <v>79728</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5236</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30372</v>
-      </c>
-      <c r="D50" t="n">
-        <v>30372</v>
+        <v>54414</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6666666666666666</v>
+        <v>2376</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2793,187 +3043,222 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>36652</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6280</v>
+        <v>423374</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E51" t="n">
+        <v>22815</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61520</v>
-      </c>
-      <c r="D52" t="n">
-        <v>24868</v>
+        <v>971000</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>38588</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-22932</v>
+        <v>120600</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E53" t="n">
-        <v>0.25</v>
+        <v>16600</v>
       </c>
       <c r="F53" t="n">
-        <v>0.75</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G53" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38588</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+        <v>29027</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1666666666666666</v>
+        <v>2464</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>47111</v>
-      </c>
-      <c r="D55" t="n">
-        <v>8523</v>
+        <v>159968</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E55" t="n">
-        <v>0.0833333333333333</v>
+        <v>5258</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>47067</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-44</v>
+        <v>6263</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>92156</v>
-      </c>
-      <c r="D57" t="n">
-        <v>92156</v>
+        <v>1353338</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>0.6666666666666666</v>
+        <v>118620</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2982,133 +3267,158 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>101369</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9213</v>
+        <v>90612</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E58" t="n">
+        <v>8428</v>
+      </c>
+      <c r="F58" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>105000</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3631</v>
+        <v>7279</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
       </c>
       <c r="E59" t="n">
-        <v>0.3333333333333333</v>
+        <v>385</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>69495</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-35505</v>
+        <v>82708</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>5554</v>
       </c>
       <c r="F60" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G60" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>104000</v>
-      </c>
-      <c r="D61" t="n">
-        <v>104000</v>
+        <v>1800</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E61" t="n">
+        <v>500</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.5</v>
+      <c r="H61" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>120600</v>
-      </c>
-      <c r="D62" t="n">
-        <v>16600</v>
+        <v>6561</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E62" t="n">
-        <v>0.4166666666666666</v>
+        <v>298</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3117,214 +3427,254 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>131700</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11100</v>
+        <v>19413</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3333333333333333</v>
+        <v>668</v>
       </c>
       <c r="F63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>138400</v>
-      </c>
-      <c r="D64" t="n">
-        <v>6700</v>
+        <v>27845</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E64" t="n">
-        <v>0.25</v>
+        <v>3933</v>
       </c>
       <c r="F64" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G64" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>147800</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9400</v>
+        <v>45895</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E65" t="n">
-        <v>0.1666666666666666</v>
+        <v>1349</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>250360</v>
-      </c>
-      <c r="D66" t="n">
-        <v>102560</v>
+        <v>997895</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>26895</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-94860</v>
+        <v>144668</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>5552</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15565</v>
-      </c>
-      <c r="D68" t="n">
-        <v>15565</v>
+        <v>38588</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E68" t="n">
-        <v>0.5833333333333333</v>
+        <v>1936</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>18043</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2478</v>
+        <v>56464</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E69" t="n">
+        <v>2050</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.5</v>
+      <c r="H69" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>18745</v>
-      </c>
-      <c r="D70" t="n">
-        <v>702</v>
+        <v>65098</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E70" t="n">
-        <v>0.4166666666666666</v>
+        <v>1045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3333,160 +3683,190 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19413</v>
-      </c>
-      <c r="D71" t="n">
-        <v>668</v>
+        <v>105000</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3333333333333333</v>
+        <v>3631</v>
       </c>
       <c r="F71" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>26945</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7532</v>
+        <v>131700</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="F72" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19997</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-6948</v>
+        <v>49999</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1666666666666666</v>
+        <v>3518</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20955</v>
-      </c>
-      <c r="D74" t="n">
-        <v>958</v>
+        <v>1409139</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E74" t="n">
-        <v>0.0833333333333333</v>
+        <v>55801</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>26563</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26563</v>
+        <v>52819</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E75" t="n">
+        <v>3101</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.5</v>
+      <c r="H75" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>29027</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2464</v>
+        <v>8171</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E76" t="n">
-        <v>0.4166666666666666</v>
+        <v>892</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3495,73 +3875,88 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>30000</v>
-      </c>
-      <c r="D77" t="n">
-        <v>973</v>
+        <v>82446</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3333333333333333</v>
+        <v>2718</v>
       </c>
       <c r="F77" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>31290</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1290</v>
+        <v>439043</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E78" t="n">
-        <v>0.25</v>
+        <v>15669</v>
       </c>
       <c r="F78" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G78" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32271</v>
-      </c>
-      <c r="D79" t="n">
-        <v>981</v>
+        <v>35193</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1666666666666666</v>
+        <v>1797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -3572,110 +3967,130 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>33218</v>
-      </c>
-      <c r="D80" t="n">
-        <v>947</v>
+        <v>30000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E80" t="n">
-        <v>0.0833333333333333</v>
+        <v>973</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>63775</v>
-      </c>
-      <c r="D81" t="n">
-        <v>30557</v>
+        <v>1640</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>42764</v>
-      </c>
-      <c r="D82" t="n">
-        <v>42764</v>
+        <v>170646</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E82" t="n">
+        <v>10678</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.5</v>
+      <c r="H82" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>46481</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3717</v>
+        <v>66368</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>0.4166666666666666</v>
+        <v>3089</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3684,214 +4099,254 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>49999</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3518</v>
+        <v>95375</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E84" t="n">
-        <v>0.3333333333333333</v>
+        <v>4763</v>
       </c>
       <c r="F84" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>55144</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5145</v>
+        <v>79250</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0.25</v>
+        <v>11200</v>
       </c>
       <c r="F85" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>58511</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3367</v>
+        <v>108836</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E86" t="n">
-        <v>0.1666666666666666</v>
+        <v>26128</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>102560</v>
-      </c>
-      <c r="D87" t="n">
-        <v>44049</v>
+        <v>52970</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71130</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-31430</v>
+        <v>1002668</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>4773</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1215</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1215</v>
+        <v>138400</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E89" t="n">
-        <v>0.6666666666666666</v>
+        <v>6700</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D90" t="n">
-        <v>285</v>
+        <v>58537</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E90" t="n">
-        <v>0.4166666666666666</v>
+        <v>2073</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3250</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1750</v>
+        <v>149213</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>4545</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3900,214 +4355,254 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1766</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-1484</v>
+        <v>84756</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E92" t="n">
+        <v>2310</v>
+      </c>
+      <c r="F92" t="n">
         <v>0.25</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.75</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1766</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+        <v>66812</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E93" t="n">
-        <v>0.1666666666666666</v>
+        <v>1714</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2239</v>
-      </c>
-      <c r="D94" t="n">
-        <v>473</v>
+        <v>453103</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E94" t="n">
-        <v>0.0833333333333333</v>
+        <v>14060</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.75</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2239</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+        <v>36449</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1256</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>141562</v>
-      </c>
-      <c r="D96" t="n">
-        <v>141562</v>
+        <v>38588</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E96" t="n">
-        <v>0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>154710</v>
-      </c>
-      <c r="D97" t="n">
-        <v>13148</v>
+        <v>19997</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E97" t="n">
-        <v>0.6666666666666666</v>
+        <v>584</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>159968</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5258</v>
+        <v>31290</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E98" t="n">
-        <v>0.4166666666666666</v>
+        <v>1290</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>170646</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10678</v>
+        <v>55144</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E99" t="n">
-        <v>0.3333333333333333</v>
+        <v>5145</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4116,160 +4611,190 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>171546</v>
-      </c>
-      <c r="D100" t="n">
-        <v>900</v>
+        <v>1766</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E100" t="n">
+        <v>126</v>
+      </c>
+      <c r="F100" t="n">
         <v>0.25</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>0.75</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>169040</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-2506</v>
+        <v>68925</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>167925</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-1115</v>
+        <v>6756</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E102" t="n">
-        <v>0.0833333333333333</v>
+        <v>195</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.75</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>60010</v>
-      </c>
-      <c r="D103" t="n">
-        <v>60010</v>
+        <v>30570</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E103" t="n">
-        <v>0.6666666666666666</v>
+        <v>2725</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>63279</v>
-      </c>
-      <c r="D104" t="n">
-        <v>3269</v>
+        <v>1469032</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E104" t="n">
-        <v>0.4166666666666666</v>
+        <v>59893</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>66368</v>
-      </c>
-      <c r="D105" t="n">
-        <v>3089</v>
+        <v>98770</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E105" t="n">
-        <v>0.3333333333333333</v>
+        <v>3395</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4278,226 +4803,268 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>68925</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2557</v>
+        <v>8308</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E106" t="n">
+        <v>137</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.25</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.75</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>70667</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1742</v>
+        <v>47376</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1666666666666666</v>
+        <v>1481</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>52305</v>
-      </c>
-      <c r="D108" t="n">
-        <v>-18362</v>
+        <v>118994</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>13994</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>72773</v>
-      </c>
-      <c r="D109" t="n">
-        <v>20468</v>
+        <v>171546</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5984</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5984</v>
+        <v>120842</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E110" t="n">
-        <v>0.6666666666666666</v>
+        <v>12006</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6263</v>
-      </c>
-      <c r="D111" t="n">
-        <v>279</v>
+        <v>85000</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E111" t="n">
-        <v>0.4166666666666666</v>
+        <v>14000</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6561</v>
-      </c>
-      <c r="D112" t="n">
-        <v>298</v>
+        <v>19997</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E112" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6756</v>
-      </c>
-      <c r="D113" t="n">
-        <v>195</v>
+        <v>36983</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E113" t="n">
-        <v>0.25</v>
+        <v>534</v>
       </c>
       <c r="F113" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G113" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4220</v>
-      </c>
-      <c r="D114" t="n">
-        <v>-2536</v>
+        <v>38588</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4508,65 +5075,78 @@
       <c r="G114" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="H114" t="n">
+        <v>0.1666666666666666</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>68050</v>
-      </c>
-      <c r="D115" t="n">
-        <v>68050</v>
+        <v>1766</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E115" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>136470</v>
-      </c>
-      <c r="D116" t="n">
-        <v>68420</v>
+        <v>32102</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1532</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4575,133 +5155,158 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>85210</v>
-      </c>
-      <c r="D117" t="n">
-        <v>-51260</v>
+        <v>48360</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E117" t="n">
+        <v>984</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>21484</v>
-      </c>
-      <c r="D118" t="n">
-        <v>21484</v>
+        <v>69607</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E118" t="n">
-        <v>0.6666666666666666</v>
+        <v>2795</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23912</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2428</v>
+        <v>1021667</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E119" t="n">
-        <v>0.4166666666666666</v>
+        <v>18999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27845</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3933</v>
+        <v>58511</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E120" t="n">
-        <v>0.3333333333333333</v>
+        <v>3367</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>30570</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2725</v>
+        <v>70667</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E121" t="n">
-        <v>0.25</v>
+        <v>1742</v>
       </c>
       <c r="F121" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G121" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4710,187 +5315,222 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>32102</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1532</v>
+        <v>85210</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E122" t="n">
+        <v>5960</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>35649</v>
-      </c>
-      <c r="D123" t="n">
-        <v>3547</v>
+        <v>155473</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E123" t="n">
-        <v>0.0833333333333333</v>
+        <v>6260</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>65185</v>
-      </c>
-      <c r="D124" t="n">
-        <v>29536</v>
+        <v>88748</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>3992</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1234718</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1234718</v>
+        <v>62181</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E125" t="n">
-        <v>0.6666666666666666</v>
+        <v>3644</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1353338</v>
-      </c>
-      <c r="D126" t="n">
-        <v>118620</v>
+        <v>464910</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E126" t="n">
-        <v>0.4166666666666666</v>
+        <v>11807</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1409139</v>
-      </c>
-      <c r="D127" t="n">
-        <v>55801</v>
+        <v>147800</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E127" t="n">
-        <v>0.3333333333333333</v>
+        <v>9400</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1469032</v>
-      </c>
-      <c r="D128" t="n">
-        <v>59893</v>
+        <v>32271</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E128" t="n">
-        <v>0.25</v>
+        <v>981</v>
       </c>
       <c r="F128" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G128" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4899,18 +5539,23 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1521085</v>
-      </c>
-      <c r="D129" t="n">
-        <v>52053</v>
+        <v>173231</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E129" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F129" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
         <v>0.1666666666666666</v>
       </c>
     </row>
@@ -4922,164 +5567,194 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>956635</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-564450</v>
+        <v>1521085</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>52053</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1563386</v>
-      </c>
-      <c r="D131" t="n">
-        <v>606751</v>
+        <v>102476</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>3706</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>47847</v>
-      </c>
-      <c r="D132" t="n">
-        <v>47847</v>
+        <v>8655</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
       </c>
       <c r="E132" t="n">
-        <v>0.6666666666666666</v>
+        <v>347</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>49718</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1871</v>
+        <v>137797</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E133" t="n">
-        <v>0.4166666666666666</v>
+        <v>16955</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>52819</v>
-      </c>
-      <c r="D134" t="n">
-        <v>3101</v>
+        <v>20955</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E134" t="n">
-        <v>0.3333333333333333</v>
+        <v>958</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G134" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>55440</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2621</v>
+        <v>64436</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>2255</v>
       </c>
       <c r="F135" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G135" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5088,18 +5763,23 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>56236</v>
-      </c>
-      <c r="D136" t="n">
-        <v>796</v>
+        <v>152200</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E136" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F136" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>0.0833333333333333</v>
       </c>
     </row>
@@ -5111,179 +5791,211 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>56904</v>
-      </c>
-      <c r="D137" t="n">
-        <v>668</v>
+        <v>56236</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>3266</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>82184</v>
-      </c>
-      <c r="D138" t="n">
-        <v>82184</v>
+        <v>90591</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E138" t="n">
-        <v>0.6666666666666666</v>
+        <v>1843</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>90612</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8428</v>
+        <v>70070</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E139" t="n">
-        <v>0.4166666666666666</v>
+        <v>11559</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>95375</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4763</v>
+        <v>76432</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E140" t="n">
-        <v>0.3333333333333333</v>
+        <v>6825</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>98770</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3395</v>
+        <v>474731</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E141" t="n">
-        <v>0.25</v>
+        <v>9821</v>
       </c>
       <c r="F141" t="n">
-        <v>0.75</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G141" t="n">
-        <v>0.25</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>102476</v>
-      </c>
-      <c r="D142" t="n">
-        <v>3706</v>
+        <v>35649</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E142" t="n">
-        <v>0.1666666666666666</v>
+        <v>3547</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>113925</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11449</v>
+        <v>50040</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F143" t="n">
         <v>0.0833333333333333</v>
@@ -5291,188 +6003,223 @@
       <c r="G143" t="n">
         <v>0.9166666666666666</v>
       </c>
+      <c r="H143" t="n">
+        <v>0.0833333333333333</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>105732</v>
-      </c>
-      <c r="D144" t="n">
-        <v>-8193</v>
+        <v>1546354</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>25269</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6894</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6894</v>
+        <v>39482</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E145" t="n">
-        <v>0.6666666666666666</v>
+        <v>2499</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7279</v>
-      </c>
-      <c r="D146" t="n">
-        <v>385</v>
+        <v>47111</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E146" t="n">
-        <v>0.4166666666666666</v>
+        <v>8523</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8171</v>
-      </c>
-      <c r="D147" t="n">
-        <v>892</v>
+        <v>33218</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E147" t="n">
-        <v>0.3333333333333333</v>
+        <v>947</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8308</v>
-      </c>
-      <c r="D148" t="n">
-        <v>137</v>
+        <v>2239</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E148" t="n">
-        <v>0.25</v>
+        <v>473</v>
       </c>
       <c r="F148" t="n">
-        <v>0.75</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G148" t="n">
-        <v>0.25</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8655</v>
-      </c>
-      <c r="D149" t="n">
-        <v>347</v>
+        <v>72302</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E149" t="n">
-        <v>0.1666666666666666</v>
+        <v>1635</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>10635</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1980</v>
+        <v>105370</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>2894</v>
       </c>
       <c r="F150" t="n">
         <v>0.0833333333333333</v>
@@ -5480,6 +6227,9 @@
       <c r="G150" t="n">
         <v>0.9166666666666666</v>
       </c>
+      <c r="H150" t="n">
+        <v>0.0833333333333333</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5489,185 +6239,220 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>9081</v>
-      </c>
-      <c r="D151" t="n">
-        <v>-1554</v>
+        <v>8821</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>42788</v>
-      </c>
-      <c r="D152" t="n">
-        <v>42788</v>
+        <v>167925</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E152" t="n">
-        <v>0.6666666666666666</v>
+        <v>-5306</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44546</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1758</v>
+        <v>161012</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
       <c r="E153" t="n">
-        <v>0.4166666666666666</v>
+        <v>5539</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>45895</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1349</v>
+        <v>149476</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E154" t="n">
-        <v>0.3333333333333333</v>
+        <v>11679</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>47376</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1481</v>
+        <v>65658</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E155" t="n">
-        <v>0.25</v>
+        <v>1222</v>
       </c>
       <c r="F155" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>48360</v>
-      </c>
-      <c r="D156" t="n">
-        <v>984</v>
+        <v>2239</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1666666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>41680</v>
-      </c>
-      <c r="D157" t="n">
-        <v>-6680</v>
+        <v>71130</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E157" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="F157" t="n">
-        <v>0.0833333333333333</v>
-      </c>
       <c r="G157" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5684,368 +6469,438 @@
       <c r="C158" t="n">
         <v>50530</v>
       </c>
-      <c r="D158" t="n">
-        <v>8850</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E158" t="n">
+        <v>490</v>
+      </c>
+      <c r="F158" t="n">
         <v>0</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1300</v>
+        <v>36925</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E159" t="n">
-        <v>0.5833333333333333</v>
+        <v>1276</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.5833333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D160" t="n">
-        <v>500</v>
+        <v>478614</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E160" t="n">
-        <v>0.3333333333333333</v>
+        <v>3883</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>03-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D161" t="n">
-        <v>4000</v>
+        <v>39221</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8333333333333334</v>
+        <v>-261</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D162" t="n">
-        <v>71000</v>
+        <v>91232</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E162" t="n">
-        <v>0.6666666666666666</v>
+        <v>641</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D163" t="n">
-        <v>14000</v>
+        <v>47067</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1666666666666666</v>
+        <v>-44</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1666666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>04-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>22253</v>
-      </c>
-      <c r="D164" t="n">
-        <v>22253</v>
+        <v>72773</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E164" t="n">
-        <v>0.75</v>
+        <v>471</v>
       </c>
       <c r="F164" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>05-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>35455</v>
-      </c>
-      <c r="D165" t="n">
-        <v>13202</v>
+        <v>77450</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E165" t="n">
-        <v>0.6666666666666667</v>
+        <v>1018</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3333333333333332</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>06-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>55488</v>
-      </c>
-      <c r="D166" t="n">
-        <v>20033</v>
+        <v>155500</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E166" t="n">
-        <v>0.5833333333333333</v>
+        <v>3300</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5833333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>07-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>58869</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3381</v>
+        <v>33446</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E167" t="n">
-        <v>0.6666666666666666</v>
+        <v>228</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>77154</v>
-      </c>
-      <c r="D168" t="n">
-        <v>18285</v>
+        <v>1563386</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E168" t="n">
-        <v>0.4166666666666666</v>
+        <v>17032</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5833333333333334</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4166666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>82708</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5554</v>
+        <v>56904</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E169" t="n">
-        <v>0.3333333333333333</v>
+        <v>668</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>108836</v>
-      </c>
-      <c r="D170" t="n">
-        <v>26128</v>
+        <v>105732</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E170" t="n">
-        <v>0.25</v>
+        <v>362</v>
       </c>
       <c r="F170" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>120842</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12006</v>
+        <v>9081</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
       </c>
       <c r="E171" t="n">
-        <v>0.1666666666666666</v>
+        <v>260</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1666666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6056,22 +6911,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>137797</v>
-      </c>
-      <c r="D172" t="n">
-        <v>16955</v>
+        <v>172220</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E172" t="n">
-        <v>0.0833333333333333</v>
+        <v>22744</v>
       </c>
       <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="G172" t="n">
+      <c r="H172" t="n">
         <v>0.0833333333333333</v>
       </c>
     </row>
@@ -6083,77 +6943,796 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>149476</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11679</v>
+        <v>177958</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E173" t="n">
+        <v>5738</v>
+      </c>
+      <c r="F173" t="n">
         <v>0</v>
       </c>
-      <c r="F173" t="n">
-        <v>1</v>
-      </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>172220</v>
-      </c>
-      <c r="D174" t="n">
-        <v>22744</v>
+        <v>3250</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
       </c>
       <c r="E174" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F174" t="n">
         <v>0</v>
       </c>
-      <c r="F174" t="n">
-        <v>0.9166666666666666</v>
-      </c>
       <c r="G174" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>177958</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5738</v>
+        <v>61520</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
       </c>
       <c r="E175" t="n">
+        <v>14453</v>
+      </c>
+      <c r="F175" t="n">
         <v>0</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>09-2023</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>136470</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>51260</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10-2023</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>69495</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>-49499</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>10-2023</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>26945</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>5990</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10-2023</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>55440</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>-1464</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>11-2023</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>4220</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>-2536</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="G175" t="n">
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>11-2023</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>169040</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1115</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>11-2023</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>73095</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>7437</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1125850</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>104183</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>373080</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>-105534</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>81870</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>-9362</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>250360</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>94860</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>41680</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>-8850</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>956635</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>-606751</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>36635</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>-2586</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>102560</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>31430</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>113925</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>8193</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>10635</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1554</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>52305</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>-20468</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>185860</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>24848</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>12-2023</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>66480</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>-10970</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>01-2024</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>63775</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>30329</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>01-2024</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>65185</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>28260</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -813,10 +813,10 @@
         <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1040741528.566667</v>
+        <v>1039466070.775</v>
       </c>
       <c r="F17" t="n">
-        <v>1322408365.3</v>
+        <v>1323683823.091666</v>
       </c>
     </row>
     <row r="18">
@@ -7194,7 +7194,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>169040</v>
+        <v>73095</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1115</v>
+        <v>7437</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,39 +7226,39 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>73095</v>
+        <v>1125850</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7437</v>
+        <v>104183</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1125850</v>
+        <v>81870</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>104183</v>
+        <v>-9362</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>373080</v>
+        <v>250360</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-105534</v>
+        <v>94860</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>81870</v>
+        <v>169040</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-9362</v>
+        <v>1115</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>250360</v>
+        <v>956635</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>94860</v>
+        <v>-606751</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>41680</v>
+        <v>36635</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-8850</v>
+        <v>-2586</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>956635</v>
+        <v>102560</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-606751</v>
+        <v>31430</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>36635</v>
+        <v>10635</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-2586</v>
+        <v>1554</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>102560</v>
+        <v>52305</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31430</v>
+        <v>-20468</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>113925</v>
+        <v>41825</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>8193</v>
+        <v>-8705</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10635</v>
+        <v>66480</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1554</v>
+        <v>-10970</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>52305</v>
+        <v>375590</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-20468</v>
+        <v>-103024</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>66480</v>
+        <v>113925</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-10970</v>
+        <v>8193</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>63775</v>
+        <v>65185</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30329</v>
+        <v>28260</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>65185</v>
+        <v>63775</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28260</v>
+        <v>30329</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1124092430.5</v>
+        <v>508553363.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1011209939.566667</v>
+        <v>955251842.5666666</v>
       </c>
     </row>
     <row r="23">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113925</v>
+        <v>114270</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>160728104.7</v>
+        <v>160831207.95</v>
       </c>
       <c r="F26" t="n">
-        <v>198708353.5</v>
+        <v>199842489.25</v>
       </c>
     </row>
     <row r="27">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>81870</v>
+        <v>83185</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-9362</v>
+        <v>-8047</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>10635</v>
+        <v>65185</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1554</v>
+        <v>28260</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>52305</v>
+        <v>10635</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-20468</v>
+        <v>1554</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>41825</v>
+        <v>52305</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-8705</v>
+        <v>-20468</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>66480</v>
+        <v>41825</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-10970</v>
+        <v>-8705</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>375590</v>
+        <v>66480</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-103024</v>
+        <v>-10970</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>185860</v>
+        <v>375590</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24848</v>
+        <v>-103024</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>113925</v>
+        <v>185860</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>8193</v>
+        <v>24848</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,33 +7674,33 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>65185</v>
+        <v>114270</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28260</v>
+        <v>8538</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="197">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136470</v>
+        <v>140725</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
@@ -899,10 +899,10 @@
         <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1171437579.666667</v>
+        <v>995639663.0833333</v>
       </c>
       <c r="F21" t="n">
-        <v>1636429707.5</v>
+        <v>1907709398.583333</v>
       </c>
     </row>
     <row r="22">
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>160831207.95</v>
+        <v>188898602.25</v>
       </c>
       <c r="F26" t="n">
-        <v>199842489.25</v>
+        <v>202394070.55</v>
       </c>
     </row>
     <row r="27">
@@ -7034,39 +7034,39 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>10-2023</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>136470</v>
+        <v>69495</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51260</v>
+        <v>-49499</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>69495</v>
+        <v>26945</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-49499</v>
+        <v>5990</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>26945</v>
+        <v>55440</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>5990</v>
+        <v>-1464</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,39 +7130,39 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>55440</v>
+        <v>4220</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1464</v>
+        <v>-2536</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4220</v>
+        <v>73095</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-2536</v>
+        <v>7437</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7194,7 +7194,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>73095</v>
+        <v>140725</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7437</v>
+        <v>55515</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7674,39 +7674,39 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>114270</v>
+        <v>63775</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8538</v>
+        <v>30329</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>63775</v>
+        <v>114270</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30329</v>
+        <v>8538</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>63775</v>
+        <v>114270</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30329</v>
+        <v>8538</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>114270</v>
+        <v>63775</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>8538</v>
+        <v>30329</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63775</v>
+        <v>65585</v>
       </c>
       <c r="C14" t="n">
         <v>1276285.374746241</v>
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>294059435.1666666</v>
+        <v>306114759.1666666</v>
       </c>
       <c r="F14" t="n">
-        <v>303224145.5666667</v>
+        <v>315279469.5666667</v>
       </c>
     </row>
     <row r="15">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>140725</v>
+        <v>146715</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
@@ -899,10 +899,10 @@
         <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>995639663.0833333</v>
+        <v>903028325.7916666</v>
       </c>
       <c r="F21" t="n">
-        <v>1907709398.583333</v>
+        <v>2134735736.875</v>
       </c>
     </row>
     <row r="22">
@@ -7194,39 +7194,39 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>140725</v>
+        <v>1125850</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>55515</v>
+        <v>104183</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1125850</v>
+        <v>83185</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>104183</v>
+        <v>-8047</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>83185</v>
+        <v>250360</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-8047</v>
+        <v>94860</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>250360</v>
+        <v>169040</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>94860</v>
+        <v>1115</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>169040</v>
+        <v>956635</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1115</v>
+        <v>-606751</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>956635</v>
+        <v>36635</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-606751</v>
+        <v>-2586</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>36635</v>
+        <v>102560</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-2586</v>
+        <v>31430</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>102560</v>
+        <v>65185</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31430</v>
+        <v>28260</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>65185</v>
+        <v>10635</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28260</v>
+        <v>1554</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10635</v>
+        <v>52305</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1554</v>
+        <v>-20468</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>52305</v>
+        <v>41825</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-20468</v>
+        <v>-8705</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>41825</v>
+        <v>66480</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-8705</v>
+        <v>-10970</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>66480</v>
+        <v>375590</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-10970</v>
+        <v>-103024</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>375590</v>
+        <v>185860</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-103024</v>
+        <v>24848</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>185860</v>
+        <v>146715</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24848</v>
+        <v>61505</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>63775</v>
+        <v>65585</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30329</v>
+        <v>32139</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73095</v>
+        <v>75055</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
@@ -505,10 +505,10 @@
         <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>291488340.5333333</v>
+        <v>286935082.225</v>
       </c>
       <c r="F3" t="n">
-        <v>351191973.6666667</v>
+        <v>375298387.975</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185860</v>
+        <v>199155</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
@@ -637,10 +637,10 @@
         <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>199726010.6083333</v>
+        <v>202995361.9</v>
       </c>
       <c r="F9" t="n">
-        <v>283921089.4083334</v>
+        <v>319883953.6166667</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61564</v>
+        <v>64794</v>
       </c>
       <c r="C10" t="n">
         <v>64843054.67945981</v>
@@ -659,10 +659,10 @@
         <v>401811525.475</v>
       </c>
       <c r="E10" t="n">
-        <v>459679861.6583334</v>
+        <v>404201853.5666667</v>
       </c>
       <c r="F10" t="n">
-        <v>477682668.1416667</v>
+        <v>586746053.2333333</v>
       </c>
     </row>
     <row r="11">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26945</v>
+        <v>27365</v>
       </c>
       <c r="C13" t="n">
         <v>35077534.88405661</v>
@@ -725,10 +725,10 @@
         <v>11800699.21666666</v>
       </c>
       <c r="E13" t="n">
-        <v>11293942.28333333</v>
+        <v>10303057.61666667</v>
       </c>
       <c r="F13" t="n">
-        <v>15996872.91666666</v>
+        <v>17419769.58333333</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3250</v>
+        <v>3795</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
@@ -791,10 +791,10 @@
         <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>8884762.9</v>
+        <v>7680508.7</v>
       </c>
       <c r="F16" t="n">
-        <v>8816031.35</v>
+        <v>13185809.05</v>
       </c>
     </row>
     <row r="17">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65185</v>
+        <v>66965</v>
       </c>
       <c r="C22" t="n">
         <v>56366852.26050603</v>
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>508553363.5</v>
+        <v>512077971.1666667</v>
       </c>
       <c r="F22" t="n">
-        <v>955251842.5666666</v>
+        <v>994022526.9000001</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56904</v>
+        <v>59350</v>
       </c>
       <c r="C25" t="n">
         <v>10345677.54923651</v>
@@ -987,10 +987,10 @@
         <v>211822587.9</v>
       </c>
       <c r="E25" t="n">
-        <v>142473096.9</v>
+        <v>143742204</v>
       </c>
       <c r="F25" t="n">
-        <v>162171756</v>
+        <v>176131934.1</v>
       </c>
     </row>
     <row r="26">
@@ -6970,231 +6970,231 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>10-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3250</v>
+        <v>69495</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1011</v>
+        <v>-49499</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>61520</v>
+        <v>4220</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>14453</v>
+        <v>-2536</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H175" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>69495</v>
+        <v>1125850</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-49499</v>
+        <v>104183</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>26945</v>
+        <v>250360</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>5990</v>
+        <v>94860</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H177" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>55440</v>
+        <v>169040</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-1464</v>
+        <v>1115</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4220</v>
+        <v>956635</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-2536</v>
+        <v>-606751</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>73095</v>
+        <v>102560</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>7437</v>
+        <v>31430</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1125850</v>
+        <v>10635</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>104183</v>
+        <v>1554</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>83185</v>
+        <v>52305</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-8047</v>
+        <v>-20468</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>250360</v>
+        <v>41825</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>94860</v>
+        <v>-8705</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>169040</v>
+        <v>66480</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1115</v>
+        <v>-10970</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>956635</v>
+        <v>83980</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-606751</v>
+        <v>-7252</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>36635</v>
+        <v>75055</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-2586</v>
+        <v>9397</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>102560</v>
+        <v>375590</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31430</v>
+        <v>-103024</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>65185</v>
+        <v>36960</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28260</v>
+        <v>-2261</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>10635</v>
+        <v>199155</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1554</v>
+        <v>38143</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>52305</v>
+        <v>64750</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-20468</v>
+        <v>17683</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>41825</v>
+        <v>27365</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-8705</v>
+        <v>6410</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>66480</v>
+        <v>3795</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-10970</v>
+        <v>1556</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>375590</v>
+        <v>146715</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-103024</v>
+        <v>61505</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>185860</v>
+        <v>66965</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24848</v>
+        <v>30040</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>146715</v>
+        <v>59350</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>61505</v>
+        <v>2446</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6970,71 +6970,71 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>11-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>69495</v>
+        <v>4220</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-49499</v>
+        <v>-2536</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H174" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4220</v>
+        <v>1125850</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-2536</v>
+        <v>104183</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1125850</v>
+        <v>250360</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>104183</v>
+        <v>94860</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>250360</v>
+        <v>169040</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>94860</v>
+        <v>1115</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>169040</v>
+        <v>956635</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1115</v>
+        <v>-606751</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>956635</v>
+        <v>102560</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-606751</v>
+        <v>31430</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>102560</v>
+        <v>10635</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31430</v>
+        <v>1554</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7194,7 +7194,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>10635</v>
+        <v>52305</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1554</v>
+        <v>-20468</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>52305</v>
+        <v>41825</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-20468</v>
+        <v>-8705</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>41825</v>
+        <v>66480</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-8705</v>
+        <v>-10970</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>66480</v>
+        <v>83980</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-10970</v>
+        <v>-7252</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>83980</v>
+        <v>75055</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-7252</v>
+        <v>9397</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>75055</v>
+        <v>375590</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9397</v>
+        <v>-103024</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>375590</v>
+        <v>36960</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-103024</v>
+        <v>-2261</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>36960</v>
+        <v>199155</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2261</v>
+        <v>38143</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>199155</v>
+        <v>64750</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38143</v>
+        <v>17683</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>64750</v>
+        <v>69670</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17683</v>
+        <v>-49324</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -505,10 +505,10 @@
         <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>286935082.225</v>
+        <v>372868376.2833333</v>
       </c>
       <c r="F3" t="n">
-        <v>375298387.975</v>
+        <v>383110505.6166667</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1125850</v>
+        <v>1139690</v>
       </c>
       <c r="C7" t="n">
         <v>2567870947.881485</v>
@@ -593,10 +593,10 @@
         <v>8195999177.849999</v>
       </c>
       <c r="E7" t="n">
-        <v>6505637374.5</v>
+        <v>7925446308</v>
       </c>
       <c r="F7" t="n">
-        <v>9444517135.499998</v>
+        <v>9625538107.5</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199155</v>
+        <v>192405</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
@@ -637,10 +637,10 @@
         <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>202995361.9</v>
+        <v>286253284.0416667</v>
       </c>
       <c r="F9" t="n">
-        <v>319883953.6166667</v>
+        <v>309345060.175</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64794</v>
+        <v>65559</v>
       </c>
       <c r="C10" t="n">
         <v>64843054.67945981</v>
@@ -659,10 +659,10 @@
         <v>401811525.475</v>
       </c>
       <c r="E10" t="n">
-        <v>404201853.5666667</v>
+        <v>685805728.6250001</v>
       </c>
       <c r="F10" t="n">
-        <v>586746053.2333333</v>
+        <v>623883926.875</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>250360</v>
+        <v>253160</v>
       </c>
       <c r="C12" t="n">
         <v>1359976138.191323</v>
@@ -703,10 +703,10 @@
         <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1303265278</v>
+        <v>2635420673</v>
       </c>
       <c r="F12" t="n">
-        <v>2500219278</v>
+        <v>2542112668</v>
       </c>
     </row>
     <row r="13">
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>306114759.1666666</v>
+        <v>288276542.8666666</v>
       </c>
       <c r="F14" t="n">
-        <v>315279469.5666667</v>
+        <v>297441253.2666667</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102560</v>
+        <v>104315</v>
       </c>
       <c r="C15" t="n">
         <v>47432854.05086241</v>
@@ -769,10 +769,10 @@
         <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>486074480.075</v>
+        <v>860240015.6583333</v>
       </c>
       <c r="F15" t="n">
-        <v>682145422.3916667</v>
+        <v>735690908.8083333</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3795</v>
+        <v>3910</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
@@ -791,10 +791,10 @@
         <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>7680508.7</v>
+        <v>16633035.1</v>
       </c>
       <c r="F16" t="n">
-        <v>13185809.05</v>
+        <v>14606906.45</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174346</v>
+        <v>174146</v>
       </c>
       <c r="C17" t="n">
         <v>510450554.9054651</v>
@@ -813,10 +813,10 @@
         <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1039466070.775</v>
+        <v>1050750726.483333</v>
       </c>
       <c r="F17" t="n">
-        <v>1323683823.091666</v>
+        <v>1322213900.883333</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146715</v>
+        <v>149015</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
@@ -899,10 +899,10 @@
         <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>903028325.7916666</v>
+        <v>2219792307.833333</v>
       </c>
       <c r="F21" t="n">
-        <v>2134735736.875</v>
+        <v>2301361344.333333</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66965</v>
+        <v>68060</v>
       </c>
       <c r="C22" t="n">
         <v>56366852.26050603</v>
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>512077971.1666667</v>
+        <v>1130755523.083333</v>
       </c>
       <c r="F22" t="n">
-        <v>994022526.9000001</v>
+        <v>1017873032.15</v>
       </c>
     </row>
     <row r="23">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>114270</v>
+        <v>115875</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>188898602.25</v>
+        <v>191623217.7</v>
       </c>
       <c r="F26" t="n">
-        <v>202394070.55</v>
+        <v>205118686</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10635</v>
+        <v>10865</v>
       </c>
       <c r="C27" t="n">
         <v>2209267.842568598</v>
@@ -1031,10 +1031,10 @@
         <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2530555.583333333</v>
+        <v>3471249.666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>3395348.616666667</v>
+        <v>3527056.2</v>
       </c>
     </row>
     <row r="28">
@@ -6970,39 +6970,39 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>12-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4220</v>
+        <v>956635</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-2536</v>
+        <v>-606751</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1125850</v>
+        <v>37160</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>104183</v>
+        <v>-2061</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>250360</v>
+        <v>69670</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>94860</v>
+        <v>-49324</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>169040</v>
+        <v>27365</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1115</v>
+        <v>6410</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>956635</v>
+        <v>4270</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-606751</v>
+        <v>-2486</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>102560</v>
+        <v>59350</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31430</v>
+        <v>2446</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7162,129 +7162,129 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>10635</v>
+        <v>168840</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1554</v>
+        <v>915</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>52305</v>
+        <v>42040</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-20468</v>
+        <v>-8490</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>41825</v>
+        <v>104315</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-8705</v>
+        <v>33185</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>66480</v>
+        <v>3910</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-10970</v>
+        <v>1671</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7295,28 +7295,28 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>83980</v>
+        <v>84135</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-7252</v>
+        <v>-7097</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -7345,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -7359,185 +7359,185 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>375590</v>
+        <v>381400</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-103024</v>
+        <v>-97214</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>36960</v>
+        <v>192405</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-2261</v>
+        <v>31393</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>199155</v>
+        <v>65515</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38143</v>
+        <v>18448</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>64750</v>
+        <v>52670</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17683</v>
+        <v>-20103</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>69670</v>
+        <v>149015</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-49324</v>
+        <v>63805</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>27365</v>
+        <v>68060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6410</v>
+        <v>31135</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0.9166666666666666</v>
@@ -7546,30 +7546,30 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3795</v>
+        <v>10865</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1556</v>
+        <v>1784</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0.9166666666666666</v>
@@ -7578,30 +7578,30 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>146715</v>
+        <v>1139690</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>61505</v>
+        <v>118023</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0.9166666666666666</v>
@@ -7610,30 +7610,30 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>66965</v>
+        <v>115875</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30040</v>
+        <v>10143</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0.9166666666666666</v>
@@ -7642,30 +7642,30 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>59350</v>
+        <v>66025</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2446</v>
+        <v>-11425</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0.9166666666666666</v>
@@ -7674,33 +7674,33 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>114270</v>
+        <v>253160</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8538</v>
+        <v>97660</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="197">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>115875</v>
+        <v>66025</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10143</v>
+        <v>-11425</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>66025</v>
+        <v>253160</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-11425</v>
+        <v>97660</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>253160</v>
+        <v>65585</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>97660</v>
+        <v>32139</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>65585</v>
+        <v>115875</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32139</v>
+        <v>10143</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>65585</v>
+        <v>115875</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32139</v>
+        <v>10143</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>115875</v>
+        <v>65585</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10143</v>
+        <v>32139</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>288276542.8666666</v>
+        <v>270438326.5666667</v>
       </c>
       <c r="F14" t="n">
-        <v>297441253.2666667</v>
+        <v>279603036.9666666</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>191623217.7</v>
+        <v>188591982.15</v>
       </c>
       <c r="F26" t="n">
-        <v>205118686</v>
+        <v>202087450.45</v>
       </c>
     </row>
     <row r="27">
@@ -7674,65 +7674,65 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>115875</v>
+        <v>65585</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10143</v>
+        <v>32139</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>65585</v>
+        <v>115875</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32139</v>
+        <v>10143</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H197" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75055</v>
+        <v>75030</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
@@ -505,10 +505,10 @@
         <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>372868376.2833333</v>
+        <v>364827639.6833333</v>
       </c>
       <c r="F3" t="n">
-        <v>383110505.6166667</v>
+        <v>375069769.0166667</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192405</v>
+        <v>192390</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
@@ -637,10 +637,10 @@
         <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>286253284.0416667</v>
+        <v>278492908.8583333</v>
       </c>
       <c r="F9" t="n">
-        <v>309345060.175</v>
+        <v>301584684.9916667</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65559</v>
+        <v>66239</v>
       </c>
       <c r="C10" t="n">
         <v>64843054.67945981</v>
@@ -659,10 +659,10 @@
         <v>401811525.475</v>
       </c>
       <c r="E10" t="n">
-        <v>685805728.6250001</v>
+        <v>670642560.0250001</v>
       </c>
       <c r="F10" t="n">
-        <v>623883926.875</v>
+        <v>608720758.2750001</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>253160</v>
+        <v>255060</v>
       </c>
       <c r="C12" t="n">
         <v>1359976138.191323</v>
@@ -703,10 +703,10 @@
         <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2635420673</v>
+        <v>2528429307.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2542112668</v>
+        <v>2435121302.5</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65585</v>
+        <v>66135</v>
       </c>
       <c r="C14" t="n">
         <v>1276285.374746241</v>
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>270438326.5666667</v>
+        <v>273491009.9</v>
       </c>
       <c r="F14" t="n">
-        <v>279603036.9666666</v>
+        <v>282655720.3</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104315</v>
+        <v>105210</v>
       </c>
       <c r="C15" t="n">
         <v>47432854.05086241</v>
@@ -769,10 +769,10 @@
         <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>860240015.6583333</v>
+        <v>801665395.1583333</v>
       </c>
       <c r="F15" t="n">
-        <v>735690908.8083333</v>
+        <v>677116288.3083333</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3910</v>
+        <v>4010</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
@@ -791,10 +791,10 @@
         <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>16633035.1</v>
+        <v>17213865.1</v>
       </c>
       <c r="F16" t="n">
-        <v>14606906.45</v>
+        <v>15187736.45</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174146</v>
+        <v>174471</v>
       </c>
       <c r="C17" t="n">
         <v>510450554.9054651</v>
@@ -813,10 +813,10 @@
         <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1050750726.483333</v>
+        <v>1053793522.65</v>
       </c>
       <c r="F17" t="n">
-        <v>1322213900.883333</v>
+        <v>1325256697.05</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149015</v>
+        <v>117950</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
@@ -899,10 +899,10 @@
         <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>2219792307.833333</v>
+        <v>1461473287.166667</v>
       </c>
       <c r="F21" t="n">
-        <v>2301361344.333333</v>
+        <v>1543042323.666667</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68060</v>
+        <v>70085</v>
       </c>
       <c r="C22" t="n">
         <v>56366852.26050603</v>
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1130755523.083333</v>
+        <v>1109201953.166667</v>
       </c>
       <c r="F22" t="n">
-        <v>1017873032.15</v>
+        <v>996319462.2333333</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59350</v>
+        <v>59920</v>
       </c>
       <c r="C25" t="n">
         <v>10345677.54923651</v>
@@ -987,10 +987,10 @@
         <v>211822587.9</v>
       </c>
       <c r="E25" t="n">
-        <v>143742204</v>
+        <v>161251316.1</v>
       </c>
       <c r="F25" t="n">
-        <v>176131934.1</v>
+        <v>180949975.2</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115875</v>
+        <v>117265</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>188591982.15</v>
+        <v>192745997.15</v>
       </c>
       <c r="F26" t="n">
-        <v>202087450.45</v>
+        <v>206241465.45</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10865</v>
+        <v>11035</v>
       </c>
       <c r="C27" t="n">
         <v>2209267.842568598</v>
@@ -1031,10 +1031,10 @@
         <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3471249.666666667</v>
+        <v>3466876.766666667</v>
       </c>
       <c r="F27" t="n">
-        <v>3527056.2</v>
+        <v>3522683.300000001</v>
       </c>
     </row>
     <row r="28">
@@ -7002,7 +7002,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>37160</v>
+        <v>27365</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-2061</v>
+        <v>6410</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7034,135 +7034,135 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>69670</v>
+        <v>381400</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-49324</v>
+        <v>-97214</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>27365</v>
+        <v>69465</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>6410</v>
+        <v>-49529</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4270</v>
+        <v>4010</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-2486</v>
+        <v>1771</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>59350</v>
+        <v>4260</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2446</v>
+        <v>-2496</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>168840</v>
+        <v>59920</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>915</v>
+        <v>3016</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7194,129 +7194,129 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>42040</v>
+        <v>1139690</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-8490</v>
+        <v>118023</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>104315</v>
+        <v>117950</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33185</v>
+        <v>32740</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3910</v>
+        <v>169165</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1671</v>
+        <v>1240</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>84135</v>
+        <v>43710</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-7097</v>
+        <v>-6820</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="185">
@@ -7327,354 +7327,354 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>75055</v>
+        <v>75030</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9397</v>
+        <v>9372</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>381400</v>
+        <v>192390</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-97214</v>
+        <v>31378</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>192405</v>
+        <v>66195</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31393</v>
+        <v>19128</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>65515</v>
+        <v>11035</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18448</v>
+        <v>1954</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>52670</v>
+        <v>37530</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-20103</v>
+        <v>-1691</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>149015</v>
+        <v>117265</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>63805</v>
+        <v>11533</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>68060</v>
+        <v>65615</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31135</v>
+        <v>-11835</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H191" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10865</v>
+        <v>66135</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1784</v>
+        <v>32689</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1139690</v>
+        <v>105210</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>118023</v>
+        <v>34080</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>66025</v>
+        <v>70085</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-11425</v>
+        <v>33160</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>253160</v>
+        <v>84135</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>97660</v>
+        <v>-7097</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>115875</v>
+        <v>41490</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10143</v>
+        <v>-31283</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>65585</v>
+        <v>255060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32139</v>
+        <v>99560</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>66135</v>
+        <v>105210</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32689</v>
+        <v>34080</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>105210</v>
+        <v>70085</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34080</v>
+        <v>33160</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>70085</v>
+        <v>84135</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33160</v>
+        <v>-7097</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>84135</v>
+        <v>41490</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-7097</v>
+        <v>-31283</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>41490</v>
+        <v>255060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-31283</v>
+        <v>99560</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>255060</v>
+        <v>66135</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>99560</v>
+        <v>32689</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>117265</v>
+        <v>65615</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>11533</v>
+        <v>-11835</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>65615</v>
+        <v>105210</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-11835</v>
+        <v>34080</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>105210</v>
+        <v>70085</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34080</v>
+        <v>33160</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>70085</v>
+        <v>84135</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33160</v>
+        <v>-7097</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>84135</v>
+        <v>41490</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-7097</v>
+        <v>-31283</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>41490</v>
+        <v>255060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-31283</v>
+        <v>99560</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>255060</v>
+        <v>66135</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>99560</v>
+        <v>32689</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>66135</v>
+        <v>117265</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32689</v>
+        <v>11533</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>273491009.9</v>
+        <v>255347525.2666667</v>
       </c>
       <c r="F14" t="n">
-        <v>282655720.3</v>
+        <v>264512235.6666666</v>
       </c>
     </row>
     <row r="15">
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>66135</v>
+        <v>117265</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32689</v>
+        <v>11533</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,33 +7706,33 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>117265</v>
+        <v>66135</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11533</v>
+        <v>32689</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H197" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>192745997.15</v>
+        <v>189299360.1</v>
       </c>
       <c r="F26" t="n">
-        <v>206241465.45</v>
+        <v>202794828.4</v>
       </c>
     </row>
     <row r="27">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7697,10 +7697,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H196" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="197">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75030</v>
+        <v>78580</v>
       </c>
       <c r="C3" t="n">
         <v>238004283.1466135</v>
@@ -505,10 +505,10 @@
         <v>375887809.2166666</v>
       </c>
       <c r="E3" t="n">
-        <v>364827639.6833333</v>
+        <v>386548934.75</v>
       </c>
       <c r="F3" t="n">
-        <v>375069769.0166667</v>
+        <v>396791064.0833334</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1139690</v>
+        <v>1152640</v>
       </c>
       <c r="C7" t="n">
         <v>2567870947.881485</v>
@@ -593,10 +593,10 @@
         <v>8195999177.849999</v>
       </c>
       <c r="E7" t="n">
-        <v>7925446308</v>
+        <v>7939093034.85</v>
       </c>
       <c r="F7" t="n">
-        <v>9625538107.5</v>
+        <v>9639184834.349998</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192390</v>
+        <v>192380</v>
       </c>
       <c r="C9" t="n">
         <v>212595686.1506533</v>
@@ -637,10 +637,10 @@
         <v>281514630.4583333</v>
       </c>
       <c r="E9" t="n">
-        <v>278492908.8583333</v>
+        <v>270752206.3416667</v>
       </c>
       <c r="F9" t="n">
-        <v>301584684.9916667</v>
+        <v>293843982.475</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255060</v>
+        <v>237060</v>
       </c>
       <c r="C12" t="n">
         <v>1359976138.191323</v>
@@ -703,10 +703,10 @@
         <v>1363847472.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2528429307.5</v>
+        <v>2172661934.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2435121302.5</v>
+        <v>2079353929.5</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66135</v>
+        <v>58995</v>
       </c>
       <c r="C14" t="n">
         <v>1276285.374746241</v>
@@ -747,10 +747,10 @@
         <v>130707574.8333333</v>
       </c>
       <c r="E14" t="n">
-        <v>255347525.2666667</v>
+        <v>219681083.2666667</v>
       </c>
       <c r="F14" t="n">
-        <v>264512235.6666666</v>
+        <v>228845793.6666666</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105210</v>
+        <v>106355</v>
       </c>
       <c r="C15" t="n">
         <v>47432854.05086241</v>
@@ -769,10 +769,10 @@
         <v>416711193.8416666</v>
       </c>
       <c r="E15" t="n">
-        <v>801665395.1583333</v>
+        <v>777412319.5333333</v>
       </c>
       <c r="F15" t="n">
-        <v>677116288.3083333</v>
+        <v>652863212.6833333</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4010</v>
+        <v>4125</v>
       </c>
       <c r="C16" t="n">
         <v>4314709.876317098</v>
@@ -791,10 +791,10 @@
         <v>6077417.899999999</v>
       </c>
       <c r="E16" t="n">
-        <v>17213865.1</v>
+        <v>16968948.45</v>
       </c>
       <c r="F16" t="n">
-        <v>15187736.45</v>
+        <v>14942819.8</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174471</v>
+        <v>177801</v>
       </c>
       <c r="C17" t="n">
         <v>510450554.9054651</v>
@@ -813,10 +813,10 @@
         <v>1339734000.916667</v>
       </c>
       <c r="E17" t="n">
-        <v>1053793522.65</v>
+        <v>1090467223.816667</v>
       </c>
       <c r="F17" t="n">
-        <v>1325256697.05</v>
+        <v>1361930398.216666</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117950</v>
+        <v>122535</v>
       </c>
       <c r="C21" t="n">
         <v>383424781.3742747</v>
@@ -899,10 +899,10 @@
         <v>1124089390.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1461473287.166667</v>
+        <v>1485988877.916667</v>
       </c>
       <c r="F21" t="n">
-        <v>1543042323.666667</v>
+        <v>1567557914.416667</v>
       </c>
     </row>
     <row r="22">
@@ -921,10 +921,10 @@
         <v>424794428.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1109201953.166667</v>
+        <v>1043541284.5</v>
       </c>
       <c r="F22" t="n">
-        <v>996319462.2333333</v>
+        <v>930658793.5666666</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59920</v>
+        <v>60215</v>
       </c>
       <c r="C25" t="n">
         <v>10345677.54923651</v>
@@ -987,10 +987,10 @@
         <v>211822587.9</v>
       </c>
       <c r="E25" t="n">
-        <v>161251316.1</v>
+        <v>161370132.75</v>
       </c>
       <c r="F25" t="n">
-        <v>180949975.2</v>
+        <v>181068791.85</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>117265</v>
+        <v>118960</v>
       </c>
       <c r="C26" t="n">
         <v>1154865.353723471</v>
@@ -1009,10 +1009,10 @@
         <v>220896471.7499999</v>
       </c>
       <c r="E26" t="n">
-        <v>189299360.1</v>
+        <v>193858316.85</v>
       </c>
       <c r="F26" t="n">
-        <v>202794828.4</v>
+        <v>207353785.15</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11035</v>
+        <v>11240</v>
       </c>
       <c r="C27" t="n">
         <v>2209267.842568598</v>
@@ -1031,10 +1031,10 @@
         <v>3223243.766666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3466876.766666667</v>
+        <v>3461202.408333333</v>
       </c>
       <c r="F27" t="n">
-        <v>3522683.300000001</v>
+        <v>3517008.941666667</v>
       </c>
     </row>
     <row r="28">
@@ -7034,33 +7034,33 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>381400</v>
+        <v>66195</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-97214</v>
+        <v>19128</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="177">
@@ -7071,28 +7071,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>69465</v>
+        <v>68780</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-49529</v>
+        <v>-50214</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="178">
@@ -7103,28 +7103,28 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4010</v>
+        <v>4125</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1771</v>
+        <v>1886</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="179">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="180">
@@ -7167,284 +7167,284 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>59920</v>
+        <v>60215</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3016</v>
+        <v>3311</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1139690</v>
+        <v>172495</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>118023</v>
+        <v>4570</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>117950</v>
+        <v>41670</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32740</v>
+        <v>-8860</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>169165</v>
+        <v>78580</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1240</v>
+        <v>12922</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>43710</v>
+        <v>1152640</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-6820</v>
+        <v>130973</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H184" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>75030</v>
+        <v>192380</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9372</v>
+        <v>31368</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>192390</v>
+        <v>122535</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31378</v>
+        <v>37325</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>66195</v>
+        <v>73585</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19128</v>
+        <v>-17647</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H187" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>11035</v>
+        <v>339305</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1954</v>
+        <v>-139309</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H188" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="189">
@@ -7455,226 +7455,226 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>37530</v>
+        <v>38025</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-1691</v>
+        <v>-1196</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H189" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>65615</v>
+        <v>41075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-11835</v>
+        <v>-31698</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>105210</v>
+        <v>11240</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34080</v>
+        <v>2159</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H191" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>70085</v>
+        <v>237060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33160</v>
+        <v>81560</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>84135</v>
+        <v>70085</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-7097</v>
+        <v>33160</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H193" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>41490</v>
+        <v>65185</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-31283</v>
+        <v>-12265</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>255060</v>
+        <v>118960</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>99560</v>
+        <v>13228</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H195" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>117265</v>
+        <v>58995</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>11533</v>
+        <v>25549</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>66135</v>
+        <v>106355</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32689</v>
+        <v>35225</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>58995</v>
+        <v>106355</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25549</v>
+        <v>35225</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>106355</v>
+        <v>58995</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35225</v>
+        <v>25549</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>118960</v>
+        <v>106355</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13228</v>
+        <v>35225</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>106355</v>
+        <v>58995</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35225</v>
+        <v>25549</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>58995</v>
+        <v>118960</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25549</v>
+        <v>13228</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -477,16 +477,16 @@
         <v>91232</v>
       </c>
       <c r="C2" t="n">
-        <v>58559136.85168231</v>
+        <v>59095980.36388125</v>
       </c>
       <c r="D2" t="n">
-        <v>120825497.2916667</v>
+        <v>122146645.4583333</v>
       </c>
       <c r="E2" t="n">
-        <v>82758710.70833333</v>
+        <v>83663623.34166667</v>
       </c>
       <c r="F2" t="n">
-        <v>93120680.95833333</v>
+        <v>94138894.99166667</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +499,16 @@
         <v>78580</v>
       </c>
       <c r="C3" t="n">
-        <v>238004283.1466135</v>
+        <v>236045801.2662157</v>
       </c>
       <c r="D3" t="n">
-        <v>375887809.2166666</v>
+        <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>386548934.75</v>
+        <v>384177587.75</v>
       </c>
       <c r="F3" t="n">
-        <v>396791064.0833334</v>
+        <v>394356885.0833333</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +521,16 @@
         <v>177958</v>
       </c>
       <c r="C4" t="n">
-        <v>483317981.6974695</v>
+        <v>478549380.1593283</v>
       </c>
       <c r="D4" t="n">
-        <v>731356400.6999999</v>
+        <v>724282991.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1444882620.6</v>
+        <v>1430908248.733333</v>
       </c>
       <c r="F4" t="n">
-        <v>759793964.8499999</v>
+        <v>752445517.8166666</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>77450</v>
       </c>
       <c r="C5" t="n">
-        <v>363211408.4846383</v>
+        <v>361588476.2876589</v>
       </c>
       <c r="D5" t="n">
-        <v>1011381128.066666</v>
+        <v>1008295122.525</v>
       </c>
       <c r="E5" t="n">
-        <v>803489231.9333333</v>
+        <v>801037562.4749999</v>
       </c>
       <c r="F5" t="n">
-        <v>782352846.3333333</v>
+        <v>779965669.8749999</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +565,16 @@
         <v>478614</v>
       </c>
       <c r="C6" t="n">
-        <v>6480470.109048648</v>
+        <v>6470327.501371165</v>
       </c>
       <c r="D6" t="n">
-        <v>1445649651.6</v>
+        <v>1443345092.933333</v>
       </c>
       <c r="E6" t="n">
-        <v>956226845.9999999</v>
+        <v>954702492.6666665</v>
       </c>
       <c r="F6" t="n">
-        <v>1110622104</v>
+        <v>1108851624</v>
       </c>
     </row>
     <row r="7">
@@ -587,16 +587,16 @@
         <v>1152640</v>
       </c>
       <c r="C7" t="n">
-        <v>2567870947.881485</v>
+        <v>2557722417.306166</v>
       </c>
       <c r="D7" t="n">
-        <v>8195999177.849999</v>
+        <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7939093034.85</v>
+        <v>7908268304.033333</v>
       </c>
       <c r="F7" t="n">
-        <v>9639184834.349998</v>
+        <v>9601759239.700001</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
         <v>39482</v>
       </c>
       <c r="C8" t="n">
-        <v>60858884.68409418</v>
+        <v>60697747.49890706</v>
       </c>
       <c r="D8" t="n">
-        <v>456036846.2999999</v>
+        <v>455872451.1249999</v>
       </c>
       <c r="E8" t="n">
-        <v>321584832.9</v>
+        <v>321468905.875</v>
       </c>
       <c r="F8" t="n">
-        <v>350612864.6999999</v>
+        <v>350486473.4583333</v>
       </c>
     </row>
     <row r="9">
@@ -631,16 +631,16 @@
         <v>192380</v>
       </c>
       <c r="C9" t="n">
-        <v>212595686.1506533</v>
+        <v>214928421.787952</v>
       </c>
       <c r="D9" t="n">
-        <v>281514630.4583333</v>
+        <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>270752206.3416667</v>
+        <v>274330550.5916667</v>
       </c>
       <c r="F9" t="n">
-        <v>293843982.475</v>
+        <v>297727514.725</v>
       </c>
     </row>
     <row r="10">
@@ -653,16 +653,16 @@
         <v>66239</v>
       </c>
       <c r="C10" t="n">
-        <v>64843054.67945981</v>
+        <v>64444019.877958</v>
       </c>
       <c r="D10" t="n">
-        <v>401811525.475</v>
+        <v>398549057.8</v>
       </c>
       <c r="E10" t="n">
-        <v>670642560.0250001</v>
+        <v>665197346.2</v>
       </c>
       <c r="F10" t="n">
-        <v>608720758.2750001</v>
+        <v>603778312.2</v>
       </c>
     </row>
     <row r="11">
@@ -675,16 +675,16 @@
         <v>118994</v>
       </c>
       <c r="C11" t="n">
-        <v>1052522864.031498</v>
+        <v>1058749598.487561</v>
       </c>
       <c r="D11" t="n">
-        <v>427999756.3666667</v>
+        <v>430960118.3416666</v>
       </c>
       <c r="E11" t="n">
-        <v>299719950.0333334</v>
+        <v>301793034.2583333</v>
       </c>
       <c r="F11" t="n">
-        <v>334068217.4333333</v>
+        <v>336378879.6083333</v>
       </c>
     </row>
     <row r="12">
@@ -697,16 +697,16 @@
         <v>237060</v>
       </c>
       <c r="C12" t="n">
-        <v>1359976138.191323</v>
+        <v>1363977699.246861</v>
       </c>
       <c r="D12" t="n">
-        <v>1363847472.5</v>
+        <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>2172661934.5</v>
+        <v>2166645287.166667</v>
       </c>
       <c r="F12" t="n">
-        <v>2079353929.5</v>
+        <v>2073595675.5</v>
       </c>
     </row>
     <row r="13">
@@ -719,16 +719,16 @@
         <v>27365</v>
       </c>
       <c r="C13" t="n">
-        <v>35077534.88405661</v>
+        <v>34977980.09351953</v>
       </c>
       <c r="D13" t="n">
-        <v>11800699.21666666</v>
+        <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>10303057.61666667</v>
+        <v>10273007.86666667</v>
       </c>
       <c r="F13" t="n">
-        <v>17419769.58333333</v>
+        <v>17368963.33333333</v>
       </c>
     </row>
     <row r="14">
@@ -741,16 +741,16 @@
         <v>58995</v>
       </c>
       <c r="C14" t="n">
-        <v>1276285.374746241</v>
+        <v>1285570.273896429</v>
       </c>
       <c r="D14" t="n">
-        <v>130707574.8333333</v>
+        <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>219681083.2666667</v>
+        <v>221541333.8666667</v>
       </c>
       <c r="F14" t="n">
-        <v>228845793.6666666</v>
+        <v>230783650.6666667</v>
       </c>
     </row>
     <row r="15">
@@ -763,16 +763,16 @@
         <v>106355</v>
       </c>
       <c r="C15" t="n">
-        <v>47432854.05086241</v>
+        <v>47682073.79493537</v>
       </c>
       <c r="D15" t="n">
-        <v>416711193.8416666</v>
+        <v>419843004.175</v>
       </c>
       <c r="E15" t="n">
-        <v>777412319.5333333</v>
+        <v>783254994.1999999</v>
       </c>
       <c r="F15" t="n">
-        <v>652863212.6833333</v>
+        <v>657769833.3499999</v>
       </c>
     </row>
     <row r="16">
@@ -785,16 +785,16 @@
         <v>4125</v>
       </c>
       <c r="C16" t="n">
-        <v>4314709.876317098</v>
+        <v>4425964.153104383</v>
       </c>
       <c r="D16" t="n">
-        <v>6077417.899999999</v>
+        <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>16968948.45</v>
+        <v>17519651.2</v>
       </c>
       <c r="F16" t="n">
-        <v>14942819.8</v>
+        <v>15427767.46666666</v>
       </c>
     </row>
     <row r="17">
@@ -807,16 +807,16 @@
         <v>177801</v>
       </c>
       <c r="C17" t="n">
-        <v>510450554.9054651</v>
+        <v>509229587.0979519</v>
       </c>
       <c r="D17" t="n">
-        <v>1339734000.916667</v>
+        <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1090467223.816667</v>
+        <v>1093740158.683333</v>
       </c>
       <c r="F17" t="n">
-        <v>1361930398.216666</v>
+        <v>1366018104.283333</v>
       </c>
     </row>
     <row r="18">
@@ -829,16 +829,16 @@
         <v>1800</v>
       </c>
       <c r="C18" t="n">
-        <v>224926.0855395237</v>
+        <v>226126.5132951586</v>
       </c>
       <c r="D18" t="n">
-        <v>19795</v>
+        <v>19980</v>
       </c>
       <c r="E18" t="n">
-        <v>18725</v>
+        <v>18900</v>
       </c>
       <c r="F18" t="n">
-        <v>19795</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="19">
@@ -851,16 +851,16 @@
         <v>72773</v>
       </c>
       <c r="C19" t="n">
-        <v>1966967.651507459</v>
+        <v>1978538.021171517</v>
       </c>
       <c r="D19" t="n">
-        <v>162465020.075</v>
+        <v>163577704.875</v>
       </c>
       <c r="E19" t="n">
-        <v>109553176.625</v>
+        <v>110303480.625</v>
       </c>
       <c r="F19" t="n">
-        <v>125079790.2416667</v>
+        <v>125936432.375</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>533409.7999999999</v>
+        <v>526603.9333333332</v>
       </c>
       <c r="E20" t="n">
-        <v>313792.6</v>
+        <v>309788.8666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>408344.2</v>
+        <v>403134.0666666667</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         <v>122535</v>
       </c>
       <c r="C21" t="n">
-        <v>383424781.3742747</v>
+        <v>382723975.8634065</v>
       </c>
       <c r="D21" t="n">
-        <v>1124089390.666667</v>
+        <v>1125937834.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1485988877.916667</v>
+        <v>1488432426.666667</v>
       </c>
       <c r="F21" t="n">
-        <v>1567557914.416667</v>
+        <v>1570135594.666667</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>70085</v>
       </c>
       <c r="C22" t="n">
-        <v>56366852.26050603</v>
+        <v>59807122.7730689</v>
       </c>
       <c r="D22" t="n">
-        <v>424794428.5</v>
+        <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>1043541284.5</v>
+        <v>1116031510</v>
       </c>
       <c r="F22" t="n">
-        <v>930658793.5666666</v>
+        <v>995307568.6666666</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +937,16 @@
         <v>4000</v>
       </c>
       <c r="C23" t="n">
-        <v>11052205.68546864</v>
+        <v>11029841.04118221</v>
       </c>
       <c r="D23" t="n">
-        <v>71900666.66666667</v>
+        <v>71802000</v>
       </c>
       <c r="E23" t="n">
-        <v>14380133.33333333</v>
+        <v>14360399.99999999</v>
       </c>
       <c r="F23" t="n">
-        <v>71900666.66666667</v>
+        <v>71802000</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +959,16 @@
         <v>1563386</v>
       </c>
       <c r="C24" t="n">
-        <v>16303317.58315022</v>
+        <v>16124483.91979632</v>
       </c>
       <c r="D24" t="n">
-        <v>1577936519.316667</v>
+        <v>1564090949.3</v>
       </c>
       <c r="E24" t="n">
-        <v>1112494448.083333</v>
+        <v>1102732889.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1223798818.283333</v>
+        <v>1213060621.9</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>60215</v>
       </c>
       <c r="C25" t="n">
-        <v>10345677.54923651</v>
+        <v>10317570.91103087</v>
       </c>
       <c r="D25" t="n">
-        <v>211822587.9</v>
+        <v>212002900.0833333</v>
       </c>
       <c r="E25" t="n">
-        <v>161370132.75</v>
+        <v>161507497.7083333</v>
       </c>
       <c r="F25" t="n">
-        <v>181068791.85</v>
+        <v>181222925.125</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>118960</v>
       </c>
       <c r="C26" t="n">
-        <v>1154865.353723471</v>
+        <v>1156544.302590834</v>
       </c>
       <c r="D26" t="n">
-        <v>220896471.7499999</v>
+        <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>193858316.85</v>
+        <v>194139411.95</v>
       </c>
       <c r="F26" t="n">
-        <v>207353785.15</v>
+        <v>207654448.7166667</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         <v>11240</v>
       </c>
       <c r="C27" t="n">
-        <v>2209267.842568598</v>
+        <v>2206270.768831674</v>
       </c>
       <c r="D27" t="n">
-        <v>3223243.766666667</v>
+        <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3461202.408333333</v>
+        <v>3456215.883333333</v>
       </c>
       <c r="F27" t="n">
-        <v>3517008.941666667</v>
+        <v>3511942.016666666</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>50530</v>
       </c>
       <c r="C28" t="n">
-        <v>79263094.67844568</v>
+        <v>79023551.87700666</v>
       </c>
       <c r="D28" t="n">
-        <v>243333512.1</v>
+        <v>241665554.025</v>
       </c>
       <c r="E28" t="n">
-        <v>161371363.9</v>
+        <v>160265224.975</v>
       </c>
       <c r="F28" t="n">
-        <v>186217237.1666667</v>
+        <v>184940789.2916667</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>85000</v>
       </c>
       <c r="C29" t="n">
-        <v>5072946443.400178</v>
+        <v>5079246702.180953</v>
       </c>
       <c r="D29" t="n">
-        <v>520720233.3333333</v>
+        <v>521539733.3333333</v>
       </c>
       <c r="E29" t="n">
-        <v>370445266.6666666</v>
+        <v>371028266.6666666</v>
       </c>
       <c r="F29" t="n">
-        <v>396656016.6666666</v>
+        <v>397280266.6666666</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2231.5</v>
+        <v>2255.9</v>
       </c>
     </row>
     <row r="3">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9976.1</v>
+        <v>9914.9</v>
       </c>
     </row>
     <row r="4">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12428.1</v>
+        <v>12307.9</v>
       </c>
     </row>
     <row r="5">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23432.8</v>
+        <v>23361.3</v>
       </c>
     </row>
     <row r="6">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5018.4</v>
+        <v>5010.4</v>
       </c>
     </row>
     <row r="7">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14268.6</v>
+        <v>14213.2</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19695.6</v>
+        <v>19688.5</v>
       </c>
     </row>
     <row r="9">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2950.9</v>
+        <v>2989.9</v>
       </c>
     </row>
     <row r="10">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16589.9</v>
+        <v>16455.2</v>
       </c>
     </row>
     <row r="11">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6115.6</v>
+        <v>6157.9</v>
       </c>
     </row>
     <row r="12">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16322.1</v>
+        <v>16276.9</v>
       </c>
     </row>
     <row r="13">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.6</v>
+        <v>1025.6</v>
       </c>
     </row>
     <row r="14">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6660.4</v>
+        <v>6716.8</v>
       </c>
     </row>
     <row r="15">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12241.3</v>
+        <v>12333.3</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5808.3</v>
+        <v>5996.8</v>
       </c>
     </row>
     <row r="17">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13726.9</v>
+        <v>13768.1</v>
       </c>
     </row>
     <row r="18">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="20">
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3737.9</v>
+        <v>3763.5</v>
       </c>
     </row>
     <row r="21">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.4</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="22">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22439.9</v>
+        <v>22476.8</v>
       </c>
     </row>
     <row r="23">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23761.4</v>
+        <v>25412</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21570.2</v>
+        <v>21540.6</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1720.9</v>
+        <v>1705.8</v>
       </c>
     </row>
     <row r="26">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6226.2</v>
+        <v>6231.5</v>
       </c>
     </row>
     <row r="27">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3586.2</v>
+        <v>3591.4</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>624.7</v>
+        <v>623.8</v>
       </c>
     </row>
     <row r="29">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8009.2</v>
+        <v>7954.3</v>
       </c>
     </row>
     <row r="30">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10484.3</v>
+        <v>10500.8</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -741,7 +741,7 @@
         <v>58995</v>
       </c>
       <c r="C14" t="n">
-        <v>1285570.273896429</v>
+        <v>1285570.261920408</v>
       </c>
       <c r="D14" t="n">
         <v>131814401.3333333</v>
@@ -851,7 +851,7 @@
         <v>72773</v>
       </c>
       <c r="C19" t="n">
-        <v>1978538.021171517</v>
+        <v>1978538.041666871</v>
       </c>
       <c r="D19" t="n">
         <v>163577704.875</v>
@@ -981,7 +981,7 @@
         <v>60215</v>
       </c>
       <c r="C25" t="n">
-        <v>10317570.91103087</v>
+        <v>10317571.00736776</v>
       </c>
       <c r="D25" t="n">
         <v>212002900.0833333</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>221541333.8666667</v>
+        <v>207240706.9333333</v>
       </c>
       <c r="F14" t="n">
-        <v>230783650.6666667</v>
+        <v>216483023.7333333</v>
       </c>
     </row>
     <row r="15">
@@ -6970,7 +6970,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>956635</v>
+        <v>27365</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-606751</v>
+        <v>6410</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -7002,30 +7002,30 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>02-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>27365</v>
+        <v>66195</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6410</v>
+        <v>19128</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0.9166666666666666</v>
@@ -7034,7 +7034,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>66195</v>
+        <v>68780</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19128</v>
+        <v>-50214</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>68780</v>
+        <v>4125</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-50214</v>
+        <v>1886</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4125</v>
+        <v>4260</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1886</v>
+        <v>-2496</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4260</v>
+        <v>60215</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-2496</v>
+        <v>3311</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7162,39 +7162,39 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>60215</v>
+        <v>172495</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3311</v>
+        <v>4570</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>172495</v>
+        <v>41670</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4570</v>
+        <v>-8860</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>41670</v>
+        <v>78580</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-8860</v>
+        <v>12922</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>78580</v>
+        <v>1152640</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12922</v>
+        <v>130973</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1152640</v>
+        <v>192380</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>130973</v>
+        <v>31368</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>192380</v>
+        <v>122535</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31368</v>
+        <v>37325</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,39 +7354,39 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>122535</v>
+        <v>73585</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37325</v>
+        <v>-17647</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H186" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>73585</v>
+        <v>339305</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-17647</v>
+        <v>-139309</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>339305</v>
+        <v>38025</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-139309</v>
+        <v>-1196</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>38025</v>
+        <v>41075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-1196</v>
+        <v>-31698</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>41075</v>
+        <v>11240</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-31698</v>
+        <v>2159</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>11240</v>
+        <v>237060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2159</v>
+        <v>81560</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>237060</v>
+        <v>70085</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>81560</v>
+        <v>33160</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>70085</v>
+        <v>65185</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33160</v>
+        <v>-12265</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>65185</v>
+        <v>106355</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-12265</v>
+        <v>35225</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>106355</v>
+        <v>118960</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35225</v>
+        <v>13228</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7697,42 +7697,42 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>118960</v>
+        <v>956635</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13228</v>
+        <v>-606751</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>194139411.95</v>
+        <v>190180492.0166667</v>
       </c>
       <c r="F26" t="n">
-        <v>207654448.7166667</v>
+        <v>203695528.7833334</v>
       </c>
     </row>
     <row r="27">
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>118960</v>
+        <v>956635</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13228</v>
+        <v>-606751</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>58995</v>
+        <v>118960</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25549</v>
+        <v>13228</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>956635</v>
+        <v>58995</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-606751</v>
+        <v>25549</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78580</v>
+        <v>79545</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>384177587.75</v>
+        <v>380676801.8083333</v>
       </c>
       <c r="F3" t="n">
-        <v>394356885.0833333</v>
+        <v>390856099.1416667</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1152640</v>
+        <v>1161170</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7908268304.033333</v>
+        <v>7678836460.766666</v>
       </c>
       <c r="F7" t="n">
-        <v>9601759239.700001</v>
+        <v>9372327396.433334</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192380</v>
+        <v>202685</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>274330550.5916667</v>
+        <v>289623141.6166667</v>
       </c>
       <c r="F9" t="n">
-        <v>297727514.725</v>
+        <v>313020105.75</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66239</v>
+        <v>62184</v>
       </c>
       <c r="C10" t="n">
         <v>64444019.877958</v>
@@ -659,10 +659,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E10" t="n">
-        <v>665197346.2</v>
+        <v>562693791.6</v>
       </c>
       <c r="F10" t="n">
-        <v>603778312.2</v>
+        <v>501274757.6</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237060</v>
+        <v>239760</v>
       </c>
       <c r="C12" t="n">
         <v>1363977699.246861</v>
@@ -703,10 +703,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>2166645287.166667</v>
+        <v>2085315043.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2073595675.5</v>
+        <v>1992265431.833333</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27365</v>
+        <v>28190</v>
       </c>
       <c r="C13" t="n">
         <v>34977980.09351953</v>
@@ -725,10 +725,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>10273007.86666667</v>
+        <v>15908679.86666667</v>
       </c>
       <c r="F13" t="n">
-        <v>17368963.33333333</v>
+        <v>17526222</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58995</v>
+        <v>59160</v>
       </c>
       <c r="C14" t="n">
         <v>1285570.261920408</v>
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>207240706.9333333</v>
+        <v>207979554.9333333</v>
       </c>
       <c r="F14" t="n">
-        <v>216483023.7333333</v>
+        <v>217221871.7333333</v>
       </c>
     </row>
     <row r="15">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4125</v>
+        <v>4255</v>
       </c>
       <c r="C16" t="n">
         <v>4425964.153104383</v>
@@ -791,10 +791,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>17519651.2</v>
+        <v>17226807.46666667</v>
       </c>
       <c r="F16" t="n">
-        <v>15427767.46666666</v>
+        <v>15134923.73333333</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177801</v>
+        <v>175886</v>
       </c>
       <c r="C17" t="n">
         <v>509229587.0979519</v>
@@ -813,10 +813,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1093740158.683333</v>
+        <v>1068722373.641667</v>
       </c>
       <c r="F17" t="n">
-        <v>1366018104.283333</v>
+        <v>1341000319.241667</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122535</v>
+        <v>114120</v>
       </c>
       <c r="C21" t="n">
         <v>382723975.8634065</v>
@@ -899,10 +899,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1488432426.666667</v>
+        <v>1276663509.333333</v>
       </c>
       <c r="F21" t="n">
-        <v>1570135594.666667</v>
+        <v>1358366677.333333</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70085</v>
+        <v>71560</v>
       </c>
       <c r="C22" t="n">
         <v>59807122.7730689</v>
@@ -921,10 +921,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>1116031510</v>
+        <v>1070798150</v>
       </c>
       <c r="F22" t="n">
-        <v>995307568.6666666</v>
+        <v>950074208.6666667</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60215</v>
+        <v>60510</v>
       </c>
       <c r="C25" t="n">
         <v>10317571.00736776</v>
@@ -987,10 +987,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E25" t="n">
-        <v>161507497.7083333</v>
+        <v>161320033.4166667</v>
       </c>
       <c r="F25" t="n">
-        <v>181222925.125</v>
+        <v>181035460.8333333</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118960</v>
+        <v>120050</v>
       </c>
       <c r="C26" t="n">
         <v>1156544.302590834</v>
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>190180492.0166667</v>
+        <v>192790242.6833333</v>
       </c>
       <c r="F26" t="n">
-        <v>203695528.7833334</v>
+        <v>206305279.45</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11240</v>
+        <v>11395</v>
       </c>
       <c r="C27" t="n">
         <v>2206270.768831674</v>
@@ -1031,10 +1031,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3456215.883333333</v>
+        <v>3408443.2</v>
       </c>
       <c r="F27" t="n">
-        <v>3511942.016666666</v>
+        <v>3464169.333333333</v>
       </c>
     </row>
     <row r="28">
@@ -6970,225 +6970,225 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>12-2023</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>27365</v>
+        <v>68260</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6410</v>
+        <v>-50734</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>66195</v>
+        <v>28190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>19128</v>
+        <v>7235</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>68780</v>
+        <v>4255</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-50214</v>
+        <v>2016</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>03-2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4125</v>
+        <v>60510</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1886</v>
+        <v>3606</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4260</v>
+        <v>339305</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-2496</v>
+        <v>-139309</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H178" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>02-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>60215</v>
+        <v>106355</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3311</v>
+        <v>35225</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>172495</v>
+        <v>32640</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4570</v>
+        <v>-6581</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="181">
@@ -7199,28 +7199,28 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>41670</v>
+        <v>42245</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-8860</v>
+        <v>-8285</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H181" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="182">
@@ -7231,130 +7231,130 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>78580</v>
+        <v>79545</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12922</v>
+        <v>13887</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1152640</v>
+        <v>202685</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>130973</v>
+        <v>41673</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H183" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>192380</v>
+        <v>62140</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31368</v>
+        <v>15073</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H184" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>122535</v>
+        <v>170580</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37325</v>
+        <v>2655</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H185" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>73585</v>
+        <v>114120</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-17647</v>
+        <v>28910</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,295 +7386,295 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>339305</v>
+        <v>11395</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-139309</v>
+        <v>2314</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>38025</v>
+        <v>71560</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1196</v>
+        <v>34635</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>41075</v>
+        <v>1161170</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-31698</v>
+        <v>139503</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>11240</v>
+        <v>4265</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2159</v>
+        <v>-2491</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>237060</v>
+        <v>65455</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>81560</v>
+        <v>-11995</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>70085</v>
+        <v>74130</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33160</v>
+        <v>-17102</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>65185</v>
+        <v>42430</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-12265</v>
+        <v>-30343</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>106355</v>
+        <v>120050</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35225</v>
+        <v>14318</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>956635</v>
+        <v>239760</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-606751</v>
+        <v>84260</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>118960</v>
+        <v>59160</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13228</v>
+        <v>25714</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>58995</v>
+        <v>953895</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25549</v>
+        <v>-609491</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>59160</v>
+        <v>953895</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25714</v>
+        <v>-609491</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>953895</v>
+        <v>59160</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-609491</v>
+        <v>25714</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>207979554.9333333</v>
+        <v>193586572</v>
       </c>
       <c r="F14" t="n">
-        <v>217221871.7333333</v>
+        <v>202828888.8</v>
       </c>
     </row>
     <row r="15">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>192790242.6833333</v>
+        <v>188505103.9166667</v>
       </c>
       <c r="F26" t="n">
-        <v>206305279.45</v>
+        <v>202020140.6833333</v>
       </c>
     </row>
     <row r="27">
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>120050</v>
+        <v>239760</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14318</v>
+        <v>84260</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>239760</v>
+        <v>953895</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>84260</v>
+        <v>-609491</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,33 +7674,33 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>953895</v>
+        <v>120050</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-609491</v>
+        <v>14318</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="197">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>380676801.8083333</v>
+        <v>369202783.7833334</v>
       </c>
       <c r="F3" t="n">
-        <v>390856099.1416667</v>
+        <v>379382081.1166667</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1161170</v>
+        <v>1169630</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7678836460.766666</v>
+        <v>7583746599.466667</v>
       </c>
       <c r="F7" t="n">
-        <v>9372327396.433334</v>
+        <v>9277237535.133333</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202685</v>
+        <v>202700</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>289623141.6166667</v>
+        <v>279269865.3916667</v>
       </c>
       <c r="F9" t="n">
-        <v>313020105.75</v>
+        <v>302666829.525</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62184</v>
+        <v>63044</v>
       </c>
       <c r="C10" t="n">
         <v>64444019.877958</v>
@@ -659,10 +659,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E10" t="n">
-        <v>562693791.6</v>
+        <v>551459003.8000001</v>
       </c>
       <c r="F10" t="n">
-        <v>501274757.6</v>
+        <v>490039969.8000001</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239760</v>
+        <v>242360</v>
       </c>
       <c r="C12" t="n">
         <v>1363977699.246861</v>
@@ -703,10 +703,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>2085315043.5</v>
+        <v>1995710709</v>
       </c>
       <c r="F12" t="n">
-        <v>1992265431.833333</v>
+        <v>1902661097.333333</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28190</v>
+        <v>30320</v>
       </c>
       <c r="C13" t="n">
         <v>34977980.09351953</v>
@@ -725,10 +725,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>15908679.86666667</v>
+        <v>16128329.2</v>
       </c>
       <c r="F13" t="n">
-        <v>17526222</v>
+        <v>17745871.33333333</v>
       </c>
     </row>
     <row r="14">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106355</v>
+        <v>107090</v>
       </c>
       <c r="C15" t="n">
         <v>47682073.79493537</v>
@@ -769,10 +769,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E15" t="n">
-        <v>783254994.1999999</v>
+        <v>753094936.8249999</v>
       </c>
       <c r="F15" t="n">
-        <v>657769833.3499999</v>
+        <v>627609775.9749999</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4255</v>
+        <v>4355</v>
       </c>
       <c r="C16" t="n">
         <v>4425964.153104383</v>
@@ -791,10 +791,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>17226807.46666667</v>
+        <v>16669105.06666667</v>
       </c>
       <c r="F16" t="n">
-        <v>15134923.73333333</v>
+        <v>14577221.33333333</v>
       </c>
     </row>
     <row r="17">
@@ -813,10 +813,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1068722373.641667</v>
+        <v>1065676181.516667</v>
       </c>
       <c r="F17" t="n">
-        <v>1341000319.241667</v>
+        <v>1337954127.116667</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114120</v>
+        <v>114380</v>
       </c>
       <c r="C21" t="n">
         <v>382723975.8634065</v>
@@ -899,10 +899,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1276663509.333333</v>
+        <v>1226409130.666667</v>
       </c>
       <c r="F21" t="n">
-        <v>1358366677.333333</v>
+        <v>1308112298.666667</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71560</v>
+        <v>71600</v>
       </c>
       <c r="C22" t="n">
         <v>59807122.7730689</v>
@@ -921,10 +921,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>1070798150</v>
+        <v>998045711.6666666</v>
       </c>
       <c r="F22" t="n">
-        <v>950074208.6666667</v>
+        <v>877321770.3333333</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60510</v>
+        <v>61180</v>
       </c>
       <c r="C25" t="n">
         <v>10317571.00736776</v>
@@ -987,10 +987,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E25" t="n">
-        <v>161320033.4166667</v>
+        <v>162578796.4166667</v>
       </c>
       <c r="F25" t="n">
-        <v>181035460.8333333</v>
+        <v>182294223.8333333</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120050</v>
+        <v>121600</v>
       </c>
       <c r="C26" t="n">
         <v>1156544.302590834</v>
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>188505103.9166667</v>
+        <v>191752328.0833333</v>
       </c>
       <c r="F26" t="n">
-        <v>202020140.6833333</v>
+        <v>205267364.85</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11395</v>
+        <v>11585</v>
       </c>
       <c r="C27" t="n">
         <v>2206270.768831674</v>
@@ -1031,10 +1031,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3408443.2</v>
+        <v>3357291.6</v>
       </c>
       <c r="F27" t="n">
-        <v>3464169.333333333</v>
+        <v>3413017.733333332</v>
       </c>
     </row>
     <row r="28">
@@ -6975,156 +6975,156 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>68260</v>
+        <v>67645</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-50734</v>
+        <v>-51349</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>28190</v>
+        <v>4355</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>7235</v>
+        <v>2116</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4255</v>
+        <v>61180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2016</v>
+        <v>4276</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H176" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>60510</v>
+        <v>346830</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3606</v>
+        <v>-131784</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>339305</v>
+        <v>4250</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-139309</v>
+        <v>-2506</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="179">
@@ -7135,60 +7135,60 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>106355</v>
+        <v>107090</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35225</v>
+        <v>35960</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>32640</v>
+        <v>170580</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-6581</v>
+        <v>2655</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="181">
@@ -7199,28 +7199,28 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>42245</v>
+        <v>40315</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-8285</v>
+        <v>-10215</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="182">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="183">
@@ -7263,28 +7263,28 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>202685</v>
+        <v>202700</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>41673</v>
+        <v>41688</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="184">
@@ -7295,60 +7295,60 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>62140</v>
+        <v>63000</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>15073</v>
+        <v>15933</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>170580</v>
+        <v>30320</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2655</v>
+        <v>9365</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="186">
@@ -7359,156 +7359,156 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>114120</v>
+        <v>114380</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28910</v>
+        <v>29170</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11395</v>
+        <v>1169630</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2314</v>
+        <v>147963</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>71560</v>
+        <v>11585</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34635</v>
+        <v>2504</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1161170</v>
+        <v>33335</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>139503</v>
+        <v>-5886</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4265</v>
+        <v>71600</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-2491</v>
+        <v>34675</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -7519,92 +7519,92 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>65455</v>
+        <v>66390</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-11995</v>
+        <v>-11060</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>74130</v>
+        <v>121600</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-17102</v>
+        <v>15868</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>42430</v>
+        <v>77280</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-30343</v>
+        <v>-13952</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="194">
@@ -7615,66 +7615,66 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>239760</v>
+        <v>242360</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>84260</v>
+        <v>86860</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>953895</v>
+        <v>59160</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-609491</v>
+        <v>25714</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>120050</v>
+        <v>957505</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14318</v>
+        <v>-605881</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>59160</v>
+        <v>43095</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25714</v>
+        <v>-29678</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>59160</v>
+        <v>957505</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25714</v>
+        <v>-605881</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>957505</v>
+        <v>43095</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-605881</v>
+        <v>-29678</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>43095</v>
+        <v>59160</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-29678</v>
+        <v>25714</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>121600</v>
+        <v>77280</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>15868</v>
+        <v>-13952</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>77280</v>
+        <v>242360</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-13952</v>
+        <v>86860</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>242360</v>
+        <v>957505</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>86860</v>
+        <v>-605881</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>957505</v>
+        <v>43095</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-605881</v>
+        <v>-29678</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>43095</v>
+        <v>121600</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-29678</v>
+        <v>15868</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>121600</v>
+        <v>59160</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15868</v>
+        <v>25714</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>59160</v>
+        <v>121600</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25714</v>
+        <v>15868</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>193586572</v>
+        <v>179193589.0666667</v>
       </c>
       <c r="F14" t="n">
-        <v>202828888.8</v>
+        <v>188435905.8666667</v>
       </c>
     </row>
     <row r="15">
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>59160</v>
+        <v>121600</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25714</v>
+        <v>15868</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,33 +7706,33 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>121600</v>
+        <v>59160</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15868</v>
+        <v>25714</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>191752328.0833333</v>
+        <v>187003300.15</v>
       </c>
       <c r="F26" t="n">
-        <v>205267364.85</v>
+        <v>200518336.9166667</v>
       </c>
     </row>
     <row r="27">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7697,10 +7697,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79545</v>
+        <v>80495</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>369202783.7833334</v>
+        <v>375482220.45</v>
       </c>
       <c r="F3" t="n">
-        <v>379382081.1166667</v>
+        <v>385661517.7833333</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1169630</v>
+        <v>1178610</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7583746599.466667</v>
+        <v>7658200078.8</v>
       </c>
       <c r="F7" t="n">
-        <v>9277237535.133333</v>
+        <v>9351691014.466667</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202700</v>
+        <v>202690</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>279269865.3916667</v>
+        <v>268865511.7083333</v>
       </c>
       <c r="F9" t="n">
-        <v>302666829.525</v>
+        <v>292262475.8416667</v>
       </c>
     </row>
     <row r="10">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242360</v>
+        <v>244560</v>
       </c>
       <c r="C12" t="n">
         <v>1363977699.246861</v>
@@ -703,10 +703,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>1995710709</v>
+        <v>1895797671.166667</v>
       </c>
       <c r="F12" t="n">
-        <v>1902661097.333333</v>
+        <v>1802748059.5</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30320</v>
+        <v>31030</v>
       </c>
       <c r="C13" t="n">
         <v>34977980.09351953</v>
@@ -725,10 +725,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>16128329.2</v>
+        <v>15752703.2</v>
       </c>
       <c r="F13" t="n">
-        <v>17745871.33333333</v>
+        <v>17370245.33333333</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59160</v>
+        <v>60620</v>
       </c>
       <c r="C14" t="n">
         <v>1285570.261920408</v>
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>179193589.0666667</v>
+        <v>184096853.0666667</v>
       </c>
       <c r="F14" t="n">
-        <v>188435905.8666667</v>
+        <v>193339169.8666667</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107090</v>
+        <v>108540</v>
       </c>
       <c r="C15" t="n">
         <v>47682073.79493537</v>
@@ -769,10 +769,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E15" t="n">
-        <v>753094936.8249999</v>
+        <v>688119001.3249999</v>
       </c>
       <c r="F15" t="n">
-        <v>627609775.9749999</v>
+        <v>562633840.4749999</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4355</v>
+        <v>4475</v>
       </c>
       <c r="C16" t="n">
         <v>4425964.153104383</v>
@@ -791,10 +791,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>16669105.06666667</v>
+        <v>16091413.33333333</v>
       </c>
       <c r="F16" t="n">
-        <v>14577221.33333333</v>
+        <v>13999529.6</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175886</v>
+        <v>176231</v>
       </c>
       <c r="C17" t="n">
         <v>509229587.0979519</v>
@@ -813,10 +813,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1065676181.516667</v>
+        <v>1065400819.516667</v>
       </c>
       <c r="F17" t="n">
-        <v>1337954127.116667</v>
+        <v>1337678765.116667</v>
       </c>
     </row>
     <row r="18">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71600</v>
+        <v>70800</v>
       </c>
       <c r="C22" t="n">
         <v>59807122.7730689</v>
@@ -921,10 +921,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>998045711.6666666</v>
+        <v>914450820</v>
       </c>
       <c r="F22" t="n">
-        <v>877321770.3333333</v>
+        <v>793726878.6666666</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61180</v>
+        <v>61805</v>
       </c>
       <c r="C25" t="n">
         <v>10317571.00736776</v>
@@ -987,10 +987,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E25" t="n">
-        <v>162578796.4166667</v>
+        <v>162954763.5833333</v>
       </c>
       <c r="F25" t="n">
-        <v>182294223.8333333</v>
+        <v>182670191</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>121600</v>
+        <v>122925</v>
       </c>
       <c r="C26" t="n">
         <v>1156544.302590834</v>
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>187003300.15</v>
+        <v>189382602.65</v>
       </c>
       <c r="F26" t="n">
-        <v>200518336.9166667</v>
+        <v>202897639.4166667</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11585</v>
+        <v>11700</v>
       </c>
       <c r="C27" t="n">
         <v>2206270.768831674</v>
@@ -1031,10 +1031,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3357291.6</v>
+        <v>3262993.833333333</v>
       </c>
       <c r="F27" t="n">
-        <v>3413017.733333332</v>
+        <v>3318719.966666666</v>
       </c>
     </row>
     <row r="28">
@@ -6970,103 +6970,103 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>67645</v>
+        <v>80495</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-51349</v>
+        <v>14837</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4355</v>
+        <v>63000</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2116</v>
+        <v>15933</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>61180</v>
+        <v>66640</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4276</v>
+        <v>-52354</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>346830</v>
+        <v>4475</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-131784</v>
+        <v>2236</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4250</v>
+        <v>114380</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-2506</v>
+        <v>29170</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>107090</v>
+        <v>61805</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35960</v>
+        <v>4901</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7162,231 +7162,231 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>170580</v>
+        <v>353510</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2655</v>
+        <v>-125104</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>40315</v>
+        <v>957505</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-10215</v>
+        <v>-605881</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>79545</v>
+        <v>170925</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13887</v>
+        <v>3000</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>202700</v>
+        <v>4275</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>41688</v>
+        <v>-2481</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>63000</v>
+        <v>1178610</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>15933</v>
+        <v>156943</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>30320</v>
+        <v>33900</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9365</v>
+        <v>-5321</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>114380</v>
+        <v>202690</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29170</v>
+        <v>41678</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1169630</v>
+        <v>31030</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>147963</v>
+        <v>10075</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>11585</v>
+        <v>43805</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2504</v>
+        <v>-6725</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,65 +7450,65 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>33335</v>
+        <v>70800</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-5886</v>
+        <v>33875</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>71600</v>
+        <v>11700</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34675</v>
+        <v>2619</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191">
@@ -7519,162 +7519,162 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>66390</v>
+        <v>66960</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-11060</v>
+        <v>-10490</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>77280</v>
+        <v>43905</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-13952</v>
+        <v>-28868</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>242360</v>
+        <v>122925</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>86860</v>
+        <v>17193</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>957505</v>
+        <v>77280</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-605881</v>
+        <v>-13952</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>43095</v>
+        <v>60620</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-29678</v>
+        <v>27174</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>121600</v>
+        <v>244560</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15868</v>
+        <v>89060</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>59160</v>
+        <v>108540</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25714</v>
+        <v>37410</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>122925</v>
+        <v>77280</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17193</v>
+        <v>-13952</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>77280</v>
+        <v>244560</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-13952</v>
+        <v>89060</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>60620</v>
+        <v>108540</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27174</v>
+        <v>37410</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>244560</v>
+        <v>122925</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>89060</v>
+        <v>17193</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>108540</v>
+        <v>60620</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37410</v>
+        <v>27174</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>184096853.0666667</v>
+        <v>168886659.4666666</v>
       </c>
       <c r="F14" t="n">
-        <v>193339169.8666667</v>
+        <v>178128976.2666667</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>189382602.65</v>
+        <v>184237024.3</v>
       </c>
       <c r="F26" t="n">
-        <v>202897639.4166667</v>
+        <v>197752061.0666667</v>
       </c>
     </row>
     <row r="27">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7697,10 +7697,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="197">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H197" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80495</v>
+        <v>81350</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>375482220.45</v>
+        <v>355202944.9833333</v>
       </c>
       <c r="F3" t="n">
-        <v>385661517.7833333</v>
+        <v>365382242.3166667</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1178610</v>
+        <v>1190255</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7658200078.8</v>
+        <v>7555067915.166666</v>
       </c>
       <c r="F7" t="n">
-        <v>9351691014.466667</v>
+        <v>9248558850.833334</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202690</v>
+        <v>211325</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>268865511.7083333</v>
+        <v>271389983.9416667</v>
       </c>
       <c r="F9" t="n">
-        <v>292262475.8416667</v>
+        <v>294786948.075</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63044</v>
+        <v>64459</v>
       </c>
       <c r="C10" t="n">
         <v>64444019.877958</v>
@@ -659,10 +659,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E10" t="n">
-        <v>551459003.8000001</v>
+        <v>519404274.2</v>
       </c>
       <c r="F10" t="n">
-        <v>490039969.8000001</v>
+        <v>457985240.2</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244560</v>
+        <v>246960</v>
       </c>
       <c r="C12" t="n">
         <v>1363977699.246861</v>
@@ -703,10 +703,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>1895797671.166667</v>
+        <v>1791272845</v>
       </c>
       <c r="F12" t="n">
-        <v>1802748059.5</v>
+        <v>1698223233.333333</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31030</v>
+        <v>31685</v>
       </c>
       <c r="C13" t="n">
         <v>34977980.09351953</v>
@@ -725,10 +725,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>15752703.2</v>
+        <v>15227510.53333333</v>
       </c>
       <c r="F13" t="n">
-        <v>17370245.33333333</v>
+        <v>16845052.66666666</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60620</v>
+        <v>62090</v>
       </c>
       <c r="C14" t="n">
         <v>1285570.261920408</v>
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>168886659.4666666</v>
+        <v>173000699.4666666</v>
       </c>
       <c r="F14" t="n">
-        <v>178128976.2666667</v>
+        <v>182243016.2666667</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108540</v>
+        <v>108970</v>
       </c>
       <c r="C15" t="n">
         <v>47682073.79493537</v>
@@ -769,10 +769,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E15" t="n">
-        <v>688119001.3249999</v>
+        <v>651879654.8249999</v>
       </c>
       <c r="F15" t="n">
-        <v>562633840.4749999</v>
+        <v>526394493.9749999</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4475</v>
+        <v>3865</v>
       </c>
       <c r="C16" t="n">
         <v>4425964.153104383</v>
@@ -791,10 +791,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>16091413.33333333</v>
+        <v>12840148.26666667</v>
       </c>
       <c r="F16" t="n">
-        <v>13999529.6</v>
+        <v>10748264.53333333</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176231</v>
+        <v>177341</v>
       </c>
       <c r="C17" t="n">
         <v>509229587.0979519</v>
@@ -813,10 +813,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1065400819.516667</v>
+        <v>1069600090.016667</v>
       </c>
       <c r="F17" t="n">
-        <v>1337678765.116667</v>
+        <v>1341878035.616667</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114380</v>
+        <v>117840</v>
       </c>
       <c r="C21" t="n">
         <v>382723975.8634065</v>
@@ -899,10 +899,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1226409130.666667</v>
+        <v>1156019285.333333</v>
       </c>
       <c r="F21" t="n">
-        <v>1308112298.666667</v>
+        <v>1237722453.333333</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70800</v>
+        <v>74240</v>
       </c>
       <c r="C22" t="n">
         <v>59807122.7730689</v>
@@ -921,10 +921,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>914450820</v>
+        <v>879138728.3333333</v>
       </c>
       <c r="F22" t="n">
-        <v>793726878.6666666</v>
+        <v>758414786.9999999</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61805</v>
+        <v>63035</v>
       </c>
       <c r="C25" t="n">
         <v>10317571.00736776</v>
@@ -987,10 +987,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E25" t="n">
-        <v>162954763.5833333</v>
+        <v>161697039.1666667</v>
       </c>
       <c r="F25" t="n">
-        <v>182670191</v>
+        <v>181412466.5833333</v>
       </c>
     </row>
     <row r="26">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122925</v>
+        <v>125460</v>
       </c>
       <c r="C26" t="n">
         <v>1156544.302590834</v>
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>184237024.3</v>
+        <v>188030440.55</v>
       </c>
       <c r="F26" t="n">
-        <v>197752061.0666667</v>
+        <v>201545477.3166667</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11700</v>
+        <v>12055</v>
       </c>
       <c r="C27" t="n">
         <v>2206270.768831674</v>
@@ -1031,10 +1031,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3262993.833333333</v>
+        <v>3219119.899999999</v>
       </c>
       <c r="F27" t="n">
-        <v>3318719.966666666</v>
+        <v>3274846.033333333</v>
       </c>
     </row>
     <row r="28">
@@ -6970,711 +6970,711 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>80495</v>
+        <v>957505</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>14837</v>
+        <v>-605881</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>63000</v>
+        <v>66560</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>15933</v>
+        <v>-52434</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>06-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>66640</v>
+        <v>3865</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-52354</v>
+        <v>1626</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4475</v>
+        <v>37785</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2236</v>
+        <v>-12745</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>114380</v>
+        <v>81350</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29170</v>
+        <v>15692</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>61805</v>
+        <v>1190255</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>4901</v>
+        <v>168588</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>353510</v>
+        <v>211325</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-125104</v>
+        <v>50313</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>957505</v>
+        <v>64415</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-605881</v>
+        <v>17348</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>170925</v>
+        <v>31685</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3000</v>
+        <v>10730</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4275</v>
+        <v>172035</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-2481</v>
+        <v>4110</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1178610</v>
+        <v>117840</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>156943</v>
+        <v>32630</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>33900</v>
+        <v>63035</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5321</v>
+        <v>6131</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>202690</v>
+        <v>12055</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41678</v>
+        <v>2974</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>31030</v>
+        <v>43905</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10075</v>
+        <v>-28868</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>43805</v>
+        <v>370980</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-6725</v>
+        <v>-107634</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>70800</v>
+        <v>3855</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33875</v>
+        <v>-2901</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H189" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>11700</v>
+        <v>62090</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2619</v>
+        <v>28644</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H190" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>66960</v>
+        <v>246960</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-10490</v>
+        <v>91460</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>43905</v>
+        <v>108970</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-28868</v>
+        <v>37840</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>77280</v>
+        <v>66990</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-13952</v>
+        <v>-10460</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H193" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>244560</v>
+        <v>34960</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>89060</v>
+        <v>-4261</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>108540</v>
+        <v>125460</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37410</v>
+        <v>19728</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>122925</v>
+        <v>78815</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17193</v>
+        <v>-12417</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>60620</v>
+        <v>74240</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27174</v>
+        <v>37315</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7482,7 +7482,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>62090</v>
+        <v>246960</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28644</v>
+        <v>91460</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>246960</v>
+        <v>108970</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>91460</v>
+        <v>37840</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>108970</v>
+        <v>66990</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37840</v>
+        <v>-10460</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>66990</v>
+        <v>34960</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-10460</v>
+        <v>-4261</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>34960</v>
+        <v>78815</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-4261</v>
+        <v>-12417</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>125460</v>
+        <v>74240</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19728</v>
+        <v>37315</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>78815</v>
+        <v>125460</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-12417</v>
+        <v>19728</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>74240</v>
+        <v>62090</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37315</v>
+        <v>28644</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>173000699.4666666</v>
+        <v>156967697.8666667</v>
       </c>
       <c r="F14" t="n">
-        <v>182243016.2666667</v>
+        <v>166210014.6666667</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>188030440.55</v>
+        <v>182126178.95</v>
       </c>
       <c r="F26" t="n">
-        <v>201545477.3166667</v>
+        <v>195641215.7166667</v>
       </c>
     </row>
     <row r="27">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7697,10 +7697,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6970,7 +6970,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>957505</v>
+        <v>66560</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-605881</v>
+        <v>-52434</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -7002,7 +7002,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>66560</v>
+        <v>3865</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-52434</v>
+        <v>1626</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7034,39 +7034,39 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3865</v>
+        <v>37785</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1626</v>
+        <v>-12745</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>37785</v>
+        <v>81350</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-12745</v>
+        <v>15692</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>81350</v>
+        <v>1190255</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15692</v>
+        <v>168588</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1190255</v>
+        <v>211325</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>168588</v>
+        <v>50313</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>211325</v>
+        <v>64415</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50313</v>
+        <v>17348</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7194,7 +7194,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>64415</v>
+        <v>31685</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>17348</v>
+        <v>10730</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>31685</v>
+        <v>172035</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10730</v>
+        <v>4110</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>172035</v>
+        <v>117840</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4110</v>
+        <v>32630</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>117840</v>
+        <v>957505</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32630</v>
+        <v>-605881</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81350</v>
+        <v>82725</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>355202944.9833333</v>
+        <v>347917972.2083333</v>
       </c>
       <c r="F3" t="n">
-        <v>365382242.3166667</v>
+        <v>358097269.5416666</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1190255</v>
+        <v>1200435</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7555067915.166666</v>
+        <v>7415674325.033333</v>
       </c>
       <c r="F7" t="n">
-        <v>9248558850.833334</v>
+        <v>9109165260.700001</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211325</v>
+        <v>211305</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>271389983.9416667</v>
+        <v>258829164.8833333</v>
       </c>
       <c r="F9" t="n">
-        <v>294786948.075</v>
+        <v>282226129.0166667</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64459</v>
+        <v>67099</v>
       </c>
       <c r="C10" t="n">
         <v>64444019.877958</v>
@@ -659,10 +659,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E10" t="n">
-        <v>519404274.2</v>
+        <v>513716260.0666667</v>
       </c>
       <c r="F10" t="n">
-        <v>457985240.2</v>
+        <v>452297226.0666667</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>246960</v>
+        <v>248360</v>
       </c>
       <c r="C12" t="n">
         <v>1363977699.246861</v>
@@ -703,10 +703,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E12" t="n">
-        <v>1791272845</v>
+        <v>1674811625.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1698223233.333333</v>
+        <v>1581762013.833333</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31685</v>
+        <v>32025</v>
       </c>
       <c r="C13" t="n">
         <v>34977980.09351953</v>
@@ -725,10 +725,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E13" t="n">
-        <v>15227510.53333333</v>
+        <v>14455746.53333333</v>
       </c>
       <c r="F13" t="n">
-        <v>16845052.66666666</v>
+        <v>16073288.66666666</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62090</v>
+        <v>62455</v>
       </c>
       <c r="C14" t="n">
         <v>1285570.261920408</v>
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>156967697.8666667</v>
+        <v>157784908.5333333</v>
       </c>
       <c r="F14" t="n">
-        <v>166210014.6666667</v>
+        <v>167027225.3333333</v>
       </c>
     </row>
     <row r="15">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108970</v>
+        <v>110060</v>
       </c>
       <c r="C15" t="n">
         <v>47682073.79493537</v>
@@ -769,10 +769,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E15" t="n">
-        <v>651879654.8249999</v>
+        <v>657481028.5749999</v>
       </c>
       <c r="F15" t="n">
-        <v>526394493.9749999</v>
+        <v>531995867.7249999</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3865</v>
+        <v>3925</v>
       </c>
       <c r="C16" t="n">
         <v>4425964.153104383</v>
@@ -791,10 +791,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>12840148.26666667</v>
+        <v>12207485.86666667</v>
       </c>
       <c r="F16" t="n">
-        <v>10748264.53333333</v>
+        <v>10115602.13333333</v>
       </c>
     </row>
     <row r="17">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74240</v>
+        <v>75010</v>
       </c>
       <c r="C22" t="n">
         <v>59807122.7730689</v>
@@ -921,10 +921,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E22" t="n">
-        <v>879138728.3333333</v>
+        <v>806640410</v>
       </c>
       <c r="F22" t="n">
-        <v>758414786.9999999</v>
+        <v>685916468.6666666</v>
       </c>
     </row>
     <row r="23">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125460</v>
+        <v>125940</v>
       </c>
       <c r="C26" t="n">
         <v>1156544.302590834</v>
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>182126178.95</v>
+        <v>182700802.95</v>
       </c>
       <c r="F26" t="n">
-        <v>195641215.7166667</v>
+        <v>196215839.7166667</v>
       </c>
     </row>
     <row r="27">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12055</v>
+        <v>12325</v>
       </c>
       <c r="C27" t="n">
         <v>2206270.768831674</v>
@@ -1031,10 +1031,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E27" t="n">
-        <v>3219119.899999999</v>
+        <v>3120663.466666666</v>
       </c>
       <c r="F27" t="n">
-        <v>3274846.033333333</v>
+        <v>3176389.6</v>
       </c>
     </row>
     <row r="28">
@@ -6975,28 +6975,28 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>66560</v>
+        <v>66090</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-52434</v>
+        <v>-52904</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175">
@@ -7007,34 +7007,34 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>06-2024</t>
+          <t>07-2024</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3865</v>
+        <v>3925</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1626</v>
+        <v>1686</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>37785</v>
+        <v>172035</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-12745</v>
+        <v>4110</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>81350</v>
+        <v>117840</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>15692</v>
+        <v>32630</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1190255</v>
+        <v>63035</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>168588</v>
+        <v>6131</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7130,231 +7130,231 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>211325</v>
+        <v>370980</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50313</v>
+        <v>-107634</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>64415</v>
+        <v>3855</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17348</v>
+        <v>-2901</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>31685</v>
+        <v>110060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10730</v>
+        <v>38930</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>172035</v>
+        <v>31955</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4110</v>
+        <v>-18575</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>117840</v>
+        <v>81385</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32630</v>
+        <v>-9847</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>957505</v>
+        <v>82725</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-605881</v>
+        <v>17067</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H184" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>08-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>63035</v>
+        <v>1200435</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6131</v>
+        <v>178768</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="H185" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>12055</v>
+        <v>211305</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2974</v>
+        <v>50293</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>43905</v>
+        <v>67055</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-28868</v>
+        <v>19988</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>370980</v>
+        <v>32025</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-107634</v>
+        <v>11070</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7450,231 +7450,231 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3855</v>
+        <v>12325</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-2901</v>
+        <v>3244</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>246960</v>
+        <v>66975</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>91460</v>
+        <v>-10475</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>108970</v>
+        <v>45070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37840</v>
+        <v>-27703</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>66990</v>
+        <v>35930</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-10460</v>
+        <v>-3291</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>34960</v>
+        <v>125940</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-4261</v>
+        <v>20208</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>78815</v>
+        <v>248360</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-12417</v>
+        <v>92860</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>74240</v>
+        <v>62455</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37315</v>
+        <v>29009</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>125460</v>
+        <v>970120</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19728</v>
+        <v>-593266</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>62090</v>
+        <v>75010</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28644</v>
+        <v>38085</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177341</v>
+        <v>178126</v>
       </c>
       <c r="C17" t="n">
         <v>509229587.0979519</v>
@@ -813,10 +813,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E17" t="n">
-        <v>1069600090.016667</v>
+        <v>1075004069.266667</v>
       </c>
       <c r="F17" t="n">
-        <v>1341878035.616667</v>
+        <v>1347282014.866667</v>
       </c>
     </row>
     <row r="18">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>172035</v>
+        <v>172820</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4110</v>
+        <v>4895</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>62455</v>
+        <v>75010</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29009</v>
+        <v>38085</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>75010</v>
+        <v>62455</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38085</v>
+        <v>29009</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>125940</v>
+        <v>248360</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20208</v>
+        <v>92860</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>248360</v>
+        <v>75010</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>92860</v>
+        <v>38085</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>75010</v>
+        <v>970120</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38085</v>
+        <v>-593266</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>970120</v>
+        <v>62455</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-593266</v>
+        <v>29009</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>62455</v>
+        <v>125940</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29009</v>
+        <v>20208</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -747,10 +747,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E14" t="n">
-        <v>157784908.5333333</v>
+        <v>141547604.2666667</v>
       </c>
       <c r="F14" t="n">
-        <v>167027225.3333333</v>
+        <v>150789921.0666667</v>
       </c>
     </row>
     <row r="15">
@@ -1009,10 +1009,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E26" t="n">
-        <v>182700802.95</v>
+        <v>176652885.35</v>
       </c>
       <c r="F26" t="n">
-        <v>196215839.7166667</v>
+        <v>190167922.1166667</v>
       </c>
     </row>
     <row r="27">
@@ -7674,65 +7674,65 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>62455</v>
+        <v>125940</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29009</v>
+        <v>20208</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>125940</v>
+        <v>62455</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20208</v>
+        <v>29009</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H197" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82725</v>
+        <v>84170</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>347917972.2083333</v>
+        <v>353887568.25</v>
       </c>
       <c r="F3" t="n">
-        <v>358097269.5416666</v>
+        <v>364066865.5833333</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1200435</v>
+        <v>1212835</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7415674325.033333</v>
+        <v>7036257688.766666</v>
       </c>
       <c r="F7" t="n">
-        <v>9109165260.700001</v>
+        <v>8729748624.433332</v>
       </c>
     </row>
     <row r="8">
@@ -637,447 +637,467 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>258829164.8833333</v>
+        <v>246298244.825</v>
       </c>
       <c r="F9" t="n">
-        <v>282226129.0166667</v>
+        <v>269695208.9583334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67099</v>
-      </c>
-      <c r="C10" t="n">
-        <v>64444019.877958</v>
-      </c>
+        <v>65690</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>398549057.8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>513716260.0666667</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>452297226.0666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118994</v>
+        <v>67874</v>
       </c>
       <c r="C11" t="n">
-        <v>1058749598.487561</v>
+        <v>64444019.877958</v>
       </c>
       <c r="D11" t="n">
-        <v>430960118.3416666</v>
+        <v>398549057.8</v>
       </c>
       <c r="E11" t="n">
-        <v>301793034.2583333</v>
+        <v>490558308.6</v>
       </c>
       <c r="F11" t="n">
-        <v>336378879.6083333</v>
+        <v>429139274.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248360</v>
+        <v>118994</v>
       </c>
       <c r="C12" t="n">
-        <v>1363977699.246861</v>
+        <v>1058749598.487561</v>
       </c>
       <c r="D12" t="n">
-        <v>1360070635.833333</v>
+        <v>430960118.3416666</v>
       </c>
       <c r="E12" t="n">
-        <v>1674811625.5</v>
+        <v>301793034.2583333</v>
       </c>
       <c r="F12" t="n">
-        <v>1581762013.833333</v>
+        <v>336378879.6083333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32025</v>
+        <v>250035</v>
       </c>
       <c r="C13" t="n">
-        <v>34977980.09351953</v>
+        <v>1363977699.246861</v>
       </c>
       <c r="D13" t="n">
-        <v>11766281.46666666</v>
+        <v>1360070635.833333</v>
       </c>
       <c r="E13" t="n">
-        <v>14455746.53333333</v>
+        <v>1555671499.541667</v>
       </c>
       <c r="F13" t="n">
-        <v>16073288.66666666</v>
+        <v>1462621887.875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62455</v>
+        <v>32315</v>
       </c>
       <c r="C14" t="n">
-        <v>1285570.261920408</v>
+        <v>34977980.09351953</v>
       </c>
       <c r="D14" t="n">
-        <v>131814401.3333333</v>
+        <v>11766281.46666666</v>
       </c>
       <c r="E14" t="n">
-        <v>141547604.2666667</v>
+        <v>13608771.86666667</v>
       </c>
       <c r="F14" t="n">
-        <v>150789921.0666667</v>
+        <v>15226314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110060</v>
+        <v>61245</v>
       </c>
       <c r="C15" t="n">
-        <v>47682073.79493537</v>
+        <v>1285570.261920408</v>
       </c>
       <c r="D15" t="n">
-        <v>419843004.175</v>
+        <v>131814401.3333333</v>
       </c>
       <c r="E15" t="n">
-        <v>657481028.5749999</v>
+        <v>139515772.2666667</v>
       </c>
       <c r="F15" t="n">
-        <v>531995867.7249999</v>
+        <v>148758089.0666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3925</v>
+        <v>110960</v>
       </c>
       <c r="C16" t="n">
-        <v>4425964.153104383</v>
+        <v>47682073.79493537</v>
       </c>
       <c r="D16" t="n">
-        <v>6274651.733333333</v>
+        <v>419843004.175</v>
       </c>
       <c r="E16" t="n">
-        <v>12207485.86666667</v>
+        <v>621169737.8249999</v>
       </c>
       <c r="F16" t="n">
-        <v>10115602.13333333</v>
+        <v>495684576.9749999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178126</v>
+        <v>3945</v>
       </c>
       <c r="C17" t="n">
-        <v>509229587.0979519</v>
+        <v>4425964.153104383</v>
       </c>
       <c r="D17" t="n">
-        <v>1343755086.583333</v>
+        <v>6274651.733333333</v>
       </c>
       <c r="E17" t="n">
-        <v>1075004069.266667</v>
+        <v>11414908.8</v>
       </c>
       <c r="F17" t="n">
-        <v>1347282014.866667</v>
+        <v>9323025.066666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1800</v>
+        <v>178846</v>
       </c>
       <c r="C18" t="n">
-        <v>226126.5132951586</v>
+        <v>509229587.0979519</v>
       </c>
       <c r="D18" t="n">
-        <v>19980</v>
+        <v>1343755086.583333</v>
       </c>
       <c r="E18" t="n">
-        <v>18900</v>
+        <v>1067075938.35</v>
       </c>
       <c r="F18" t="n">
-        <v>19980</v>
+        <v>1339353883.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72773</v>
+        <v>1800</v>
       </c>
       <c r="C19" t="n">
-        <v>1978538.041666871</v>
+        <v>226126.5132951586</v>
       </c>
       <c r="D19" t="n">
-        <v>163577704.875</v>
+        <v>19980</v>
       </c>
       <c r="E19" t="n">
-        <v>110303480.625</v>
+        <v>18900</v>
       </c>
       <c r="F19" t="n">
-        <v>125936432.375</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6756</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>72773</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1978538.041666871</v>
+      </c>
       <c r="D20" t="n">
-        <v>526603.9333333332</v>
+        <v>163577704.875</v>
       </c>
       <c r="E20" t="n">
-        <v>309788.8666666666</v>
+        <v>110303480.625</v>
       </c>
       <c r="F20" t="n">
-        <v>403134.0666666667</v>
+        <v>125936432.375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117840</v>
-      </c>
-      <c r="C21" t="n">
-        <v>382723975.8634065</v>
-      </c>
+        <v>6756</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1125937834.666667</v>
+        <v>526603.9333333332</v>
       </c>
       <c r="E21" t="n">
-        <v>1156019285.333333</v>
+        <v>309788.8666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>1237722453.333333</v>
+        <v>403134.0666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75010</v>
+        <v>120100</v>
       </c>
       <c r="C22" t="n">
-        <v>59807122.7730689</v>
+        <v>382723975.8634065</v>
       </c>
       <c r="D22" t="n">
-        <v>454303029.9999999</v>
+        <v>1125937834.666667</v>
       </c>
       <c r="E22" t="n">
-        <v>806640410</v>
+        <v>1050715477.333333</v>
       </c>
       <c r="F22" t="n">
-        <v>685916468.6666666</v>
+        <v>1132418645.333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4000</v>
+        <v>76215</v>
       </c>
       <c r="C23" t="n">
-        <v>11029841.04118221</v>
+        <v>59807122.7730689</v>
       </c>
       <c r="D23" t="n">
-        <v>71802000</v>
+        <v>454303029.9999999</v>
       </c>
       <c r="E23" t="n">
-        <v>14360399.99999999</v>
+        <v>733644440</v>
       </c>
       <c r="F23" t="n">
-        <v>71802000</v>
+        <v>612920498.6666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1563386</v>
+        <v>4000</v>
       </c>
       <c r="C24" t="n">
-        <v>16124483.91979632</v>
+        <v>11029841.04118221</v>
       </c>
       <c r="D24" t="n">
-        <v>1564090949.3</v>
+        <v>71802000</v>
       </c>
       <c r="E24" t="n">
-        <v>1102732889.5</v>
+        <v>14360399.99999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1213060621.9</v>
+        <v>71802000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63035</v>
+        <v>1563386</v>
       </c>
       <c r="C25" t="n">
-        <v>10317571.00736776</v>
+        <v>16124483.91979632</v>
       </c>
       <c r="D25" t="n">
-        <v>212002900.0833333</v>
+        <v>1564090949.3</v>
       </c>
       <c r="E25" t="n">
-        <v>161697039.1666667</v>
+        <v>1102732889.5</v>
       </c>
       <c r="F25" t="n">
-        <v>181412466.5833333</v>
+        <v>1213060621.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125940</v>
+        <v>63470</v>
       </c>
       <c r="C26" t="n">
-        <v>1156544.302590834</v>
+        <v>10317571.00736776</v>
       </c>
       <c r="D26" t="n">
-        <v>221216772.25</v>
+        <v>212002900.0833333</v>
       </c>
       <c r="E26" t="n">
-        <v>176652885.35</v>
+        <v>159642721.3333333</v>
       </c>
       <c r="F26" t="n">
-        <v>190167922.1166667</v>
+        <v>179358148.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12325</v>
+        <v>127015</v>
       </c>
       <c r="C27" t="n">
-        <v>2206270.768831674</v>
+        <v>1156544.302590834</v>
       </c>
       <c r="D27" t="n">
-        <v>3218600.066666666</v>
+        <v>221216772.25</v>
       </c>
       <c r="E27" t="n">
-        <v>3120663.466666666</v>
+        <v>177618074.1</v>
       </c>
       <c r="F27" t="n">
-        <v>3176389.6</v>
+        <v>191133110.8666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50530</v>
+        <v>12515</v>
       </c>
       <c r="C28" t="n">
-        <v>79023551.87700666</v>
+        <v>2206270.768831674</v>
       </c>
       <c r="D28" t="n">
-        <v>241665554.025</v>
+        <v>3218600.066666666</v>
       </c>
       <c r="E28" t="n">
-        <v>160265224.975</v>
+        <v>2981660.033333333</v>
       </c>
       <c r="F28" t="n">
-        <v>184940789.2916667</v>
+        <v>3037386.166666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50530</v>
+      </c>
+      <c r="C29" t="n">
+        <v>79023551.87700666</v>
+      </c>
+      <c r="D29" t="n">
+        <v>241665554.025</v>
+      </c>
+      <c r="E29" t="n">
+        <v>160265224.975</v>
+      </c>
+      <c r="F29" t="n">
+        <v>184940789.2916667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>85000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>5079246702.180953</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>521539733.3333333</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E30" t="n">
         <v>371028266.6666666</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F30" t="n">
         <v>397280266.6666666</v>
       </c>
     </row>
@@ -1413,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2234,7 +2254,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2243,7 +2263,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30372</v>
+        <v>47310</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2251,7 +2271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30372</v>
+        <v>47310</v>
       </c>
       <c r="F26" t="n">
         <v>0.6666666666666666</v>
@@ -2266,7 +2286,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2275,7 +2295,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>42764</v>
+        <v>30372</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2303,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42764</v>
+        <v>30372</v>
       </c>
       <c r="F27" t="n">
         <v>0.6666666666666666</v>
@@ -2298,7 +2318,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2307,7 +2327,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1215</v>
+        <v>42764</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2315,7 +2335,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1215</v>
+        <v>42764</v>
       </c>
       <c r="F28" t="n">
         <v>0.6666666666666666</v>
@@ -2330,7 +2350,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2339,7 +2359,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>60010</v>
+        <v>1215</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2347,7 +2367,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60010</v>
+        <v>1215</v>
       </c>
       <c r="F29" t="n">
         <v>0.6666666666666666</v>
@@ -2362,7 +2382,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2371,7 +2391,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5984</v>
+        <v>60010</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2399,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5984</v>
+        <v>60010</v>
       </c>
       <c r="F30" t="n">
         <v>0.6666666666666666</v>
@@ -2394,7 +2414,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2403,7 +2423,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21484</v>
+        <v>5984</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2411,7 +2431,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21484</v>
+        <v>5984</v>
       </c>
       <c r="F31" t="n">
         <v>0.6666666666666666</v>
@@ -2426,7 +2446,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2435,7 +2455,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6894</v>
+        <v>21484</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2443,7 +2463,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6894</v>
+        <v>21484</v>
       </c>
       <c r="F32" t="n">
         <v>0.6666666666666666</v>
@@ -2458,7 +2478,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2467,7 +2487,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42788</v>
+        <v>6894</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2475,7 +2495,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42788</v>
+        <v>6894</v>
       </c>
       <c r="F33" t="n">
         <v>0.6666666666666666</v>
@@ -2490,7 +2510,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2499,7 +2519,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>131771</v>
+        <v>42788</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2507,7 +2527,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>131771</v>
+        <v>42788</v>
       </c>
       <c r="F34" t="n">
         <v>0.6666666666666666</v>
@@ -2522,7 +2542,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2531,7 +2551,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18043</v>
+        <v>131771</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2539,7 +2559,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2478</v>
+        <v>131771</v>
       </c>
       <c r="F35" t="n">
         <v>0.6666666666666666</v>
@@ -2554,39 +2574,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08-2022</t>
+          <t>07-2022</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>77154</v>
+        <v>18043</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18285</v>
+        <v>2478</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2595,15 +2615,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>49718</v>
+        <v>77154</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1871</v>
+        <v>18285</v>
       </c>
       <c r="F37" t="n">
         <v>0.4166666666666666</v>
@@ -2618,7 +2638,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2627,7 +2647,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23912</v>
+        <v>49718</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2635,7 +2655,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2428</v>
+        <v>1871</v>
       </c>
       <c r="F38" t="n">
         <v>0.4166666666666666</v>
@@ -2650,7 +2670,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2659,7 +2679,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>44546</v>
+        <v>23912</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2667,7 +2687,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1758</v>
+        <v>2428</v>
       </c>
       <c r="F39" t="n">
         <v>0.4166666666666666</v>
@@ -2682,7 +2702,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2691,7 +2711,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33396</v>
+        <v>44546</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2699,7 +2719,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1280</v>
+        <v>1758</v>
       </c>
       <c r="F40" t="n">
         <v>0.4166666666666666</v>
@@ -2714,7 +2734,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2723,7 +2743,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36652</v>
+        <v>33396</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2731,7 +2751,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6280</v>
+        <v>1280</v>
       </c>
       <c r="F41" t="n">
         <v>0.4166666666666666</v>
@@ -2746,7 +2766,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2755,7 +2775,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>64053</v>
+        <v>36652</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2763,7 +2783,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5410</v>
+        <v>6280</v>
       </c>
       <c r="F42" t="n">
         <v>0.4166666666666666</v>
@@ -2778,7 +2798,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2787,7 +2807,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18745</v>
+        <v>64053</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2795,7 +2815,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>702</v>
+        <v>5410</v>
       </c>
       <c r="F43" t="n">
         <v>0.4166666666666666</v>
@@ -2810,7 +2830,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2819,7 +2839,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1500</v>
+        <v>51501</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2827,7 +2847,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>285</v>
+        <v>4191</v>
       </c>
       <c r="F44" t="n">
         <v>0.4166666666666666</v>
@@ -2842,7 +2862,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2851,7 +2871,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>63279</v>
+        <v>18745</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2859,7 +2879,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3269</v>
+        <v>702</v>
       </c>
       <c r="F45" t="n">
         <v>0.4166666666666666</v>
@@ -2874,7 +2894,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2883,7 +2903,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>139116</v>
+        <v>1500</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2891,7 +2911,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7345</v>
+        <v>285</v>
       </c>
       <c r="F46" t="n">
         <v>0.4166666666666666</v>
@@ -2906,7 +2926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2915,7 +2935,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>101369</v>
+        <v>63279</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2923,7 +2943,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9213</v>
+        <v>3269</v>
       </c>
       <c r="F47" t="n">
         <v>0.4166666666666666</v>
@@ -2938,7 +2958,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2947,7 +2967,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46481</v>
+        <v>139116</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2955,7 +2975,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3717</v>
+        <v>7345</v>
       </c>
       <c r="F48" t="n">
         <v>0.4166666666666666</v>
@@ -2970,7 +2990,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2979,7 +2999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>79728</v>
+        <v>101369</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2987,7 +3007,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5236</v>
+        <v>9213</v>
       </c>
       <c r="F49" t="n">
         <v>0.4166666666666666</v>
@@ -3002,7 +3022,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3011,7 +3031,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>54414</v>
+        <v>46481</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3019,7 +3039,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2376</v>
+        <v>3717</v>
       </c>
       <c r="F50" t="n">
         <v>0.4166666666666666</v>
@@ -3034,7 +3054,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3043,7 +3063,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>423374</v>
+        <v>79728</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3051,7 +3071,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22815</v>
+        <v>5236</v>
       </c>
       <c r="F51" t="n">
         <v>0.4166666666666666</v>
@@ -3066,7 +3086,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3075,7 +3095,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>971000</v>
+        <v>54414</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3083,7 +3103,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>56000</v>
+        <v>2376</v>
       </c>
       <c r="F52" t="n">
         <v>0.4166666666666666</v>
@@ -3098,7 +3118,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3107,7 +3127,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>120600</v>
+        <v>423374</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3115,7 +3135,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16600</v>
+        <v>22815</v>
       </c>
       <c r="F53" t="n">
         <v>0.4166666666666666</v>
@@ -3130,7 +3150,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3139,7 +3159,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29027</v>
+        <v>971000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3147,7 +3167,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2464</v>
+        <v>56000</v>
       </c>
       <c r="F54" t="n">
         <v>0.4166666666666666</v>
@@ -3162,7 +3182,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3171,7 +3191,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>159968</v>
+        <v>120600</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3179,7 +3199,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5258</v>
+        <v>16600</v>
       </c>
       <c r="F55" t="n">
         <v>0.4166666666666666</v>
@@ -3194,7 +3214,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3203,7 +3223,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6263</v>
+        <v>29027</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3211,7 +3231,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>279</v>
+        <v>2464</v>
       </c>
       <c r="F56" t="n">
         <v>0.4166666666666666</v>
@@ -3226,7 +3246,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3235,7 +3255,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1353338</v>
+        <v>159968</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3243,7 +3263,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>118620</v>
+        <v>5258</v>
       </c>
       <c r="F57" t="n">
         <v>0.4166666666666666</v>
@@ -3258,7 +3278,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3267,7 +3287,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>90612</v>
+        <v>6263</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3275,7 +3295,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8428</v>
+        <v>279</v>
       </c>
       <c r="F58" t="n">
         <v>0.4166666666666666</v>
@@ -3290,7 +3310,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3299,7 +3319,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7279</v>
+        <v>1353338</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3307,7 +3327,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>385</v>
+        <v>118620</v>
       </c>
       <c r="F59" t="n">
         <v>0.4166666666666666</v>
@@ -3322,71 +3342,71 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>82708</v>
+        <v>90612</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5554</v>
+        <v>8428</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>09-2022</t>
+          <t>08-2022</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1800</v>
+        <v>7279</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3395,15 +3415,15 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6561</v>
+        <v>82708</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>298</v>
+        <v>5554</v>
       </c>
       <c r="F62" t="n">
         <v>0.3333333333333333</v>
@@ -3418,7 +3438,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3427,15 +3447,15 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19413</v>
+        <v>1800</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>668</v>
+        <v>500</v>
       </c>
       <c r="F63" t="n">
         <v>0.3333333333333333</v>
@@ -3450,7 +3470,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3459,7 +3479,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27845</v>
+        <v>6561</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3467,7 +3487,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3933</v>
+        <v>298</v>
       </c>
       <c r="F64" t="n">
         <v>0.3333333333333333</v>
@@ -3482,7 +3502,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3491,7 +3511,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45895</v>
+        <v>19413</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3499,7 +3519,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1349</v>
+        <v>668</v>
       </c>
       <c r="F65" t="n">
         <v>0.3333333333333333</v>
@@ -3514,7 +3534,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3523,7 +3543,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>997895</v>
+        <v>27845</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3531,7 +3551,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26895</v>
+        <v>3933</v>
       </c>
       <c r="F66" t="n">
         <v>0.3333333333333333</v>
@@ -3546,7 +3566,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3555,7 +3575,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>144668</v>
+        <v>45895</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3563,7 +3583,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5552</v>
+        <v>1349</v>
       </c>
       <c r="F67" t="n">
         <v>0.3333333333333333</v>
@@ -3578,7 +3598,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3587,7 +3607,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38588</v>
+        <v>997895</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3595,7 +3615,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1936</v>
+        <v>26895</v>
       </c>
       <c r="F68" t="n">
         <v>0.3333333333333333</v>
@@ -3610,7 +3630,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3619,7 +3639,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>56464</v>
+        <v>144668</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3627,7 +3647,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2050</v>
+        <v>5552</v>
       </c>
       <c r="F69" t="n">
         <v>0.3333333333333333</v>
@@ -3642,7 +3662,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3651,7 +3671,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>65098</v>
+        <v>38588</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3659,7 +3679,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1045</v>
+        <v>1936</v>
       </c>
       <c r="F70" t="n">
         <v>0.3333333333333333</v>
@@ -3674,7 +3694,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3683,7 +3703,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>105000</v>
+        <v>56464</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3691,7 +3711,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3631</v>
+        <v>2050</v>
       </c>
       <c r="F71" t="n">
         <v>0.3333333333333333</v>
@@ -3706,7 +3726,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3715,7 +3735,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>131700</v>
+        <v>65098</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3723,7 +3743,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>11100</v>
+        <v>1045</v>
       </c>
       <c r="F72" t="n">
         <v>0.3333333333333333</v>
@@ -3738,7 +3758,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3747,7 +3767,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>49999</v>
+        <v>57257</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3755,7 +3775,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3518</v>
+        <v>5756</v>
       </c>
       <c r="F73" t="n">
         <v>0.3333333333333333</v>
@@ -3770,7 +3790,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3779,7 +3799,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1409139</v>
+        <v>105000</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3787,7 +3807,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>55801</v>
+        <v>3631</v>
       </c>
       <c r="F74" t="n">
         <v>0.3333333333333333</v>
@@ -3802,7 +3822,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3811,7 +3831,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>52819</v>
+        <v>131700</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3819,7 +3839,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3101</v>
+        <v>11100</v>
       </c>
       <c r="F75" t="n">
         <v>0.3333333333333333</v>
@@ -3834,7 +3854,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3843,7 +3863,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8171</v>
+        <v>49999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3851,7 +3871,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>892</v>
+        <v>3518</v>
       </c>
       <c r="F76" t="n">
         <v>0.3333333333333333</v>
@@ -3866,7 +3886,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3875,7 +3895,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>82446</v>
+        <v>1409139</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3883,7 +3903,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2718</v>
+        <v>55801</v>
       </c>
       <c r="F77" t="n">
         <v>0.3333333333333333</v>
@@ -3898,7 +3918,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3907,7 +3927,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>439043</v>
+        <v>52819</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3915,7 +3935,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>15669</v>
+        <v>3101</v>
       </c>
       <c r="F78" t="n">
         <v>0.3333333333333333</v>
@@ -3930,7 +3950,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3939,7 +3959,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35193</v>
+        <v>8171</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3947,7 +3967,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1797</v>
+        <v>892</v>
       </c>
       <c r="F79" t="n">
         <v>0.3333333333333333</v>
@@ -3962,7 +3982,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3971,7 +3991,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30000</v>
+        <v>82446</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3979,7 +3999,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>973</v>
+        <v>2718</v>
       </c>
       <c r="F80" t="n">
         <v>0.3333333333333333</v>
@@ -3994,7 +4014,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4003,7 +4023,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1640</v>
+        <v>439043</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4011,7 +4031,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>140</v>
+        <v>15669</v>
       </c>
       <c r="F81" t="n">
         <v>0.3333333333333333</v>
@@ -4026,7 +4046,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4035,7 +4055,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>170646</v>
+        <v>35193</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4043,7 +4063,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10678</v>
+        <v>1797</v>
       </c>
       <c r="F82" t="n">
         <v>0.3333333333333333</v>
@@ -4058,7 +4078,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4067,7 +4087,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>66368</v>
+        <v>30000</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4075,7 +4095,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3089</v>
+        <v>973</v>
       </c>
       <c r="F83" t="n">
         <v>0.3333333333333333</v>
@@ -4090,7 +4110,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4099,7 +4119,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>95375</v>
+        <v>1640</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4107,7 +4127,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4763</v>
+        <v>140</v>
       </c>
       <c r="F84" t="n">
         <v>0.3333333333333333</v>
@@ -4122,7 +4142,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4131,7 +4151,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>79250</v>
+        <v>170646</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4139,7 +4159,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11200</v>
+        <v>10678</v>
       </c>
       <c r="F85" t="n">
         <v>0.3333333333333333</v>
@@ -4154,103 +4174,103 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>108836</v>
+        <v>66368</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26128</v>
+        <v>3089</v>
       </c>
       <c r="F86" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G86" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H86" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>52970</v>
+        <v>95375</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>151</v>
+        <v>4763</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G87" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10-2022</t>
+          <t>09-2022</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1002668</v>
+        <v>79250</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4773</v>
+        <v>11200</v>
       </c>
       <c r="F88" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G88" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H88" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4259,15 +4279,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>138400</v>
+        <v>108836</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6700</v>
+        <v>26128</v>
       </c>
       <c r="F89" t="n">
         <v>0.25</v>
@@ -4282,7 +4302,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4291,7 +4311,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>58537</v>
+        <v>52970</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4299,7 +4319,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2073</v>
+        <v>151</v>
       </c>
       <c r="F90" t="n">
         <v>0.25</v>
@@ -4314,7 +4334,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4323,7 +4343,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>149213</v>
+        <v>1002668</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4331,7 +4351,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4545</v>
+        <v>4773</v>
       </c>
       <c r="F91" t="n">
         <v>0.25</v>
@@ -4346,7 +4366,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4355,7 +4375,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>84756</v>
+        <v>138400</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4363,7 +4383,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2310</v>
+        <v>6700</v>
       </c>
       <c r="F92" t="n">
         <v>0.25</v>
@@ -4378,7 +4398,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4387,7 +4407,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>66812</v>
+        <v>58537</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4395,7 +4415,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1714</v>
+        <v>2073</v>
       </c>
       <c r="F93" t="n">
         <v>0.25</v>
@@ -4410,7 +4430,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4419,7 +4439,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>453103</v>
+        <v>149213</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4427,7 +4447,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>14060</v>
+        <v>4545</v>
       </c>
       <c r="F94" t="n">
         <v>0.25</v>
@@ -4442,7 +4462,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4451,7 +4471,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>36449</v>
+        <v>84756</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4459,7 +4479,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1256</v>
+        <v>2310</v>
       </c>
       <c r="F95" t="n">
         <v>0.25</v>
@@ -4474,7 +4494,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4483,7 +4503,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>38588</v>
+        <v>66812</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4491,7 +4511,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="F96" t="n">
         <v>0.25</v>
@@ -4506,7 +4526,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4515,7 +4535,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19997</v>
+        <v>453103</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4523,7 +4543,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>584</v>
+        <v>14060</v>
       </c>
       <c r="F97" t="n">
         <v>0.25</v>
@@ -4538,7 +4558,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4547,7 +4567,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31290</v>
+        <v>36449</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4555,7 +4575,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1290</v>
+        <v>1256</v>
       </c>
       <c r="F98" t="n">
         <v>0.25</v>
@@ -4570,7 +4590,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4579,7 +4599,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>55144</v>
+        <v>60980</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4587,7 +4607,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5145</v>
+        <v>3723</v>
       </c>
       <c r="F99" t="n">
         <v>0.25</v>
@@ -4602,7 +4622,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4611,7 +4631,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1766</v>
+        <v>38588</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4619,7 +4639,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0.25</v>
@@ -4634,7 +4654,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4643,7 +4663,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>68925</v>
+        <v>19997</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4651,7 +4671,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2557</v>
+        <v>584</v>
       </c>
       <c r="F101" t="n">
         <v>0.25</v>
@@ -4666,7 +4686,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4675,7 +4695,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6756</v>
+        <v>31290</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4683,7 +4703,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>195</v>
+        <v>1290</v>
       </c>
       <c r="F102" t="n">
         <v>0.25</v>
@@ -4698,7 +4718,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4707,7 +4727,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30570</v>
+        <v>55144</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4715,7 +4735,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2725</v>
+        <v>5145</v>
       </c>
       <c r="F103" t="n">
         <v>0.25</v>
@@ -4730,7 +4750,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4739,7 +4759,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1469032</v>
+        <v>1766</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4747,7 +4767,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>59893</v>
+        <v>126</v>
       </c>
       <c r="F104" t="n">
         <v>0.25</v>
@@ -4762,7 +4782,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4771,7 +4791,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>98770</v>
+        <v>68925</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4779,7 +4799,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3395</v>
+        <v>2557</v>
       </c>
       <c r="F105" t="n">
         <v>0.25</v>
@@ -4794,7 +4814,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4803,7 +4823,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8308</v>
+        <v>6756</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4811,7 +4831,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F106" t="n">
         <v>0.25</v>
@@ -4826,7 +4846,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4835,7 +4855,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>47376</v>
+        <v>30570</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4843,7 +4863,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1481</v>
+        <v>2725</v>
       </c>
       <c r="F107" t="n">
         <v>0.25</v>
@@ -4858,7 +4878,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4867,7 +4887,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>118994</v>
+        <v>1469032</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4875,7 +4895,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>13994</v>
+        <v>59893</v>
       </c>
       <c r="F108" t="n">
         <v>0.25</v>
@@ -4890,7 +4910,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4899,7 +4919,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>171546</v>
+        <v>98770</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4907,7 +4927,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>900</v>
+        <v>3395</v>
       </c>
       <c r="F109" t="n">
         <v>0.25</v>
@@ -4922,135 +4942,135 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>120842</v>
+        <v>8308</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12006</v>
+        <v>137</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>85000</v>
+        <v>47376</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>14000</v>
+        <v>1481</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>19997</v>
+        <v>118994</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>13994</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>11-2022</t>
+          <t>10-2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>36983</v>
+        <v>171546</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>534</v>
+        <v>900</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5059,15 +5079,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>38588</v>
+        <v>120842</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>12006</v>
       </c>
       <c r="F114" t="n">
         <v>0.1666666666666666</v>
@@ -5082,7 +5102,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5091,15 +5111,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1766</v>
+        <v>85000</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F115" t="n">
         <v>0.1666666666666666</v>
@@ -5114,7 +5134,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5123,7 +5143,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>32102</v>
+        <v>19997</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -5131,7 +5151,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1532</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0.1666666666666666</v>
@@ -5146,7 +5166,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5155,7 +5175,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>48360</v>
+        <v>36983</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -5163,7 +5183,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>984</v>
+        <v>534</v>
       </c>
       <c r="F117" t="n">
         <v>0.1666666666666666</v>
@@ -5178,7 +5198,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5187,7 +5207,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>69607</v>
+        <v>62239</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -5195,7 +5215,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2795</v>
+        <v>1259</v>
       </c>
       <c r="F118" t="n">
         <v>0.1666666666666666</v>
@@ -5210,7 +5230,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5219,7 +5239,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1021667</v>
+        <v>38588</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -5227,7 +5247,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18999</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0.1666666666666666</v>
@@ -5242,7 +5262,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5251,7 +5271,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>58511</v>
+        <v>1766</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -5259,7 +5279,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3367</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0.1666666666666666</v>
@@ -5274,7 +5294,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5283,7 +5303,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>70667</v>
+        <v>32102</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -5291,7 +5311,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1742</v>
+        <v>1532</v>
       </c>
       <c r="F121" t="n">
         <v>0.1666666666666666</v>
@@ -5306,7 +5326,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5315,7 +5335,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>85210</v>
+        <v>48360</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5323,7 +5343,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5960</v>
+        <v>984</v>
       </c>
       <c r="F122" t="n">
         <v>0.1666666666666666</v>
@@ -5338,7 +5358,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5347,7 +5367,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>155473</v>
+        <v>69607</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5355,7 +5375,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6260</v>
+        <v>2795</v>
       </c>
       <c r="F123" t="n">
         <v>0.1666666666666666</v>
@@ -5370,7 +5390,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5379,7 +5399,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>88748</v>
+        <v>1021667</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5387,7 +5407,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3992</v>
+        <v>18999</v>
       </c>
       <c r="F124" t="n">
         <v>0.1666666666666666</v>
@@ -5402,7 +5422,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5411,7 +5431,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>62181</v>
+        <v>58511</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -5419,7 +5439,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3644</v>
+        <v>3367</v>
       </c>
       <c r="F125" t="n">
         <v>0.1666666666666666</v>
@@ -5434,7 +5454,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5443,7 +5463,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>464910</v>
+        <v>70667</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5451,7 +5471,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11807</v>
+        <v>1742</v>
       </c>
       <c r="F126" t="n">
         <v>0.1666666666666666</v>
@@ -5466,7 +5486,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5475,7 +5495,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>147800</v>
+        <v>85210</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -5483,7 +5503,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>9400</v>
+        <v>5960</v>
       </c>
       <c r="F127" t="n">
         <v>0.1666666666666666</v>
@@ -5498,7 +5518,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5507,7 +5527,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>32271</v>
+        <v>155473</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5515,7 +5535,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>981</v>
+        <v>6260</v>
       </c>
       <c r="F128" t="n">
         <v>0.1666666666666666</v>
@@ -5530,7 +5550,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5539,7 +5559,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>173231</v>
+        <v>88748</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -5547,7 +5567,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1685</v>
+        <v>3992</v>
       </c>
       <c r="F129" t="n">
         <v>0.1666666666666666</v>
@@ -5562,7 +5582,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5571,7 +5591,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1521085</v>
+        <v>62181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -5579,7 +5599,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52053</v>
+        <v>3644</v>
       </c>
       <c r="F130" t="n">
         <v>0.1666666666666666</v>
@@ -5594,7 +5614,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5603,7 +5623,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>102476</v>
+        <v>464910</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -5611,7 +5631,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3706</v>
+        <v>11807</v>
       </c>
       <c r="F131" t="n">
         <v>0.1666666666666666</v>
@@ -5626,7 +5646,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5635,7 +5655,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8655</v>
+        <v>147800</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -5643,7 +5663,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>347</v>
+        <v>9400</v>
       </c>
       <c r="F132" t="n">
         <v>0.1666666666666666</v>
@@ -5658,167 +5678,167 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>137797</v>
+        <v>32271</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>16955</v>
+        <v>981</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>20955</v>
+        <v>173231</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>958</v>
+        <v>1685</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>64436</v>
+        <v>1521085</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2255</v>
+        <v>52053</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>152200</v>
+        <v>102476</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4400</v>
+        <v>3706</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>12-2022</t>
+          <t>11-2022</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>56236</v>
+        <v>8655</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3266</v>
+        <v>347</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5827,15 +5847,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>90591</v>
+        <v>137797</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1843</v>
+        <v>16955</v>
       </c>
       <c r="F138" t="n">
         <v>0.0833333333333333</v>
@@ -5850,7 +5870,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5859,7 +5879,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>70070</v>
+        <v>20955</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -5867,7 +5887,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>11559</v>
+        <v>958</v>
       </c>
       <c r="F139" t="n">
         <v>0.0833333333333333</v>
@@ -5882,7 +5902,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5891,7 +5911,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>76432</v>
+        <v>64436</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -5899,7 +5919,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6825</v>
+        <v>2255</v>
       </c>
       <c r="F140" t="n">
         <v>0.0833333333333333</v>
@@ -5914,7 +5934,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5923,7 +5943,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>474731</v>
+        <v>152200</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -5931,7 +5951,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9821</v>
+        <v>4400</v>
       </c>
       <c r="F141" t="n">
         <v>0.0833333333333333</v>
@@ -5946,7 +5966,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5955,7 +5975,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>35649</v>
+        <v>56236</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -5963,7 +5983,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3547</v>
+        <v>3266</v>
       </c>
       <c r="F142" t="n">
         <v>0.0833333333333333</v>
@@ -5978,7 +5998,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5987,7 +6007,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>50040</v>
+        <v>90591</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -5995,7 +6015,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1680</v>
+        <v>1843</v>
       </c>
       <c r="F143" t="n">
         <v>0.0833333333333333</v>
@@ -6010,7 +6030,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6019,7 +6039,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1546354</v>
+        <v>70070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -6027,7 +6047,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25269</v>
+        <v>11559</v>
       </c>
       <c r="F144" t="n">
         <v>0.0833333333333333</v>
@@ -6042,7 +6062,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6051,7 +6071,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>39482</v>
+        <v>76432</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -6059,7 +6079,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2499</v>
+        <v>6825</v>
       </c>
       <c r="F145" t="n">
         <v>0.0833333333333333</v>
@@ -6074,7 +6094,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6083,7 +6103,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>47111</v>
+        <v>474731</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -6091,7 +6111,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8523</v>
+        <v>9821</v>
       </c>
       <c r="F146" t="n">
         <v>0.0833333333333333</v>
@@ -6106,7 +6126,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6115,7 +6135,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>33218</v>
+        <v>35649</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -6123,7 +6143,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>947</v>
+        <v>3547</v>
       </c>
       <c r="F147" t="n">
         <v>0.0833333333333333</v>
@@ -6138,7 +6158,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6147,7 +6167,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2239</v>
+        <v>50040</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -6155,7 +6175,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>473</v>
+        <v>1680</v>
       </c>
       <c r="F148" t="n">
         <v>0.0833333333333333</v>
@@ -6170,7 +6190,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6179,7 +6199,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>72302</v>
+        <v>65060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -6187,7 +6207,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1635</v>
+        <v>2821</v>
       </c>
       <c r="F149" t="n">
         <v>0.0833333333333333</v>
@@ -6202,7 +6222,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6211,7 +6231,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>105370</v>
+        <v>1546354</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -6219,7 +6239,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2894</v>
+        <v>25269</v>
       </c>
       <c r="F150" t="n">
         <v>0.0833333333333333</v>
@@ -6234,7 +6254,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6243,7 +6263,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8821</v>
+        <v>39482</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -6251,7 +6271,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>166</v>
+        <v>2499</v>
       </c>
       <c r="F151" t="n">
         <v>0.0833333333333333</v>
@@ -6266,7 +6286,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6275,7 +6295,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>167925</v>
+        <v>47111</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -6283,7 +6303,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-5306</v>
+        <v>8523</v>
       </c>
       <c r="F152" t="n">
         <v>0.0833333333333333</v>
@@ -6298,7 +6318,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6307,7 +6327,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>161012</v>
+        <v>33218</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -6315,7 +6335,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5539</v>
+        <v>947</v>
       </c>
       <c r="F153" t="n">
         <v>0.0833333333333333</v>
@@ -6330,199 +6350,199 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>149476</v>
+        <v>2239</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>11679</v>
+        <v>473</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>65658</v>
+        <v>72302</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1222</v>
+        <v>1635</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2239</v>
+        <v>105370</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>2894</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>71130</v>
+        <v>8821</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1060</v>
+        <v>166</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>50530</v>
+        <v>167925</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>490</v>
+        <v>-5306</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01-2023</t>
+          <t>12-2022</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>36925</v>
+        <v>161012</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1276</v>
+        <v>5539</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6531,15 +6551,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>478614</v>
+        <v>149476</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3883</v>
+        <v>11679</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6554,7 +6574,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6563,7 +6583,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>39221</v>
+        <v>65658</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -6571,7 +6591,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-261</v>
+        <v>1222</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6586,7 +6606,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6595,7 +6615,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>91232</v>
+        <v>2239</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -6603,7 +6623,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6618,7 +6638,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6627,7 +6647,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>47067</v>
+        <v>71130</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -6635,7 +6655,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-44</v>
+        <v>1060</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6650,7 +6670,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6659,7 +6679,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>72773</v>
+        <v>50530</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -6667,7 +6687,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6682,7 +6702,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6691,7 +6711,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>77450</v>
+        <v>36925</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -6699,7 +6719,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1018</v>
+        <v>1276</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6714,7 +6734,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6723,7 +6743,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>155500</v>
+        <v>478614</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -6731,7 +6751,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3300</v>
+        <v>3883</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6746,7 +6766,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6755,7 +6775,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>33446</v>
+        <v>39221</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -6763,7 +6783,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>228</v>
+        <v>-261</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6778,7 +6798,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6787,7 +6807,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1563386</v>
+        <v>91232</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -6795,7 +6815,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17032</v>
+        <v>641</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6810,7 +6830,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6819,7 +6839,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>56904</v>
+        <v>65690</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6827,7 +6847,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6842,7 +6862,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6851,7 +6871,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>105732</v>
+        <v>47067</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6859,7 +6879,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>362</v>
+        <v>-44</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6874,7 +6894,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6883,7 +6903,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9081</v>
+        <v>72773</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -6891,7 +6911,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>260</v>
+        <v>471</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6906,295 +6926,295 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>02-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>172220</v>
+        <v>77450</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22744</v>
+        <v>1018</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>03-2023</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>177958</v>
+        <v>155500</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5738</v>
+        <v>3300</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0.1666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>66090</v>
+        <v>33446</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-52904</v>
+        <v>228</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3925</v>
+        <v>1563386</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1686</v>
+        <v>17032</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>172820</v>
+        <v>56904</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4895</v>
+        <v>668</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>117840</v>
+        <v>105732</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>32630</v>
+        <v>362</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>63035</v>
+        <v>9081</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6131</v>
+        <v>260</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>02-2023</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>370980</v>
+        <v>172220</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-107634</v>
+        <v>22744</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>03-2023</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3855</v>
+        <v>177958</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-2901</v>
+        <v>5738</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7203,7 +7223,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>110060</v>
+        <v>84170</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -7211,7 +7231,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>38930</v>
+        <v>18512</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7226,7 +7246,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7235,7 +7255,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>31955</v>
+        <v>65410</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -7243,7 +7263,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-18575</v>
+        <v>-53584</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7258,7 +7278,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7267,7 +7287,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>81385</v>
+        <v>3945</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -7275,7 +7295,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-9847</v>
+        <v>1706</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7290,7 +7310,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7299,7 +7319,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>82725</v>
+        <v>3845</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -7307,7 +7327,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17067</v>
+        <v>-2911</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7322,7 +7342,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7331,7 +7351,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1200435</v>
+        <v>63470</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -7339,7 +7359,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>178768</v>
+        <v>6566</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7354,103 +7374,103 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>211305</v>
+        <v>110960</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50293</v>
+        <v>39830</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>67055</v>
+        <v>29590</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19988</v>
+        <v>-20940</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>32025</v>
+        <v>83020</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11070</v>
+        <v>-8212</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7459,7 +7479,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>12325</v>
+        <v>211305</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7467,7 +7487,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3244</v>
+        <v>50293</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7482,7 +7502,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7491,7 +7511,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>66975</v>
+        <v>36135</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7499,7 +7519,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-10475</v>
+        <v>-29555</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7514,7 +7534,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7523,7 +7543,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>45070</v>
+        <v>67830</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7531,7 +7551,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-27703</v>
+        <v>20763</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7546,7 +7566,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7555,7 +7575,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>35930</v>
+        <v>32315</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7563,7 +7583,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-3291</v>
+        <v>11360</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7578,7 +7598,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7587,7 +7607,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>248360</v>
+        <v>173540</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7595,7 +7615,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>92860</v>
+        <v>5615</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7610,7 +7630,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7619,7 +7639,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>75010</v>
+        <v>120100</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7627,7 +7647,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>38085</v>
+        <v>34890</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7642,39 +7662,39 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>970120</v>
+        <v>67155</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-593266</v>
+        <v>-10295</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H195" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7683,7 +7703,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>125940</v>
+        <v>12515</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7691,7 +7711,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20208</v>
+        <v>3434</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7706,7 +7726,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7715,7 +7735,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>62455</v>
+        <v>1212835</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7723,7 +7743,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29009</v>
+        <v>191168</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7732,6 +7752,262 @@
         <v>0.25</v>
       </c>
       <c r="H197" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>380375</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>-98239</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>36685</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>-2536</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>250035</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>94535</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>76215</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>39290</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>46275</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>-26498</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>981335</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>-582051</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>61245</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>27799</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>10-2024</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>127015</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>21283</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H205" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7950,7 +7950,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>61245</v>
+        <v>127015</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27799</v>
+        <v>21283</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>127015</v>
+        <v>61245</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21283</v>
+        <v>27799</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7950,7 +7950,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>127015</v>
+        <v>61245</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21283</v>
+        <v>27799</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>61245</v>
+        <v>127015</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27799</v>
+        <v>21283</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -767,10 +767,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15" t="n">
-        <v>139515772.2666667</v>
+        <v>123955745.3333333</v>
       </c>
       <c r="F15" t="n">
-        <v>148758089.0666667</v>
+        <v>133198062.1333333</v>
       </c>
     </row>
     <row r="16">
@@ -1029,10 +1029,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27" t="n">
-        <v>177618074.1</v>
+        <v>171248426.9166667</v>
       </c>
       <c r="F27" t="n">
-        <v>191133110.8666667</v>
+        <v>184763463.6833333</v>
       </c>
     </row>
     <row r="28">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7973,10 +7973,10 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="205">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H205" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84170</v>
+        <v>85465</v>
       </c>
       <c r="C3" t="n">
         <v>236045801.2662157</v>
@@ -505,10 +505,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3" t="n">
-        <v>353887568.25</v>
+        <v>342872114.35</v>
       </c>
       <c r="F3" t="n">
-        <v>364066865.5833333</v>
+        <v>353051411.6833333</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1212835</v>
+        <v>1222695</v>
       </c>
       <c r="C7" t="n">
         <v>2557722417.306166</v>
@@ -593,10 +593,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7" t="n">
-        <v>7036257688.766666</v>
+        <v>6833188962.633333</v>
       </c>
       <c r="F7" t="n">
-        <v>8729748624.433332</v>
+        <v>8526679898.3</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211305</v>
+        <v>216955</v>
       </c>
       <c r="C9" t="n">
         <v>214928421.787952</v>
@@ -637,10 +637,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9" t="n">
-        <v>246298244.825</v>
+        <v>237990558.5166667</v>
       </c>
       <c r="F9" t="n">
-        <v>269695208.9583334</v>
+        <v>261387522.65</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67874</v>
+        <v>68664</v>
       </c>
       <c r="C11" t="n">
         <v>64444019.877958</v>
@@ -679,10 +679,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E11" t="n">
-        <v>490558308.6</v>
+        <v>465336600.8000001</v>
       </c>
       <c r="F11" t="n">
-        <v>429139274.6</v>
+        <v>403917566.8</v>
       </c>
     </row>
     <row r="12">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>250035</v>
+        <v>251835</v>
       </c>
       <c r="C13" t="n">
         <v>1363977699.246861</v>
@@ -723,10 +723,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E13" t="n">
-        <v>1555671499.541667</v>
+        <v>1432326507.75</v>
       </c>
       <c r="F13" t="n">
-        <v>1462621887.875</v>
+        <v>1339276896.083333</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61245</v>
+        <v>61610</v>
       </c>
       <c r="C15" t="n">
         <v>1285570.261920408</v>
@@ -767,10 +767,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15" t="n">
-        <v>123955745.3333333</v>
+        <v>124364350.6666667</v>
       </c>
       <c r="F15" t="n">
-        <v>133198062.1333333</v>
+        <v>133606667.4666667</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3945</v>
+        <v>3950</v>
       </c>
       <c r="C17" t="n">
         <v>4425964.153104383</v>
@@ -811,10 +811,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17" t="n">
-        <v>11414908.8</v>
+        <v>10572358.4</v>
       </c>
       <c r="F17" t="n">
-        <v>9323025.066666666</v>
+        <v>8480474.666666666</v>
       </c>
     </row>
     <row r="18">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>178846</v>
+        <v>179176</v>
       </c>
       <c r="C18" t="n">
         <v>509229587.0979519</v>
@@ -833,10 +833,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18" t="n">
-        <v>1067075938.35</v>
+        <v>1068590429.35</v>
       </c>
       <c r="F18" t="n">
-        <v>1339353883.95</v>
+        <v>1340868374.95</v>
       </c>
     </row>
     <row r="19">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76215</v>
+        <v>77005</v>
       </c>
       <c r="C23" t="n">
         <v>59807122.7730689</v>
@@ -941,10 +941,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E23" t="n">
-        <v>733644440</v>
+        <v>738663310</v>
       </c>
       <c r="F23" t="n">
-        <v>612920498.6666666</v>
+        <v>617939368.6666666</v>
       </c>
     </row>
     <row r="24">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63470</v>
+        <v>64125</v>
       </c>
       <c r="C26" t="n">
         <v>10317571.00736776</v>
@@ -1007,10 +1007,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E26" t="n">
-        <v>159642721.3333333</v>
+        <v>157593596.4166667</v>
       </c>
       <c r="F26" t="n">
-        <v>179358148.75</v>
+        <v>177309023.8333333</v>
       </c>
     </row>
     <row r="27">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127015</v>
+        <v>128615</v>
       </c>
       <c r="C27" t="n">
         <v>1156544.302590834</v>
@@ -1029,10 +1029,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27" t="n">
-        <v>171248426.9166667</v>
+        <v>172206133.5833333</v>
       </c>
       <c r="F27" t="n">
-        <v>184763463.6833333</v>
+        <v>185721170.35</v>
       </c>
     </row>
     <row r="28">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12515</v>
+        <v>12670</v>
       </c>
       <c r="C28" t="n">
         <v>2206270.768831674</v>
@@ -1051,10 +1051,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28" t="n">
-        <v>2981660.033333333</v>
+        <v>2819264.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3037386.166666666</v>
+        <v>2874990.233333332</v>
       </c>
     </row>
     <row r="29">
@@ -7214,167 +7214,167 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>84170</v>
+        <v>110960</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>18512</v>
+        <v>39830</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>65410</v>
+        <v>85465</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-53584</v>
+        <v>19807</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3945</v>
+        <v>64840</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1706</v>
+        <v>-54154</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3845</v>
+        <v>32315</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-2911</v>
+        <v>11360</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08-2024</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>63470</v>
+        <v>3950</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6566</v>
+        <v>1711</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>110960</v>
+        <v>173870</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39830</v>
+        <v>5945</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>29590</v>
+        <v>120100</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-20940</v>
+        <v>34890</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7438,7 +7438,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>83020</v>
+        <v>64125</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-8212</v>
+        <v>7221</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7470,199 +7470,199 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>211305</v>
+        <v>380375</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>50293</v>
+        <v>-98239</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H189" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>36135</v>
+        <v>981335</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-29555</v>
+        <v>-582051</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H190" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>67830</v>
+        <v>3855</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20763</v>
+        <v>-2901</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H191" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>32315</v>
+        <v>37825</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>11360</v>
+        <v>-1396</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H192" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>173540</v>
+        <v>26655</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5615</v>
+        <v>-23875</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H193" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>120100</v>
+        <v>84620</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34890</v>
+        <v>-6612</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H194" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>67155</v>
+        <v>216955</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-10295</v>
+        <v>55943</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>12515</v>
+        <v>36535</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3434</v>
+        <v>-29155</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7726,7 +7726,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1212835</v>
+        <v>68620</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>191168</v>
+        <v>21553</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7758,7 +7758,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>380375</v>
+        <v>77005</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-98239</v>
+        <v>40080</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7790,167 +7790,167 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>36685</v>
+        <v>12670</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-2536</v>
+        <v>3589</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>250035</v>
+        <v>1222695</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>94535</v>
+        <v>201028</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H200" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>76215</v>
+        <v>47395</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39290</v>
+        <v>-25378</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H201" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>46275</v>
+        <v>67530</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-26498</v>
+        <v>-9920</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H202" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10-2024</t>
+          <t>11-2024</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>981335</v>
+        <v>61610</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-582051</v>
+        <v>28164</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H203" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>61245</v>
+        <v>128615</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27799</v>
+        <v>22883</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>127015</v>
+        <v>251835</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21283</v>
+        <v>96335</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7950,7 +7950,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>128615</v>
+        <v>251835</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22883</v>
+        <v>96335</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>251835</v>
+        <v>128615</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>96335</v>
+        <v>22883</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -7502,7 +7502,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>981335</v>
+        <v>3855</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-582051</v>
+        <v>-2901</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3855</v>
+        <v>37825</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-2901</v>
+        <v>-1396</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>37825</v>
+        <v>26655</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-1396</v>
+        <v>-23875</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7598,7 +7598,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>26655</v>
+        <v>84620</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-23875</v>
+        <v>-6612</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>84620</v>
+        <v>216955</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-6612</v>
+        <v>55943</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>216955</v>
+        <v>36535</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>55943</v>
+        <v>-29155</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>36535</v>
+        <v>68620</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-29155</v>
+        <v>21553</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7726,7 +7726,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>68620</v>
+        <v>77005</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21553</v>
+        <v>40080</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7758,7 +7758,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>77005</v>
+        <v>981335</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40080</v>
+        <v>-582051</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7918,7 +7918,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>61610</v>
+        <v>251835</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28164</v>
+        <v>96335</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -7950,7 +7950,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>251835</v>
+        <v>61610</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>96335</v>
+        <v>28164</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="75">
   <si>
     <t>donor</t>
   </si>
@@ -201,6 +201,9 @@
     <t>11-2024</t>
   </si>
   <si>
+    <t>12-2024</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
   </si>
 </sst>
 </file>
@@ -889,10 +895,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>124364350.6666667</v>
+        <v>108600021.0666666</v>
       </c>
       <c r="F15">
-        <v>133606667.4666667</v>
+        <v>117842337.8666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1126,10 +1132,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>172206133.5833333</v>
+        <v>165357633.0666667</v>
       </c>
       <c r="F27">
-        <v>185721170.35</v>
+        <v>178872669.8333333</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1495,7 +1501,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1521,7 +1527,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1547,7 +1553,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1573,7 +1579,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1599,7 +1605,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1625,7 +1631,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1651,7 +1657,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1677,7 +1683,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1703,7 +1709,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1729,7 +1735,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1755,7 +1761,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1781,7 +1787,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1807,7 +1813,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1833,7 +1839,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1859,7 +1865,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1885,7 +1891,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1911,7 +1917,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1937,7 +1943,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1963,7 +1969,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -1989,7 +1995,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2015,7 +2021,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2041,7 +2047,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2067,7 +2073,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2093,7 +2099,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2119,7 +2125,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2145,7 +2151,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2171,7 +2177,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2197,7 +2203,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2223,7 +2229,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2249,7 +2255,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2275,7 +2281,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2301,7 +2307,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2327,7 +2333,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2353,7 +2359,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2379,7 +2385,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2405,7 +2411,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2431,7 +2437,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2457,7 +2463,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2483,7 +2489,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2509,7 +2515,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2535,7 +2541,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2561,7 +2567,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2587,7 +2593,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2613,7 +2619,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2639,7 +2645,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2665,7 +2671,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2691,7 +2697,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2717,7 +2723,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2743,7 +2749,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2769,7 +2775,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2795,7 +2801,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2821,7 +2827,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2847,7 +2853,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2873,7 +2879,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2899,7 +2905,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2925,7 +2931,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2951,7 +2957,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2977,7 +2983,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3003,7 +3009,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3029,7 +3035,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3055,7 +3061,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3081,7 +3087,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3107,7 +3113,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3133,7 +3139,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3159,7 +3165,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3185,7 +3191,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3211,7 +3217,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3237,7 +3243,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3263,7 +3269,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3289,7 +3295,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3315,7 +3321,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3341,7 +3347,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3367,7 +3373,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3393,7 +3399,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3419,7 +3425,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3445,7 +3451,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3471,7 +3477,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3497,7 +3503,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3523,7 +3529,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3549,7 +3555,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3575,7 +3581,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3601,7 +3607,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3627,7 +3633,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3653,7 +3659,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3679,7 +3685,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3705,7 +3711,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3731,7 +3737,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3757,7 +3763,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3783,7 +3789,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3809,7 +3815,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3835,7 +3841,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3861,7 +3867,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3887,7 +3893,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3913,7 +3919,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3939,7 +3945,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3965,7 +3971,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -3991,7 +3997,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4017,7 +4023,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4043,7 +4049,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4069,7 +4075,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4095,7 +4101,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4121,7 +4127,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4147,7 +4153,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4173,7 +4179,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4199,7 +4205,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4225,7 +4231,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4251,7 +4257,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4277,7 +4283,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4303,7 +4309,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4329,7 +4335,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4355,7 +4361,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4381,7 +4387,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4407,7 +4413,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4433,7 +4439,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4459,7 +4465,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4485,7 +4491,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4511,7 +4517,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4537,7 +4543,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4589,7 +4595,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4615,7 +4621,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4641,7 +4647,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4667,7 +4673,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4693,7 +4699,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4719,7 +4725,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4745,7 +4751,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4771,7 +4777,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4797,7 +4803,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4823,7 +4829,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4849,7 +4855,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4875,7 +4881,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4901,7 +4907,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4927,7 +4933,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4953,7 +4959,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4979,7 +4985,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5005,7 +5011,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5031,7 +5037,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5057,7 +5063,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5083,7 +5089,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5109,7 +5115,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5135,7 +5141,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5161,7 +5167,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5187,7 +5193,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5213,7 +5219,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5239,7 +5245,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5265,7 +5271,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5291,7 +5297,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5317,7 +5323,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5343,7 +5349,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5369,7 +5375,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5395,7 +5401,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5421,7 +5427,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5447,7 +5453,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5473,7 +5479,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5499,7 +5505,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5525,7 +5531,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5551,7 +5557,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5577,7 +5583,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5603,7 +5609,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5629,7 +5635,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5655,7 +5661,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5681,7 +5687,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5707,7 +5713,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5733,7 +5739,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5759,7 +5765,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5785,7 +5791,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5811,7 +5817,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5837,7 +5843,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5863,7 +5869,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5889,7 +5895,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5915,7 +5921,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5941,7 +5947,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5967,7 +5973,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -5993,7 +5999,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6019,7 +6025,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6045,7 +6051,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6071,7 +6077,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6097,7 +6103,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6123,7 +6129,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6149,7 +6155,7 @@
         <v>110960</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E181">
         <v>39830</v>
@@ -6175,7 +6181,7 @@
         <v>85465</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E182">
         <v>19807</v>
@@ -6201,7 +6207,7 @@
         <v>64840</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E183">
         <v>-54154</v>
@@ -6227,7 +6233,7 @@
         <v>32315</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E184">
         <v>11360</v>
@@ -6253,7 +6259,7 @@
         <v>3950</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E185">
         <v>1711</v>
@@ -6279,7 +6285,7 @@
         <v>173870</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E186">
         <v>5945</v>
@@ -6305,7 +6311,7 @@
         <v>120100</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E187">
         <v>34890</v>
@@ -6331,7 +6337,7 @@
         <v>64125</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E188">
         <v>7221</v>
@@ -6357,7 +6363,7 @@
         <v>380375</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E189">
         <v>-98239</v>
@@ -6383,7 +6389,7 @@
         <v>3855</v>
       </c>
       <c r="D190" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E190">
         <v>-2901</v>
@@ -6409,7 +6415,7 @@
         <v>37825</v>
       </c>
       <c r="D191" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E191">
         <v>-1396</v>
@@ -6435,7 +6441,7 @@
         <v>26655</v>
       </c>
       <c r="D192" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E192">
         <v>-23875</v>
@@ -6461,7 +6467,7 @@
         <v>84620</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E193">
         <v>-6612</v>
@@ -6487,7 +6493,7 @@
         <v>216955</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E194">
         <v>55943</v>
@@ -6513,7 +6519,7 @@
         <v>36535</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E195">
         <v>-29155</v>
@@ -6539,7 +6545,7 @@
         <v>68620</v>
       </c>
       <c r="D196" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E196">
         <v>21553</v>
@@ -6565,7 +6571,7 @@
         <v>77005</v>
       </c>
       <c r="D197" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E197">
         <v>40080</v>
@@ -6591,7 +6597,7 @@
         <v>981335</v>
       </c>
       <c r="D198" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E198">
         <v>-582051</v>
@@ -6617,7 +6623,7 @@
         <v>12670</v>
       </c>
       <c r="D199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E199">
         <v>3589</v>
@@ -6643,7 +6649,7 @@
         <v>1222695</v>
       </c>
       <c r="D200" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E200">
         <v>201028</v>
@@ -6669,7 +6675,7 @@
         <v>47395</v>
       </c>
       <c r="D201" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E201">
         <v>-25378</v>
@@ -6695,7 +6701,7 @@
         <v>67530</v>
       </c>
       <c r="D202" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E202">
         <v>-9920</v>
@@ -6721,7 +6727,7 @@
         <v>251835</v>
       </c>
       <c r="D203" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E203">
         <v>96335</v>
@@ -6741,13 +6747,13 @@
         <v>19</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C204">
         <v>61610</v>
       </c>
       <c r="D204" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E204">
         <v>28164</v>
@@ -6756,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H204">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6767,13 +6773,13 @@
         <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C205">
         <v>128615</v>
       </c>
       <c r="D205" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E205">
         <v>22883</v>
@@ -6782,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H205">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>85465</v>
+        <v>86605</v>
       </c>
       <c r="C3">
         <v>236045807</v>
@@ -658,10 +658,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3">
-        <v>342872114.35</v>
+        <v>329332492.1583333</v>
       </c>
       <c r="F3">
-        <v>353051411.6833333</v>
+        <v>339511789.4916667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1222695</v>
+        <v>1234970</v>
       </c>
       <c r="C7">
         <v>2557722344</v>
@@ -738,10 +738,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7">
-        <v>6833188962.633333</v>
+        <v>6609623617.666667</v>
       </c>
       <c r="F7">
-        <v>8526679898.3</v>
+        <v>8303114553.333333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>216955</v>
+        <v>216970</v>
       </c>
       <c r="C9">
         <v>214928416</v>
@@ -778,10 +778,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9">
-        <v>237990558.5166667</v>
+        <v>224059368.625</v>
       </c>
       <c r="F9">
-        <v>261387522.65</v>
+        <v>247456332.7583333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -806,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>68664</v>
+        <v>69389</v>
       </c>
       <c r="C11">
         <v>64444023</v>
@@ -815,10 +815,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E11">
-        <v>465336600.8000001</v>
+        <v>437770027</v>
       </c>
       <c r="F11">
-        <v>403917566.8</v>
+        <v>376350993</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -846,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>251835</v>
+        <v>253535</v>
       </c>
       <c r="C13">
         <v>1363977656</v>
@@ -855,10 +855,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E13">
-        <v>1432326507.75</v>
+        <v>1303962805.125</v>
       </c>
       <c r="F13">
-        <v>1339276896.083333</v>
+        <v>1210913193.458333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>61610</v>
+        <v>61570</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -895,10 +895,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>108600021.0666666</v>
+        <v>108577631.7333333</v>
       </c>
       <c r="F15">
-        <v>117842337.8666667</v>
+        <v>117819948.5333333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>110960</v>
+        <v>111820</v>
       </c>
       <c r="C16">
         <v>47682072</v>
@@ -915,10 +915,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E16">
-        <v>621169737.8249999</v>
+        <v>582885119.0749999</v>
       </c>
       <c r="F16">
-        <v>495684576.9749999</v>
+        <v>457399958.225</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -926,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>3950</v>
+        <v>4015</v>
       </c>
       <c r="C17">
         <v>4425964</v>
@@ -935,10 +935,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17">
-        <v>10572358.4</v>
+        <v>9814762.666666668</v>
       </c>
       <c r="F17">
-        <v>8480474.666666666</v>
+        <v>7722878.933333334</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>179176</v>
+        <v>176801</v>
       </c>
       <c r="C18">
         <v>509229589</v>
@@ -955,10 +955,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18">
-        <v>1068590429.35</v>
+        <v>1049498664.016667</v>
       </c>
       <c r="F18">
-        <v>1340868374.95</v>
+        <v>1321776609.616667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1023,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>120100</v>
+        <v>121645</v>
       </c>
       <c r="C22">
         <v>382723987</v>
@@ -1032,10 +1032,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E22">
-        <v>1050715477.333333</v>
+        <v>925800661.3333333</v>
       </c>
       <c r="F22">
-        <v>1132418645.333333</v>
+        <v>1007503829.333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1043,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>77005</v>
+        <v>77995</v>
       </c>
       <c r="C23">
         <v>59807126</v>
@@ -1052,10 +1052,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E23">
-        <v>738663310</v>
+        <v>571007640</v>
       </c>
       <c r="F23">
-        <v>617939368.6666666</v>
+        <v>450283698.6666666</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1103,7 +1103,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>64125</v>
+        <v>64680</v>
       </c>
       <c r="C26">
         <v>10317571</v>
@@ -1112,10 +1112,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E26">
-        <v>157593596.4166667</v>
+        <v>154708411.9166667</v>
       </c>
       <c r="F26">
-        <v>177309023.8333333</v>
+        <v>174423839.3333333</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1123,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>128615</v>
+        <v>130530</v>
       </c>
       <c r="C27">
         <v>1156544</v>
@@ -1132,10 +1132,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>165357633.0666667</v>
+        <v>165930760.65</v>
       </c>
       <c r="F27">
-        <v>178872669.8333333</v>
+        <v>179445797.4166667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1143,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>12670</v>
+        <v>12810</v>
       </c>
       <c r="C28">
         <v>2206271</v>
@@ -1152,10 +1152,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28">
-        <v>2819264.1</v>
+        <v>2639973.583333333</v>
       </c>
       <c r="F28">
-        <v>2874990.233333332</v>
+        <v>2695699.716666666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6146,19 +6146,19 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
       </c>
       <c r="C181">
-        <v>110960</v>
+        <v>32315</v>
       </c>
       <c r="D181" t="s">
         <v>71</v>
       </c>
       <c r="E181">
-        <v>39830</v>
+        <v>11360</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -6172,158 +6172,158 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C182">
-        <v>85465</v>
+        <v>380375</v>
       </c>
       <c r="D182" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E182">
-        <v>19807</v>
+        <v>-98239</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H182">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C183">
-        <v>64840</v>
+        <v>86605</v>
       </c>
       <c r="D183" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E183">
-        <v>-54154</v>
+        <v>20947</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H183">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C184">
-        <v>32315</v>
+        <v>64560</v>
       </c>
       <c r="D184" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E184">
-        <v>11360</v>
+        <v>-54434</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H184">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C185">
-        <v>3950</v>
+        <v>111820</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E185">
-        <v>1711</v>
+        <v>40690</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H185">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C186">
-        <v>173870</v>
+        <v>4015</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E186">
-        <v>5945</v>
+        <v>1776</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H186">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187">
-        <v>120100</v>
+        <v>3890</v>
       </c>
       <c r="D187" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E187">
-        <v>34890</v>
+        <v>-2866</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H187">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6331,337 +6331,337 @@
         <v>30</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C188">
-        <v>64125</v>
+        <v>64680</v>
       </c>
       <c r="D188" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E188">
-        <v>7221</v>
+        <v>7776</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H188">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C189">
-        <v>380375</v>
+        <v>985105</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E189">
-        <v>-98239</v>
+        <v>-578281</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H189">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C190">
-        <v>3855</v>
+        <v>26740</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E190">
-        <v>-2901</v>
+        <v>-23790</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H190">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191">
-        <v>37825</v>
+        <v>216970</v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E191">
-        <v>-1396</v>
+        <v>55958</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H191">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C192">
-        <v>26655</v>
+        <v>37045</v>
       </c>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E192">
-        <v>-23875</v>
+        <v>-28645</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H192">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193">
-        <v>84620</v>
+        <v>69345</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E193">
-        <v>-6612</v>
+        <v>22278</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H193">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C194">
-        <v>216955</v>
+        <v>171495</v>
       </c>
       <c r="D194" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E194">
-        <v>55943</v>
+        <v>3570</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H194">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C195">
-        <v>36535</v>
+        <v>121645</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E195">
-        <v>-29155</v>
+        <v>36435</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H195">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C196">
-        <v>68620</v>
+        <v>38795</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E196">
-        <v>21553</v>
+        <v>-426</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H196">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C197">
-        <v>77005</v>
+        <v>12810</v>
       </c>
       <c r="D197" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E197">
-        <v>40080</v>
+        <v>3729</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H197">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C198">
-        <v>981335</v>
+        <v>84620</v>
       </c>
       <c r="D198" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E198">
-        <v>-582051</v>
+        <v>-6612</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H198">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199">
-        <v>12670</v>
+        <v>77995</v>
       </c>
       <c r="D199" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E199">
-        <v>3589</v>
+        <v>41070</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H199">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C200">
-        <v>1222695</v>
+        <v>68000</v>
       </c>
       <c r="D200" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E200">
-        <v>201028</v>
+        <v>-9450</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H200">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6669,51 +6669,51 @@
         <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C201">
-        <v>47395</v>
+        <v>47850</v>
       </c>
       <c r="D201" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E201">
-        <v>-25378</v>
+        <v>-24923</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H201">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C202">
-        <v>67530</v>
+        <v>1234970</v>
       </c>
       <c r="D202" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E202">
-        <v>-9920</v>
+        <v>213303</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H202">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6721,25 +6721,25 @@
         <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C203">
-        <v>251835</v>
+        <v>253535</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E203">
-        <v>96335</v>
+        <v>98035</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H203">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6750,13 +6750,13 @@
         <v>61</v>
       </c>
       <c r="C204">
-        <v>61610</v>
+        <v>61570</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
       </c>
       <c r="E204">
-        <v>28164</v>
+        <v>28124</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6776,13 +6776,13 @@
         <v>61</v>
       </c>
       <c r="C205">
-        <v>128615</v>
+        <v>130530</v>
       </c>
       <c r="D205" t="s">
         <v>74</v>
       </c>
       <c r="E205">
-        <v>22883</v>
+        <v>24798</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6354,19 +6354,19 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
         <v>60</v>
       </c>
       <c r="C189">
-        <v>985105</v>
+        <v>26740</v>
       </c>
       <c r="D189" t="s">
         <v>73</v>
       </c>
       <c r="E189">
-        <v>-578281</v>
+        <v>-23790</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6380,19 +6380,19 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
         <v>60</v>
       </c>
       <c r="C190">
-        <v>26740</v>
+        <v>216970</v>
       </c>
       <c r="D190" t="s">
         <v>73</v>
       </c>
       <c r="E190">
-        <v>-23790</v>
+        <v>55958</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6406,19 +6406,19 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
         <v>60</v>
       </c>
       <c r="C191">
-        <v>216970</v>
+        <v>37045</v>
       </c>
       <c r="D191" t="s">
         <v>73</v>
       </c>
       <c r="E191">
-        <v>55958</v>
+        <v>-28645</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -6432,19 +6432,19 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B192" t="s">
         <v>60</v>
       </c>
       <c r="C192">
-        <v>37045</v>
+        <v>69345</v>
       </c>
       <c r="D192" t="s">
         <v>73</v>
       </c>
       <c r="E192">
-        <v>-28645</v>
+        <v>22278</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6458,19 +6458,19 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B193" t="s">
         <v>60</v>
       </c>
       <c r="C193">
-        <v>69345</v>
+        <v>171495</v>
       </c>
       <c r="D193" t="s">
         <v>73</v>
       </c>
       <c r="E193">
-        <v>22278</v>
+        <v>3570</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6484,19 +6484,19 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
       </c>
       <c r="C194">
-        <v>171495</v>
+        <v>121645</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="E194">
-        <v>3570</v>
+        <v>36435</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6510,45 +6510,45 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C195">
-        <v>121645</v>
+        <v>38795</v>
       </c>
       <c r="D195" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E195">
-        <v>36435</v>
+        <v>-426</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H195">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
         <v>61</v>
       </c>
       <c r="C196">
-        <v>38795</v>
+        <v>12810</v>
       </c>
       <c r="D196" t="s">
         <v>74</v>
       </c>
       <c r="E196">
-        <v>-426</v>
+        <v>3729</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6562,19 +6562,19 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>61</v>
       </c>
       <c r="C197">
-        <v>12810</v>
+        <v>84620</v>
       </c>
       <c r="D197" t="s">
         <v>74</v>
       </c>
       <c r="E197">
-        <v>3729</v>
+        <v>-6612</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -6588,19 +6588,19 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
         <v>61</v>
       </c>
       <c r="C198">
-        <v>84620</v>
+        <v>77995</v>
       </c>
       <c r="D198" t="s">
         <v>74</v>
       </c>
       <c r="E198">
-        <v>-6612</v>
+        <v>41070</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6614,19 +6614,19 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
         <v>61</v>
       </c>
       <c r="C199">
-        <v>77995</v>
+        <v>68000</v>
       </c>
       <c r="D199" t="s">
         <v>74</v>
       </c>
       <c r="E199">
-        <v>41070</v>
+        <v>-9450</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -6640,19 +6640,19 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B200" t="s">
         <v>61</v>
       </c>
       <c r="C200">
-        <v>68000</v>
+        <v>47850</v>
       </c>
       <c r="D200" t="s">
         <v>74</v>
       </c>
       <c r="E200">
-        <v>-9450</v>
+        <v>-24923</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -6666,19 +6666,19 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
         <v>61</v>
       </c>
       <c r="C201">
-        <v>47850</v>
+        <v>1234970</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
       </c>
       <c r="E201">
-        <v>-24923</v>
+        <v>213303</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -6692,19 +6692,19 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
         <v>61</v>
       </c>
       <c r="C202">
-        <v>1234970</v>
+        <v>253535</v>
       </c>
       <c r="D202" t="s">
         <v>74</v>
       </c>
       <c r="E202">
-        <v>213303</v>
+        <v>98035</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -6718,19 +6718,19 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B203" t="s">
         <v>61</v>
       </c>
       <c r="C203">
-        <v>253535</v>
+        <v>985105</v>
       </c>
       <c r="D203" t="s">
         <v>74</v>
       </c>
       <c r="E203">
-        <v>98035</v>
+        <v>-578281</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6744,19 +6744,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
         <v>61</v>
       </c>
       <c r="C204">
-        <v>61570</v>
+        <v>130530</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
       </c>
       <c r="E204">
-        <v>28124</v>
+        <v>24798</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6770,19 +6770,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B205" t="s">
         <v>61</v>
       </c>
       <c r="C205">
-        <v>130530</v>
+        <v>61570</v>
       </c>
       <c r="D205" t="s">
         <v>74</v>
       </c>
       <c r="E205">
-        <v>24798</v>
+        <v>28124</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6744,19 +6744,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B204" t="s">
         <v>61</v>
       </c>
       <c r="C204">
-        <v>130530</v>
+        <v>61570</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
       </c>
       <c r="E204">
-        <v>24798</v>
+        <v>28124</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6770,19 +6770,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>61</v>
       </c>
       <c r="C205">
-        <v>61570</v>
+        <v>130530</v>
       </c>
       <c r="D205" t="s">
         <v>74</v>
       </c>
       <c r="E205">
-        <v>28124</v>
+        <v>24798</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="77">
   <si>
     <t>donor</t>
   </si>
@@ -204,6 +204,9 @@
     <t>12-2024</t>
   </si>
   <si>
+    <t>01-2025</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
   </si>
   <si>
     <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
   </si>
 </sst>
 </file>
@@ -895,10 +901,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>108577631.7333333</v>
+        <v>281738974.6666667</v>
       </c>
       <c r="F15">
-        <v>117819948.5333333</v>
+        <v>290981291.4666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1132,10 +1138,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>165930760.65</v>
+        <v>247568669.75</v>
       </c>
       <c r="F27">
-        <v>179445797.4166667</v>
+        <v>261083706.5166667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1501,7 +1507,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1527,7 +1533,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1553,7 +1559,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1579,7 +1585,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1605,7 +1611,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1631,7 +1637,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1657,7 +1663,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1683,7 +1689,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1709,7 +1715,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1735,7 +1741,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1761,7 +1767,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1787,7 +1793,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1813,7 +1819,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1839,7 +1845,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1865,7 +1871,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1891,7 +1897,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1917,7 +1923,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1943,7 +1949,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1969,7 +1975,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -1995,7 +2001,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2021,7 +2027,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2047,7 +2053,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2073,7 +2079,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2099,7 +2105,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2125,7 +2131,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2151,7 +2157,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2177,7 +2183,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2203,7 +2209,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2229,7 +2235,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2255,7 +2261,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2281,7 +2287,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2307,7 +2313,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2333,7 +2339,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2359,7 +2365,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2385,7 +2391,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2411,7 +2417,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2437,7 +2443,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2463,7 +2469,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2489,7 +2495,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2515,7 +2521,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2541,7 +2547,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2567,7 +2573,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2593,7 +2599,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2619,7 +2625,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2645,7 +2651,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2671,7 +2677,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2697,7 +2703,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2723,7 +2729,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2749,7 +2755,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2775,7 +2781,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2801,7 +2807,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2827,7 +2833,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2853,7 +2859,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2879,7 +2885,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2905,7 +2911,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2931,7 +2937,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2957,7 +2963,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2983,7 +2989,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3009,7 +3015,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3035,7 +3041,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3061,7 +3067,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3087,7 +3093,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3113,7 +3119,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3139,7 +3145,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3165,7 +3171,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3191,7 +3197,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3217,7 +3223,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3243,7 +3249,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3269,7 +3275,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3295,7 +3301,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3321,7 +3327,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3347,7 +3353,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3373,7 +3379,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3399,7 +3405,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3425,7 +3431,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3451,7 +3457,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3477,7 +3483,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3503,7 +3509,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3529,7 +3535,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3555,7 +3561,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3581,7 +3587,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3607,7 +3613,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3633,7 +3639,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3659,7 +3665,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3685,7 +3691,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3711,7 +3717,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3737,7 +3743,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3763,7 +3769,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3789,7 +3795,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3815,7 +3821,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3841,7 +3847,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3867,7 +3873,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3893,7 +3899,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3919,7 +3925,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3945,7 +3951,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3971,7 +3977,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -3997,7 +4003,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4023,7 +4029,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4049,7 +4055,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4075,7 +4081,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4101,7 +4107,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4127,7 +4133,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4153,7 +4159,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4179,7 +4185,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4205,7 +4211,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4231,7 +4237,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4257,7 +4263,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4283,7 +4289,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4309,7 +4315,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4335,7 +4341,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4361,7 +4367,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4387,7 +4393,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4413,7 +4419,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4439,7 +4445,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4465,7 +4471,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4491,7 +4497,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4517,7 +4523,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4543,7 +4549,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4569,7 +4575,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4595,7 +4601,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4621,7 +4627,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4647,7 +4653,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4673,7 +4679,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4699,7 +4705,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4725,7 +4731,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4751,7 +4757,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4777,7 +4783,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4803,7 +4809,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4829,7 +4835,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4855,7 +4861,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4881,7 +4887,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4907,7 +4913,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4933,7 +4939,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4959,7 +4965,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4985,7 +4991,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5011,7 +5017,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5037,7 +5043,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5063,7 +5069,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5089,7 +5095,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5115,7 +5121,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5141,7 +5147,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5167,7 +5173,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5193,7 +5199,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5219,7 +5225,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5245,7 +5251,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5271,7 +5277,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5297,7 +5303,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5323,7 +5329,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5349,7 +5355,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5375,7 +5381,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5401,7 +5407,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5427,7 +5433,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5453,7 +5459,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5479,7 +5485,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5505,7 +5511,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5531,7 +5537,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5557,7 +5563,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5583,7 +5589,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5609,7 +5615,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5635,7 +5641,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5661,7 +5667,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5687,7 +5693,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5713,7 +5719,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5739,7 +5745,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5765,7 +5771,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5791,7 +5797,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5817,7 +5823,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5843,7 +5849,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5869,7 +5875,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5895,7 +5901,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5921,7 +5927,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5947,7 +5953,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5973,7 +5979,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -5999,7 +6005,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6025,7 +6031,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6051,7 +6057,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6077,7 +6083,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6103,7 +6109,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6129,7 +6135,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6155,7 +6161,7 @@
         <v>32315</v>
       </c>
       <c r="D181" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E181">
         <v>11360</v>
@@ -6181,7 +6187,7 @@
         <v>380375</v>
       </c>
       <c r="D182" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E182">
         <v>-98239</v>
@@ -6207,7 +6213,7 @@
         <v>86605</v>
       </c>
       <c r="D183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E183">
         <v>20947</v>
@@ -6233,7 +6239,7 @@
         <v>64560</v>
       </c>
       <c r="D184" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E184">
         <v>-54434</v>
@@ -6259,7 +6265,7 @@
         <v>111820</v>
       </c>
       <c r="D185" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E185">
         <v>40690</v>
@@ -6285,7 +6291,7 @@
         <v>4015</v>
       </c>
       <c r="D186" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E186">
         <v>1776</v>
@@ -6311,7 +6317,7 @@
         <v>3890</v>
       </c>
       <c r="D187" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E187">
         <v>-2866</v>
@@ -6337,7 +6343,7 @@
         <v>64680</v>
       </c>
       <c r="D188" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E188">
         <v>7776</v>
@@ -6363,7 +6369,7 @@
         <v>26740</v>
       </c>
       <c r="D189" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E189">
         <v>-23790</v>
@@ -6389,7 +6395,7 @@
         <v>216970</v>
       </c>
       <c r="D190" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E190">
         <v>55958</v>
@@ -6415,7 +6421,7 @@
         <v>37045</v>
       </c>
       <c r="D191" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E191">
         <v>-28645</v>
@@ -6441,7 +6447,7 @@
         <v>69345</v>
       </c>
       <c r="D192" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E192">
         <v>22278</v>
@@ -6467,7 +6473,7 @@
         <v>171495</v>
       </c>
       <c r="D193" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E193">
         <v>3570</v>
@@ -6493,7 +6499,7 @@
         <v>121645</v>
       </c>
       <c r="D194" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E194">
         <v>36435</v>
@@ -6519,7 +6525,7 @@
         <v>38795</v>
       </c>
       <c r="D195" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E195">
         <v>-426</v>
@@ -6545,7 +6551,7 @@
         <v>12810</v>
       </c>
       <c r="D196" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E196">
         <v>3729</v>
@@ -6571,7 +6577,7 @@
         <v>84620</v>
       </c>
       <c r="D197" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E197">
         <v>-6612</v>
@@ -6597,7 +6603,7 @@
         <v>77995</v>
       </c>
       <c r="D198" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E198">
         <v>41070</v>
@@ -6623,7 +6629,7 @@
         <v>68000</v>
       </c>
       <c r="D199" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E199">
         <v>-9450</v>
@@ -6649,7 +6655,7 @@
         <v>47850</v>
       </c>
       <c r="D200" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E200">
         <v>-24923</v>
@@ -6675,7 +6681,7 @@
         <v>1234970</v>
       </c>
       <c r="D201" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E201">
         <v>213303</v>
@@ -6701,7 +6707,7 @@
         <v>253535</v>
       </c>
       <c r="D202" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E202">
         <v>98035</v>
@@ -6727,7 +6733,7 @@
         <v>985105</v>
       </c>
       <c r="D203" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E203">
         <v>-578281</v>
@@ -6744,54 +6750,54 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C204">
-        <v>61570</v>
+        <v>130530</v>
       </c>
       <c r="D204" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E204">
-        <v>28124</v>
+        <v>24798</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C205">
-        <v>130530</v>
+        <v>61570</v>
       </c>
       <c r="D205" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E205">
-        <v>24798</v>
+        <v>28124</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6750,19 +6750,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B204" t="s">
         <v>62</v>
       </c>
       <c r="C204">
-        <v>130530</v>
+        <v>61570</v>
       </c>
       <c r="D204" t="s">
         <v>76</v>
       </c>
       <c r="E204">
-        <v>24798</v>
+        <v>28124</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6776,19 +6776,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>62</v>
       </c>
       <c r="C205">
-        <v>61570</v>
+        <v>130530</v>
       </c>
       <c r="D205" t="s">
         <v>76</v>
       </c>
       <c r="E205">
-        <v>28124</v>
+        <v>24798</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="73">
   <si>
     <t>donor</t>
   </si>
@@ -192,12 +192,6 @@
     <t>03-2023</t>
   </si>
   <si>
-    <t>09-2024</t>
-  </si>
-  <si>
-    <t>10-2024</t>
-  </si>
-  <si>
     <t>11-2024</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
   </si>
   <si>
     <t>2023-01</t>
-  </si>
-  <si>
-    <t>2024-09</t>
-  </si>
-  <si>
-    <t>2024-10</t>
   </si>
   <si>
     <t>2024-11</t>
@@ -655,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>86605</v>
+        <v>87365</v>
       </c>
       <c r="C3">
         <v>236045807</v>
@@ -664,10 +652,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3">
-        <v>329332492.1583333</v>
+        <v>313281095.3</v>
       </c>
       <c r="F3">
-        <v>339511789.4916667</v>
+        <v>323460392.6333333</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -735,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1234970</v>
+        <v>1243445</v>
       </c>
       <c r="C7">
         <v>2557722344</v>
@@ -744,10 +732,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7">
-        <v>6609623617.666667</v>
+        <v>9509155503.966667</v>
       </c>
       <c r="F7">
-        <v>8303114553.333333</v>
+        <v>11202646439.63333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -755,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>39482</v>
+        <v>40071</v>
       </c>
       <c r="C8">
         <v>60697747</v>
@@ -764,10 +752,10 @@
         <v>455872451.1249999</v>
       </c>
       <c r="E8">
-        <v>321468905.875</v>
+        <v>333065432.375</v>
       </c>
       <c r="F8">
-        <v>350486473.4583333</v>
+        <v>362082999.9583333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -775,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>216970</v>
+        <v>216975</v>
       </c>
       <c r="C9">
         <v>214928416</v>
@@ -784,10 +772,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9">
-        <v>224059368.625</v>
+        <v>210118212.4</v>
       </c>
       <c r="F9">
-        <v>247456332.7583333</v>
+        <v>233515176.5333333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -872,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>32315</v>
+        <v>33105</v>
       </c>
       <c r="C14">
         <v>34977980</v>
@@ -881,10 +869,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E14">
-        <v>13608771.86666667</v>
+        <v>10763586.53333333</v>
       </c>
       <c r="F14">
-        <v>15226314</v>
+        <v>12381128.66666666</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -892,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>61570</v>
+        <v>61470</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -901,10 +889,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>281738974.6666667</v>
+        <v>281067294.6666667</v>
       </c>
       <c r="F15">
-        <v>290981291.4666667</v>
+        <v>290309611.4666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -912,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>111820</v>
+        <v>112680</v>
       </c>
       <c r="C16">
         <v>47682072</v>
@@ -921,10 +909,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E16">
-        <v>582885119.0749999</v>
+        <v>542832727.3249999</v>
       </c>
       <c r="F16">
-        <v>457399958.225</v>
+        <v>417347566.4749999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -932,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>4015</v>
+        <v>4005</v>
       </c>
       <c r="C17">
         <v>4425964</v>
@@ -941,10 +929,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17">
-        <v>9814762.666666668</v>
+        <v>8917241.6</v>
       </c>
       <c r="F17">
-        <v>7722878.933333334</v>
+        <v>6825357.866666665</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -952,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>176801</v>
+        <v>176851</v>
       </c>
       <c r="C18">
         <v>509229589</v>
@@ -961,10 +949,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18">
-        <v>1049498664.016667</v>
+        <v>1045460021.35</v>
       </c>
       <c r="F18">
-        <v>1321776609.616667</v>
+        <v>1317737966.95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1049,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>77995</v>
+        <v>78850</v>
       </c>
       <c r="C23">
         <v>59807126</v>
@@ -1058,10 +1046,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E23">
-        <v>571007640</v>
+        <v>1549433170</v>
       </c>
       <c r="F23">
-        <v>450283698.6666666</v>
+        <v>1428709228.666667</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1109,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>64680</v>
+        <v>65245</v>
       </c>
       <c r="C26">
         <v>10317571</v>
@@ -1118,10 +1106,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E26">
-        <v>154708411.9166667</v>
+        <v>151257199.5</v>
       </c>
       <c r="F26">
-        <v>174423839.3333333</v>
+        <v>170972626.9166667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1129,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>130530</v>
+        <v>132120</v>
       </c>
       <c r="C27">
         <v>1156544</v>
@@ -1138,10 +1126,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>247568669.75</v>
+        <v>253278995.75</v>
       </c>
       <c r="F27">
-        <v>261083706.5166667</v>
+        <v>266794032.5166667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1149,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>12810</v>
+        <v>12915</v>
       </c>
       <c r="C28">
         <v>2206271</v>
@@ -1158,10 +1146,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28">
-        <v>2639973.583333333</v>
+        <v>4837776.933333333</v>
       </c>
       <c r="F28">
-        <v>2695699.716666666</v>
+        <v>4893503.066666666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1507,7 +1495,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1533,7 +1521,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1559,7 +1547,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1585,7 +1573,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1611,7 +1599,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1637,7 +1625,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1663,7 +1651,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1689,7 +1677,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1715,7 +1703,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1741,7 +1729,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1767,7 +1755,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1793,7 +1781,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1819,7 +1807,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1845,7 +1833,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1871,7 +1859,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1897,7 +1885,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1923,7 +1911,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1949,7 +1937,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1975,7 +1963,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -2001,7 +1989,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2027,7 +2015,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2053,7 +2041,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2079,7 +2067,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2105,7 +2093,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2131,7 +2119,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2157,7 +2145,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2183,7 +2171,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2209,7 +2197,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2235,7 +2223,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2261,7 +2249,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2287,7 +2275,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2313,7 +2301,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2339,7 +2327,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2365,7 +2353,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2391,7 +2379,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2417,7 +2405,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2443,7 +2431,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2469,7 +2457,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2495,7 +2483,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2521,7 +2509,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2547,7 +2535,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2573,7 +2561,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2599,7 +2587,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2625,7 +2613,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2651,7 +2639,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2677,7 +2665,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2703,7 +2691,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2729,7 +2717,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2755,7 +2743,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2781,7 +2769,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2807,7 +2795,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2833,7 +2821,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2859,7 +2847,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2885,7 +2873,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2911,7 +2899,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2937,7 +2925,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2963,7 +2951,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2989,7 +2977,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3015,7 +3003,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3041,7 +3029,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3067,7 +3055,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3093,7 +3081,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3119,7 +3107,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3145,7 +3133,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3171,7 +3159,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3197,7 +3185,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3223,7 +3211,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3249,7 +3237,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3275,7 +3263,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3301,7 +3289,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3327,7 +3315,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3353,7 +3341,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3379,7 +3367,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3405,7 +3393,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3431,7 +3419,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3457,7 +3445,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3483,7 +3471,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3509,7 +3497,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3535,7 +3523,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3561,7 +3549,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3587,7 +3575,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3613,7 +3601,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3639,7 +3627,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3665,7 +3653,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3691,7 +3679,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3717,7 +3705,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3743,7 +3731,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3769,7 +3757,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3795,7 +3783,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3821,7 +3809,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3847,7 +3835,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3873,7 +3861,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3899,7 +3887,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3925,7 +3913,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3951,7 +3939,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3977,7 +3965,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -4003,7 +3991,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4029,7 +4017,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4055,7 +4043,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4081,7 +4069,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4107,7 +4095,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4133,7 +4121,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4159,7 +4147,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4185,7 +4173,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4211,7 +4199,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4237,7 +4225,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4263,7 +4251,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4289,7 +4277,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4315,7 +4303,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4341,7 +4329,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4367,7 +4355,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4393,7 +4381,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4419,7 +4407,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4445,7 +4433,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4471,7 +4459,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4497,7 +4485,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4523,7 +4511,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4549,7 +4537,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4575,7 +4563,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4601,7 +4589,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4627,7 +4615,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4653,7 +4641,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4679,7 +4667,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4705,7 +4693,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4731,7 +4719,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4757,7 +4745,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4783,7 +4771,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4809,7 +4797,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4835,7 +4823,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4861,7 +4849,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4887,7 +4875,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4913,7 +4901,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4939,7 +4927,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4965,7 +4953,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4991,7 +4979,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5017,7 +5005,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5043,7 +5031,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5069,7 +5057,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5095,7 +5083,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5121,7 +5109,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5147,7 +5135,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5173,7 +5161,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5199,7 +5187,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5225,7 +5213,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5251,7 +5239,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5277,7 +5265,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5303,7 +5291,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5329,7 +5317,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5355,7 +5343,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5381,7 +5369,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5407,7 +5395,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5433,7 +5421,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5459,7 +5447,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5485,7 +5473,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5511,7 +5499,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5537,7 +5525,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5563,7 +5551,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5589,7 +5577,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5615,7 +5603,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5641,7 +5629,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5667,7 +5655,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5693,7 +5681,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5719,7 +5707,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5745,7 +5733,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5771,7 +5759,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5797,7 +5785,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5823,7 +5811,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5849,7 +5837,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5875,7 +5863,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5901,7 +5889,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5927,7 +5915,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5953,7 +5941,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5979,7 +5967,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -6005,7 +5993,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6031,7 +6019,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6057,7 +6045,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6083,7 +6071,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6109,7 +6097,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6135,7 +6123,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6152,184 +6140,184 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
       </c>
       <c r="C181">
-        <v>32315</v>
+        <v>87365</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E181">
-        <v>11360</v>
+        <v>21707</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H181">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C182">
-        <v>380375</v>
+        <v>69345</v>
       </c>
       <c r="D182" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E182">
-        <v>-98239</v>
+        <v>22278</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H182">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C183">
-        <v>86605</v>
+        <v>63865</v>
       </c>
       <c r="D183" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E183">
-        <v>20947</v>
+        <v>-55129</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H183">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C184">
-        <v>64560</v>
+        <v>112680</v>
       </c>
       <c r="D184" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E184">
-        <v>-54434</v>
+        <v>41550</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H184">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C185">
-        <v>111820</v>
+        <v>4005</v>
       </c>
       <c r="D185" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E185">
-        <v>40690</v>
+        <v>1766</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H185">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186">
-        <v>4015</v>
+        <v>3875</v>
       </c>
       <c r="D186" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E186">
-        <v>1776</v>
+        <v>-2881</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H186">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C187">
-        <v>3890</v>
+        <v>121645</v>
       </c>
       <c r="D187" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E187">
-        <v>-2866</v>
+        <v>36435</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H187">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6337,198 +6325,198 @@
         <v>30</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C188">
-        <v>64680</v>
+        <v>65245</v>
       </c>
       <c r="D188" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E188">
-        <v>7776</v>
+        <v>8341</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H188">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189">
-        <v>26740</v>
+        <v>85710</v>
       </c>
       <c r="D189" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E189">
-        <v>-23790</v>
+        <v>-5522</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H189">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C190">
-        <v>216970</v>
+        <v>253535</v>
       </c>
       <c r="D190" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E190">
-        <v>55958</v>
+        <v>98035</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H190">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C191">
-        <v>37045</v>
+        <v>171545</v>
       </c>
       <c r="D191" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E191">
-        <v>-28645</v>
+        <v>3620</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H191">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C192">
-        <v>69345</v>
+        <v>389830</v>
       </c>
       <c r="D192" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E192">
-        <v>22278</v>
+        <v>-88784</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H192">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C193">
-        <v>171495</v>
+        <v>68000</v>
       </c>
       <c r="D193" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E193">
-        <v>3570</v>
+        <v>-9450</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H193">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C194">
-        <v>121645</v>
+        <v>216975</v>
       </c>
       <c r="D194" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E194">
-        <v>36435</v>
+        <v>55963</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H194">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C195">
-        <v>38795</v>
+        <v>37415</v>
       </c>
       <c r="D195" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E195">
-        <v>-426</v>
+        <v>-28275</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6542,19 +6530,19 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C196">
-        <v>12810</v>
+        <v>33105</v>
       </c>
       <c r="D196" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E196">
-        <v>3729</v>
+        <v>12150</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6568,80 +6556,80 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C197">
-        <v>84620</v>
+        <v>12915</v>
       </c>
       <c r="D197" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E197">
-        <v>-6612</v>
+        <v>3834</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C198">
-        <v>77995</v>
+        <v>26800</v>
       </c>
       <c r="D198" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E198">
-        <v>41070</v>
+        <v>-23730</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C199">
-        <v>68000</v>
+        <v>39810</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E199">
-        <v>-9450</v>
+        <v>589</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6649,120 +6637,120 @@
         <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C200">
-        <v>47850</v>
+        <v>48085</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E200">
-        <v>-24923</v>
+        <v>-24688</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C201">
-        <v>1234970</v>
+        <v>78850</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E201">
-        <v>213303</v>
+        <v>41925</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C202">
-        <v>253535</v>
+        <v>1243445</v>
       </c>
       <c r="D202" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E202">
-        <v>98035</v>
+        <v>221778</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C203">
-        <v>985105</v>
+        <v>61470</v>
       </c>
       <c r="D203" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E203">
-        <v>-578281</v>
+        <v>28024</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C204">
-        <v>61570</v>
+        <v>132120</v>
       </c>
       <c r="D204" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E204">
-        <v>28124</v>
+        <v>26388</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6776,19 +6764,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C205">
-        <v>130530</v>
+        <v>993795</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E205">
-        <v>24798</v>
+        <v>-569591</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6712,19 +6712,19 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B203" t="s">
         <v>60</v>
       </c>
       <c r="C203">
-        <v>61470</v>
+        <v>993795</v>
       </c>
       <c r="D203" t="s">
         <v>72</v>
       </c>
       <c r="E203">
-        <v>28024</v>
+        <v>-569591</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6738,19 +6738,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B204" t="s">
         <v>60</v>
       </c>
       <c r="C204">
-        <v>132120</v>
+        <v>61470</v>
       </c>
       <c r="D204" t="s">
         <v>72</v>
       </c>
       <c r="E204">
-        <v>26388</v>
+        <v>28024</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6764,19 +6764,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
       </c>
       <c r="C205">
-        <v>993795</v>
+        <v>132120</v>
       </c>
       <c r="D205" t="s">
         <v>72</v>
       </c>
       <c r="E205">
-        <v>-569591</v>
+        <v>26388</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="75">
   <si>
     <t>donor</t>
   </si>
@@ -201,6 +201,9 @@
     <t>01-2025</t>
   </si>
   <si>
+    <t>02-2025</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1132,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>253278995.75</v>
+        <v>245381507.15</v>
       </c>
       <c r="F27">
-        <v>266794032.5166667</v>
+        <v>258896543.9166667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1495,7 +1501,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1521,7 +1527,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1547,7 +1553,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1573,7 +1579,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1599,7 +1605,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1625,7 +1631,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1651,7 +1657,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1677,7 +1683,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1703,7 +1709,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1729,7 +1735,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1755,7 +1761,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1781,7 +1787,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1807,7 +1813,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1833,7 +1839,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1859,7 +1865,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1885,7 +1891,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1911,7 +1917,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1937,7 +1943,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1963,7 +1969,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -1989,7 +1995,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2015,7 +2021,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2041,7 +2047,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2067,7 +2073,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2093,7 +2099,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2119,7 +2125,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2145,7 +2151,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2171,7 +2177,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2197,7 +2203,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2223,7 +2229,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2249,7 +2255,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2275,7 +2281,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2301,7 +2307,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2327,7 +2333,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2353,7 +2359,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2379,7 +2385,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2405,7 +2411,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2431,7 +2437,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2457,7 +2463,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2483,7 +2489,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2509,7 +2515,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2535,7 +2541,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2561,7 +2567,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2587,7 +2593,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2613,7 +2619,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2639,7 +2645,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2665,7 +2671,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2691,7 +2697,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2717,7 +2723,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2743,7 +2749,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2769,7 +2775,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2795,7 +2801,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2821,7 +2827,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2847,7 +2853,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2873,7 +2879,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2899,7 +2905,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2925,7 +2931,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2951,7 +2957,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2977,7 +2983,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3003,7 +3009,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3029,7 +3035,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3055,7 +3061,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3081,7 +3087,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3107,7 +3113,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3133,7 +3139,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3159,7 +3165,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3185,7 +3191,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3211,7 +3217,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3237,7 +3243,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3263,7 +3269,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3289,7 +3295,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3315,7 +3321,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3341,7 +3347,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3367,7 +3373,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3393,7 +3399,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3419,7 +3425,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3445,7 +3451,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3471,7 +3477,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3497,7 +3503,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3523,7 +3529,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3549,7 +3555,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3575,7 +3581,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3601,7 +3607,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3627,7 +3633,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3653,7 +3659,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3679,7 +3685,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3705,7 +3711,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3731,7 +3737,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3757,7 +3763,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3783,7 +3789,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3809,7 +3815,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3835,7 +3841,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3861,7 +3867,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3887,7 +3893,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3913,7 +3919,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3939,7 +3945,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3965,7 +3971,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -3991,7 +3997,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4017,7 +4023,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4043,7 +4049,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4069,7 +4075,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4095,7 +4101,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4121,7 +4127,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4147,7 +4153,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4173,7 +4179,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4199,7 +4205,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4225,7 +4231,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4251,7 +4257,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4277,7 +4283,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4303,7 +4309,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4329,7 +4335,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4355,7 +4361,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4381,7 +4387,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4407,7 +4413,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4433,7 +4439,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4459,7 +4465,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4485,7 +4491,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4511,7 +4517,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4537,7 +4543,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4589,7 +4595,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4615,7 +4621,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4641,7 +4647,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4667,7 +4673,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4693,7 +4699,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4719,7 +4725,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4745,7 +4751,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4771,7 +4777,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4797,7 +4803,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4823,7 +4829,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4849,7 +4855,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4875,7 +4881,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4901,7 +4907,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4927,7 +4933,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4953,7 +4959,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4979,7 +4985,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5005,7 +5011,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5031,7 +5037,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5057,7 +5063,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5083,7 +5089,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5109,7 +5115,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5135,7 +5141,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5161,7 +5167,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5187,7 +5193,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5213,7 +5219,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5239,7 +5245,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5265,7 +5271,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5291,7 +5297,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5317,7 +5323,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5343,7 +5349,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5369,7 +5375,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5395,7 +5401,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5421,7 +5427,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5447,7 +5453,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5473,7 +5479,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5499,7 +5505,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5525,7 +5531,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5551,7 +5557,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5577,7 +5583,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5603,7 +5609,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5629,7 +5635,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5655,7 +5661,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5681,7 +5687,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5707,7 +5713,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5733,7 +5739,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5759,7 +5765,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5785,7 +5791,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5811,7 +5817,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5837,7 +5843,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5863,7 +5869,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5889,7 +5895,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5915,7 +5921,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5941,7 +5947,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5967,7 +5973,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -5993,7 +5999,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6019,7 +6025,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6045,7 +6051,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6071,7 +6077,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6097,7 +6103,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6123,7 +6129,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6149,7 +6155,7 @@
         <v>87365</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E181">
         <v>21707</v>
@@ -6175,7 +6181,7 @@
         <v>69345</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E182">
         <v>22278</v>
@@ -6201,7 +6207,7 @@
         <v>63865</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E183">
         <v>-55129</v>
@@ -6227,7 +6233,7 @@
         <v>112680</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E184">
         <v>41550</v>
@@ -6253,7 +6259,7 @@
         <v>4005</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E185">
         <v>1766</v>
@@ -6279,7 +6285,7 @@
         <v>3875</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E186">
         <v>-2881</v>
@@ -6305,7 +6311,7 @@
         <v>121645</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E187">
         <v>36435</v>
@@ -6331,7 +6337,7 @@
         <v>65245</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E188">
         <v>8341</v>
@@ -6357,7 +6363,7 @@
         <v>85710</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E189">
         <v>-5522</v>
@@ -6383,7 +6389,7 @@
         <v>253535</v>
       </c>
       <c r="D190" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E190">
         <v>98035</v>
@@ -6409,7 +6415,7 @@
         <v>171545</v>
       </c>
       <c r="D191" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E191">
         <v>3620</v>
@@ -6435,7 +6441,7 @@
         <v>389830</v>
       </c>
       <c r="D192" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E192">
         <v>-88784</v>
@@ -6461,7 +6467,7 @@
         <v>68000</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E193">
         <v>-9450</v>
@@ -6487,7 +6493,7 @@
         <v>216975</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E194">
         <v>55963</v>
@@ -6513,7 +6519,7 @@
         <v>37415</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E195">
         <v>-28275</v>
@@ -6539,7 +6545,7 @@
         <v>33105</v>
       </c>
       <c r="D196" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E196">
         <v>12150</v>
@@ -6565,7 +6571,7 @@
         <v>12915</v>
       </c>
       <c r="D197" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E197">
         <v>3834</v>
@@ -6591,7 +6597,7 @@
         <v>26800</v>
       </c>
       <c r="D198" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E198">
         <v>-23730</v>
@@ -6617,7 +6623,7 @@
         <v>39810</v>
       </c>
       <c r="D199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E199">
         <v>589</v>
@@ -6643,7 +6649,7 @@
         <v>48085</v>
       </c>
       <c r="D200" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E200">
         <v>-24688</v>
@@ -6669,7 +6675,7 @@
         <v>78850</v>
       </c>
       <c r="D201" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E201">
         <v>41925</v>
@@ -6695,7 +6701,7 @@
         <v>1243445</v>
       </c>
       <c r="D202" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E202">
         <v>221778</v>
@@ -6721,7 +6727,7 @@
         <v>993795</v>
       </c>
       <c r="D203" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E203">
         <v>-569591</v>
@@ -6747,7 +6753,7 @@
         <v>61470</v>
       </c>
       <c r="D204" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E204">
         <v>28024</v>
@@ -6767,13 +6773,13 @@
         <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C205">
         <v>132120</v>
       </c>
       <c r="D205" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E205">
         <v>26388</v>
@@ -6782,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -895,10 +895,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>281067294.6666667</v>
+        <v>265381327.7333333</v>
       </c>
       <c r="F15">
-        <v>290309611.4666667</v>
+        <v>274623644.5333333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6747,13 +6747,13 @@
         <v>19</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C204">
         <v>61470</v>
       </c>
       <c r="D204" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E204">
         <v>28024</v>
@@ -6762,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="205" spans="1:8">

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="73">
   <si>
     <t>donor</t>
   </si>
@@ -192,9 +192,6 @@
     <t>03-2023</t>
   </si>
   <si>
-    <t>11-2024</t>
-  </si>
-  <si>
     <t>12-2024</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
   </si>
   <si>
     <t>2023-01</t>
-  </si>
-  <si>
-    <t>2024-11</t>
   </si>
   <si>
     <t>2024-12</t>
@@ -649,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>87365</v>
+        <v>88215</v>
       </c>
       <c r="C3">
         <v>236045807</v>
@@ -658,10 +652,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3">
-        <v>313281095.3</v>
+        <v>296048172.8583333</v>
       </c>
       <c r="F3">
-        <v>323460392.6333333</v>
+        <v>306227470.1916667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -749,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>40071</v>
+        <v>39482</v>
       </c>
       <c r="C8">
         <v>60697747</v>
@@ -758,10 +752,10 @@
         <v>455872451.1249999</v>
       </c>
       <c r="E8">
-        <v>333065432.375</v>
+        <v>321468905.875</v>
       </c>
       <c r="F8">
-        <v>362082999.9583333</v>
+        <v>350486473.4583333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -769,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>216975</v>
+        <v>223915</v>
       </c>
       <c r="C9">
         <v>214928416</v>
@@ -778,10 +772,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9">
-        <v>210118212.4</v>
+        <v>384248244.2916667</v>
       </c>
       <c r="F9">
-        <v>233515176.5333333</v>
+        <v>407645208.4250001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -806,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>69389</v>
+        <v>69704</v>
       </c>
       <c r="C11">
         <v>64444023</v>
@@ -815,10 +809,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E11">
-        <v>437770027</v>
+        <v>407652897.2</v>
       </c>
       <c r="F11">
-        <v>376350993</v>
+        <v>346233863.2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -846,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>253535</v>
+        <v>254035</v>
       </c>
       <c r="C13">
         <v>1363977656</v>
@@ -855,10 +849,10 @@
         <v>1360070635.833333</v>
       </c>
       <c r="E13">
-        <v>1303962805.125</v>
+        <v>1304641009.291667</v>
       </c>
       <c r="F13">
-        <v>1210913193.458333</v>
+        <v>1211591397.625</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -866,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>33105</v>
+        <v>33130</v>
       </c>
       <c r="C14">
         <v>34977980</v>
@@ -875,10 +869,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E14">
-        <v>10763586.53333333</v>
+        <v>10765723.2</v>
       </c>
       <c r="F14">
-        <v>12381128.66666666</v>
+        <v>12383265.33333333</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -886,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>61470</v>
+        <v>58840</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -895,10 +889,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>265381327.7333333</v>
+        <v>249188242.4</v>
       </c>
       <c r="F15">
-        <v>274623644.5333333</v>
+        <v>258430559.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -906,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>112680</v>
+        <v>113720</v>
       </c>
       <c r="C16">
         <v>47682072</v>
@@ -915,10 +909,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E16">
-        <v>542832727.3249999</v>
+        <v>501197562.0749999</v>
       </c>
       <c r="F16">
-        <v>417347566.4749999</v>
+        <v>375712401.225</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -926,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>4005</v>
+        <v>5740</v>
       </c>
       <c r="C17">
         <v>4425964</v>
@@ -935,10 +929,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17">
-        <v>8917241.6</v>
+        <v>8901749.866666667</v>
       </c>
       <c r="F17">
-        <v>6825357.866666665</v>
+        <v>6809866.133333333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -946,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>176851</v>
+        <v>175696</v>
       </c>
       <c r="C18">
         <v>509229589</v>
@@ -955,10 +949,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18">
-        <v>1045460021.35</v>
+        <v>1075245011.016667</v>
       </c>
       <c r="F18">
-        <v>1317737966.95</v>
+        <v>1347522956.616667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1023,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>121645</v>
+        <v>121990</v>
       </c>
       <c r="C22">
         <v>382723987</v>
@@ -1032,10 +1026,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E22">
-        <v>925800661.3333333</v>
+        <v>858201685.3333333</v>
       </c>
       <c r="F22">
-        <v>1007503829.333333</v>
+        <v>939904853.3333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1043,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>78850</v>
+        <v>80095</v>
       </c>
       <c r="C23">
         <v>59807126</v>
@@ -1052,10 +1046,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E23">
-        <v>1549433170</v>
+        <v>1489651440</v>
       </c>
       <c r="F23">
-        <v>1428709228.666667</v>
+        <v>1368927498.666667</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1103,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>65245</v>
+        <v>65765</v>
       </c>
       <c r="C26">
         <v>10317571</v>
@@ -1112,10 +1106,10 @@
         <v>212002900.0833333</v>
       </c>
       <c r="E26">
-        <v>151257199.5</v>
+        <v>147195819.375</v>
       </c>
       <c r="F26">
-        <v>170972626.9166667</v>
+        <v>166911246.7916667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1123,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>132120</v>
+        <v>132810</v>
       </c>
       <c r="C27">
         <v>1156544</v>
@@ -1132,10 +1126,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>245381507.15</v>
+        <v>247653067.65</v>
       </c>
       <c r="F27">
-        <v>258896543.9166667</v>
+        <v>261168104.4166667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1143,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>12915</v>
+        <v>13065</v>
       </c>
       <c r="C28">
         <v>2206271</v>
@@ -1152,10 +1146,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28">
-        <v>4837776.933333333</v>
+        <v>4724245.333333332</v>
       </c>
       <c r="F28">
-        <v>4893503.066666666</v>
+        <v>4779971.466666666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1501,7 +1495,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1527,7 +1521,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1553,7 +1547,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1579,7 +1573,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1605,7 +1599,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1631,7 +1625,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1657,7 +1651,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1683,7 +1677,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1709,7 +1703,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1735,7 +1729,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1761,7 +1755,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1787,7 +1781,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1813,7 +1807,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1839,7 +1833,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1865,7 +1859,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1891,7 +1885,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1917,7 +1911,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1943,7 +1937,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1969,7 +1963,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -1995,7 +1989,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2021,7 +2015,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2047,7 +2041,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2073,7 +2067,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2099,7 +2093,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2125,7 +2119,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2151,7 +2145,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2177,7 +2171,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2203,7 +2197,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2229,7 +2223,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2255,7 +2249,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2281,7 +2275,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2307,7 +2301,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2333,7 +2327,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2359,7 +2353,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2385,7 +2379,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2411,7 +2405,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2437,7 +2431,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2463,7 +2457,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2489,7 +2483,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2515,7 +2509,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2541,7 +2535,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2567,7 +2561,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2593,7 +2587,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2619,7 +2613,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2645,7 +2639,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2671,7 +2665,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2697,7 +2691,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2723,7 +2717,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2749,7 +2743,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2775,7 +2769,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2801,7 +2795,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2827,7 +2821,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2853,7 +2847,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2879,7 +2873,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2905,7 +2899,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2931,7 +2925,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2957,7 +2951,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2983,7 +2977,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3009,7 +3003,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3035,7 +3029,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3061,7 +3055,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3087,7 +3081,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3113,7 +3107,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3139,7 +3133,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3165,7 +3159,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3191,7 +3185,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3217,7 +3211,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3243,7 +3237,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3269,7 +3263,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3295,7 +3289,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3321,7 +3315,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3347,7 +3341,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3373,7 +3367,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3399,7 +3393,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3425,7 +3419,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3451,7 +3445,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3477,7 +3471,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3503,7 +3497,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3529,7 +3523,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3555,7 +3549,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3581,7 +3575,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3607,7 +3601,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3633,7 +3627,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3659,7 +3653,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3685,7 +3679,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3711,7 +3705,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3737,7 +3731,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3763,7 +3757,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3789,7 +3783,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3815,7 +3809,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3841,7 +3835,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3867,7 +3861,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3893,7 +3887,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3919,7 +3913,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3945,7 +3939,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3971,7 +3965,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -3997,7 +3991,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4023,7 +4017,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4049,7 +4043,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4075,7 +4069,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4101,7 +4095,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4127,7 +4121,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4153,7 +4147,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4179,7 +4173,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4205,7 +4199,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4231,7 +4225,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4257,7 +4251,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4283,7 +4277,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4309,7 +4303,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4335,7 +4329,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4361,7 +4355,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4387,7 +4381,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4413,7 +4407,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4439,7 +4433,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4465,7 +4459,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4491,7 +4485,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4517,7 +4511,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4543,7 +4537,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4569,7 +4563,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4595,7 +4589,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4621,7 +4615,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4647,7 +4641,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4673,7 +4667,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4699,7 +4693,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4725,7 +4719,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4751,7 +4745,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4777,7 +4771,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4803,7 +4797,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4829,7 +4823,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4855,7 +4849,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4881,7 +4875,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4907,7 +4901,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4933,7 +4927,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4959,7 +4953,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4985,7 +4979,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5011,7 +5005,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5037,7 +5031,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5063,7 +5057,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5089,7 +5083,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5115,7 +5109,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5141,7 +5135,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5167,7 +5161,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5193,7 +5187,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5219,7 +5213,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5245,7 +5239,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5271,7 +5265,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5297,7 +5291,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5323,7 +5317,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5349,7 +5343,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5375,7 +5369,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5401,7 +5395,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5427,7 +5421,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5453,7 +5447,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5479,7 +5473,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5505,7 +5499,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5531,7 +5525,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5557,7 +5551,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5583,7 +5577,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5609,7 +5603,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5635,7 +5629,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5661,7 +5655,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5687,7 +5681,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5713,7 +5707,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5739,7 +5733,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5765,7 +5759,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5791,7 +5785,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5817,7 +5811,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5843,7 +5837,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5869,7 +5863,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5895,7 +5889,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5921,7 +5915,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5947,7 +5941,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5973,7 +5967,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -5999,7 +5993,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6025,7 +6019,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6051,7 +6045,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6077,7 +6071,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6103,7 +6097,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6129,7 +6123,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6146,227 +6140,227 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
       </c>
       <c r="C181">
-        <v>87365</v>
+        <v>254035</v>
       </c>
       <c r="D181" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E181">
-        <v>21707</v>
+        <v>98535</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H181">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B182" t="s">
         <v>58</v>
       </c>
       <c r="C182">
-        <v>69345</v>
+        <v>113720</v>
       </c>
       <c r="D182" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E182">
-        <v>22278</v>
+        <v>42590</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H182">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
         <v>58</v>
       </c>
       <c r="C183">
-        <v>63865</v>
+        <v>88215</v>
       </c>
       <c r="D183" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E183">
-        <v>-55129</v>
+        <v>22557</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H183">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B184" t="s">
         <v>58</v>
       </c>
       <c r="C184">
-        <v>112680</v>
+        <v>390000</v>
       </c>
       <c r="D184" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E184">
-        <v>41550</v>
+        <v>-88614</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H184">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
         <v>58</v>
       </c>
       <c r="C185">
-        <v>4005</v>
+        <v>69660</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E185">
-        <v>1766</v>
+        <v>22593</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H185">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B186" t="s">
         <v>58</v>
       </c>
       <c r="C186">
-        <v>3875</v>
+        <v>71185</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E186">
-        <v>-2881</v>
+        <v>-47809</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H186">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B187" t="s">
         <v>58</v>
       </c>
       <c r="C187">
-        <v>121645</v>
+        <v>33130</v>
       </c>
       <c r="D187" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E187">
-        <v>36435</v>
+        <v>12175</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H187">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B188" t="s">
         <v>58</v>
       </c>
       <c r="C188">
-        <v>65245</v>
+        <v>5740</v>
       </c>
       <c r="D188" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E188">
-        <v>8341</v>
+        <v>3501</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H188">
-        <v>0.1666666666666666</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C189">
-        <v>85710</v>
+        <v>3910</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E189">
-        <v>-5522</v>
+        <v>-2846</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6380,19 +6374,19 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C190">
-        <v>253535</v>
+        <v>121990</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E190">
-        <v>98035</v>
+        <v>36780</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6406,19 +6400,19 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C191">
-        <v>171545</v>
+        <v>65765</v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E191">
-        <v>3620</v>
+        <v>8861</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -6432,149 +6426,149 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>59</v>
       </c>
       <c r="C192">
-        <v>389830</v>
+        <v>1243445</v>
       </c>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E192">
-        <v>-88784</v>
+        <v>221778</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
         <v>59</v>
       </c>
       <c r="C193">
-        <v>68000</v>
+        <v>998070</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E193">
-        <v>-9450</v>
+        <v>-565316</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>59</v>
       </c>
       <c r="C194">
-        <v>216975</v>
+        <v>86015</v>
       </c>
       <c r="D194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E194">
-        <v>55963</v>
+        <v>-5217</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
         <v>59</v>
       </c>
       <c r="C195">
-        <v>37415</v>
+        <v>223915</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E195">
-        <v>-28275</v>
+        <v>62903</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
         <v>59</v>
       </c>
       <c r="C196">
-        <v>33105</v>
+        <v>42270</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E196">
-        <v>12150</v>
+        <v>-23420</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C197">
-        <v>12915</v>
+        <v>170390</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E197">
-        <v>3834</v>
+        <v>2465</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -6591,16 +6585,16 @@
         <v>33</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C198">
-        <v>26800</v>
+        <v>48300</v>
       </c>
       <c r="D198" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E198">
-        <v>-23730</v>
+        <v>-2230</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6614,149 +6608,149 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B199" t="s">
         <v>60</v>
       </c>
       <c r="C199">
-        <v>39810</v>
+        <v>13065</v>
       </c>
       <c r="D199" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E199">
-        <v>589</v>
+        <v>3984</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
         <v>60</v>
       </c>
       <c r="C200">
-        <v>48085</v>
+        <v>37610</v>
       </c>
       <c r="D200" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E200">
-        <v>-24688</v>
+        <v>-1611</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
         <v>60</v>
       </c>
       <c r="C201">
-        <v>78850</v>
+        <v>68725</v>
       </c>
       <c r="D201" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E201">
-        <v>41925</v>
+        <v>-8725</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B202" t="s">
         <v>60</v>
       </c>
       <c r="C202">
-        <v>1243445</v>
+        <v>80095</v>
       </c>
       <c r="D202" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E202">
-        <v>221778</v>
+        <v>43170</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B203" t="s">
         <v>60</v>
       </c>
       <c r="C203">
-        <v>993795</v>
+        <v>58840</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E203">
-        <v>-569591</v>
+        <v>25394</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C204">
-        <v>61470</v>
+        <v>46995</v>
       </c>
       <c r="D204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E204">
-        <v>28024</v>
+        <v>-25778</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6773,16 +6767,16 @@
         <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C205">
-        <v>132120</v>
+        <v>132810</v>
       </c>
       <c r="D205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E205">
-        <v>26388</v>
+        <v>27078</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>58840</v>
+        <v>62145</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -889,10 +889,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>249188242.4</v>
+        <v>269537347.7333333</v>
       </c>
       <c r="F15">
-        <v>258430559.2</v>
+        <v>278779664.5333333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6712,19 +6712,19 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B203" t="s">
         <v>60</v>
       </c>
       <c r="C203">
-        <v>58840</v>
+        <v>46995</v>
       </c>
       <c r="D203" t="s">
         <v>72</v>
       </c>
       <c r="E203">
-        <v>25394</v>
+        <v>-25778</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6738,19 +6738,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
         <v>60</v>
       </c>
       <c r="C204">
-        <v>46995</v>
+        <v>132810</v>
       </c>
       <c r="D204" t="s">
         <v>72</v>
       </c>
       <c r="E204">
-        <v>-25778</v>
+        <v>27078</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6764,19 +6764,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
       </c>
       <c r="C205">
-        <v>132810</v>
+        <v>62145</v>
       </c>
       <c r="D205" t="s">
         <v>72</v>
       </c>
       <c r="E205">
-        <v>27078</v>
+        <v>28699</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -6738,19 +6738,19 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B204" t="s">
         <v>60</v>
       </c>
       <c r="C204">
-        <v>132810</v>
+        <v>62145</v>
       </c>
       <c r="D204" t="s">
         <v>72</v>
       </c>
       <c r="E204">
-        <v>27078</v>
+        <v>28699</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -6764,19 +6764,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>60</v>
       </c>
       <c r="C205">
-        <v>62145</v>
+        <v>132810</v>
       </c>
       <c r="D205" t="s">
         <v>72</v>
       </c>
       <c r="E205">
-        <v>28699</v>
+        <v>27078</v>
       </c>
       <c r="F205">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="75">
   <si>
     <t>donor</t>
   </si>
@@ -201,6 +201,9 @@
     <t>02-2025</t>
   </si>
   <si>
+    <t>03-2025</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>88215</v>
+        <v>89265</v>
       </c>
       <c r="C3">
         <v>236045807</v>
@@ -652,10 +658,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3">
-        <v>296048172.8583333</v>
+        <v>511471683.8833333</v>
       </c>
       <c r="F3">
-        <v>306227470.1916667</v>
+        <v>521650981.2166666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -763,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>223915</v>
+        <v>235680</v>
       </c>
       <c r="C9">
         <v>214928416</v>
@@ -772,10 +778,10 @@
         <v>285235214.2083333</v>
       </c>
       <c r="E9">
-        <v>384248244.2916667</v>
+        <v>400820263.3583333</v>
       </c>
       <c r="F9">
-        <v>407645208.4250001</v>
+        <v>424217227.4916667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -800,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>69704</v>
+        <v>70299</v>
       </c>
       <c r="C11">
         <v>64444023</v>
@@ -809,10 +815,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E11">
-        <v>407652897.2</v>
+        <v>758235047</v>
       </c>
       <c r="F11">
-        <v>346233863.2</v>
+        <v>696816013</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -880,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>62145</v>
+        <v>62360</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -889,10 +895,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>269537347.7333333</v>
+        <v>270861117.0666667</v>
       </c>
       <c r="F15">
-        <v>278779664.5333333</v>
+        <v>280103433.8666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -900,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>113720</v>
+        <v>115010</v>
       </c>
       <c r="C16">
         <v>47682072</v>
@@ -909,10 +915,10 @@
         <v>419843004.175</v>
       </c>
       <c r="E16">
-        <v>501197562.0749999</v>
+        <v>953511061.8249999</v>
       </c>
       <c r="F16">
-        <v>375712401.225</v>
+        <v>828025900.9749999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -920,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>5740</v>
+        <v>5625</v>
       </c>
       <c r="C17">
         <v>4425964</v>
@@ -929,10 +935,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17">
-        <v>8901749.866666667</v>
+        <v>27457348.26666667</v>
       </c>
       <c r="F17">
-        <v>6809866.133333333</v>
+        <v>25365464.53333334</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -940,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>175696</v>
+        <v>175901</v>
       </c>
       <c r="C18">
         <v>509229589</v>
@@ -949,10 +955,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18">
-        <v>1075245011.016667</v>
+        <v>1075004069.266667</v>
       </c>
       <c r="F18">
-        <v>1347522956.616667</v>
+        <v>1347282014.866667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1017,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>121990</v>
+        <v>122895</v>
       </c>
       <c r="C22">
         <v>382723987</v>
@@ -1026,10 +1032,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E22">
-        <v>858201685.3333333</v>
+        <v>1636348501.333333</v>
       </c>
       <c r="F22">
-        <v>939904853.3333333</v>
+        <v>1718051669.333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1037,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>80095</v>
+        <v>80345</v>
       </c>
       <c r="C23">
         <v>59807126</v>
@@ -1046,10 +1052,10 @@
         <v>454303029.9999999</v>
       </c>
       <c r="E23">
-        <v>1489651440</v>
+        <v>1403525936.666667</v>
       </c>
       <c r="F23">
-        <v>1368927498.666667</v>
+        <v>1282801995.333333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1117,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>132810</v>
+        <v>132775</v>
       </c>
       <c r="C27">
         <v>1156544</v>
@@ -1126,10 +1132,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>247653067.65</v>
+        <v>239444324.3833333</v>
       </c>
       <c r="F27">
-        <v>261168104.4166667</v>
+        <v>252959361.15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1137,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>13065</v>
+        <v>13150</v>
       </c>
       <c r="C28">
         <v>2206271</v>
@@ -1146,10 +1152,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28">
-        <v>4724245.333333332</v>
+        <v>4561329.566666666</v>
       </c>
       <c r="F28">
-        <v>4779971.466666666</v>
+        <v>4617055.699999999</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1495,7 +1501,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>4000</v>
@@ -1521,7 +1527,7 @@
         <v>22253</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>22253</v>
@@ -1547,7 +1553,7 @@
         <v>35455</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>13202</v>
@@ -1573,7 +1579,7 @@
         <v>55488</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>20033</v>
@@ -1599,7 +1605,7 @@
         <v>1300</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1625,7 +1631,7 @@
         <v>15565</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>15565</v>
@@ -1651,7 +1657,7 @@
         <v>867000</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>867000</v>
@@ -1677,7 +1683,7 @@
         <v>141562</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>141562</v>
@@ -1703,7 +1709,7 @@
         <v>58869</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>3381</v>
@@ -1729,7 +1735,7 @@
         <v>71000</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>71000</v>
@@ -1755,7 +1761,7 @@
         <v>74492</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>74492</v>
@@ -1781,7 +1787,7 @@
         <v>68050</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>68050</v>
@@ -1807,7 +1813,7 @@
         <v>92156</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>92156</v>
@@ -1833,7 +1839,7 @@
         <v>26563</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>26563</v>
@@ -1859,7 +1865,7 @@
         <v>1234718</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>1234718</v>
@@ -1885,7 +1891,7 @@
         <v>47847</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>47847</v>
@@ -1911,7 +1917,7 @@
         <v>82184</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>82184</v>
@@ -1937,7 +1943,7 @@
         <v>104000</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>104000</v>
@@ -1963,7 +1969,7 @@
         <v>154710</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>13148</v>
@@ -1989,7 +1995,7 @@
         <v>52038</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>52038</v>
@@ -2015,7 +2021,7 @@
         <v>58643</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>58643</v>
@@ -2041,7 +2047,7 @@
         <v>400559</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>400559</v>
@@ -2067,7 +2073,7 @@
         <v>915000</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>48000</v>
@@ -2093,7 +2099,7 @@
         <v>32116</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>32116</v>
@@ -2119,7 +2125,7 @@
         <v>47310</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>47310</v>
@@ -2145,7 +2151,7 @@
         <v>30372</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>30372</v>
@@ -2171,7 +2177,7 @@
         <v>42764</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>42764</v>
@@ -2197,7 +2203,7 @@
         <v>1215</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1215</v>
@@ -2223,7 +2229,7 @@
         <v>60010</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>60010</v>
@@ -2249,7 +2255,7 @@
         <v>5984</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>5984</v>
@@ -2275,7 +2281,7 @@
         <v>21484</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>21484</v>
@@ -2301,7 +2307,7 @@
         <v>6894</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>6894</v>
@@ -2327,7 +2333,7 @@
         <v>42788</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>42788</v>
@@ -2353,7 +2359,7 @@
         <v>131771</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>131771</v>
@@ -2379,7 +2385,7 @@
         <v>18043</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>2478</v>
@@ -2405,7 +2411,7 @@
         <v>77154</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>18285</v>
@@ -2431,7 +2437,7 @@
         <v>49718</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>1871</v>
@@ -2457,7 +2463,7 @@
         <v>23912</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>2428</v>
@@ -2483,7 +2489,7 @@
         <v>44546</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>1758</v>
@@ -2509,7 +2515,7 @@
         <v>33396</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>1280</v>
@@ -2535,7 +2541,7 @@
         <v>36652</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>6280</v>
@@ -2561,7 +2567,7 @@
         <v>64053</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>5410</v>
@@ -2587,7 +2593,7 @@
         <v>51501</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>4191</v>
@@ -2613,7 +2619,7 @@
         <v>18745</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>702</v>
@@ -2639,7 +2645,7 @@
         <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>285</v>
@@ -2665,7 +2671,7 @@
         <v>63279</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>3269</v>
@@ -2691,7 +2697,7 @@
         <v>139116</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>7345</v>
@@ -2717,7 +2723,7 @@
         <v>101369</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>9213</v>
@@ -2743,7 +2749,7 @@
         <v>46481</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>3717</v>
@@ -2769,7 +2775,7 @@
         <v>79728</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>5236</v>
@@ -2795,7 +2801,7 @@
         <v>54414</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>2376</v>
@@ -2821,7 +2827,7 @@
         <v>423374</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>22815</v>
@@ -2847,7 +2853,7 @@
         <v>971000</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54">
         <v>56000</v>
@@ -2873,7 +2879,7 @@
         <v>120600</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>16600</v>
@@ -2899,7 +2905,7 @@
         <v>29027</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <v>2464</v>
@@ -2925,7 +2931,7 @@
         <v>159968</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <v>5258</v>
@@ -2951,7 +2957,7 @@
         <v>6263</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <v>279</v>
@@ -2977,7 +2983,7 @@
         <v>1353338</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>118620</v>
@@ -3003,7 +3009,7 @@
         <v>90612</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>8428</v>
@@ -3029,7 +3035,7 @@
         <v>7279</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>385</v>
@@ -3055,7 +3061,7 @@
         <v>82708</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>5554</v>
@@ -3081,7 +3087,7 @@
         <v>1800</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>500</v>
@@ -3107,7 +3113,7 @@
         <v>6561</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <v>298</v>
@@ -3133,7 +3139,7 @@
         <v>19413</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E65">
         <v>668</v>
@@ -3159,7 +3165,7 @@
         <v>27845</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <v>3933</v>
@@ -3185,7 +3191,7 @@
         <v>45895</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67">
         <v>1349</v>
@@ -3211,7 +3217,7 @@
         <v>997895</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>26895</v>
@@ -3237,7 +3243,7 @@
         <v>144668</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <v>5552</v>
@@ -3263,7 +3269,7 @@
         <v>38588</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E70">
         <v>1936</v>
@@ -3289,7 +3295,7 @@
         <v>56464</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <v>2050</v>
@@ -3315,7 +3321,7 @@
         <v>65098</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E72">
         <v>1045</v>
@@ -3341,7 +3347,7 @@
         <v>57257</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73">
         <v>5756</v>
@@ -3367,7 +3373,7 @@
         <v>105000</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E74">
         <v>3631</v>
@@ -3393,7 +3399,7 @@
         <v>131700</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <v>11100</v>
@@ -3419,7 +3425,7 @@
         <v>49999</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E76">
         <v>3518</v>
@@ -3445,7 +3451,7 @@
         <v>1409139</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77">
         <v>55801</v>
@@ -3471,7 +3477,7 @@
         <v>52819</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>3101</v>
@@ -3497,7 +3503,7 @@
         <v>8171</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E79">
         <v>892</v>
@@ -3523,7 +3529,7 @@
         <v>82446</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>2718</v>
@@ -3549,7 +3555,7 @@
         <v>439043</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <v>15669</v>
@@ -3575,7 +3581,7 @@
         <v>35193</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E82">
         <v>1797</v>
@@ -3601,7 +3607,7 @@
         <v>30000</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83">
         <v>973</v>
@@ -3627,7 +3633,7 @@
         <v>1640</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E84">
         <v>140</v>
@@ -3653,7 +3659,7 @@
         <v>170646</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <v>10678</v>
@@ -3679,7 +3685,7 @@
         <v>66368</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <v>3089</v>
@@ -3705,7 +3711,7 @@
         <v>95375</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E87">
         <v>4763</v>
@@ -3731,7 +3737,7 @@
         <v>79250</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E88">
         <v>11200</v>
@@ -3757,7 +3763,7 @@
         <v>108836</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E89">
         <v>26128</v>
@@ -3783,7 +3789,7 @@
         <v>52970</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <v>151</v>
@@ -3809,7 +3815,7 @@
         <v>1002668</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E91">
         <v>4773</v>
@@ -3835,7 +3841,7 @@
         <v>138400</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E92">
         <v>6700</v>
@@ -3861,7 +3867,7 @@
         <v>58537</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E93">
         <v>2073</v>
@@ -3887,7 +3893,7 @@
         <v>149213</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E94">
         <v>4545</v>
@@ -3913,7 +3919,7 @@
         <v>84756</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E95">
         <v>2310</v>
@@ -3939,7 +3945,7 @@
         <v>66812</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E96">
         <v>1714</v>
@@ -3965,7 +3971,7 @@
         <v>453103</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E97">
         <v>14060</v>
@@ -3991,7 +3997,7 @@
         <v>36449</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E98">
         <v>1256</v>
@@ -4017,7 +4023,7 @@
         <v>60980</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99">
         <v>3723</v>
@@ -4043,7 +4049,7 @@
         <v>38588</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4069,7 +4075,7 @@
         <v>19997</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E101">
         <v>584</v>
@@ -4095,7 +4101,7 @@
         <v>31290</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>1290</v>
@@ -4121,7 +4127,7 @@
         <v>55144</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <v>5145</v>
@@ -4147,7 +4153,7 @@
         <v>1766</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E104">
         <v>126</v>
@@ -4173,7 +4179,7 @@
         <v>68925</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E105">
         <v>2557</v>
@@ -4199,7 +4205,7 @@
         <v>6756</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E106">
         <v>195</v>
@@ -4225,7 +4231,7 @@
         <v>30570</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E107">
         <v>2725</v>
@@ -4251,7 +4257,7 @@
         <v>1469032</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>59893</v>
@@ -4277,7 +4283,7 @@
         <v>98770</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E109">
         <v>3395</v>
@@ -4303,7 +4309,7 @@
         <v>8308</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E110">
         <v>137</v>
@@ -4329,7 +4335,7 @@
         <v>47376</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>1481</v>
@@ -4355,7 +4361,7 @@
         <v>118994</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E112">
         <v>13994</v>
@@ -4381,7 +4387,7 @@
         <v>171546</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113">
         <v>900</v>
@@ -4407,7 +4413,7 @@
         <v>120842</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E114">
         <v>12006</v>
@@ -4433,7 +4439,7 @@
         <v>85000</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E115">
         <v>14000</v>
@@ -4459,7 +4465,7 @@
         <v>19997</v>
       </c>
       <c r="D116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4485,7 +4491,7 @@
         <v>36983</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E117">
         <v>534</v>
@@ -4511,7 +4517,7 @@
         <v>62239</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E118">
         <v>1259</v>
@@ -4537,7 +4543,7 @@
         <v>38588</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>1766</v>
       </c>
       <c r="D120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4589,7 +4595,7 @@
         <v>32102</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E121">
         <v>1532</v>
@@ -4615,7 +4621,7 @@
         <v>48360</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E122">
         <v>984</v>
@@ -4641,7 +4647,7 @@
         <v>69607</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E123">
         <v>2795</v>
@@ -4667,7 +4673,7 @@
         <v>1021667</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E124">
         <v>18999</v>
@@ -4693,7 +4699,7 @@
         <v>58511</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E125">
         <v>3367</v>
@@ -4719,7 +4725,7 @@
         <v>70667</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>1742</v>
@@ -4745,7 +4751,7 @@
         <v>85210</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E127">
         <v>5960</v>
@@ -4771,7 +4777,7 @@
         <v>155473</v>
       </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E128">
         <v>6260</v>
@@ -4797,7 +4803,7 @@
         <v>88748</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E129">
         <v>3992</v>
@@ -4823,7 +4829,7 @@
         <v>62181</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E130">
         <v>3644</v>
@@ -4849,7 +4855,7 @@
         <v>464910</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E131">
         <v>11807</v>
@@ -4875,7 +4881,7 @@
         <v>147800</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E132">
         <v>9400</v>
@@ -4901,7 +4907,7 @@
         <v>32271</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>981</v>
@@ -4927,7 +4933,7 @@
         <v>173231</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E134">
         <v>1685</v>
@@ -4953,7 +4959,7 @@
         <v>1521085</v>
       </c>
       <c r="D135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E135">
         <v>52053</v>
@@ -4979,7 +4985,7 @@
         <v>102476</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>3706</v>
@@ -5005,7 +5011,7 @@
         <v>8655</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>347</v>
@@ -5031,7 +5037,7 @@
         <v>137797</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E138">
         <v>16955</v>
@@ -5057,7 +5063,7 @@
         <v>20955</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E139">
         <v>958</v>
@@ -5083,7 +5089,7 @@
         <v>64436</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>2255</v>
@@ -5109,7 +5115,7 @@
         <v>152200</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E141">
         <v>4400</v>
@@ -5135,7 +5141,7 @@
         <v>56236</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E142">
         <v>3266</v>
@@ -5161,7 +5167,7 @@
         <v>90591</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E143">
         <v>1843</v>
@@ -5187,7 +5193,7 @@
         <v>70070</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E144">
         <v>11559</v>
@@ -5213,7 +5219,7 @@
         <v>76432</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E145">
         <v>6825</v>
@@ -5239,7 +5245,7 @@
         <v>474731</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E146">
         <v>9821</v>
@@ -5265,7 +5271,7 @@
         <v>35649</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E147">
         <v>3547</v>
@@ -5291,7 +5297,7 @@
         <v>50040</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E148">
         <v>1680</v>
@@ -5317,7 +5323,7 @@
         <v>65060</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E149">
         <v>2821</v>
@@ -5343,7 +5349,7 @@
         <v>1546354</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E150">
         <v>25269</v>
@@ -5369,7 +5375,7 @@
         <v>39482</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E151">
         <v>2499</v>
@@ -5395,7 +5401,7 @@
         <v>47111</v>
       </c>
       <c r="D152" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E152">
         <v>8523</v>
@@ -5421,7 +5427,7 @@
         <v>33218</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E153">
         <v>947</v>
@@ -5447,7 +5453,7 @@
         <v>2239</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E154">
         <v>473</v>
@@ -5473,7 +5479,7 @@
         <v>72302</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E155">
         <v>1635</v>
@@ -5499,7 +5505,7 @@
         <v>105370</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E156">
         <v>2894</v>
@@ -5525,7 +5531,7 @@
         <v>8821</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E157">
         <v>166</v>
@@ -5551,7 +5557,7 @@
         <v>167925</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E158">
         <v>-5306</v>
@@ -5577,7 +5583,7 @@
         <v>161012</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E159">
         <v>5539</v>
@@ -5603,7 +5609,7 @@
         <v>149476</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E160">
         <v>11679</v>
@@ -5629,7 +5635,7 @@
         <v>65658</v>
       </c>
       <c r="D161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E161">
         <v>1222</v>
@@ -5655,7 +5661,7 @@
         <v>2239</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5681,7 +5687,7 @@
         <v>71130</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E163">
         <v>1060</v>
@@ -5707,7 +5713,7 @@
         <v>50530</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E164">
         <v>490</v>
@@ -5733,7 +5739,7 @@
         <v>36925</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E165">
         <v>1276</v>
@@ -5759,7 +5765,7 @@
         <v>478614</v>
       </c>
       <c r="D166" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E166">
         <v>3883</v>
@@ -5785,7 +5791,7 @@
         <v>39221</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E167">
         <v>-261</v>
@@ -5811,7 +5817,7 @@
         <v>91232</v>
       </c>
       <c r="D168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E168">
         <v>641</v>
@@ -5837,7 +5843,7 @@
         <v>65690</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -5863,7 +5869,7 @@
         <v>47067</v>
       </c>
       <c r="D170" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E170">
         <v>-44</v>
@@ -5889,7 +5895,7 @@
         <v>72773</v>
       </c>
       <c r="D171" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E171">
         <v>471</v>
@@ -5915,7 +5921,7 @@
         <v>77450</v>
       </c>
       <c r="D172" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E172">
         <v>1018</v>
@@ -5941,7 +5947,7 @@
         <v>155500</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E173">
         <v>3300</v>
@@ -5967,7 +5973,7 @@
         <v>33446</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E174">
         <v>228</v>
@@ -5993,7 +5999,7 @@
         <v>1563386</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E175">
         <v>17032</v>
@@ -6019,7 +6025,7 @@
         <v>56904</v>
       </c>
       <c r="D176" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E176">
         <v>668</v>
@@ -6045,7 +6051,7 @@
         <v>105732</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E177">
         <v>362</v>
@@ -6071,7 +6077,7 @@
         <v>9081</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E178">
         <v>260</v>
@@ -6097,7 +6103,7 @@
         <v>172220</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E179">
         <v>22744</v>
@@ -6123,7 +6129,7 @@
         <v>177958</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E180">
         <v>5738</v>
@@ -6149,7 +6155,7 @@
         <v>254035</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E181">
         <v>98535</v>
@@ -6166,19 +6172,19 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B182" t="s">
         <v>58</v>
       </c>
       <c r="C182">
-        <v>113720</v>
+        <v>33130</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E182">
-        <v>42590</v>
+        <v>12175</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -6192,19 +6198,19 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B183" t="s">
         <v>58</v>
       </c>
       <c r="C183">
-        <v>88215</v>
+        <v>65765</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E183">
-        <v>22557</v>
+        <v>8861</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -6218,227 +6224,227 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C184">
-        <v>390000</v>
+        <v>1243445</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E184">
-        <v>-88614</v>
+        <v>221778</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C185">
-        <v>69660</v>
+        <v>998070</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E185">
-        <v>22593</v>
+        <v>-565316</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C186">
-        <v>71185</v>
+        <v>86015</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E186">
-        <v>-47809</v>
+        <v>-5217</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187">
-        <v>33130</v>
+        <v>89265</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E187">
-        <v>12175</v>
+        <v>23607</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C188">
-        <v>5740</v>
+        <v>70255</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E188">
-        <v>3501</v>
+        <v>23188</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C189">
-        <v>3910</v>
+        <v>70525</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E189">
-        <v>-2846</v>
+        <v>-48469</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C190">
-        <v>121990</v>
+        <v>5625</v>
       </c>
       <c r="D190" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E190">
-        <v>36780</v>
+        <v>3386</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C191">
-        <v>65765</v>
+        <v>3980</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E191">
-        <v>8861</v>
+        <v>-2776</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B192" t="s">
         <v>59</v>
       </c>
       <c r="C192">
-        <v>1243445</v>
+        <v>122895</v>
       </c>
       <c r="D192" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E192">
-        <v>221778</v>
+        <v>37685</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6452,19 +6458,19 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B193" t="s">
         <v>59</v>
       </c>
       <c r="C193">
-        <v>998070</v>
+        <v>48300</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E193">
-        <v>-565316</v>
+        <v>-2230</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6478,149 +6484,149 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C194">
-        <v>86015</v>
+        <v>68725</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E194">
-        <v>-5217</v>
+        <v>-8725</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C195">
-        <v>223915</v>
+        <v>170595</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E195">
-        <v>62903</v>
+        <v>2670</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C196">
-        <v>42270</v>
+        <v>398595</v>
       </c>
       <c r="D196" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E196">
-        <v>-23420</v>
+        <v>-80019</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C197">
-        <v>170390</v>
+        <v>115010</v>
       </c>
       <c r="D197" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E197">
-        <v>2465</v>
+        <v>43880</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C198">
-        <v>48300</v>
+        <v>235680</v>
       </c>
       <c r="D198" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E198">
-        <v>-2230</v>
+        <v>74668</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B199" t="s">
         <v>60</v>
       </c>
       <c r="C199">
-        <v>13065</v>
+        <v>62360</v>
       </c>
       <c r="D199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E199">
-        <v>3984</v>
+        <v>28914</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -6634,132 +6640,132 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C200">
-        <v>37610</v>
+        <v>13150</v>
       </c>
       <c r="D200" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E200">
-        <v>-1611</v>
+        <v>4069</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H200">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C201">
-        <v>68725</v>
+        <v>35365</v>
       </c>
       <c r="D201" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E201">
-        <v>-8725</v>
+        <v>-3856</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H201">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C202">
-        <v>80095</v>
+        <v>42550</v>
       </c>
       <c r="D202" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E202">
-        <v>43170</v>
+        <v>-23140</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H202">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C203">
-        <v>46995</v>
+        <v>80345</v>
       </c>
       <c r="D203" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E203">
-        <v>-25778</v>
+        <v>43420</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H203">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C204">
-        <v>62145</v>
+        <v>48685</v>
       </c>
       <c r="D204" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E204">
-        <v>28699</v>
+        <v>-24088</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H204">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6767,25 +6773,25 @@
         <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C205">
-        <v>132810</v>
+        <v>132775</v>
       </c>
       <c r="D205" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E205">
-        <v>27078</v>
+        <v>27043</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H205">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>33130</v>
+        <v>33360</v>
       </c>
       <c r="C14">
         <v>34977980</v>
@@ -875,10 +875,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E14">
-        <v>10765723.2</v>
+        <v>22447734.53333333</v>
       </c>
       <c r="F14">
-        <v>12383265.33333333</v>
+        <v>24065276.66666666</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6172,19 +6172,19 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B182" t="s">
         <v>58</v>
       </c>
       <c r="C182">
-        <v>33130</v>
+        <v>65765</v>
       </c>
       <c r="D182" t="s">
         <v>71</v>
       </c>
       <c r="E182">
-        <v>12175</v>
+        <v>8861</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -6198,45 +6198,45 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C183">
-        <v>65765</v>
+        <v>1243445</v>
       </c>
       <c r="D183" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E183">
-        <v>8861</v>
+        <v>221778</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B184" t="s">
         <v>59</v>
       </c>
       <c r="C184">
-        <v>1243445</v>
+        <v>998070</v>
       </c>
       <c r="D184" t="s">
         <v>72</v>
       </c>
       <c r="E184">
-        <v>221778</v>
+        <v>-565316</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -6250,19 +6250,19 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>59</v>
       </c>
       <c r="C185">
-        <v>998070</v>
+        <v>85595</v>
       </c>
       <c r="D185" t="s">
         <v>72</v>
       </c>
       <c r="E185">
-        <v>-565316</v>
+        <v>-5637</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -6276,19 +6276,19 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
         <v>59</v>
       </c>
       <c r="C186">
-        <v>86015</v>
+        <v>89265</v>
       </c>
       <c r="D186" t="s">
         <v>72</v>
       </c>
       <c r="E186">
-        <v>-5217</v>
+        <v>23607</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6302,19 +6302,19 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B187" t="s">
         <v>59</v>
       </c>
       <c r="C187">
-        <v>89265</v>
+        <v>70255</v>
       </c>
       <c r="D187" t="s">
         <v>72</v>
       </c>
       <c r="E187">
-        <v>23607</v>
+        <v>23188</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -6328,19 +6328,19 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B188" t="s">
         <v>59</v>
       </c>
       <c r="C188">
-        <v>70255</v>
+        <v>70525</v>
       </c>
       <c r="D188" t="s">
         <v>72</v>
       </c>
       <c r="E188">
-        <v>23188</v>
+        <v>-48469</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -6354,19 +6354,19 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
       </c>
       <c r="C189">
-        <v>70525</v>
+        <v>33360</v>
       </c>
       <c r="D189" t="s">
         <v>72</v>
       </c>
       <c r="E189">
-        <v>-48469</v>
+        <v>12405</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6588,19 +6588,19 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
         <v>60</v>
       </c>
       <c r="C198">
-        <v>235680</v>
+        <v>35365</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="E198">
-        <v>74668</v>
+        <v>-3856</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6614,19 +6614,19 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
         <v>60</v>
       </c>
       <c r="C199">
-        <v>62360</v>
+        <v>235680</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="E199">
-        <v>28914</v>
+        <v>74668</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -6640,45 +6640,45 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C200">
-        <v>13150</v>
+        <v>62360</v>
       </c>
       <c r="D200" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E200">
-        <v>4069</v>
+        <v>28914</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H200">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
         <v>61</v>
       </c>
       <c r="C201">
-        <v>35365</v>
+        <v>13150</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
       </c>
       <c r="E201">
-        <v>-3856</v>
+        <v>4069</v>
       </c>
       <c r="F201">
         <v>0</v>

--- a/output/ukraine_refugee_cost_estimates.xlsx
+++ b/output/ukraine_refugee_cost_estimates.xlsx
@@ -195,15 +195,15 @@
     <t>12-2024</t>
   </si>
   <si>
-    <t>01-2025</t>
-  </si>
-  <si>
     <t>02-2025</t>
   </si>
   <si>
     <t>03-2025</t>
   </si>
   <si>
+    <t>04-2025</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -234,13 +234,13 @@
     <t>2024-12</t>
   </si>
   <si>
-    <t>2025-01</t>
-  </si>
-  <si>
     <t>2025-02</t>
   </si>
   <si>
     <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>89265</v>
+        <v>90030</v>
       </c>
       <c r="C3">
         <v>236045807</v>
@@ -658,10 +658,10 @@
         <v>373581864.6166667</v>
       </c>
       <c r="E3">
-        <v>511471683.8833333</v>
+        <v>498919420.4833333</v>
       </c>
       <c r="F3">
-        <v>521650981.2166666</v>
+        <v>509098717.8166667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -738,10 +738,10 @@
         <v>8164176970.033333</v>
       </c>
       <c r="E7">
-        <v>9509155503.966667</v>
+        <v>8721111736.566668</v>
       </c>
       <c r="F7">
-        <v>11202646439.63333</v>
+        <v>10414602672.23333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -806,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>70299</v>
+        <v>71039</v>
       </c>
       <c r="C11">
         <v>64444023</v>
@@ -815,10 +815,10 @@
         <v>398549057.8</v>
       </c>
       <c r="E11">
-        <v>758235047</v>
+        <v>704788557.4000001</v>
       </c>
       <c r="F11">
-        <v>696816013</v>
+        <v>643369523.4000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>33360</v>
+        <v>33560</v>
       </c>
       <c r="C14">
         <v>34977980</v>
@@ -875,10 +875,10 @@
         <v>11766281.46666666</v>
       </c>
       <c r="E14">
-        <v>22447734.53333333</v>
+        <v>21575547.2</v>
       </c>
       <c r="F14">
-        <v>24065276.66666666</v>
+        <v>23193089.33333333</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>62360</v>
+        <v>63665</v>
       </c>
       <c r="C15">
         <v>1285570</v>
@@ -895,10 +895,10 @@
         <v>131814401.3333333</v>
       </c>
       <c r="E15">
-        <v>270861117.0666667</v>
+        <v>278896089.0666667</v>
       </c>
       <c r="F15">
-        <v>280103433.8666667</v>
+        <v>288138405.8666667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -926,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>5625</v>
+        <v>5715</v>
       </c>
       <c r="C17">
         <v>4425964</v>
@@ -935,10 +935,10 @@
         <v>6274651.733333333</v>
       </c>
       <c r="E17">
-        <v>27457348.26666667</v>
+        <v>26259987.2</v>
       </c>
       <c r="F17">
-        <v>25365464.53333334</v>
+        <v>24168103.46666666</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>175901</v>
+        <v>176306</v>
       </c>
       <c r="C18">
         <v>509229589</v>
@@ -955,10 +955,10 @@
         <v>1343755086.583333</v>
       </c>
       <c r="E18">
-        <v>1075004069.266667</v>
+        <v>1076587400.766667</v>
       </c>
       <c r="F18">
-        <v>1347282014.866667</v>
+        <v>1348865346.366667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1023,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>122895</v>
+        <v>124030</v>
       </c>
       <c r="C22">
         <v>382723987</v>
@@ -1032,10 +1032,10 @@
         <v>1125937834.666667</v>
       </c>
       <c r="E22">
-        <v>1636348501.333333</v>
+        <v>1516434773.333333</v>
       </c>
       <c r="F22">
-        <v>1718051669.333333</v>
+        <v>1598137941.333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1123,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>132775</v>
+        <v>132735</v>
       </c>
       <c r="C27">
         <v>1156544</v>
@@ -1132,10 +1132,10 @@
         <v>221216772.25</v>
       </c>
       <c r="E27">
-        <v>239444324.3833333</v>
+        <v>231243063.2</v>
       </c>
       <c r="F27">
-        <v>252959361.15</v>
+        <v>244758099.9666667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1143,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>13150</v>
+        <v>13250</v>
       </c>
       <c r="C28">
         <v>2206271</v>
@@ -1152,10 +1152,10 @@
         <v>3218600.066666666</v>
       </c>
       <c r="E28">
-        <v>4561329.566666666</v>
+        <v>4396594.383333333</v>
       </c>
       <c r="F28">
-        <v>4617055.699999999</v>
+        <v>4452320.516666666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6198,470 +6198,470 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
         <v>59</v>
       </c>
       <c r="C183">
-        <v>1243445</v>
+        <v>115010</v>
       </c>
       <c r="D183" t="s">
         <v>72</v>
       </c>
       <c r="E183">
-        <v>221778</v>
+        <v>43880</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
         <v>59</v>
       </c>
       <c r="C184">
-        <v>998070</v>
+        <v>90030</v>
       </c>
       <c r="D184" t="s">
         <v>72</v>
       </c>
       <c r="E184">
-        <v>-565316</v>
+        <v>24372</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
         <v>59</v>
       </c>
       <c r="C185">
-        <v>85595</v>
+        <v>235680</v>
       </c>
       <c r="D185" t="s">
         <v>72</v>
       </c>
       <c r="E185">
-        <v>-5637</v>
+        <v>74668</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B186" t="s">
         <v>59</v>
       </c>
       <c r="C186">
-        <v>89265</v>
+        <v>70115</v>
       </c>
       <c r="D186" t="s">
         <v>72</v>
       </c>
       <c r="E186">
-        <v>23607</v>
+        <v>-48879</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B187" t="s">
         <v>59</v>
       </c>
       <c r="C187">
-        <v>70255</v>
+        <v>33560</v>
       </c>
       <c r="D187" t="s">
         <v>72</v>
       </c>
       <c r="E187">
-        <v>23188</v>
+        <v>12605</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>59</v>
       </c>
       <c r="C188">
-        <v>70525</v>
+        <v>63665</v>
       </c>
       <c r="D188" t="s">
         <v>72</v>
       </c>
       <c r="E188">
-        <v>-48469</v>
+        <v>30219</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
       </c>
       <c r="C189">
-        <v>33360</v>
+        <v>5715</v>
       </c>
       <c r="D189" t="s">
         <v>72</v>
       </c>
       <c r="E189">
-        <v>12405</v>
+        <v>3476</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B190" t="s">
         <v>59</v>
       </c>
       <c r="C190">
-        <v>5625</v>
+        <v>4000</v>
       </c>
       <c r="D190" t="s">
         <v>72</v>
       </c>
       <c r="E190">
-        <v>3386</v>
+        <v>-2756</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191">
-        <v>3980</v>
+        <v>35650</v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E191">
-        <v>-2776</v>
+        <v>-3571</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C192">
-        <v>122895</v>
+        <v>80345</v>
       </c>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E192">
-        <v>37685</v>
+        <v>43420</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193">
-        <v>48300</v>
+        <v>171000</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E193">
-        <v>-2230</v>
+        <v>3075</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
         <v>60</v>
       </c>
       <c r="C194">
-        <v>68725</v>
+        <v>401350</v>
       </c>
       <c r="D194" t="s">
         <v>73</v>
       </c>
       <c r="E194">
-        <v>-8725</v>
+        <v>-77264</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H194">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>60</v>
       </c>
       <c r="C195">
-        <v>170595</v>
+        <v>81685</v>
       </c>
       <c r="D195" t="s">
         <v>73</v>
       </c>
       <c r="E195">
-        <v>2670</v>
+        <v>-9547</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H195">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
         <v>60</v>
       </c>
       <c r="C196">
-        <v>398595</v>
+        <v>69140</v>
       </c>
       <c r="D196" t="s">
         <v>73</v>
       </c>
       <c r="E196">
-        <v>-80019</v>
+        <v>-8310</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H196">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
         <v>60</v>
       </c>
       <c r="C197">
-        <v>115010</v>
+        <v>42730</v>
       </c>
       <c r="D197" t="s">
         <v>73</v>
       </c>
       <c r="E197">
-        <v>43880</v>
+        <v>-22960</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H197">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
         <v>60</v>
       </c>
       <c r="C198">
-        <v>35365</v>
+        <v>70995</v>
       </c>
       <c r="D198" t="s">
         <v>73</v>
       </c>
       <c r="E198">
-        <v>-3856</v>
+        <v>23928</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H198">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B199" t="s">
         <v>60</v>
       </c>
       <c r="C199">
-        <v>235680</v>
+        <v>124030</v>
       </c>
       <c r="D199" t="s">
         <v>73</v>
       </c>
       <c r="E199">
-        <v>74668</v>
+        <v>38820</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H199">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B200" t="s">
         <v>60</v>
       </c>
       <c r="C200">
-        <v>62360</v>
+        <v>31475</v>
       </c>
       <c r="D200" t="s">
         <v>73</v>
       </c>
       <c r="E200">
-        <v>28914</v>
+        <v>-19055</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H200">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6672,100 +6672,100 @@
         <v>61</v>
       </c>
       <c r="C201">
-        <v>13150</v>
+        <v>13250</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
       </c>
       <c r="E201">
-        <v>4069</v>
+        <v>4169</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H201">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
         <v>61</v>
       </c>
       <c r="C202">
-        <v>42550</v>
+        <v>1243445</v>
       </c>
       <c r="D202" t="s">
         <v>74</v>
       </c>
       <c r="E202">
-        <v>-23140</v>
+        <v>221778</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H202">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B203" t="s">
         <v>61</v>
       </c>
       <c r="C203">
-        <v>80345</v>
+        <v>43835</v>
       </c>
       <c r="D203" t="s">
         <v>74</v>
       </c>
       <c r="E203">
-        <v>43420</v>
+        <v>-28938</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H203">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B204" t="s">
         <v>61</v>
       </c>
       <c r="C204">
-        <v>48685</v>
+        <v>999710</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
       </c>
       <c r="E204">
-        <v>-24088</v>
+        <v>-563676</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H204">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6776,22 +6776,22 @@
         <v>61</v>
       </c>
       <c r="C205">
-        <v>132775</v>
+        <v>132735</v>
       </c>
       <c r="D205" t="s">
         <v>74</v>
       </c>
       <c r="E205">
-        <v>27043</v>
+        <v>27003</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H205">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
